--- a/doc/Planning.xlsx
+++ b/doc/Planning.xlsx
@@ -817,9 +817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:MX33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N28" sqref="N28"/>
+      <selection pane="topRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10738,58 +10738,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="LF1:LJ1"/>
-    <mergeCell ref="LK1:LO1"/>
-    <mergeCell ref="LP1:LT1"/>
-    <mergeCell ref="LU1:LY1"/>
-    <mergeCell ref="LA1:LE1"/>
-    <mergeCell ref="IX1:JB1"/>
-    <mergeCell ref="JC1:JG1"/>
-    <mergeCell ref="JH1:JL1"/>
-    <mergeCell ref="JM1:JQ1"/>
-    <mergeCell ref="JR1:JV1"/>
-    <mergeCell ref="JW1:KA1"/>
-    <mergeCell ref="KB1:KF1"/>
-    <mergeCell ref="KG1:KK1"/>
-    <mergeCell ref="KL1:KP1"/>
-    <mergeCell ref="KQ1:KU1"/>
-    <mergeCell ref="KV1:KZ1"/>
-    <mergeCell ref="IS1:IW1"/>
-    <mergeCell ref="GP1:GT1"/>
-    <mergeCell ref="GU1:GY1"/>
-    <mergeCell ref="GZ1:HD1"/>
-    <mergeCell ref="HE1:HI1"/>
-    <mergeCell ref="HJ1:HN1"/>
-    <mergeCell ref="HO1:HS1"/>
-    <mergeCell ref="HT1:HX1"/>
-    <mergeCell ref="HY1:IC1"/>
-    <mergeCell ref="ID1:IH1"/>
-    <mergeCell ref="II1:IM1"/>
-    <mergeCell ref="IN1:IR1"/>
-    <mergeCell ref="GK1:GO1"/>
-    <mergeCell ref="EH1:EL1"/>
-    <mergeCell ref="EM1:EQ1"/>
-    <mergeCell ref="ER1:EV1"/>
-    <mergeCell ref="EW1:FA1"/>
-    <mergeCell ref="FB1:FF1"/>
-    <mergeCell ref="FG1:FK1"/>
-    <mergeCell ref="FL1:FP1"/>
-    <mergeCell ref="FQ1:FU1"/>
-    <mergeCell ref="FV1:FZ1"/>
-    <mergeCell ref="GA1:GE1"/>
-    <mergeCell ref="GF1:GJ1"/>
-    <mergeCell ref="EC1:EG1"/>
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CO1:CS1"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="DS1:DW1"/>
-    <mergeCell ref="DX1:EB1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
@@ -10805,6 +10753,58 @@
     <mergeCell ref="BF1:BJ1"/>
     <mergeCell ref="BK1:BO1"/>
     <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="EC1:EG1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CO1:CS1"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="DN1:DR1"/>
+    <mergeCell ref="DS1:DW1"/>
+    <mergeCell ref="DX1:EB1"/>
+    <mergeCell ref="GK1:GO1"/>
+    <mergeCell ref="EH1:EL1"/>
+    <mergeCell ref="EM1:EQ1"/>
+    <mergeCell ref="ER1:EV1"/>
+    <mergeCell ref="EW1:FA1"/>
+    <mergeCell ref="FB1:FF1"/>
+    <mergeCell ref="FG1:FK1"/>
+    <mergeCell ref="FL1:FP1"/>
+    <mergeCell ref="FQ1:FU1"/>
+    <mergeCell ref="FV1:FZ1"/>
+    <mergeCell ref="GA1:GE1"/>
+    <mergeCell ref="GF1:GJ1"/>
+    <mergeCell ref="KV1:KZ1"/>
+    <mergeCell ref="IS1:IW1"/>
+    <mergeCell ref="GP1:GT1"/>
+    <mergeCell ref="GU1:GY1"/>
+    <mergeCell ref="GZ1:HD1"/>
+    <mergeCell ref="HE1:HI1"/>
+    <mergeCell ref="HJ1:HN1"/>
+    <mergeCell ref="HO1:HS1"/>
+    <mergeCell ref="HT1:HX1"/>
+    <mergeCell ref="HY1:IC1"/>
+    <mergeCell ref="ID1:IH1"/>
+    <mergeCell ref="II1:IM1"/>
+    <mergeCell ref="IN1:IR1"/>
+    <mergeCell ref="JW1:KA1"/>
+    <mergeCell ref="KB1:KF1"/>
+    <mergeCell ref="KG1:KK1"/>
+    <mergeCell ref="KL1:KP1"/>
+    <mergeCell ref="KQ1:KU1"/>
+    <mergeCell ref="IX1:JB1"/>
+    <mergeCell ref="JC1:JG1"/>
+    <mergeCell ref="JH1:JL1"/>
+    <mergeCell ref="JM1:JQ1"/>
+    <mergeCell ref="JR1:JV1"/>
+    <mergeCell ref="LF1:LJ1"/>
+    <mergeCell ref="LK1:LO1"/>
+    <mergeCell ref="LP1:LT1"/>
+    <mergeCell ref="LU1:LY1"/>
+    <mergeCell ref="LA1:LE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/Planning.xlsx
+++ b/doc/Planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="213"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="213" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Janvier" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
   <si>
     <t>MCD</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Chiffrage du projet en fonction des Taux Journalier Moyen</t>
+  </si>
+  <si>
+    <t>Structure Maven + Spring</t>
   </si>
 </sst>
 </file>
@@ -813,11 +816,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:MX33"/>
+  <dimension ref="A1:MX34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B28" sqref="B28"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1165,11 +1168,11 @@
       <c r="AS4" s="10"/>
       <c r="AT4" s="10"/>
       <c r="AU4" s="15"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="10"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="3"/>
       <c r="AX4" s="10"/>
-      <c r="AY4" s="10"/>
-      <c r="AZ4" s="15"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="7"/>
       <c r="BA4" s="11"/>
       <c r="BB4" s="10"/>
       <c r="BC4" s="10"/>
@@ -1253,11 +1256,10 @@
       <c r="AS5" s="10"/>
       <c r="AT5" s="10"/>
       <c r="AU5" s="15"/>
-      <c r="AV5" s="11"/>
-      <c r="AW5" s="10"/>
+      <c r="AW5" s="3"/>
       <c r="AX5" s="10"/>
-      <c r="AY5" s="10"/>
-      <c r="AZ5" s="15"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="7"/>
       <c r="BA5" s="11"/>
       <c r="BB5" s="10"/>
       <c r="BC5" s="10"/>
@@ -1517,7 +1519,7 @@
       <c r="AS8" s="10"/>
       <c r="AT8" s="10"/>
       <c r="AU8" s="15"/>
-      <c r="AV8" s="11"/>
+      <c r="AV8" s="1"/>
       <c r="AW8" s="10"/>
       <c r="AX8" s="10"/>
       <c r="AY8" s="10"/>
@@ -1555,10 +1557,10 @@
     </row>
     <row r="9" spans="1:362">
       <c r="A9" s="11" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B9" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="10"/>
@@ -1595,17 +1597,17 @@
       <c r="AI9" s="10"/>
       <c r="AJ9" s="10"/>
       <c r="AK9" s="15"/>
-      <c r="AL9" s="11"/>
+      <c r="AL9" s="2"/>
       <c r="AM9" s="10"/>
       <c r="AN9" s="10"/>
       <c r="AO9" s="10"/>
-      <c r="AP9" s="15"/>
+      <c r="AP9" s="2"/>
       <c r="AQ9" s="11"/>
       <c r="AR9" s="10"/>
       <c r="AS9" s="10"/>
       <c r="AT9" s="10"/>
       <c r="AU9" s="15"/>
-      <c r="AV9" s="11"/>
+      <c r="AV9" s="1"/>
       <c r="AW9" s="10"/>
       <c r="AX9" s="10"/>
       <c r="AY9" s="10"/>
@@ -1643,7 +1645,7 @@
     </row>
     <row r="10" spans="1:362">
       <c r="A10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="24">
         <v>4</v>
@@ -1655,7 +1657,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="11"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="31"/>
+      <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15"/>
       <c r="M10" s="11"/>
@@ -1731,7 +1733,7 @@
     </row>
     <row r="11" spans="1:362">
       <c r="A11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="24">
         <v>4</v>
@@ -1743,7 +1745,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="11"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="J11" s="31"/>
       <c r="K11" s="10"/>
       <c r="L11" s="15"/>
       <c r="M11" s="11"/>
@@ -1819,7 +1821,7 @@
     </row>
     <row r="12" spans="1:362">
       <c r="A12" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="24">
         <v>4</v>
@@ -1907,7 +1909,7 @@
     </row>
     <row r="13" spans="1:362">
       <c r="A13" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="24">
         <v>4</v>
@@ -1995,10 +1997,10 @@
     </row>
     <row r="14" spans="1:362">
       <c r="A14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="10"/>
@@ -2083,7 +2085,7 @@
     </row>
     <row r="15" spans="1:362">
       <c r="A15" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="24">
         <v>2</v>
@@ -2171,7 +2173,7 @@
     </row>
     <row r="16" spans="1:362">
       <c r="A16" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="24">
         <v>2</v>
@@ -2259,10 +2261,10 @@
     </row>
     <row r="17" spans="1:362">
       <c r="A17" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
@@ -2347,10 +2349,10 @@
     </row>
     <row r="18" spans="1:362">
       <c r="A18" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
@@ -2435,7 +2437,7 @@
     </row>
     <row r="19" spans="1:362">
       <c r="A19" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="24">
         <v>8</v>
@@ -2523,9 +2525,11 @@
     </row>
     <row r="20" spans="1:362">
       <c r="A20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="B20" s="24">
+        <v>8</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -2581,14 +2585,37 @@
       <c r="BC20" s="10"/>
       <c r="BD20" s="10"/>
       <c r="BE20" s="15"/>
+      <c r="LZ20" s="8"/>
+      <c r="MA20" s="8"/>
+      <c r="MB20" s="8"/>
+      <c r="MC20" s="8"/>
+      <c r="MD20" s="8"/>
+      <c r="ME20" s="8"/>
+      <c r="MF20" s="8"/>
+      <c r="MG20" s="8"/>
+      <c r="MH20" s="8"/>
+      <c r="MI20" s="8"/>
+      <c r="MJ20" s="8"/>
+      <c r="MK20" s="8"/>
+      <c r="ML20" s="8"/>
+      <c r="MM20" s="8"/>
+      <c r="MN20" s="8"/>
+      <c r="MO20" s="8"/>
+      <c r="MP20" s="8"/>
+      <c r="MQ20" s="8"/>
+      <c r="MR20" s="8"/>
+      <c r="MS20" s="8"/>
+      <c r="MT20" s="8"/>
+      <c r="MU20" s="8"/>
+      <c r="MV20" s="8"/>
+      <c r="MW20" s="8"/>
+      <c r="MX20" s="8"/>
     </row>
     <row r="21" spans="1:362">
       <c r="A21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="24">
-        <v>10</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B21" s="24"/>
       <c r="C21" s="11"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -2647,7 +2674,7 @@
     </row>
     <row r="22" spans="1:362">
       <c r="A22" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="24">
         <v>10</v>
@@ -2709,8 +2736,12 @@
       <c r="BE22" s="15"/>
     </row>
     <row r="23" spans="1:362">
-      <c r="A23" s="11"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="24">
+        <v>10</v>
+      </c>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -2768,12 +2799,8 @@
       <c r="BE23" s="15"/>
     </row>
     <row r="24" spans="1:362">
-      <c r="A24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="24">
-        <v>4</v>
-      </c>
+      <c r="A24" s="11"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -2831,11 +2858,11 @@
       <c r="BE24" s="15"/>
     </row>
     <row r="25" spans="1:362">
-      <c r="A25" s="25" t="s">
-        <v>29</v>
+      <c r="A25" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="B25" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
@@ -2894,8 +2921,8 @@
       <c r="BE25" s="15"/>
     </row>
     <row r="26" spans="1:362">
-      <c r="A26" s="11" t="s">
-        <v>31</v>
+      <c r="A26" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="B26" s="24">
         <v>2</v>
@@ -2956,125 +2983,188 @@
       <c r="BD26" s="10"/>
       <c r="BE26" s="15"/>
     </row>
-    <row r="27" spans="1:362" ht="15.75" thickBot="1">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:362">
+      <c r="A27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="24">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="10"/>
+      <c r="AS27" s="10"/>
+      <c r="AT27" s="10"/>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="11"/>
+      <c r="AW27" s="10"/>
+      <c r="AX27" s="10"/>
+      <c r="AY27" s="10"/>
+      <c r="AZ27" s="15"/>
+      <c r="BA27" s="11"/>
+      <c r="BB27" s="10"/>
+      <c r="BC27" s="10"/>
+      <c r="BD27" s="10"/>
+      <c r="BE27" s="15"/>
+    </row>
+    <row r="28" spans="1:362" ht="15.75" thickBot="1">
+      <c r="A28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B28" s="26">
         <v>2</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
-      <c r="AK27" s="18"/>
-      <c r="AL27" s="16"/>
-      <c r="AM27" s="17"/>
-      <c r="AN27" s="17"/>
-      <c r="AO27" s="17"/>
-      <c r="AP27" s="18"/>
-      <c r="AQ27" s="16"/>
-      <c r="AR27" s="17"/>
-      <c r="AS27" s="17"/>
-      <c r="AT27" s="17"/>
-      <c r="AU27" s="18"/>
-      <c r="AV27" s="16"/>
-      <c r="AW27" s="17"/>
-      <c r="AX27" s="17"/>
-      <c r="AY27" s="17"/>
-      <c r="AZ27" s="18"/>
-      <c r="BA27" s="16"/>
-      <c r="BB27" s="17"/>
-      <c r="BC27" s="17"/>
-      <c r="BD27" s="17"/>
-      <c r="BE27" s="18"/>
-    </row>
-    <row r="28" spans="1:362">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="16"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="17"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="18"/>
+      <c r="AQ28" s="16"/>
+      <c r="AR28" s="17"/>
+      <c r="AS28" s="17"/>
+      <c r="AT28" s="17"/>
+      <c r="AU28" s="18"/>
+      <c r="AV28" s="16"/>
+      <c r="AW28" s="17"/>
+      <c r="AX28" s="17"/>
+      <c r="AY28" s="17"/>
+      <c r="AZ28" s="18"/>
+      <c r="BA28" s="16"/>
+      <c r="BB28" s="17"/>
+      <c r="BC28" s="17"/>
+      <c r="BD28" s="17"/>
+      <c r="BE28" s="18"/>
     </row>
     <row r="29" spans="1:362">
-      <c r="B29" s="1"/>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:362">
-      <c r="B30" s="3"/>
+      <c r="B30" s="1"/>
       <c r="C30" t="s">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:362">
-      <c r="B31" s="4"/>
+      <c r="B31" s="3"/>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:362">
-      <c r="B32" s="6"/>
+      <c r="B32" s="4"/>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="7"/>
+      <c r="B33" s="6"/>
       <c r="C33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="7"/>
+      <c r="C34" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="BA1:BE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3083,11 +3173,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EL34"/>
+  <dimension ref="A1:EL35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y11" sqref="Y11"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4339,10 +4429,10 @@
     </row>
     <row r="9" spans="1:142">
       <c r="A9" s="11" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B9" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="10"/>
@@ -4487,7 +4577,7 @@
     </row>
     <row r="10" spans="1:142">
       <c r="A10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="24">
         <v>4</v>
@@ -4635,7 +4725,7 @@
     </row>
     <row r="11" spans="1:142">
       <c r="A11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="24">
         <v>4</v>
@@ -4783,7 +4873,7 @@
     </row>
     <row r="12" spans="1:142">
       <c r="A12" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="24">
         <v>4</v>
@@ -4931,7 +5021,7 @@
     </row>
     <row r="13" spans="1:142">
       <c r="A13" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="24">
         <v>4</v>
@@ -5079,10 +5169,10 @@
     </row>
     <row r="14" spans="1:142">
       <c r="A14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="10"/>
@@ -5227,7 +5317,7 @@
     </row>
     <row r="15" spans="1:142">
       <c r="A15" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="24">
         <v>2</v>
@@ -5375,7 +5465,7 @@
     </row>
     <row r="16" spans="1:142">
       <c r="A16" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="24">
         <v>2</v>
@@ -5523,10 +5613,10 @@
     </row>
     <row r="17" spans="1:142">
       <c r="A17" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
@@ -5671,10 +5761,10 @@
     </row>
     <row r="18" spans="1:142">
       <c r="A18" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
@@ -5819,7 +5909,7 @@
     </row>
     <row r="19" spans="1:142">
       <c r="A19" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="24">
         <v>8</v>
@@ -5967,9 +6057,11 @@
     </row>
     <row r="20" spans="1:142">
       <c r="A20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="B20" s="24">
+        <v>8</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -6113,11 +6205,9 @@
     </row>
     <row r="21" spans="1:142">
       <c r="A21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="24">
-        <v>10</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B21" s="24"/>
       <c r="C21" s="11"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -6261,7 +6351,7 @@
     </row>
     <row r="22" spans="1:142">
       <c r="A22" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="24">
         <v>10</v>
@@ -6408,8 +6498,12 @@
       <c r="EL22" s="15"/>
     </row>
     <row r="23" spans="1:142">
-      <c r="A23" s="11"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="24">
+        <v>10</v>
+      </c>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -6552,12 +6646,8 @@
       <c r="EL23" s="15"/>
     </row>
     <row r="24" spans="1:142">
-      <c r="A24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="24">
-        <v>4</v>
-      </c>
+      <c r="A24" s="11"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -6700,11 +6790,11 @@
       <c r="EL24" s="15"/>
     </row>
     <row r="25" spans="1:142">
-      <c r="A25" s="25" t="s">
-        <v>29</v>
+      <c r="A25" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="B25" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
@@ -6848,8 +6938,8 @@
       <c r="EL25" s="15"/>
     </row>
     <row r="26" spans="1:142">
-      <c r="A26" s="11" t="s">
-        <v>31</v>
+      <c r="A26" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="B26" s="24">
         <v>2</v>
@@ -6995,191 +7085,344 @@
       <c r="EK26" s="10"/>
       <c r="EL26" s="15"/>
     </row>
-    <row r="27" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:142">
+      <c r="A27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="24">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="10"/>
+      <c r="AS27" s="10"/>
+      <c r="AT27" s="10"/>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="11"/>
+      <c r="AW27" s="10"/>
+      <c r="AX27" s="10"/>
+      <c r="AY27" s="10"/>
+      <c r="AZ27" s="15"/>
+      <c r="BA27" s="11"/>
+      <c r="BB27" s="10"/>
+      <c r="BC27" s="10"/>
+      <c r="BD27" s="10"/>
+      <c r="BE27" s="15"/>
+      <c r="BF27" s="11"/>
+      <c r="BG27" s="10"/>
+      <c r="BH27" s="10"/>
+      <c r="BI27" s="10"/>
+      <c r="BJ27" s="15"/>
+      <c r="BK27" s="11"/>
+      <c r="BL27" s="10"/>
+      <c r="BM27" s="10"/>
+      <c r="BN27" s="10"/>
+      <c r="BO27" s="15"/>
+      <c r="BP27" s="11"/>
+      <c r="BQ27" s="10"/>
+      <c r="BR27" s="10"/>
+      <c r="BS27" s="10"/>
+      <c r="BT27" s="15"/>
+      <c r="BU27" s="11"/>
+      <c r="BV27" s="10"/>
+      <c r="BW27" s="10"/>
+      <c r="BX27" s="10"/>
+      <c r="BY27" s="15"/>
+      <c r="BZ27" s="11"/>
+      <c r="CA27" s="10"/>
+      <c r="CB27" s="10"/>
+      <c r="CC27" s="10"/>
+      <c r="CD27" s="15"/>
+      <c r="CE27" s="11"/>
+      <c r="CF27" s="10"/>
+      <c r="CG27" s="10"/>
+      <c r="CH27" s="10"/>
+      <c r="CI27" s="15"/>
+      <c r="CJ27" s="11"/>
+      <c r="CK27" s="10"/>
+      <c r="CL27" s="10"/>
+      <c r="CM27" s="10"/>
+      <c r="CN27" s="15"/>
+      <c r="CO27" s="11"/>
+      <c r="CP27" s="10"/>
+      <c r="CQ27" s="10"/>
+      <c r="CR27" s="10"/>
+      <c r="CS27" s="15"/>
+      <c r="CT27" s="11"/>
+      <c r="CU27" s="10"/>
+      <c r="CV27" s="10"/>
+      <c r="CW27" s="10"/>
+      <c r="CX27" s="15"/>
+      <c r="CY27" s="11"/>
+      <c r="CZ27" s="10"/>
+      <c r="DA27" s="10"/>
+      <c r="DB27" s="10"/>
+      <c r="DC27" s="15"/>
+      <c r="DD27" s="11"/>
+      <c r="DE27" s="10"/>
+      <c r="DF27" s="10"/>
+      <c r="DG27" s="10"/>
+      <c r="DH27" s="15"/>
+      <c r="DI27" s="11"/>
+      <c r="DJ27" s="10"/>
+      <c r="DK27" s="10"/>
+      <c r="DL27" s="10"/>
+      <c r="DM27" s="15"/>
+      <c r="DN27" s="11"/>
+      <c r="DO27" s="10"/>
+      <c r="DP27" s="10"/>
+      <c r="DQ27" s="10"/>
+      <c r="DR27" s="15"/>
+      <c r="DS27" s="11"/>
+      <c r="DT27" s="10"/>
+      <c r="DU27" s="10"/>
+      <c r="DV27" s="10"/>
+      <c r="DW27" s="15"/>
+      <c r="DX27" s="11"/>
+      <c r="DY27" s="10"/>
+      <c r="DZ27" s="10"/>
+      <c r="EA27" s="10"/>
+      <c r="EB27" s="15"/>
+      <c r="EC27" s="11"/>
+      <c r="ED27" s="10"/>
+      <c r="EE27" s="10"/>
+      <c r="EF27" s="10"/>
+      <c r="EG27" s="15"/>
+      <c r="EH27" s="11"/>
+      <c r="EI27" s="10"/>
+      <c r="EJ27" s="10"/>
+      <c r="EK27" s="10"/>
+      <c r="EL27" s="15"/>
+    </row>
+    <row r="28" spans="1:142" ht="15.75" thickBot="1">
+      <c r="A28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B28" s="26">
         <v>2</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
-      <c r="AK27" s="18"/>
-      <c r="AL27" s="16"/>
-      <c r="AM27" s="17"/>
-      <c r="AN27" s="17"/>
-      <c r="AO27" s="17"/>
-      <c r="AP27" s="18"/>
-      <c r="AQ27" s="16"/>
-      <c r="AR27" s="17"/>
-      <c r="AS27" s="17"/>
-      <c r="AT27" s="17"/>
-      <c r="AU27" s="18"/>
-      <c r="AV27" s="16"/>
-      <c r="AW27" s="17"/>
-      <c r="AX27" s="17"/>
-      <c r="AY27" s="17"/>
-      <c r="AZ27" s="18"/>
-      <c r="BA27" s="16"/>
-      <c r="BB27" s="17"/>
-      <c r="BC27" s="17"/>
-      <c r="BD27" s="17"/>
-      <c r="BE27" s="18"/>
-      <c r="BF27" s="16"/>
-      <c r="BG27" s="17"/>
-      <c r="BH27" s="17"/>
-      <c r="BI27" s="17"/>
-      <c r="BJ27" s="18"/>
-      <c r="BK27" s="16"/>
-      <c r="BL27" s="17"/>
-      <c r="BM27" s="17"/>
-      <c r="BN27" s="17"/>
-      <c r="BO27" s="18"/>
-      <c r="BP27" s="16"/>
-      <c r="BQ27" s="17"/>
-      <c r="BR27" s="17"/>
-      <c r="BS27" s="17"/>
-      <c r="BT27" s="18"/>
-      <c r="BU27" s="16"/>
-      <c r="BV27" s="17"/>
-      <c r="BW27" s="17"/>
-      <c r="BX27" s="17"/>
-      <c r="BY27" s="18"/>
-      <c r="BZ27" s="16"/>
-      <c r="CA27" s="17"/>
-      <c r="CB27" s="17"/>
-      <c r="CC27" s="17"/>
-      <c r="CD27" s="18"/>
-      <c r="CE27" s="16"/>
-      <c r="CF27" s="17"/>
-      <c r="CG27" s="17"/>
-      <c r="CH27" s="17"/>
-      <c r="CI27" s="18"/>
-      <c r="CJ27" s="16"/>
-      <c r="CK27" s="17"/>
-      <c r="CL27" s="17"/>
-      <c r="CM27" s="17"/>
-      <c r="CN27" s="18"/>
-      <c r="CO27" s="16"/>
-      <c r="CP27" s="17"/>
-      <c r="CQ27" s="17"/>
-      <c r="CR27" s="17"/>
-      <c r="CS27" s="18"/>
-      <c r="CT27" s="16"/>
-      <c r="CU27" s="17"/>
-      <c r="CV27" s="17"/>
-      <c r="CW27" s="17"/>
-      <c r="CX27" s="18"/>
-      <c r="CY27" s="16"/>
-      <c r="CZ27" s="17"/>
-      <c r="DA27" s="17"/>
-      <c r="DB27" s="17"/>
-      <c r="DC27" s="18"/>
-      <c r="DD27" s="16"/>
-      <c r="DE27" s="17"/>
-      <c r="DF27" s="17"/>
-      <c r="DG27" s="17"/>
-      <c r="DH27" s="18"/>
-      <c r="DI27" s="16"/>
-      <c r="DJ27" s="17"/>
-      <c r="DK27" s="17"/>
-      <c r="DL27" s="17"/>
-      <c r="DM27" s="18"/>
-      <c r="DN27" s="16"/>
-      <c r="DO27" s="17"/>
-      <c r="DP27" s="17"/>
-      <c r="DQ27" s="17"/>
-      <c r="DR27" s="18"/>
-      <c r="DS27" s="16"/>
-      <c r="DT27" s="17"/>
-      <c r="DU27" s="17"/>
-      <c r="DV27" s="17"/>
-      <c r="DW27" s="18"/>
-      <c r="DX27" s="16"/>
-      <c r="DY27" s="17"/>
-      <c r="DZ27" s="17"/>
-      <c r="EA27" s="17"/>
-      <c r="EB27" s="18"/>
-      <c r="EC27" s="16"/>
-      <c r="ED27" s="17"/>
-      <c r="EE27" s="17"/>
-      <c r="EF27" s="17"/>
-      <c r="EG27" s="18"/>
-      <c r="EH27" s="16"/>
-      <c r="EI27" s="17"/>
-      <c r="EJ27" s="17"/>
-      <c r="EK27" s="17"/>
-      <c r="EL27" s="18"/>
-    </row>
-    <row r="30" spans="1:142">
-      <c r="B30" s="1"/>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="16"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="17"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="18"/>
+      <c r="AQ28" s="16"/>
+      <c r="AR28" s="17"/>
+      <c r="AS28" s="17"/>
+      <c r="AT28" s="17"/>
+      <c r="AU28" s="18"/>
+      <c r="AV28" s="16"/>
+      <c r="AW28" s="17"/>
+      <c r="AX28" s="17"/>
+      <c r="AY28" s="17"/>
+      <c r="AZ28" s="18"/>
+      <c r="BA28" s="16"/>
+      <c r="BB28" s="17"/>
+      <c r="BC28" s="17"/>
+      <c r="BD28" s="17"/>
+      <c r="BE28" s="18"/>
+      <c r="BF28" s="16"/>
+      <c r="BG28" s="17"/>
+      <c r="BH28" s="17"/>
+      <c r="BI28" s="17"/>
+      <c r="BJ28" s="18"/>
+      <c r="BK28" s="16"/>
+      <c r="BL28" s="17"/>
+      <c r="BM28" s="17"/>
+      <c r="BN28" s="17"/>
+      <c r="BO28" s="18"/>
+      <c r="BP28" s="16"/>
+      <c r="BQ28" s="17"/>
+      <c r="BR28" s="17"/>
+      <c r="BS28" s="17"/>
+      <c r="BT28" s="18"/>
+      <c r="BU28" s="16"/>
+      <c r="BV28" s="17"/>
+      <c r="BW28" s="17"/>
+      <c r="BX28" s="17"/>
+      <c r="BY28" s="18"/>
+      <c r="BZ28" s="16"/>
+      <c r="CA28" s="17"/>
+      <c r="CB28" s="17"/>
+      <c r="CC28" s="17"/>
+      <c r="CD28" s="18"/>
+      <c r="CE28" s="16"/>
+      <c r="CF28" s="17"/>
+      <c r="CG28" s="17"/>
+      <c r="CH28" s="17"/>
+      <c r="CI28" s="18"/>
+      <c r="CJ28" s="16"/>
+      <c r="CK28" s="17"/>
+      <c r="CL28" s="17"/>
+      <c r="CM28" s="17"/>
+      <c r="CN28" s="18"/>
+      <c r="CO28" s="16"/>
+      <c r="CP28" s="17"/>
+      <c r="CQ28" s="17"/>
+      <c r="CR28" s="17"/>
+      <c r="CS28" s="18"/>
+      <c r="CT28" s="16"/>
+      <c r="CU28" s="17"/>
+      <c r="CV28" s="17"/>
+      <c r="CW28" s="17"/>
+      <c r="CX28" s="18"/>
+      <c r="CY28" s="16"/>
+      <c r="CZ28" s="17"/>
+      <c r="DA28" s="17"/>
+      <c r="DB28" s="17"/>
+      <c r="DC28" s="18"/>
+      <c r="DD28" s="16"/>
+      <c r="DE28" s="17"/>
+      <c r="DF28" s="17"/>
+      <c r="DG28" s="17"/>
+      <c r="DH28" s="18"/>
+      <c r="DI28" s="16"/>
+      <c r="DJ28" s="17"/>
+      <c r="DK28" s="17"/>
+      <c r="DL28" s="17"/>
+      <c r="DM28" s="18"/>
+      <c r="DN28" s="16"/>
+      <c r="DO28" s="17"/>
+      <c r="DP28" s="17"/>
+      <c r="DQ28" s="17"/>
+      <c r="DR28" s="18"/>
+      <c r="DS28" s="16"/>
+      <c r="DT28" s="17"/>
+      <c r="DU28" s="17"/>
+      <c r="DV28" s="17"/>
+      <c r="DW28" s="18"/>
+      <c r="DX28" s="16"/>
+      <c r="DY28" s="17"/>
+      <c r="DZ28" s="17"/>
+      <c r="EA28" s="17"/>
+      <c r="EB28" s="18"/>
+      <c r="EC28" s="16"/>
+      <c r="ED28" s="17"/>
+      <c r="EE28" s="17"/>
+      <c r="EF28" s="17"/>
+      <c r="EG28" s="18"/>
+      <c r="EH28" s="16"/>
+      <c r="EI28" s="17"/>
+      <c r="EJ28" s="17"/>
+      <c r="EK28" s="17"/>
+      <c r="EL28" s="18"/>
     </row>
     <row r="31" spans="1:142">
-      <c r="B31" s="3"/>
+      <c r="B31" s="1"/>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:142">
-      <c r="B32" s="4"/>
+      <c r="B32" s="3"/>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="6"/>
+      <c r="B33" s="4"/>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="7"/>
+      <c r="B34" s="6"/>
       <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="7"/>
+      <c r="C35" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="EH1:EL1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CO1:CS1"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="DN1:DR1"/>
+    <mergeCell ref="DS1:DW1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
@@ -7193,16 +7436,11 @@
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="EH1:EL1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CO1:CS1"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="DS1:DW1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BU1:BY1"/>
+    <mergeCell ref="R1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7210,11 +7448,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EL34"/>
+  <dimension ref="A1:EL35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S9" sqref="S9"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8466,10 +8704,10 @@
     </row>
     <row r="9" spans="1:142">
       <c r="A9" s="11" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B9" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="10"/>
@@ -8614,7 +8852,7 @@
     </row>
     <row r="10" spans="1:142">
       <c r="A10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="24">
         <v>4</v>
@@ -8762,7 +9000,7 @@
     </row>
     <row r="11" spans="1:142">
       <c r="A11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="24">
         <v>4</v>
@@ -8910,7 +9148,7 @@
     </row>
     <row r="12" spans="1:142">
       <c r="A12" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="24">
         <v>4</v>
@@ -9058,7 +9296,7 @@
     </row>
     <row r="13" spans="1:142">
       <c r="A13" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="24">
         <v>4</v>
@@ -9206,10 +9444,10 @@
     </row>
     <row r="14" spans="1:142">
       <c r="A14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="10"/>
@@ -9354,7 +9592,7 @@
     </row>
     <row r="15" spans="1:142">
       <c r="A15" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="24">
         <v>2</v>
@@ -9502,7 +9740,7 @@
     </row>
     <row r="16" spans="1:142">
       <c r="A16" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="24">
         <v>2</v>
@@ -9650,10 +9888,10 @@
     </row>
     <row r="17" spans="1:142">
       <c r="A17" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
@@ -9798,10 +10036,10 @@
     </row>
     <row r="18" spans="1:142">
       <c r="A18" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
@@ -9930,7 +10168,7 @@
       <c r="DW18" s="15"/>
       <c r="DX18" s="11"/>
       <c r="DY18" s="10"/>
-      <c r="DZ18" s="19"/>
+      <c r="DZ18" s="10"/>
       <c r="EA18" s="10"/>
       <c r="EB18" s="15"/>
       <c r="EC18" s="11"/>
@@ -9946,7 +10184,7 @@
     </row>
     <row r="19" spans="1:142">
       <c r="A19" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="24">
         <v>8</v>
@@ -10078,7 +10316,7 @@
       <c r="DW19" s="15"/>
       <c r="DX19" s="11"/>
       <c r="DY19" s="10"/>
-      <c r="DZ19" s="20"/>
+      <c r="DZ19" s="19"/>
       <c r="EA19" s="10"/>
       <c r="EB19" s="15"/>
       <c r="EC19" s="11"/>
@@ -10094,9 +10332,11 @@
     </row>
     <row r="20" spans="1:142">
       <c r="A20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="B20" s="24">
+        <v>8</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -10224,7 +10464,7 @@
       <c r="DW20" s="15"/>
       <c r="DX20" s="11"/>
       <c r="DY20" s="10"/>
-      <c r="DZ20" s="10"/>
+      <c r="DZ20" s="20"/>
       <c r="EA20" s="10"/>
       <c r="EB20" s="15"/>
       <c r="EC20" s="11"/>
@@ -10240,11 +10480,9 @@
     </row>
     <row r="21" spans="1:142">
       <c r="A21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="24">
-        <v>10</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B21" s="24"/>
       <c r="C21" s="11"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -10388,7 +10626,7 @@
     </row>
     <row r="22" spans="1:142">
       <c r="A22" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="24">
         <v>10</v>
@@ -10535,8 +10773,12 @@
       <c r="EL22" s="15"/>
     </row>
     <row r="23" spans="1:142">
-      <c r="A23" s="11"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="24">
+        <v>10</v>
+      </c>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -10679,12 +10921,8 @@
       <c r="EL23" s="15"/>
     </row>
     <row r="24" spans="1:142">
-      <c r="A24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="24">
-        <v>4</v>
-      </c>
+      <c r="A24" s="11"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -10827,11 +11065,11 @@
       <c r="EL24" s="15"/>
     </row>
     <row r="25" spans="1:142">
-      <c r="A25" s="25" t="s">
-        <v>29</v>
+      <c r="A25" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="B25" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
@@ -10975,8 +11213,8 @@
       <c r="EL25" s="15"/>
     </row>
     <row r="26" spans="1:142">
-      <c r="A26" s="11" t="s">
-        <v>31</v>
+      <c r="A26" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="B26" s="24">
         <v>2</v>
@@ -11122,214 +11360,362 @@
       <c r="EK26" s="10"/>
       <c r="EL26" s="15"/>
     </row>
-    <row r="27" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:142">
+      <c r="A27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="24">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="10"/>
+      <c r="AS27" s="10"/>
+      <c r="AT27" s="10"/>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="11"/>
+      <c r="AW27" s="10"/>
+      <c r="AX27" s="10"/>
+      <c r="AY27" s="10"/>
+      <c r="AZ27" s="15"/>
+      <c r="BA27" s="11"/>
+      <c r="BB27" s="10"/>
+      <c r="BC27" s="10"/>
+      <c r="BD27" s="10"/>
+      <c r="BE27" s="15"/>
+      <c r="BF27" s="11"/>
+      <c r="BG27" s="10"/>
+      <c r="BH27" s="10"/>
+      <c r="BI27" s="10"/>
+      <c r="BJ27" s="15"/>
+      <c r="BK27" s="11"/>
+      <c r="BL27" s="10"/>
+      <c r="BM27" s="10"/>
+      <c r="BN27" s="10"/>
+      <c r="BO27" s="15"/>
+      <c r="BP27" s="11"/>
+      <c r="BQ27" s="10"/>
+      <c r="BR27" s="10"/>
+      <c r="BS27" s="10"/>
+      <c r="BT27" s="15"/>
+      <c r="BU27" s="11"/>
+      <c r="BV27" s="10"/>
+      <c r="BW27" s="10"/>
+      <c r="BX27" s="10"/>
+      <c r="BY27" s="15"/>
+      <c r="BZ27" s="11"/>
+      <c r="CA27" s="10"/>
+      <c r="CB27" s="10"/>
+      <c r="CC27" s="10"/>
+      <c r="CD27" s="15"/>
+      <c r="CE27" s="11"/>
+      <c r="CF27" s="10"/>
+      <c r="CG27" s="10"/>
+      <c r="CH27" s="10"/>
+      <c r="CI27" s="15"/>
+      <c r="CJ27" s="11"/>
+      <c r="CK27" s="10"/>
+      <c r="CL27" s="10"/>
+      <c r="CM27" s="10"/>
+      <c r="CN27" s="15"/>
+      <c r="CO27" s="11"/>
+      <c r="CP27" s="10"/>
+      <c r="CQ27" s="10"/>
+      <c r="CR27" s="10"/>
+      <c r="CS27" s="15"/>
+      <c r="CT27" s="11"/>
+      <c r="CU27" s="10"/>
+      <c r="CV27" s="10"/>
+      <c r="CW27" s="10"/>
+      <c r="CX27" s="15"/>
+      <c r="CY27" s="11"/>
+      <c r="CZ27" s="10"/>
+      <c r="DA27" s="10"/>
+      <c r="DB27" s="10"/>
+      <c r="DC27" s="15"/>
+      <c r="DD27" s="11"/>
+      <c r="DE27" s="10"/>
+      <c r="DF27" s="10"/>
+      <c r="DG27" s="10"/>
+      <c r="DH27" s="15"/>
+      <c r="DI27" s="11"/>
+      <c r="DJ27" s="10"/>
+      <c r="DK27" s="10"/>
+      <c r="DL27" s="10"/>
+      <c r="DM27" s="15"/>
+      <c r="DN27" s="11"/>
+      <c r="DO27" s="10"/>
+      <c r="DP27" s="10"/>
+      <c r="DQ27" s="10"/>
+      <c r="DR27" s="15"/>
+      <c r="DS27" s="11"/>
+      <c r="DT27" s="10"/>
+      <c r="DU27" s="10"/>
+      <c r="DV27" s="10"/>
+      <c r="DW27" s="15"/>
+      <c r="DX27" s="11"/>
+      <c r="DY27" s="10"/>
+      <c r="DZ27" s="10"/>
+      <c r="EA27" s="10"/>
+      <c r="EB27" s="15"/>
+      <c r="EC27" s="11"/>
+      <c r="ED27" s="10"/>
+      <c r="EE27" s="10"/>
+      <c r="EF27" s="10"/>
+      <c r="EG27" s="15"/>
+      <c r="EH27" s="11"/>
+      <c r="EI27" s="10"/>
+      <c r="EJ27" s="10"/>
+      <c r="EK27" s="10"/>
+      <c r="EL27" s="15"/>
+    </row>
+    <row r="28" spans="1:142" ht="15.75" thickBot="1">
+      <c r="A28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B28" s="26">
         <v>2</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
-      <c r="AK27" s="18"/>
-      <c r="AL27" s="16"/>
-      <c r="AM27" s="17"/>
-      <c r="AN27" s="17"/>
-      <c r="AO27" s="17"/>
-      <c r="AP27" s="18"/>
-      <c r="AQ27" s="16"/>
-      <c r="AR27" s="17"/>
-      <c r="AS27" s="17"/>
-      <c r="AT27" s="17"/>
-      <c r="AU27" s="18"/>
-      <c r="AV27" s="16"/>
-      <c r="AW27" s="17"/>
-      <c r="AX27" s="17"/>
-      <c r="AY27" s="17"/>
-      <c r="AZ27" s="18"/>
-      <c r="BA27" s="16"/>
-      <c r="BB27" s="17"/>
-      <c r="BC27" s="17"/>
-      <c r="BD27" s="17"/>
-      <c r="BE27" s="18"/>
-      <c r="BF27" s="16"/>
-      <c r="BG27" s="17"/>
-      <c r="BH27" s="17"/>
-      <c r="BI27" s="17"/>
-      <c r="BJ27" s="18"/>
-      <c r="BK27" s="16"/>
-      <c r="BL27" s="17"/>
-      <c r="BM27" s="17"/>
-      <c r="BN27" s="17"/>
-      <c r="BO27" s="18"/>
-      <c r="BP27" s="16"/>
-      <c r="BQ27" s="17"/>
-      <c r="BR27" s="17"/>
-      <c r="BS27" s="17"/>
-      <c r="BT27" s="18"/>
-      <c r="BU27" s="16"/>
-      <c r="BV27" s="17"/>
-      <c r="BW27" s="17"/>
-      <c r="BX27" s="17"/>
-      <c r="BY27" s="18"/>
-      <c r="BZ27" s="16"/>
-      <c r="CA27" s="17"/>
-      <c r="CB27" s="17"/>
-      <c r="CC27" s="17"/>
-      <c r="CD27" s="18"/>
-      <c r="CE27" s="16"/>
-      <c r="CF27" s="17"/>
-      <c r="CG27" s="17"/>
-      <c r="CH27" s="17"/>
-      <c r="CI27" s="18"/>
-      <c r="CJ27" s="16"/>
-      <c r="CK27" s="17"/>
-      <c r="CL27" s="17"/>
-      <c r="CM27" s="17"/>
-      <c r="CN27" s="18"/>
-      <c r="CO27" s="16"/>
-      <c r="CP27" s="17"/>
-      <c r="CQ27" s="17"/>
-      <c r="CR27" s="17"/>
-      <c r="CS27" s="18"/>
-      <c r="CT27" s="16"/>
-      <c r="CU27" s="17"/>
-      <c r="CV27" s="17"/>
-      <c r="CW27" s="17"/>
-      <c r="CX27" s="18"/>
-      <c r="CY27" s="16"/>
-      <c r="CZ27" s="17"/>
-      <c r="DA27" s="17"/>
-      <c r="DB27" s="17"/>
-      <c r="DC27" s="18"/>
-      <c r="DD27" s="16"/>
-      <c r="DE27" s="17"/>
-      <c r="DF27" s="17"/>
-      <c r="DG27" s="17"/>
-      <c r="DH27" s="18"/>
-      <c r="DI27" s="16"/>
-      <c r="DJ27" s="17"/>
-      <c r="DK27" s="17"/>
-      <c r="DL27" s="17"/>
-      <c r="DM27" s="18"/>
-      <c r="DN27" s="16"/>
-      <c r="DO27" s="17"/>
-      <c r="DP27" s="17"/>
-      <c r="DQ27" s="17"/>
-      <c r="DR27" s="18"/>
-      <c r="DS27" s="16"/>
-      <c r="DT27" s="17"/>
-      <c r="DU27" s="17"/>
-      <c r="DV27" s="17"/>
-      <c r="DW27" s="18"/>
-      <c r="DX27" s="16"/>
-      <c r="DY27" s="17"/>
-      <c r="DZ27" s="17"/>
-      <c r="EA27" s="17"/>
-      <c r="EB27" s="18"/>
-      <c r="EC27" s="16"/>
-      <c r="ED27" s="17"/>
-      <c r="EE27" s="17"/>
-      <c r="EF27" s="17"/>
-      <c r="EG27" s="18"/>
-      <c r="EH27" s="16"/>
-      <c r="EI27" s="17"/>
-      <c r="EJ27" s="17"/>
-      <c r="EK27" s="17"/>
-      <c r="EL27" s="18"/>
-    </row>
-    <row r="30" spans="1:142">
-      <c r="B30" s="1"/>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="16"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="17"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="18"/>
+      <c r="AQ28" s="16"/>
+      <c r="AR28" s="17"/>
+      <c r="AS28" s="17"/>
+      <c r="AT28" s="17"/>
+      <c r="AU28" s="18"/>
+      <c r="AV28" s="16"/>
+      <c r="AW28" s="17"/>
+      <c r="AX28" s="17"/>
+      <c r="AY28" s="17"/>
+      <c r="AZ28" s="18"/>
+      <c r="BA28" s="16"/>
+      <c r="BB28" s="17"/>
+      <c r="BC28" s="17"/>
+      <c r="BD28" s="17"/>
+      <c r="BE28" s="18"/>
+      <c r="BF28" s="16"/>
+      <c r="BG28" s="17"/>
+      <c r="BH28" s="17"/>
+      <c r="BI28" s="17"/>
+      <c r="BJ28" s="18"/>
+      <c r="BK28" s="16"/>
+      <c r="BL28" s="17"/>
+      <c r="BM28" s="17"/>
+      <c r="BN28" s="17"/>
+      <c r="BO28" s="18"/>
+      <c r="BP28" s="16"/>
+      <c r="BQ28" s="17"/>
+      <c r="BR28" s="17"/>
+      <c r="BS28" s="17"/>
+      <c r="BT28" s="18"/>
+      <c r="BU28" s="16"/>
+      <c r="BV28" s="17"/>
+      <c r="BW28" s="17"/>
+      <c r="BX28" s="17"/>
+      <c r="BY28" s="18"/>
+      <c r="BZ28" s="16"/>
+      <c r="CA28" s="17"/>
+      <c r="CB28" s="17"/>
+      <c r="CC28" s="17"/>
+      <c r="CD28" s="18"/>
+      <c r="CE28" s="16"/>
+      <c r="CF28" s="17"/>
+      <c r="CG28" s="17"/>
+      <c r="CH28" s="17"/>
+      <c r="CI28" s="18"/>
+      <c r="CJ28" s="16"/>
+      <c r="CK28" s="17"/>
+      <c r="CL28" s="17"/>
+      <c r="CM28" s="17"/>
+      <c r="CN28" s="18"/>
+      <c r="CO28" s="16"/>
+      <c r="CP28" s="17"/>
+      <c r="CQ28" s="17"/>
+      <c r="CR28" s="17"/>
+      <c r="CS28" s="18"/>
+      <c r="CT28" s="16"/>
+      <c r="CU28" s="17"/>
+      <c r="CV28" s="17"/>
+      <c r="CW28" s="17"/>
+      <c r="CX28" s="18"/>
+      <c r="CY28" s="16"/>
+      <c r="CZ28" s="17"/>
+      <c r="DA28" s="17"/>
+      <c r="DB28" s="17"/>
+      <c r="DC28" s="18"/>
+      <c r="DD28" s="16"/>
+      <c r="DE28" s="17"/>
+      <c r="DF28" s="17"/>
+      <c r="DG28" s="17"/>
+      <c r="DH28" s="18"/>
+      <c r="DI28" s="16"/>
+      <c r="DJ28" s="17"/>
+      <c r="DK28" s="17"/>
+      <c r="DL28" s="17"/>
+      <c r="DM28" s="18"/>
+      <c r="DN28" s="16"/>
+      <c r="DO28" s="17"/>
+      <c r="DP28" s="17"/>
+      <c r="DQ28" s="17"/>
+      <c r="DR28" s="18"/>
+      <c r="DS28" s="16"/>
+      <c r="DT28" s="17"/>
+      <c r="DU28" s="17"/>
+      <c r="DV28" s="17"/>
+      <c r="DW28" s="18"/>
+      <c r="DX28" s="16"/>
+      <c r="DY28" s="17"/>
+      <c r="DZ28" s="17"/>
+      <c r="EA28" s="17"/>
+      <c r="EB28" s="18"/>
+      <c r="EC28" s="16"/>
+      <c r="ED28" s="17"/>
+      <c r="EE28" s="17"/>
+      <c r="EF28" s="17"/>
+      <c r="EG28" s="18"/>
+      <c r="EH28" s="16"/>
+      <c r="EI28" s="17"/>
+      <c r="EJ28" s="17"/>
+      <c r="EK28" s="17"/>
+      <c r="EL28" s="18"/>
     </row>
     <row r="31" spans="1:142">
-      <c r="B31" s="3"/>
+      <c r="B31" s="1"/>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:142">
-      <c r="B32" s="4"/>
+      <c r="B32" s="3"/>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="6"/>
+      <c r="B33" s="4"/>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="7"/>
+      <c r="B34" s="6"/>
       <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="7"/>
+      <c r="C35" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="DS1:DW1"/>
+    <mergeCell ref="DX1:EB1"/>
+    <mergeCell ref="EC1:EG1"/>
+    <mergeCell ref="EH1:EL1"/>
+    <mergeCell ref="DN1:DR1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="BA1:BE1"/>
     <mergeCell ref="CJ1:CN1"/>
     <mergeCell ref="CO1:CS1"/>
     <mergeCell ref="CT1:CX1"/>
     <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="BK1:BO1"/>
     <mergeCell ref="BP1:BT1"/>
     <mergeCell ref="BU1:BY1"/>
     <mergeCell ref="BZ1:CD1"/>
     <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="DS1:DW1"/>
-    <mergeCell ref="DX1:EB1"/>
-    <mergeCell ref="EC1:EG1"/>
-    <mergeCell ref="EH1:EL1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="DD1:DH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Planning.xlsx
+++ b/doc/Planning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
   <si>
     <t>MCD</t>
   </si>
@@ -163,6 +163,27 @@
   </si>
   <si>
     <t>refuseDayOff</t>
+  </si>
+  <si>
+    <t>Vue ajout patient</t>
+  </si>
+  <si>
+    <t>Vue consultation tournée</t>
+  </si>
+  <si>
+    <t>Vue Mise à jour patient</t>
+  </si>
+  <si>
+    <t>Vue ajout staff</t>
+  </si>
+  <si>
+    <t>Vue Constultation patient</t>
+  </si>
+  <si>
+    <t>Vue mise à jour staff</t>
+  </si>
+  <si>
+    <t>Vue consultation staff</t>
   </si>
 </sst>
 </file>
@@ -3216,17 +3237,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
     <mergeCell ref="BA1:BE1"/>
     <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="AG1:AK1"/>
     <mergeCell ref="AL1:AP1"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3235,11 +3256,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EL52"/>
+  <dimension ref="A1:EL51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC27" sqref="AC27"/>
+      <selection pane="topRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4546,11 +4567,11 @@
       <c r="AX9" s="10"/>
       <c r="AY9" s="10"/>
       <c r="AZ9" s="15"/>
-      <c r="BA9" s="11"/>
-      <c r="BB9" s="10"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="3"/>
       <c r="BC9" s="10"/>
       <c r="BD9" s="10"/>
-      <c r="BE9" s="15"/>
+      <c r="BE9" s="7"/>
       <c r="BF9" s="11"/>
       <c r="BG9" s="10"/>
       <c r="BH9" s="10"/>
@@ -4639,7 +4660,7 @@
     </row>
     <row r="10" spans="1:142">
       <c r="A10" s="11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B10" s="24">
         <v>4</v>
@@ -4787,10 +4808,10 @@
     </row>
     <row r="11" spans="1:142">
       <c r="A11" s="11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B11" s="24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10"/>
@@ -4935,10 +4956,10 @@
     </row>
     <row r="12" spans="1:142">
       <c r="A12" s="11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B12" s="24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="10"/>
@@ -4955,11 +4976,11 @@
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="15"/>
-      <c r="R12" s="11"/>
+      <c r="R12" s="1"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
-      <c r="V12" s="15"/>
+      <c r="V12" s="7"/>
       <c r="W12" s="11"/>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
@@ -4980,7 +5001,7 @@
       <c r="AN12" s="10"/>
       <c r="AO12" s="10"/>
       <c r="AP12" s="15"/>
-      <c r="AQ12" s="11"/>
+      <c r="AQ12" s="1"/>
       <c r="AR12" s="10"/>
       <c r="AS12" s="10"/>
       <c r="AT12" s="10"/>
@@ -4990,11 +5011,11 @@
       <c r="AX12" s="10"/>
       <c r="AY12" s="10"/>
       <c r="AZ12" s="15"/>
-      <c r="BA12" s="11"/>
-      <c r="BB12" s="10"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="3"/>
       <c r="BC12" s="10"/>
       <c r="BD12" s="10"/>
-      <c r="BE12" s="15"/>
+      <c r="BE12" s="7"/>
       <c r="BF12" s="11"/>
       <c r="BG12" s="10"/>
       <c r="BH12" s="10"/>
@@ -5083,11 +5104,9 @@
     </row>
     <row r="13" spans="1:142">
       <c r="A13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="24">
-        <v>4</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B13" s="24"/>
       <c r="C13" s="11"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -5230,12 +5249,8 @@
       <c r="EL13" s="15"/>
     </row>
     <row r="14" spans="1:142">
-      <c r="A14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="24">
-        <v>4</v>
-      </c>
+      <c r="A14" s="11"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="11"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -5379,10 +5394,10 @@
     </row>
     <row r="15" spans="1:142">
       <c r="A15" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B15" s="24">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="10"/>
@@ -5526,12 +5541,10 @@
       <c r="EL15" s="15"/>
     </row>
     <row r="16" spans="1:142">
-      <c r="A16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="24">
-        <v>2</v>
-      </c>
+      <c r="A16" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="24"/>
       <c r="C16" s="11"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -5584,8 +5597,8 @@
       <c r="AZ16" s="15"/>
       <c r="BA16" s="11"/>
       <c r="BB16" s="10"/>
-      <c r="BC16" s="10"/>
-      <c r="BD16" s="10"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="6"/>
       <c r="BE16" s="15"/>
       <c r="BF16" s="11"/>
       <c r="BG16" s="10"/>
@@ -5595,7 +5608,7 @@
       <c r="BK16" s="11"/>
       <c r="BL16" s="10"/>
       <c r="BM16" s="10"/>
-      <c r="BN16" s="10"/>
+      <c r="BN16" s="6"/>
       <c r="BO16" s="15"/>
       <c r="BP16" s="11"/>
       <c r="BQ16" s="10"/>
@@ -5610,12 +5623,12 @@
       <c r="BZ16" s="11"/>
       <c r="CA16" s="10"/>
       <c r="CB16" s="10"/>
-      <c r="CC16" s="10"/>
+      <c r="CC16" s="6"/>
       <c r="CD16" s="15"/>
       <c r="CE16" s="11"/>
       <c r="CF16" s="10"/>
       <c r="CG16" s="10"/>
-      <c r="CH16" s="10"/>
+      <c r="CH16" s="6"/>
       <c r="CI16" s="15"/>
       <c r="CJ16" s="11"/>
       <c r="CK16" s="10"/>
@@ -5674,12 +5687,10 @@
       <c r="EL16" s="15"/>
     </row>
     <row r="17" spans="1:142">
-      <c r="A17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="24">
-        <v>2</v>
-      </c>
+      <c r="A17" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="24"/>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -5732,8 +5743,8 @@
       <c r="AZ17" s="15"/>
       <c r="BA17" s="11"/>
       <c r="BB17" s="10"/>
-      <c r="BC17" s="10"/>
-      <c r="BD17" s="10"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="6"/>
       <c r="BE17" s="15"/>
       <c r="BF17" s="11"/>
       <c r="BG17" s="10"/>
@@ -5743,7 +5754,7 @@
       <c r="BK17" s="11"/>
       <c r="BL17" s="10"/>
       <c r="BM17" s="10"/>
-      <c r="BN17" s="10"/>
+      <c r="BN17" s="6"/>
       <c r="BO17" s="15"/>
       <c r="BP17" s="11"/>
       <c r="BQ17" s="10"/>
@@ -5758,12 +5769,12 @@
       <c r="BZ17" s="11"/>
       <c r="CA17" s="10"/>
       <c r="CB17" s="10"/>
-      <c r="CC17" s="10"/>
+      <c r="CC17" s="6"/>
       <c r="CD17" s="15"/>
       <c r="CE17" s="11"/>
       <c r="CF17" s="10"/>
       <c r="CG17" s="10"/>
-      <c r="CH17" s="10"/>
+      <c r="CH17" s="6"/>
       <c r="CI17" s="15"/>
       <c r="CJ17" s="11"/>
       <c r="CK17" s="10"/>
@@ -5822,12 +5833,10 @@
       <c r="EL17" s="15"/>
     </row>
     <row r="18" spans="1:142">
-      <c r="A18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="24">
-        <v>4</v>
-      </c>
+      <c r="A18" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="24"/>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -5880,8 +5889,8 @@
       <c r="AZ18" s="15"/>
       <c r="BA18" s="11"/>
       <c r="BB18" s="10"/>
-      <c r="BC18" s="10"/>
-      <c r="BD18" s="10"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="6"/>
       <c r="BE18" s="15"/>
       <c r="BF18" s="11"/>
       <c r="BG18" s="10"/>
@@ -5891,7 +5900,7 @@
       <c r="BK18" s="11"/>
       <c r="BL18" s="10"/>
       <c r="BM18" s="10"/>
-      <c r="BN18" s="10"/>
+      <c r="BN18" s="6"/>
       <c r="BO18" s="15"/>
       <c r="BP18" s="11"/>
       <c r="BQ18" s="10"/>
@@ -5906,12 +5915,12 @@
       <c r="BZ18" s="11"/>
       <c r="CA18" s="10"/>
       <c r="CB18" s="10"/>
-      <c r="CC18" s="10"/>
+      <c r="CC18" s="6"/>
       <c r="CD18" s="15"/>
       <c r="CE18" s="11"/>
       <c r="CF18" s="10"/>
       <c r="CG18" s="10"/>
-      <c r="CH18" s="10"/>
+      <c r="CH18" s="6"/>
       <c r="CI18" s="15"/>
       <c r="CJ18" s="11"/>
       <c r="CK18" s="10"/>
@@ -5970,12 +5979,10 @@
       <c r="EL18" s="15"/>
     </row>
     <row r="19" spans="1:142">
-      <c r="A19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="24">
-        <v>8</v>
-      </c>
+      <c r="A19" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="24"/>
       <c r="C19" s="11"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -6118,12 +6125,10 @@
       <c r="EL19" s="15"/>
     </row>
     <row r="20" spans="1:142">
-      <c r="A20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="24">
-        <v>8</v>
-      </c>
+      <c r="A20" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="24"/>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -6139,11 +6144,11 @@
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="15"/>
-      <c r="R20" s="1"/>
+      <c r="R20" s="11"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
-      <c r="V20" s="7"/>
+      <c r="V20" s="15"/>
       <c r="W20" s="11"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
@@ -6164,7 +6169,7 @@
       <c r="AN20" s="10"/>
       <c r="AO20" s="10"/>
       <c r="AP20" s="15"/>
-      <c r="AQ20" s="1"/>
+      <c r="AQ20" s="11"/>
       <c r="AR20" s="10"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
@@ -6266,8 +6271,8 @@
       <c r="EL20" s="15"/>
     </row>
     <row r="21" spans="1:142">
-      <c r="A21" s="11" t="s">
-        <v>25</v>
+      <c r="A21" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="11"/>
@@ -6412,7 +6417,9 @@
       <c r="EL21" s="15"/>
     </row>
     <row r="22" spans="1:142">
-      <c r="A22" s="11"/>
+      <c r="A22" s="32" t="s">
+        <v>55</v>
+      </c>
       <c r="B22" s="24"/>
       <c r="C22" s="11"/>
       <c r="D22" s="10"/>
@@ -6556,12 +6563,8 @@
       <c r="EL22" s="15"/>
     </row>
     <row r="23" spans="1:142">
-      <c r="A23" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="24">
-        <v>10</v>
-      </c>
+      <c r="A23" s="32"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -6703,9 +6706,13 @@
       <c r="EK23" s="10"/>
       <c r="EL23" s="15"/>
     </row>
-    <row r="24" spans="1:142">
-      <c r="A24" s="32"/>
-      <c r="B24" s="24"/>
+    <row r="24" spans="1:142" ht="14.25" customHeight="1">
+      <c r="A24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="24">
+        <v>2</v>
+      </c>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -6849,7 +6856,7 @@
     </row>
     <row r="25" spans="1:142">
       <c r="A25" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="24">
         <v>2</v>
@@ -6997,7 +7004,7 @@
     </row>
     <row r="26" spans="1:142">
       <c r="A26" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="24">
         <v>2</v>
@@ -7145,7 +7152,7 @@
     </row>
     <row r="27" spans="1:142">
       <c r="A27" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="24">
         <v>2</v>
@@ -7293,7 +7300,7 @@
     </row>
     <row r="28" spans="1:142">
       <c r="A28" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="24">
         <v>2</v>
@@ -7441,7 +7448,7 @@
     </row>
     <row r="29" spans="1:142">
       <c r="A29" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="24">
         <v>2</v>
@@ -7589,7 +7596,7 @@
     </row>
     <row r="30" spans="1:142">
       <c r="A30" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="24">
         <v>2</v>
@@ -7737,7 +7744,7 @@
     </row>
     <row r="31" spans="1:142">
       <c r="A31" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="24">
         <v>2</v>
@@ -7885,7 +7892,7 @@
     </row>
     <row r="32" spans="1:142">
       <c r="A32" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="24">
         <v>2</v>
@@ -8033,7 +8040,7 @@
     </row>
     <row r="33" spans="1:142">
       <c r="A33" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="24">
         <v>2</v>
@@ -8181,7 +8188,7 @@
     </row>
     <row r="34" spans="1:142">
       <c r="A34" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="24">
         <v>2</v>
@@ -8329,7 +8336,7 @@
     </row>
     <row r="35" spans="1:142">
       <c r="A35" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="24">
         <v>2</v>
@@ -8477,7 +8484,7 @@
     </row>
     <row r="36" spans="1:142">
       <c r="A36" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="24">
         <v>2</v>
@@ -8625,7 +8632,7 @@
     </row>
     <row r="37" spans="1:142">
       <c r="A37" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="24">
         <v>2</v>
@@ -8773,7 +8780,7 @@
     </row>
     <row r="38" spans="1:142">
       <c r="A38" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="24">
         <v>2</v>
@@ -8921,7 +8928,7 @@
     </row>
     <row r="39" spans="1:142">
       <c r="A39" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="24">
         <v>2</v>
@@ -9068,12 +9075,8 @@
       <c r="EL39" s="15"/>
     </row>
     <row r="40" spans="1:142">
-      <c r="A40" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="24">
-        <v>2</v>
-      </c>
+      <c r="A40" s="10"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="11"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -9216,7 +9219,7 @@
       <c r="EL40" s="15"/>
     </row>
     <row r="41" spans="1:142">
-      <c r="A41" s="10"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="24"/>
       <c r="C41" s="11"/>
       <c r="D41" s="10"/>
@@ -9360,11 +9363,11 @@
       <c r="EL41" s="15"/>
     </row>
     <row r="42" spans="1:142">
-      <c r="A42" s="11" t="s">
-        <v>28</v>
+      <c r="A42" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="B42" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="10"/>
@@ -9508,8 +9511,8 @@
       <c r="EL42" s="15"/>
     </row>
     <row r="43" spans="1:142">
-      <c r="A43" s="25" t="s">
-        <v>29</v>
+      <c r="A43" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="B43" s="24">
         <v>2</v>
@@ -9655,334 +9658,202 @@
       <c r="EK43" s="10"/>
       <c r="EL43" s="15"/>
     </row>
-    <row r="44" spans="1:142">
-      <c r="A44" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="24">
+    <row r="44" spans="1:142" ht="15.75" thickBot="1">
+      <c r="A44" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="26">
         <v>2</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="15"/>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="10"/>
-      <c r="AD44" s="10"/>
-      <c r="AE44" s="10"/>
-      <c r="AF44" s="15"/>
-      <c r="AG44" s="11"/>
-      <c r="AH44" s="10"/>
-      <c r="AI44" s="10"/>
-      <c r="AJ44" s="10"/>
-      <c r="AK44" s="15"/>
-      <c r="AL44" s="11"/>
-      <c r="AM44" s="10"/>
-      <c r="AN44" s="10"/>
-      <c r="AO44" s="10"/>
-      <c r="AP44" s="15"/>
-      <c r="AQ44" s="11"/>
-      <c r="AR44" s="10"/>
-      <c r="AS44" s="10"/>
-      <c r="AT44" s="10"/>
-      <c r="AU44" s="15"/>
-      <c r="AV44" s="11"/>
-      <c r="AW44" s="10"/>
-      <c r="AX44" s="10"/>
-      <c r="AY44" s="10"/>
-      <c r="AZ44" s="15"/>
-      <c r="BA44" s="11"/>
-      <c r="BB44" s="10"/>
-      <c r="BC44" s="10"/>
-      <c r="BD44" s="10"/>
-      <c r="BE44" s="15"/>
-      <c r="BF44" s="11"/>
-      <c r="BG44" s="10"/>
-      <c r="BH44" s="10"/>
-      <c r="BI44" s="10"/>
-      <c r="BJ44" s="15"/>
-      <c r="BK44" s="11"/>
-      <c r="BL44" s="10"/>
-      <c r="BM44" s="10"/>
-      <c r="BN44" s="10"/>
-      <c r="BO44" s="15"/>
-      <c r="BP44" s="11"/>
-      <c r="BQ44" s="10"/>
-      <c r="BR44" s="10"/>
-      <c r="BS44" s="10"/>
-      <c r="BT44" s="15"/>
-      <c r="BU44" s="11"/>
-      <c r="BV44" s="10"/>
-      <c r="BW44" s="10"/>
-      <c r="BX44" s="10"/>
-      <c r="BY44" s="15"/>
-      <c r="BZ44" s="11"/>
-      <c r="CA44" s="10"/>
-      <c r="CB44" s="10"/>
-      <c r="CC44" s="10"/>
-      <c r="CD44" s="15"/>
-      <c r="CE44" s="11"/>
-      <c r="CF44" s="10"/>
-      <c r="CG44" s="10"/>
-      <c r="CH44" s="10"/>
-      <c r="CI44" s="15"/>
-      <c r="CJ44" s="11"/>
-      <c r="CK44" s="10"/>
-      <c r="CL44" s="10"/>
-      <c r="CM44" s="10"/>
-      <c r="CN44" s="15"/>
-      <c r="CO44" s="11"/>
-      <c r="CP44" s="10"/>
-      <c r="CQ44" s="10"/>
-      <c r="CR44" s="10"/>
-      <c r="CS44" s="15"/>
-      <c r="CT44" s="11"/>
-      <c r="CU44" s="10"/>
-      <c r="CV44" s="10"/>
-      <c r="CW44" s="10"/>
-      <c r="CX44" s="15"/>
-      <c r="CY44" s="11"/>
-      <c r="CZ44" s="10"/>
-      <c r="DA44" s="10"/>
-      <c r="DB44" s="10"/>
-      <c r="DC44" s="15"/>
-      <c r="DD44" s="11"/>
-      <c r="DE44" s="10"/>
-      <c r="DF44" s="10"/>
-      <c r="DG44" s="10"/>
-      <c r="DH44" s="15"/>
-      <c r="DI44" s="11"/>
-      <c r="DJ44" s="10"/>
-      <c r="DK44" s="10"/>
-      <c r="DL44" s="10"/>
-      <c r="DM44" s="15"/>
-      <c r="DN44" s="11"/>
-      <c r="DO44" s="10"/>
-      <c r="DP44" s="10"/>
-      <c r="DQ44" s="10"/>
-      <c r="DR44" s="15"/>
-      <c r="DS44" s="11"/>
-      <c r="DT44" s="10"/>
-      <c r="DU44" s="10"/>
-      <c r="DV44" s="10"/>
-      <c r="DW44" s="15"/>
-      <c r="DX44" s="11"/>
-      <c r="DY44" s="10"/>
-      <c r="DZ44" s="10"/>
-      <c r="EA44" s="10"/>
-      <c r="EB44" s="15"/>
-      <c r="EC44" s="11"/>
-      <c r="ED44" s="10"/>
-      <c r="EE44" s="10"/>
-      <c r="EF44" s="10"/>
-      <c r="EG44" s="15"/>
-      <c r="EH44" s="11"/>
-      <c r="EI44" s="10"/>
-      <c r="EJ44" s="10"/>
-      <c r="EK44" s="10"/>
-      <c r="EL44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="18"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="17"/>
+      <c r="AD44" s="17"/>
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="18"/>
+      <c r="AG44" s="16"/>
+      <c r="AH44" s="17"/>
+      <c r="AI44" s="17"/>
+      <c r="AJ44" s="17"/>
+      <c r="AK44" s="18"/>
+      <c r="AL44" s="16"/>
+      <c r="AM44" s="17"/>
+      <c r="AN44" s="17"/>
+      <c r="AO44" s="17"/>
+      <c r="AP44" s="18"/>
+      <c r="AQ44" s="16"/>
+      <c r="AR44" s="17"/>
+      <c r="AS44" s="17"/>
+      <c r="AT44" s="17"/>
+      <c r="AU44" s="18"/>
+      <c r="AV44" s="16"/>
+      <c r="AW44" s="17"/>
+      <c r="AX44" s="17"/>
+      <c r="AY44" s="17"/>
+      <c r="AZ44" s="18"/>
+      <c r="BA44" s="16"/>
+      <c r="BB44" s="17"/>
+      <c r="BC44" s="17"/>
+      <c r="BD44" s="17"/>
+      <c r="BE44" s="18"/>
+      <c r="BF44" s="16"/>
+      <c r="BG44" s="17"/>
+      <c r="BH44" s="17"/>
+      <c r="BI44" s="17"/>
+      <c r="BJ44" s="18"/>
+      <c r="BK44" s="16"/>
+      <c r="BL44" s="17"/>
+      <c r="BM44" s="17"/>
+      <c r="BN44" s="17"/>
+      <c r="BO44" s="18"/>
+      <c r="BP44" s="16"/>
+      <c r="BQ44" s="17"/>
+      <c r="BR44" s="17"/>
+      <c r="BS44" s="17"/>
+      <c r="BT44" s="18"/>
+      <c r="BU44" s="16"/>
+      <c r="BV44" s="17"/>
+      <c r="BW44" s="17"/>
+      <c r="BX44" s="17"/>
+      <c r="BY44" s="18"/>
+      <c r="BZ44" s="16"/>
+      <c r="CA44" s="17"/>
+      <c r="CB44" s="17"/>
+      <c r="CC44" s="17"/>
+      <c r="CD44" s="18"/>
+      <c r="CE44" s="16"/>
+      <c r="CF44" s="17"/>
+      <c r="CG44" s="17"/>
+      <c r="CH44" s="17"/>
+      <c r="CI44" s="18"/>
+      <c r="CJ44" s="16"/>
+      <c r="CK44" s="17"/>
+      <c r="CL44" s="17"/>
+      <c r="CM44" s="17"/>
+      <c r="CN44" s="18"/>
+      <c r="CO44" s="16"/>
+      <c r="CP44" s="17"/>
+      <c r="CQ44" s="17"/>
+      <c r="CR44" s="17"/>
+      <c r="CS44" s="18"/>
+      <c r="CT44" s="16"/>
+      <c r="CU44" s="17"/>
+      <c r="CV44" s="17"/>
+      <c r="CW44" s="17"/>
+      <c r="CX44" s="18"/>
+      <c r="CY44" s="16"/>
+      <c r="CZ44" s="17"/>
+      <c r="DA44" s="17"/>
+      <c r="DB44" s="17"/>
+      <c r="DC44" s="18"/>
+      <c r="DD44" s="16"/>
+      <c r="DE44" s="17"/>
+      <c r="DF44" s="17"/>
+      <c r="DG44" s="17"/>
+      <c r="DH44" s="18"/>
+      <c r="DI44" s="16"/>
+      <c r="DJ44" s="17"/>
+      <c r="DK44" s="17"/>
+      <c r="DL44" s="17"/>
+      <c r="DM44" s="18"/>
+      <c r="DN44" s="16"/>
+      <c r="DO44" s="17"/>
+      <c r="DP44" s="17"/>
+      <c r="DQ44" s="17"/>
+      <c r="DR44" s="18"/>
+      <c r="DS44" s="16"/>
+      <c r="DT44" s="17"/>
+      <c r="DU44" s="17"/>
+      <c r="DV44" s="17"/>
+      <c r="DW44" s="18"/>
+      <c r="DX44" s="16"/>
+      <c r="DY44" s="17"/>
+      <c r="DZ44" s="17"/>
+      <c r="EA44" s="17"/>
+      <c r="EB44" s="18"/>
+      <c r="EC44" s="16"/>
+      <c r="ED44" s="17"/>
+      <c r="EE44" s="17"/>
+      <c r="EF44" s="17"/>
+      <c r="EG44" s="18"/>
+      <c r="EH44" s="16"/>
+      <c r="EI44" s="17"/>
+      <c r="EJ44" s="17"/>
+      <c r="EK44" s="17"/>
+      <c r="EL44" s="18"/>
     </row>
-    <row r="45" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A45" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="26">
-        <v>2</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="17"/>
-      <c r="AA45" s="18"/>
-      <c r="AB45" s="16"/>
-      <c r="AC45" s="17"/>
-      <c r="AD45" s="17"/>
-      <c r="AE45" s="17"/>
-      <c r="AF45" s="18"/>
-      <c r="AG45" s="16"/>
-      <c r="AH45" s="17"/>
-      <c r="AI45" s="17"/>
-      <c r="AJ45" s="17"/>
-      <c r="AK45" s="18"/>
-      <c r="AL45" s="16"/>
-      <c r="AM45" s="17"/>
-      <c r="AN45" s="17"/>
-      <c r="AO45" s="17"/>
-      <c r="AP45" s="18"/>
-      <c r="AQ45" s="16"/>
-      <c r="AR45" s="17"/>
-      <c r="AS45" s="17"/>
-      <c r="AT45" s="17"/>
-      <c r="AU45" s="18"/>
-      <c r="AV45" s="16"/>
-      <c r="AW45" s="17"/>
-      <c r="AX45" s="17"/>
-      <c r="AY45" s="17"/>
-      <c r="AZ45" s="18"/>
-      <c r="BA45" s="16"/>
-      <c r="BB45" s="17"/>
-      <c r="BC45" s="17"/>
-      <c r="BD45" s="17"/>
-      <c r="BE45" s="18"/>
-      <c r="BF45" s="16"/>
-      <c r="BG45" s="17"/>
-      <c r="BH45" s="17"/>
-      <c r="BI45" s="17"/>
-      <c r="BJ45" s="18"/>
-      <c r="BK45" s="16"/>
-      <c r="BL45" s="17"/>
-      <c r="BM45" s="17"/>
-      <c r="BN45" s="17"/>
-      <c r="BO45" s="18"/>
-      <c r="BP45" s="16"/>
-      <c r="BQ45" s="17"/>
-      <c r="BR45" s="17"/>
-      <c r="BS45" s="17"/>
-      <c r="BT45" s="18"/>
-      <c r="BU45" s="16"/>
-      <c r="BV45" s="17"/>
-      <c r="BW45" s="17"/>
-      <c r="BX45" s="17"/>
-      <c r="BY45" s="18"/>
-      <c r="BZ45" s="16"/>
-      <c r="CA45" s="17"/>
-      <c r="CB45" s="17"/>
-      <c r="CC45" s="17"/>
-      <c r="CD45" s="18"/>
-      <c r="CE45" s="16"/>
-      <c r="CF45" s="17"/>
-      <c r="CG45" s="17"/>
-      <c r="CH45" s="17"/>
-      <c r="CI45" s="18"/>
-      <c r="CJ45" s="16"/>
-      <c r="CK45" s="17"/>
-      <c r="CL45" s="17"/>
-      <c r="CM45" s="17"/>
-      <c r="CN45" s="18"/>
-      <c r="CO45" s="16"/>
-      <c r="CP45" s="17"/>
-      <c r="CQ45" s="17"/>
-      <c r="CR45" s="17"/>
-      <c r="CS45" s="18"/>
-      <c r="CT45" s="16"/>
-      <c r="CU45" s="17"/>
-      <c r="CV45" s="17"/>
-      <c r="CW45" s="17"/>
-      <c r="CX45" s="18"/>
-      <c r="CY45" s="16"/>
-      <c r="CZ45" s="17"/>
-      <c r="DA45" s="17"/>
-      <c r="DB45" s="17"/>
-      <c r="DC45" s="18"/>
-      <c r="DD45" s="16"/>
-      <c r="DE45" s="17"/>
-      <c r="DF45" s="17"/>
-      <c r="DG45" s="17"/>
-      <c r="DH45" s="18"/>
-      <c r="DI45" s="16"/>
-      <c r="DJ45" s="17"/>
-      <c r="DK45" s="17"/>
-      <c r="DL45" s="17"/>
-      <c r="DM45" s="18"/>
-      <c r="DN45" s="16"/>
-      <c r="DO45" s="17"/>
-      <c r="DP45" s="17"/>
-      <c r="DQ45" s="17"/>
-      <c r="DR45" s="18"/>
-      <c r="DS45" s="16"/>
-      <c r="DT45" s="17"/>
-      <c r="DU45" s="17"/>
-      <c r="DV45" s="17"/>
-      <c r="DW45" s="18"/>
-      <c r="DX45" s="16"/>
-      <c r="DY45" s="17"/>
-      <c r="DZ45" s="17"/>
-      <c r="EA45" s="17"/>
-      <c r="EB45" s="18"/>
-      <c r="EC45" s="16"/>
-      <c r="ED45" s="17"/>
-      <c r="EE45" s="17"/>
-      <c r="EF45" s="17"/>
-      <c r="EG45" s="18"/>
-      <c r="EH45" s="16"/>
-      <c r="EI45" s="17"/>
-      <c r="EJ45" s="17"/>
-      <c r="EK45" s="17"/>
-      <c r="EL45" s="18"/>
+    <row r="47" spans="1:142">
+      <c r="B47" s="1"/>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:142">
-      <c r="B48" s="1"/>
+      <c r="B48" s="3"/>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="3"/>
+      <c r="B49" s="4"/>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="4"/>
+      <c r="B50" s="6"/>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="6"/>
+      <c r="B51" s="7"/>
       <c r="C51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="7"/>
-      <c r="C52" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BU1:BY1"/>
     <mergeCell ref="EH1:EL1"/>
     <mergeCell ref="CE1:CI1"/>
     <mergeCell ref="CJ1:CN1"/>
@@ -9995,22 +9866,6 @@
     <mergeCell ref="DS1:DW1"/>
     <mergeCell ref="DX1:EB1"/>
     <mergeCell ref="EC1:EG1"/>
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14259,11 +14114,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="DS1:DW1"/>
-    <mergeCell ref="DX1:EB1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
     <mergeCell ref="EC1:EG1"/>
     <mergeCell ref="EH1:EL1"/>
     <mergeCell ref="DN1:DR1"/>
@@ -14280,13 +14137,11 @@
     <mergeCell ref="BF1:BJ1"/>
     <mergeCell ref="BP1:BT1"/>
     <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="DS1:DW1"/>
+    <mergeCell ref="DX1:EB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Planning.xlsx
+++ b/doc/Planning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
   <si>
     <t>MCD</t>
   </si>
@@ -185,6 +185,15 @@
   <si>
     <t>Vue consultation staff</t>
   </si>
+  <si>
+    <t>Vue évaluation</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Vue Welcome</t>
+  </si>
 </sst>
 </file>
 
@@ -243,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -536,11 +545,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -600,6 +620,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3237,17 +3258,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AA1"/>
     <mergeCell ref="BA1:BE1"/>
     <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="AG1:AK1"/>
     <mergeCell ref="AL1:AP1"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3256,11 +3277,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EL51"/>
+  <dimension ref="A1:EL55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DR16" sqref="DR16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4751,12 +4772,12 @@
       <c r="CH10" s="10"/>
       <c r="CI10" s="15"/>
       <c r="CJ10" s="11"/>
-      <c r="CK10" s="10"/>
+      <c r="CK10" s="3"/>
       <c r="CL10" s="10"/>
       <c r="CM10" s="10"/>
       <c r="CN10" s="15"/>
       <c r="CO10" s="11"/>
-      <c r="CP10" s="10"/>
+      <c r="CP10" s="3"/>
       <c r="CQ10" s="10"/>
       <c r="CR10" s="10"/>
       <c r="CS10" s="15"/>
@@ -5396,9 +5417,7 @@
       <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="24">
-        <v>20</v>
-      </c>
+      <c r="B15" s="24"/>
       <c r="C15" s="11"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -5541,10 +5560,12 @@
       <c r="EL15" s="15"/>
     </row>
     <row r="16" spans="1:142">
-      <c r="A16" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="24"/>
+      <c r="A16" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="24">
+        <v>20</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -5597,8 +5618,8 @@
       <c r="AZ16" s="15"/>
       <c r="BA16" s="11"/>
       <c r="BB16" s="10"/>
-      <c r="BC16" s="4"/>
-      <c r="BD16" s="6"/>
+      <c r="BC16" s="10"/>
+      <c r="BD16" s="10"/>
       <c r="BE16" s="15"/>
       <c r="BF16" s="11"/>
       <c r="BG16" s="10"/>
@@ -5608,7 +5629,7 @@
       <c r="BK16" s="11"/>
       <c r="BL16" s="10"/>
       <c r="BM16" s="10"/>
-      <c r="BN16" s="6"/>
+      <c r="BN16" s="10"/>
       <c r="BO16" s="15"/>
       <c r="BP16" s="11"/>
       <c r="BQ16" s="10"/>
@@ -5623,12 +5644,12 @@
       <c r="BZ16" s="11"/>
       <c r="CA16" s="10"/>
       <c r="CB16" s="10"/>
-      <c r="CC16" s="6"/>
+      <c r="CC16" s="10"/>
       <c r="CD16" s="15"/>
       <c r="CE16" s="11"/>
       <c r="CF16" s="10"/>
       <c r="CG16" s="10"/>
-      <c r="CH16" s="6"/>
+      <c r="CH16" s="10"/>
       <c r="CI16" s="15"/>
       <c r="CJ16" s="11"/>
       <c r="CK16" s="10"/>
@@ -5664,7 +5685,7 @@
       <c r="DO16" s="10"/>
       <c r="DP16" s="10"/>
       <c r="DQ16" s="10"/>
-      <c r="DR16" s="15"/>
+      <c r="DR16" s="7"/>
       <c r="DS16" s="11"/>
       <c r="DT16" s="10"/>
       <c r="DU16" s="10"/>
@@ -5688,7 +5709,7 @@
     </row>
     <row r="17" spans="1:142">
       <c r="A17" s="32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="11"/>
@@ -5834,7 +5855,7 @@
     </row>
     <row r="18" spans="1:142">
       <c r="A18" s="32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="11"/>
@@ -5980,7 +6001,7 @@
     </row>
     <row r="19" spans="1:142">
       <c r="A19" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="11"/>
@@ -6035,8 +6056,8 @@
       <c r="AZ19" s="15"/>
       <c r="BA19" s="11"/>
       <c r="BB19" s="10"/>
-      <c r="BC19" s="10"/>
-      <c r="BD19" s="10"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="6"/>
       <c r="BE19" s="15"/>
       <c r="BF19" s="11"/>
       <c r="BG19" s="10"/>
@@ -6046,7 +6067,7 @@
       <c r="BK19" s="11"/>
       <c r="BL19" s="10"/>
       <c r="BM19" s="10"/>
-      <c r="BN19" s="10"/>
+      <c r="BN19" s="6"/>
       <c r="BO19" s="15"/>
       <c r="BP19" s="11"/>
       <c r="BQ19" s="10"/>
@@ -6061,12 +6082,12 @@
       <c r="BZ19" s="11"/>
       <c r="CA19" s="10"/>
       <c r="CB19" s="10"/>
-      <c r="CC19" s="10"/>
+      <c r="CC19" s="6"/>
       <c r="CD19" s="15"/>
       <c r="CE19" s="11"/>
       <c r="CF19" s="10"/>
       <c r="CG19" s="10"/>
-      <c r="CH19" s="10"/>
+      <c r="CH19" s="6"/>
       <c r="CI19" s="15"/>
       <c r="CJ19" s="11"/>
       <c r="CK19" s="10"/>
@@ -6126,7 +6147,7 @@
     </row>
     <row r="20" spans="1:142">
       <c r="A20" s="32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="11"/>
@@ -6272,7 +6293,7 @@
     </row>
     <row r="21" spans="1:142">
       <c r="A21" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="11"/>
@@ -6418,7 +6439,7 @@
     </row>
     <row r="22" spans="1:142">
       <c r="A22" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="11"/>
@@ -6563,7 +6584,9 @@
       <c r="EL22" s="15"/>
     </row>
     <row r="23" spans="1:142">
-      <c r="A23" s="32"/>
+      <c r="A23" s="32" t="s">
+        <v>55</v>
+      </c>
       <c r="B23" s="24"/>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
@@ -6706,13 +6729,11 @@
       <c r="EK23" s="10"/>
       <c r="EL23" s="15"/>
     </row>
-    <row r="24" spans="1:142" ht="14.25" customHeight="1">
-      <c r="A24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="24">
-        <v>2</v>
-      </c>
+    <row r="24" spans="1:142">
+      <c r="A24" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="24"/>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -6826,12 +6847,12 @@
       <c r="DI24" s="11"/>
       <c r="DJ24" s="10"/>
       <c r="DK24" s="10"/>
-      <c r="DL24" s="10"/>
+      <c r="DL24" s="6"/>
       <c r="DM24" s="15"/>
       <c r="DN24" s="11"/>
       <c r="DO24" s="10"/>
       <c r="DP24" s="10"/>
-      <c r="DQ24" s="10"/>
+      <c r="DQ24" s="6"/>
       <c r="DR24" s="15"/>
       <c r="DS24" s="11"/>
       <c r="DT24" s="10"/>
@@ -6855,12 +6876,8 @@
       <c r="EL24" s="15"/>
     </row>
     <row r="25" spans="1:142">
-      <c r="A25" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="24">
-        <v>2</v>
-      </c>
+      <c r="A25" s="32"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -6974,7 +6991,7 @@
       <c r="DI25" s="11"/>
       <c r="DJ25" s="10"/>
       <c r="DK25" s="10"/>
-      <c r="DL25" s="10"/>
+      <c r="DL25" s="5"/>
       <c r="DM25" s="15"/>
       <c r="DN25" s="11"/>
       <c r="DO25" s="10"/>
@@ -7003,12 +7020,10 @@
       <c r="EL25" s="15"/>
     </row>
     <row r="26" spans="1:142">
-      <c r="A26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="24">
-        <v>2</v>
-      </c>
+      <c r="A26" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="24"/>
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -7122,12 +7137,12 @@
       <c r="DI26" s="11"/>
       <c r="DJ26" s="10"/>
       <c r="DK26" s="10"/>
-      <c r="DL26" s="10"/>
+      <c r="DL26" s="6"/>
       <c r="DM26" s="15"/>
       <c r="DN26" s="11"/>
       <c r="DO26" s="10"/>
       <c r="DP26" s="10"/>
-      <c r="DQ26" s="10"/>
+      <c r="DQ26" s="6"/>
       <c r="DR26" s="15"/>
       <c r="DS26" s="11"/>
       <c r="DT26" s="10"/>
@@ -7151,12 +7166,8 @@
       <c r="EL26" s="15"/>
     </row>
     <row r="27" spans="1:142">
-      <c r="A27" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="24">
-        <v>2</v>
-      </c>
+      <c r="A27" s="32"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="11"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -7298,9 +7309,9 @@
       <c r="EK27" s="10"/>
       <c r="EL27" s="15"/>
     </row>
-    <row r="28" spans="1:142">
+    <row r="28" spans="1:142" ht="14.25" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B28" s="24">
         <v>2</v>
@@ -7448,7 +7459,7 @@
     </row>
     <row r="29" spans="1:142">
       <c r="A29" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B29" s="24">
         <v>2</v>
@@ -7596,7 +7607,7 @@
     </row>
     <row r="30" spans="1:142">
       <c r="A30" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B30" s="24">
         <v>2</v>
@@ -7744,7 +7755,7 @@
     </row>
     <row r="31" spans="1:142">
       <c r="A31" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B31" s="24">
         <v>2</v>
@@ -7892,7 +7903,7 @@
     </row>
     <row r="32" spans="1:142">
       <c r="A32" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B32" s="24">
         <v>2</v>
@@ -8040,7 +8051,7 @@
     </row>
     <row r="33" spans="1:142">
       <c r="A33" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B33" s="24">
         <v>2</v>
@@ -8188,7 +8199,7 @@
     </row>
     <row r="34" spans="1:142">
       <c r="A34" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B34" s="24">
         <v>2</v>
@@ -8336,7 +8347,7 @@
     </row>
     <row r="35" spans="1:142">
       <c r="A35" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B35" s="24">
         <v>2</v>
@@ -8484,7 +8495,7 @@
     </row>
     <row r="36" spans="1:142">
       <c r="A36" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B36" s="24">
         <v>2</v>
@@ -8632,7 +8643,7 @@
     </row>
     <row r="37" spans="1:142">
       <c r="A37" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B37" s="24">
         <v>2</v>
@@ -8780,7 +8791,7 @@
     </row>
     <row r="38" spans="1:142">
       <c r="A38" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B38" s="24">
         <v>2</v>
@@ -8928,7 +8939,7 @@
     </row>
     <row r="39" spans="1:142">
       <c r="A39" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B39" s="24">
         <v>2</v>
@@ -9075,8 +9086,12 @@
       <c r="EL39" s="15"/>
     </row>
     <row r="40" spans="1:142">
-      <c r="A40" s="10"/>
-      <c r="B40" s="24"/>
+      <c r="A40" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="24">
+        <v>2</v>
+      </c>
       <c r="C40" s="11"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -9219,8 +9234,12 @@
       <c r="EL40" s="15"/>
     </row>
     <row r="41" spans="1:142">
-      <c r="A41" s="11"/>
-      <c r="B41" s="24"/>
+      <c r="A41" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="24">
+        <v>2</v>
+      </c>
       <c r="C41" s="11"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -9363,8 +9382,8 @@
       <c r="EL41" s="15"/>
     </row>
     <row r="42" spans="1:142">
-      <c r="A42" s="25" t="s">
-        <v>29</v>
+      <c r="A42" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="B42" s="24">
         <v>2</v>
@@ -9511,8 +9530,8 @@
       <c r="EL42" s="15"/>
     </row>
     <row r="43" spans="1:142">
-      <c r="A43" s="11" t="s">
-        <v>31</v>
+      <c r="A43" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B43" s="24">
         <v>2</v>
@@ -9658,186 +9677,782 @@
       <c r="EK43" s="10"/>
       <c r="EL43" s="15"/>
     </row>
-    <row r="44" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A44" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="26">
+    <row r="44" spans="1:142">
+      <c r="A44" s="10"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="15"/>
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="10"/>
+      <c r="AO44" s="10"/>
+      <c r="AP44" s="15"/>
+      <c r="AQ44" s="11"/>
+      <c r="AR44" s="10"/>
+      <c r="AS44" s="10"/>
+      <c r="AT44" s="10"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="11"/>
+      <c r="AW44" s="10"/>
+      <c r="AX44" s="10"/>
+      <c r="AY44" s="10"/>
+      <c r="AZ44" s="15"/>
+      <c r="BA44" s="11"/>
+      <c r="BB44" s="10"/>
+      <c r="BC44" s="10"/>
+      <c r="BD44" s="10"/>
+      <c r="BE44" s="15"/>
+      <c r="BF44" s="11"/>
+      <c r="BG44" s="10"/>
+      <c r="BH44" s="10"/>
+      <c r="BI44" s="10"/>
+      <c r="BJ44" s="15"/>
+      <c r="BK44" s="11"/>
+      <c r="BL44" s="10"/>
+      <c r="BM44" s="10"/>
+      <c r="BN44" s="10"/>
+      <c r="BO44" s="15"/>
+      <c r="BP44" s="11"/>
+      <c r="BQ44" s="10"/>
+      <c r="BR44" s="10"/>
+      <c r="BS44" s="10"/>
+      <c r="BT44" s="15"/>
+      <c r="BU44" s="11"/>
+      <c r="BV44" s="10"/>
+      <c r="BW44" s="10"/>
+      <c r="BX44" s="10"/>
+      <c r="BY44" s="15"/>
+      <c r="BZ44" s="11"/>
+      <c r="CA44" s="10"/>
+      <c r="CB44" s="10"/>
+      <c r="CC44" s="10"/>
+      <c r="CD44" s="15"/>
+      <c r="CE44" s="11"/>
+      <c r="CF44" s="10"/>
+      <c r="CG44" s="10"/>
+      <c r="CH44" s="10"/>
+      <c r="CI44" s="15"/>
+      <c r="CJ44" s="11"/>
+      <c r="CK44" s="10"/>
+      <c r="CL44" s="10"/>
+      <c r="CM44" s="10"/>
+      <c r="CN44" s="15"/>
+      <c r="CO44" s="11"/>
+      <c r="CP44" s="10"/>
+      <c r="CQ44" s="10"/>
+      <c r="CR44" s="10"/>
+      <c r="CS44" s="15"/>
+      <c r="CT44" s="11"/>
+      <c r="CU44" s="10"/>
+      <c r="CV44" s="10"/>
+      <c r="CW44" s="10"/>
+      <c r="CX44" s="15"/>
+      <c r="CY44" s="11"/>
+      <c r="CZ44" s="10"/>
+      <c r="DA44" s="10"/>
+      <c r="DB44" s="10"/>
+      <c r="DC44" s="15"/>
+      <c r="DD44" s="11"/>
+      <c r="DE44" s="10"/>
+      <c r="DF44" s="10"/>
+      <c r="DG44" s="10"/>
+      <c r="DH44" s="15"/>
+      <c r="DI44" s="11"/>
+      <c r="DJ44" s="10"/>
+      <c r="DK44" s="10"/>
+      <c r="DL44" s="10"/>
+      <c r="DM44" s="15"/>
+      <c r="DN44" s="11"/>
+      <c r="DO44" s="10"/>
+      <c r="DP44" s="10"/>
+      <c r="DQ44" s="10"/>
+      <c r="DR44" s="15"/>
+      <c r="DS44" s="11"/>
+      <c r="DT44" s="10"/>
+      <c r="DU44" s="10"/>
+      <c r="DV44" s="10"/>
+      <c r="DW44" s="15"/>
+      <c r="DX44" s="11"/>
+      <c r="DY44" s="10"/>
+      <c r="DZ44" s="10"/>
+      <c r="EA44" s="10"/>
+      <c r="EB44" s="15"/>
+      <c r="EC44" s="11"/>
+      <c r="ED44" s="10"/>
+      <c r="EE44" s="10"/>
+      <c r="EF44" s="10"/>
+      <c r="EG44" s="15"/>
+      <c r="EH44" s="11"/>
+      <c r="EI44" s="10"/>
+      <c r="EJ44" s="10"/>
+      <c r="EK44" s="10"/>
+      <c r="EL44" s="15"/>
+    </row>
+    <row r="45" spans="1:142">
+      <c r="A45" s="11"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="15"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+      <c r="AK45" s="15"/>
+      <c r="AL45" s="11"/>
+      <c r="AM45" s="10"/>
+      <c r="AN45" s="10"/>
+      <c r="AO45" s="10"/>
+      <c r="AP45" s="15"/>
+      <c r="AQ45" s="11"/>
+      <c r="AR45" s="10"/>
+      <c r="AS45" s="10"/>
+      <c r="AT45" s="10"/>
+      <c r="AU45" s="15"/>
+      <c r="AV45" s="11"/>
+      <c r="AW45" s="10"/>
+      <c r="AX45" s="10"/>
+      <c r="AY45" s="10"/>
+      <c r="AZ45" s="15"/>
+      <c r="BA45" s="11"/>
+      <c r="BB45" s="10"/>
+      <c r="BC45" s="10"/>
+      <c r="BD45" s="10"/>
+      <c r="BE45" s="15"/>
+      <c r="BF45" s="11"/>
+      <c r="BG45" s="10"/>
+      <c r="BH45" s="10"/>
+      <c r="BI45" s="10"/>
+      <c r="BJ45" s="15"/>
+      <c r="BK45" s="11"/>
+      <c r="BL45" s="10"/>
+      <c r="BM45" s="10"/>
+      <c r="BN45" s="10"/>
+      <c r="BO45" s="15"/>
+      <c r="BP45" s="11"/>
+      <c r="BQ45" s="10"/>
+      <c r="BR45" s="10"/>
+      <c r="BS45" s="10"/>
+      <c r="BT45" s="15"/>
+      <c r="BU45" s="11"/>
+      <c r="BV45" s="10"/>
+      <c r="BW45" s="10"/>
+      <c r="BX45" s="10"/>
+      <c r="BY45" s="15"/>
+      <c r="BZ45" s="11"/>
+      <c r="CA45" s="10"/>
+      <c r="CB45" s="10"/>
+      <c r="CC45" s="10"/>
+      <c r="CD45" s="15"/>
+      <c r="CE45" s="11"/>
+      <c r="CF45" s="10"/>
+      <c r="CG45" s="10"/>
+      <c r="CH45" s="10"/>
+      <c r="CI45" s="15"/>
+      <c r="CJ45" s="11"/>
+      <c r="CK45" s="10"/>
+      <c r="CL45" s="10"/>
+      <c r="CM45" s="10"/>
+      <c r="CN45" s="15"/>
+      <c r="CO45" s="11"/>
+      <c r="CP45" s="10"/>
+      <c r="CQ45" s="10"/>
+      <c r="CR45" s="10"/>
+      <c r="CS45" s="15"/>
+      <c r="CT45" s="11"/>
+      <c r="CU45" s="10"/>
+      <c r="CV45" s="10"/>
+      <c r="CW45" s="10"/>
+      <c r="CX45" s="15"/>
+      <c r="CY45" s="11"/>
+      <c r="CZ45" s="10"/>
+      <c r="DA45" s="10"/>
+      <c r="DB45" s="10"/>
+      <c r="DC45" s="15"/>
+      <c r="DD45" s="11"/>
+      <c r="DE45" s="10"/>
+      <c r="DF45" s="10"/>
+      <c r="DG45" s="10"/>
+      <c r="DH45" s="15"/>
+      <c r="DI45" s="11"/>
+      <c r="DJ45" s="10"/>
+      <c r="DK45" s="10"/>
+      <c r="DL45" s="10"/>
+      <c r="DM45" s="15"/>
+      <c r="DN45" s="11"/>
+      <c r="DO45" s="10"/>
+      <c r="DP45" s="10"/>
+      <c r="DQ45" s="10"/>
+      <c r="DR45" s="15"/>
+      <c r="DS45" s="11"/>
+      <c r="DT45" s="10"/>
+      <c r="DU45" s="10"/>
+      <c r="DV45" s="10"/>
+      <c r="DW45" s="15"/>
+      <c r="DX45" s="11"/>
+      <c r="DY45" s="10"/>
+      <c r="DZ45" s="10"/>
+      <c r="EA45" s="10"/>
+      <c r="EB45" s="15"/>
+      <c r="EC45" s="11"/>
+      <c r="ED45" s="10"/>
+      <c r="EE45" s="10"/>
+      <c r="EF45" s="10"/>
+      <c r="EG45" s="15"/>
+      <c r="EH45" s="11"/>
+      <c r="EI45" s="10"/>
+      <c r="EJ45" s="10"/>
+      <c r="EK45" s="10"/>
+      <c r="EL45" s="15"/>
+    </row>
+    <row r="46" spans="1:142">
+      <c r="A46" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="24">
         <v>2</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="17"/>
-      <c r="AA44" s="18"/>
-      <c r="AB44" s="16"/>
-      <c r="AC44" s="17"/>
-      <c r="AD44" s="17"/>
-      <c r="AE44" s="17"/>
-      <c r="AF44" s="18"/>
-      <c r="AG44" s="16"/>
-      <c r="AH44" s="17"/>
-      <c r="AI44" s="17"/>
-      <c r="AJ44" s="17"/>
-      <c r="AK44" s="18"/>
-      <c r="AL44" s="16"/>
-      <c r="AM44" s="17"/>
-      <c r="AN44" s="17"/>
-      <c r="AO44" s="17"/>
-      <c r="AP44" s="18"/>
-      <c r="AQ44" s="16"/>
-      <c r="AR44" s="17"/>
-      <c r="AS44" s="17"/>
-      <c r="AT44" s="17"/>
-      <c r="AU44" s="18"/>
-      <c r="AV44" s="16"/>
-      <c r="AW44" s="17"/>
-      <c r="AX44" s="17"/>
-      <c r="AY44" s="17"/>
-      <c r="AZ44" s="18"/>
-      <c r="BA44" s="16"/>
-      <c r="BB44" s="17"/>
-      <c r="BC44" s="17"/>
-      <c r="BD44" s="17"/>
-      <c r="BE44" s="18"/>
-      <c r="BF44" s="16"/>
-      <c r="BG44" s="17"/>
-      <c r="BH44" s="17"/>
-      <c r="BI44" s="17"/>
-      <c r="BJ44" s="18"/>
-      <c r="BK44" s="16"/>
-      <c r="BL44" s="17"/>
-      <c r="BM44" s="17"/>
-      <c r="BN44" s="17"/>
-      <c r="BO44" s="18"/>
-      <c r="BP44" s="16"/>
-      <c r="BQ44" s="17"/>
-      <c r="BR44" s="17"/>
-      <c r="BS44" s="17"/>
-      <c r="BT44" s="18"/>
-      <c r="BU44" s="16"/>
-      <c r="BV44" s="17"/>
-      <c r="BW44" s="17"/>
-      <c r="BX44" s="17"/>
-      <c r="BY44" s="18"/>
-      <c r="BZ44" s="16"/>
-      <c r="CA44" s="17"/>
-      <c r="CB44" s="17"/>
-      <c r="CC44" s="17"/>
-      <c r="CD44" s="18"/>
-      <c r="CE44" s="16"/>
-      <c r="CF44" s="17"/>
-      <c r="CG44" s="17"/>
-      <c r="CH44" s="17"/>
-      <c r="CI44" s="18"/>
-      <c r="CJ44" s="16"/>
-      <c r="CK44" s="17"/>
-      <c r="CL44" s="17"/>
-      <c r="CM44" s="17"/>
-      <c r="CN44" s="18"/>
-      <c r="CO44" s="16"/>
-      <c r="CP44" s="17"/>
-      <c r="CQ44" s="17"/>
-      <c r="CR44" s="17"/>
-      <c r="CS44" s="18"/>
-      <c r="CT44" s="16"/>
-      <c r="CU44" s="17"/>
-      <c r="CV44" s="17"/>
-      <c r="CW44" s="17"/>
-      <c r="CX44" s="18"/>
-      <c r="CY44" s="16"/>
-      <c r="CZ44" s="17"/>
-      <c r="DA44" s="17"/>
-      <c r="DB44" s="17"/>
-      <c r="DC44" s="18"/>
-      <c r="DD44" s="16"/>
-      <c r="DE44" s="17"/>
-      <c r="DF44" s="17"/>
-      <c r="DG44" s="17"/>
-      <c r="DH44" s="18"/>
-      <c r="DI44" s="16"/>
-      <c r="DJ44" s="17"/>
-      <c r="DK44" s="17"/>
-      <c r="DL44" s="17"/>
-      <c r="DM44" s="18"/>
-      <c r="DN44" s="16"/>
-      <c r="DO44" s="17"/>
-      <c r="DP44" s="17"/>
-      <c r="DQ44" s="17"/>
-      <c r="DR44" s="18"/>
-      <c r="DS44" s="16"/>
-      <c r="DT44" s="17"/>
-      <c r="DU44" s="17"/>
-      <c r="DV44" s="17"/>
-      <c r="DW44" s="18"/>
-      <c r="DX44" s="16"/>
-      <c r="DY44" s="17"/>
-      <c r="DZ44" s="17"/>
-      <c r="EA44" s="17"/>
-      <c r="EB44" s="18"/>
-      <c r="EC44" s="16"/>
-      <c r="ED44" s="17"/>
-      <c r="EE44" s="17"/>
-      <c r="EF44" s="17"/>
-      <c r="EG44" s="18"/>
-      <c r="EH44" s="16"/>
-      <c r="EI44" s="17"/>
-      <c r="EJ44" s="17"/>
-      <c r="EK44" s="17"/>
-      <c r="EL44" s="18"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
+      <c r="AJ46" s="10"/>
+      <c r="AK46" s="15"/>
+      <c r="AL46" s="11"/>
+      <c r="AM46" s="10"/>
+      <c r="AN46" s="10"/>
+      <c r="AO46" s="10"/>
+      <c r="AP46" s="15"/>
+      <c r="AQ46" s="11"/>
+      <c r="AR46" s="10"/>
+      <c r="AS46" s="10"/>
+      <c r="AT46" s="10"/>
+      <c r="AU46" s="15"/>
+      <c r="AV46" s="11"/>
+      <c r="AW46" s="10"/>
+      <c r="AX46" s="10"/>
+      <c r="AY46" s="10"/>
+      <c r="AZ46" s="15"/>
+      <c r="BA46" s="11"/>
+      <c r="BB46" s="10"/>
+      <c r="BC46" s="10"/>
+      <c r="BD46" s="10"/>
+      <c r="BE46" s="15"/>
+      <c r="BF46" s="11"/>
+      <c r="BG46" s="10"/>
+      <c r="BH46" s="10"/>
+      <c r="BI46" s="10"/>
+      <c r="BJ46" s="15"/>
+      <c r="BK46" s="11"/>
+      <c r="BL46" s="10"/>
+      <c r="BM46" s="10"/>
+      <c r="BN46" s="10"/>
+      <c r="BO46" s="15"/>
+      <c r="BP46" s="11"/>
+      <c r="BQ46" s="10"/>
+      <c r="BR46" s="10"/>
+      <c r="BS46" s="10"/>
+      <c r="BT46" s="15"/>
+      <c r="BU46" s="11"/>
+      <c r="BV46" s="10"/>
+      <c r="BW46" s="10"/>
+      <c r="BX46" s="10"/>
+      <c r="BY46" s="15"/>
+      <c r="BZ46" s="11"/>
+      <c r="CA46" s="10"/>
+      <c r="CB46" s="10"/>
+      <c r="CC46" s="10"/>
+      <c r="CD46" s="15"/>
+      <c r="CE46" s="11"/>
+      <c r="CF46" s="10"/>
+      <c r="CG46" s="10"/>
+      <c r="CH46" s="10"/>
+      <c r="CI46" s="15"/>
+      <c r="CJ46" s="11"/>
+      <c r="CK46" s="10"/>
+      <c r="CL46" s="10"/>
+      <c r="CM46" s="10"/>
+      <c r="CN46" s="15"/>
+      <c r="CO46" s="11"/>
+      <c r="CP46" s="10"/>
+      <c r="CQ46" s="10"/>
+      <c r="CR46" s="10"/>
+      <c r="CS46" s="15"/>
+      <c r="CT46" s="11"/>
+      <c r="CU46" s="10"/>
+      <c r="CV46" s="10"/>
+      <c r="CW46" s="10"/>
+      <c r="CX46" s="15"/>
+      <c r="CY46" s="11"/>
+      <c r="CZ46" s="10"/>
+      <c r="DA46" s="10"/>
+      <c r="DB46" s="10"/>
+      <c r="DC46" s="15"/>
+      <c r="DD46" s="11"/>
+      <c r="DE46" s="10"/>
+      <c r="DF46" s="10"/>
+      <c r="DG46" s="10"/>
+      <c r="DH46" s="15"/>
+      <c r="DI46" s="11"/>
+      <c r="DJ46" s="10"/>
+      <c r="DK46" s="10"/>
+      <c r="DL46" s="10"/>
+      <c r="DM46" s="15"/>
+      <c r="DN46" s="11"/>
+      <c r="DO46" s="10"/>
+      <c r="DP46" s="10"/>
+      <c r="DQ46" s="10"/>
+      <c r="DR46" s="15"/>
+      <c r="DS46" s="11"/>
+      <c r="DT46" s="10"/>
+      <c r="DU46" s="10"/>
+      <c r="DV46" s="10"/>
+      <c r="DW46" s="15"/>
+      <c r="DX46" s="11"/>
+      <c r="DY46" s="10"/>
+      <c r="DZ46" s="10"/>
+      <c r="EA46" s="10"/>
+      <c r="EB46" s="15"/>
+      <c r="EC46" s="11"/>
+      <c r="ED46" s="10"/>
+      <c r="EE46" s="10"/>
+      <c r="EF46" s="10"/>
+      <c r="EG46" s="15"/>
+      <c r="EH46" s="11"/>
+      <c r="EI46" s="10"/>
+      <c r="EJ46" s="10"/>
+      <c r="EK46" s="10"/>
+      <c r="EL46" s="15"/>
     </row>
     <row r="47" spans="1:142">
-      <c r="B47" s="1"/>
-      <c r="C47" t="s">
-        <v>3</v>
-      </c>
+      <c r="A47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="24">
+        <v>2</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="15"/>
+      <c r="AL47" s="11"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="10"/>
+      <c r="AO47" s="10"/>
+      <c r="AP47" s="15"/>
+      <c r="AQ47" s="11"/>
+      <c r="AR47" s="10"/>
+      <c r="AS47" s="10"/>
+      <c r="AT47" s="10"/>
+      <c r="AU47" s="15"/>
+      <c r="AV47" s="11"/>
+      <c r="AW47" s="10"/>
+      <c r="AX47" s="10"/>
+      <c r="AY47" s="10"/>
+      <c r="AZ47" s="15"/>
+      <c r="BA47" s="11"/>
+      <c r="BB47" s="10"/>
+      <c r="BC47" s="10"/>
+      <c r="BD47" s="10"/>
+      <c r="BE47" s="15"/>
+      <c r="BF47" s="11"/>
+      <c r="BG47" s="10"/>
+      <c r="BH47" s="10"/>
+      <c r="BI47" s="10"/>
+      <c r="BJ47" s="15"/>
+      <c r="BK47" s="11"/>
+      <c r="BL47" s="10"/>
+      <c r="BM47" s="10"/>
+      <c r="BN47" s="10"/>
+      <c r="BO47" s="15"/>
+      <c r="BP47" s="11"/>
+      <c r="BQ47" s="10"/>
+      <c r="BR47" s="10"/>
+      <c r="BS47" s="10"/>
+      <c r="BT47" s="15"/>
+      <c r="BU47" s="11"/>
+      <c r="BV47" s="10"/>
+      <c r="BW47" s="10"/>
+      <c r="BX47" s="10"/>
+      <c r="BY47" s="15"/>
+      <c r="BZ47" s="11"/>
+      <c r="CA47" s="10"/>
+      <c r="CB47" s="10"/>
+      <c r="CC47" s="10"/>
+      <c r="CD47" s="15"/>
+      <c r="CE47" s="11"/>
+      <c r="CF47" s="10"/>
+      <c r="CG47" s="10"/>
+      <c r="CH47" s="10"/>
+      <c r="CI47" s="15"/>
+      <c r="CJ47" s="11"/>
+      <c r="CK47" s="10"/>
+      <c r="CL47" s="10"/>
+      <c r="CM47" s="10"/>
+      <c r="CN47" s="15"/>
+      <c r="CO47" s="11"/>
+      <c r="CP47" s="10"/>
+      <c r="CQ47" s="10"/>
+      <c r="CR47" s="10"/>
+      <c r="CS47" s="15"/>
+      <c r="CT47" s="11"/>
+      <c r="CU47" s="10"/>
+      <c r="CV47" s="10"/>
+      <c r="CW47" s="10"/>
+      <c r="CX47" s="15"/>
+      <c r="CY47" s="11"/>
+      <c r="CZ47" s="10"/>
+      <c r="DA47" s="10"/>
+      <c r="DB47" s="10"/>
+      <c r="DC47" s="15"/>
+      <c r="DD47" s="11"/>
+      <c r="DE47" s="10"/>
+      <c r="DF47" s="10"/>
+      <c r="DG47" s="10"/>
+      <c r="DH47" s="15"/>
+      <c r="DI47" s="11"/>
+      <c r="DJ47" s="10"/>
+      <c r="DK47" s="10"/>
+      <c r="DL47" s="10"/>
+      <c r="DM47" s="15"/>
+      <c r="DN47" s="11"/>
+      <c r="DO47" s="10"/>
+      <c r="DP47" s="10"/>
+      <c r="DQ47" s="10"/>
+      <c r="DR47" s="15"/>
+      <c r="DS47" s="11"/>
+      <c r="DT47" s="10"/>
+      <c r="DU47" s="10"/>
+      <c r="DV47" s="10"/>
+      <c r="DW47" s="15"/>
+      <c r="DX47" s="11"/>
+      <c r="DY47" s="10"/>
+      <c r="DZ47" s="10"/>
+      <c r="EA47" s="10"/>
+      <c r="EB47" s="15"/>
+      <c r="EC47" s="11"/>
+      <c r="ED47" s="10"/>
+      <c r="EE47" s="10"/>
+      <c r="EF47" s="10"/>
+      <c r="EG47" s="15"/>
+      <c r="EH47" s="11"/>
+      <c r="EI47" s="10"/>
+      <c r="EJ47" s="10"/>
+      <c r="EK47" s="10"/>
+      <c r="EL47" s="15"/>
     </row>
-    <row r="48" spans="1:142">
-      <c r="B48" s="3"/>
-      <c r="C48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="4"/>
-      <c r="C49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="6"/>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
+    <row r="48" spans="1:142" ht="15.75" thickBot="1">
+      <c r="A48" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="26">
+        <v>2</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="18"/>
+      <c r="AB48" s="16"/>
+      <c r="AC48" s="17"/>
+      <c r="AD48" s="17"/>
+      <c r="AE48" s="17"/>
+      <c r="AF48" s="18"/>
+      <c r="AG48" s="16"/>
+      <c r="AH48" s="17"/>
+      <c r="AI48" s="17"/>
+      <c r="AJ48" s="17"/>
+      <c r="AK48" s="18"/>
+      <c r="AL48" s="16"/>
+      <c r="AM48" s="17"/>
+      <c r="AN48" s="17"/>
+      <c r="AO48" s="17"/>
+      <c r="AP48" s="18"/>
+      <c r="AQ48" s="16"/>
+      <c r="AR48" s="17"/>
+      <c r="AS48" s="17"/>
+      <c r="AT48" s="17"/>
+      <c r="AU48" s="18"/>
+      <c r="AV48" s="16"/>
+      <c r="AW48" s="17"/>
+      <c r="AX48" s="17"/>
+      <c r="AY48" s="17"/>
+      <c r="AZ48" s="18"/>
+      <c r="BA48" s="16"/>
+      <c r="BB48" s="17"/>
+      <c r="BC48" s="17"/>
+      <c r="BD48" s="17"/>
+      <c r="BE48" s="18"/>
+      <c r="BF48" s="16"/>
+      <c r="BG48" s="17"/>
+      <c r="BH48" s="17"/>
+      <c r="BI48" s="17"/>
+      <c r="BJ48" s="18"/>
+      <c r="BK48" s="16"/>
+      <c r="BL48" s="17"/>
+      <c r="BM48" s="17"/>
+      <c r="BN48" s="17"/>
+      <c r="BO48" s="18"/>
+      <c r="BP48" s="16"/>
+      <c r="BQ48" s="17"/>
+      <c r="BR48" s="17"/>
+      <c r="BS48" s="17"/>
+      <c r="BT48" s="18"/>
+      <c r="BU48" s="16"/>
+      <c r="BV48" s="17"/>
+      <c r="BW48" s="17"/>
+      <c r="BX48" s="17"/>
+      <c r="BY48" s="18"/>
+      <c r="BZ48" s="16"/>
+      <c r="CA48" s="17"/>
+      <c r="CB48" s="17"/>
+      <c r="CC48" s="17"/>
+      <c r="CD48" s="18"/>
+      <c r="CE48" s="16"/>
+      <c r="CF48" s="17"/>
+      <c r="CG48" s="17"/>
+      <c r="CH48" s="17"/>
+      <c r="CI48" s="18"/>
+      <c r="CJ48" s="16"/>
+      <c r="CK48" s="17"/>
+      <c r="CL48" s="17"/>
+      <c r="CM48" s="17"/>
+      <c r="CN48" s="18"/>
+      <c r="CO48" s="16"/>
+      <c r="CP48" s="17"/>
+      <c r="CQ48" s="17"/>
+      <c r="CR48" s="17"/>
+      <c r="CS48" s="18"/>
+      <c r="CT48" s="16"/>
+      <c r="CU48" s="17"/>
+      <c r="CV48" s="17"/>
+      <c r="CW48" s="17"/>
+      <c r="CX48" s="18"/>
+      <c r="CY48" s="16"/>
+      <c r="CZ48" s="17"/>
+      <c r="DA48" s="17"/>
+      <c r="DB48" s="17"/>
+      <c r="DC48" s="18"/>
+      <c r="DD48" s="16"/>
+      <c r="DE48" s="17"/>
+      <c r="DF48" s="17"/>
+      <c r="DG48" s="17"/>
+      <c r="DH48" s="18"/>
+      <c r="DI48" s="16"/>
+      <c r="DJ48" s="17"/>
+      <c r="DK48" s="17"/>
+      <c r="DL48" s="17"/>
+      <c r="DM48" s="18"/>
+      <c r="DN48" s="16"/>
+      <c r="DO48" s="17"/>
+      <c r="DP48" s="17"/>
+      <c r="DQ48" s="17"/>
+      <c r="DR48" s="18"/>
+      <c r="DS48" s="16"/>
+      <c r="DT48" s="17"/>
+      <c r="DU48" s="17"/>
+      <c r="DV48" s="17"/>
+      <c r="DW48" s="18"/>
+      <c r="DX48" s="16"/>
+      <c r="DY48" s="17"/>
+      <c r="DZ48" s="17"/>
+      <c r="EA48" s="17"/>
+      <c r="EB48" s="18"/>
+      <c r="EC48" s="16"/>
+      <c r="ED48" s="17"/>
+      <c r="EE48" s="17"/>
+      <c r="EF48" s="17"/>
+      <c r="EG48" s="18"/>
+      <c r="EH48" s="16"/>
+      <c r="EI48" s="17"/>
+      <c r="EJ48" s="17"/>
+      <c r="EK48" s="17"/>
+      <c r="EL48" s="18"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="7"/>
+      <c r="B51" s="1"/>
       <c r="C51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="3"/>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="4"/>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="6"/>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="7"/>
+      <c r="C55" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="EH1:EL1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CO1:CS1"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="DN1:DR1"/>
+    <mergeCell ref="DS1:DW1"/>
+    <mergeCell ref="DX1:EB1"/>
+    <mergeCell ref="EC1:EG1"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -9854,18 +10469,6 @@
     <mergeCell ref="BK1:BO1"/>
     <mergeCell ref="BP1:BT1"/>
     <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="EH1:EL1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CO1:CS1"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="DS1:DW1"/>
-    <mergeCell ref="DX1:EB1"/>
-    <mergeCell ref="EC1:EG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14114,13 +14717,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="DS1:DW1"/>
+    <mergeCell ref="DX1:EB1"/>
     <mergeCell ref="EC1:EG1"/>
     <mergeCell ref="EH1:EL1"/>
     <mergeCell ref="DN1:DR1"/>
@@ -14137,11 +14738,13 @@
     <mergeCell ref="BF1:BJ1"/>
     <mergeCell ref="BP1:BT1"/>
     <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="DS1:DW1"/>
-    <mergeCell ref="DX1:EB1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Planning.xlsx
+++ b/doc/Planning.xlsx
@@ -3280,8 +3280,8 @@
   <dimension ref="A1:EL55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DR16" sqref="DR16"/>
+      <pane xSplit="1" topLeftCell="CG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DP23" sqref="DP23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6255,7 +6255,7 @@
       <c r="DA20" s="10"/>
       <c r="DB20" s="10"/>
       <c r="DC20" s="15"/>
-      <c r="DD20" s="11"/>
+      <c r="DD20" s="1"/>
       <c r="DE20" s="10"/>
       <c r="DF20" s="10"/>
       <c r="DG20" s="10"/>
@@ -6265,7 +6265,7 @@
       <c r="DK20" s="10"/>
       <c r="DL20" s="10"/>
       <c r="DM20" s="15"/>
-      <c r="DN20" s="11"/>
+      <c r="DN20" s="1"/>
       <c r="DO20" s="10"/>
       <c r="DP20" s="10"/>
       <c r="DQ20" s="10"/>
@@ -6401,7 +6401,7 @@
       <c r="DA21" s="10"/>
       <c r="DB21" s="10"/>
       <c r="DC21" s="15"/>
-      <c r="DD21" s="11"/>
+      <c r="DD21" s="1"/>
       <c r="DE21" s="10"/>
       <c r="DF21" s="10"/>
       <c r="DG21" s="10"/>
@@ -6411,7 +6411,7 @@
       <c r="DK21" s="10"/>
       <c r="DL21" s="10"/>
       <c r="DM21" s="15"/>
-      <c r="DN21" s="11"/>
+      <c r="DN21" s="1"/>
       <c r="DO21" s="10"/>
       <c r="DP21" s="10"/>
       <c r="DQ21" s="10"/>
@@ -6700,12 +6700,12 @@
       <c r="DH23" s="15"/>
       <c r="DI23" s="11"/>
       <c r="DJ23" s="10"/>
-      <c r="DK23" s="10"/>
+      <c r="DK23" s="4"/>
       <c r="DL23" s="10"/>
       <c r="DM23" s="15"/>
       <c r="DN23" s="11"/>
       <c r="DO23" s="10"/>
-      <c r="DP23" s="10"/>
+      <c r="DP23" s="4"/>
       <c r="DQ23" s="10"/>
       <c r="DR23" s="15"/>
       <c r="DS23" s="11"/>

--- a/doc/Planning.xlsx
+++ b/doc/Planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="213" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="213" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Janvier" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
   <si>
     <t>MCD</t>
   </si>
@@ -194,6 +194,21 @@
   <si>
     <t>Vue Welcome</t>
   </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>dao</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
 </sst>
 </file>
 
@@ -214,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +266,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -414,32 +435,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -556,11 +551,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -580,11 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,14 +635,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -611,16 +653,28 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -935,120 +989,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:362" ht="15.75" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="33">
+      <c r="C1" s="30">
         <v>41295</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="33">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="30">
         <v>41296</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="33">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="30">
         <v>41297</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="33">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="30">
         <v>41298</v>
       </c>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="33">
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="30">
         <v>41299</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="33">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="30">
         <v>41300</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="33">
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="30">
         <v>41301</v>
       </c>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="33">
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="30">
         <v>41302</v>
       </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="33">
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="30">
         <v>41303</v>
       </c>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="33">
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="30">
         <v>41304</v>
       </c>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="33">
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="30">
         <v>41305</v>
       </c>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="35"/>
-      <c r="LZ1" s="21"/>
-      <c r="MA1" s="21"/>
-      <c r="MB1" s="21"/>
-      <c r="MC1" s="21"/>
-      <c r="MD1" s="21"/>
-      <c r="ME1" s="21"/>
-      <c r="MF1" s="21"/>
-      <c r="MG1" s="21"/>
-      <c r="MH1" s="21"/>
-      <c r="MI1" s="21"/>
-      <c r="MJ1" s="21"/>
-      <c r="MK1" s="21"/>
-      <c r="ML1" s="21"/>
-      <c r="MM1" s="21"/>
-      <c r="MN1" s="21"/>
-      <c r="MO1" s="21"/>
-      <c r="MP1" s="21"/>
-      <c r="MQ1" s="21"/>
-      <c r="MR1" s="21"/>
-      <c r="MS1" s="21"/>
-      <c r="MT1" s="21"/>
-      <c r="MU1" s="21"/>
-      <c r="MV1" s="21"/>
-      <c r="MW1" s="21"/>
-      <c r="MX1" s="21"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="32"/>
+      <c r="LZ1" s="19"/>
+      <c r="MA1" s="19"/>
+      <c r="MB1" s="19"/>
+      <c r="MC1" s="19"/>
+      <c r="MD1" s="19"/>
+      <c r="ME1" s="19"/>
+      <c r="MF1" s="19"/>
+      <c r="MG1" s="19"/>
+      <c r="MH1" s="19"/>
+      <c r="MI1" s="19"/>
+      <c r="MJ1" s="19"/>
+      <c r="MK1" s="19"/>
+      <c r="ML1" s="19"/>
+      <c r="MM1" s="19"/>
+      <c r="MN1" s="19"/>
+      <c r="MO1" s="19"/>
+      <c r="MP1" s="19"/>
+      <c r="MQ1" s="19"/>
+      <c r="MR1" s="19"/>
+      <c r="MS1" s="19"/>
+      <c r="MT1" s="19"/>
+      <c r="MU1" s="19"/>
+      <c r="MV1" s="19"/>
+      <c r="MW1" s="19"/>
+      <c r="MX1" s="19"/>
     </row>
     <row r="2" spans="1:362">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="24">
         <v>4</v>
       </c>
       <c r="C2" s="1"/>
@@ -1136,7 +1190,7 @@
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="20">
         <v>4</v>
       </c>
       <c r="C3" s="1"/>
@@ -1224,7 +1278,7 @@
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="20">
         <v>4</v>
       </c>
       <c r="C4" s="11"/>
@@ -1312,7 +1366,7 @@
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="20">
         <v>4</v>
       </c>
       <c r="C5" s="11"/>
@@ -1399,7 +1453,7 @@
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="20">
         <v>1</v>
       </c>
       <c r="C6" s="11"/>
@@ -1487,7 +1541,7 @@
       <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="20">
         <v>1</v>
       </c>
       <c r="C7" s="11"/>
@@ -1575,7 +1629,7 @@
       <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="20">
         <v>2</v>
       </c>
       <c r="C8" s="11"/>
@@ -1663,7 +1717,7 @@
       <c r="A9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="20">
         <v>1</v>
       </c>
       <c r="C9" s="11"/>
@@ -1751,7 +1805,7 @@
       <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="20">
         <v>4</v>
       </c>
       <c r="C10" s="11"/>
@@ -1839,7 +1893,7 @@
       <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="20">
         <v>4</v>
       </c>
       <c r="C11" s="11"/>
@@ -1849,7 +1903,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="11"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="31"/>
+      <c r="J11" s="27"/>
       <c r="K11" s="10"/>
       <c r="L11" s="15"/>
       <c r="M11" s="11"/>
@@ -1927,7 +1981,7 @@
       <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="20">
         <v>4</v>
       </c>
       <c r="C12" s="11"/>
@@ -2015,7 +2069,7 @@
       <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="20">
         <v>4</v>
       </c>
       <c r="C13" s="11"/>
@@ -2103,7 +2157,7 @@
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="20">
         <v>4</v>
       </c>
       <c r="C14" s="11"/>
@@ -2191,7 +2245,7 @@
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="20">
         <v>2</v>
       </c>
       <c r="C15" s="11"/>
@@ -2279,7 +2333,7 @@
       <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="20">
         <v>2</v>
       </c>
       <c r="C16" s="11"/>
@@ -2367,7 +2421,7 @@
       <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="20">
         <v>2</v>
       </c>
       <c r="C17" s="11"/>
@@ -2455,7 +2509,7 @@
       <c r="A18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="20">
         <v>4</v>
       </c>
       <c r="C18" s="11"/>
@@ -2543,7 +2597,7 @@
       <c r="A19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="20">
         <v>8</v>
       </c>
       <c r="C19" s="11"/>
@@ -2631,7 +2685,7 @@
       <c r="A20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="20">
         <v>8</v>
       </c>
       <c r="C20" s="11"/>
@@ -2719,7 +2773,7 @@
       <c r="A21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="11"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -2780,7 +2834,7 @@
       <c r="A22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="20">
         <v>10</v>
       </c>
       <c r="C22" s="11"/>
@@ -2843,7 +2897,7 @@
       <c r="A23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="20">
         <v>10</v>
       </c>
       <c r="C23" s="11"/>
@@ -2904,7 +2958,7 @@
     </row>
     <row r="24" spans="1:362">
       <c r="A24" s="11"/>
-      <c r="B24" s="24"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -2965,7 +3019,7 @@
       <c r="A25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="20">
         <v>4</v>
       </c>
       <c r="C25" s="11"/>
@@ -3025,10 +3079,10 @@
       <c r="BE25" s="15"/>
     </row>
     <row r="26" spans="1:362">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="20">
         <v>2</v>
       </c>
       <c r="C26" s="11"/>
@@ -3091,7 +3145,7 @@
       <c r="A27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="20">
         <v>2</v>
       </c>
       <c r="C27" s="11"/>
@@ -3154,7 +3208,7 @@
       <c r="A28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="22">
         <v>2</v>
       </c>
       <c r="C28" s="16"/>
@@ -3258,17 +3312,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
     <mergeCell ref="BA1:BE1"/>
     <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="AG1:AK1"/>
     <mergeCell ref="AL1:AP1"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3279,9 +3333,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EL55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DP23" sqref="DP23"/>
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3292,214 +3346,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="33">
+      <c r="C1" s="30">
         <v>41306</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="33">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="30">
         <v>41307</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="33">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="30">
         <v>41308</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="33">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="30">
         <v>41309</v>
       </c>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="33">
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="30">
         <v>41310</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="33">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="30">
         <v>41311</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="33">
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="30">
         <v>41312</v>
       </c>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="33">
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="30">
         <v>41313</v>
       </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="33">
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="30">
         <v>41314</v>
       </c>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="33">
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="30">
         <v>41315</v>
       </c>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="33">
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="30">
         <v>41316</v>
       </c>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="33">
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="32"/>
+      <c r="BF1" s="30">
         <v>41317</v>
       </c>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="33">
+      <c r="BG1" s="31"/>
+      <c r="BH1" s="31"/>
+      <c r="BI1" s="31"/>
+      <c r="BJ1" s="32"/>
+      <c r="BK1" s="30">
         <v>41318</v>
       </c>
-      <c r="BL1" s="34"/>
-      <c r="BM1" s="34"/>
-      <c r="BN1" s="34"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="33">
+      <c r="BL1" s="31"/>
+      <c r="BM1" s="31"/>
+      <c r="BN1" s="31"/>
+      <c r="BO1" s="32"/>
+      <c r="BP1" s="30">
         <v>41319</v>
       </c>
-      <c r="BQ1" s="34"/>
-      <c r="BR1" s="34"/>
-      <c r="BS1" s="34"/>
-      <c r="BT1" s="35"/>
-      <c r="BU1" s="33">
+      <c r="BQ1" s="31"/>
+      <c r="BR1" s="31"/>
+      <c r="BS1" s="31"/>
+      <c r="BT1" s="32"/>
+      <c r="BU1" s="30">
         <v>41320</v>
       </c>
-      <c r="BV1" s="34"/>
-      <c r="BW1" s="34"/>
-      <c r="BX1" s="34"/>
-      <c r="BY1" s="35"/>
-      <c r="BZ1" s="33">
+      <c r="BV1" s="31"/>
+      <c r="BW1" s="31"/>
+      <c r="BX1" s="31"/>
+      <c r="BY1" s="32"/>
+      <c r="BZ1" s="30">
         <v>41321</v>
       </c>
-      <c r="CA1" s="34"/>
-      <c r="CB1" s="34"/>
-      <c r="CC1" s="34"/>
-      <c r="CD1" s="35"/>
-      <c r="CE1" s="33">
+      <c r="CA1" s="31"/>
+      <c r="CB1" s="31"/>
+      <c r="CC1" s="31"/>
+      <c r="CD1" s="32"/>
+      <c r="CE1" s="30">
         <v>41322</v>
       </c>
-      <c r="CF1" s="34"/>
-      <c r="CG1" s="34"/>
-      <c r="CH1" s="34"/>
-      <c r="CI1" s="35"/>
-      <c r="CJ1" s="33">
+      <c r="CF1" s="31"/>
+      <c r="CG1" s="31"/>
+      <c r="CH1" s="31"/>
+      <c r="CI1" s="32"/>
+      <c r="CJ1" s="30">
         <v>41323</v>
       </c>
-      <c r="CK1" s="34"/>
-      <c r="CL1" s="34"/>
-      <c r="CM1" s="34"/>
-      <c r="CN1" s="35"/>
-      <c r="CO1" s="33">
+      <c r="CK1" s="31"/>
+      <c r="CL1" s="31"/>
+      <c r="CM1" s="31"/>
+      <c r="CN1" s="32"/>
+      <c r="CO1" s="30">
         <v>41324</v>
       </c>
-      <c r="CP1" s="34"/>
-      <c r="CQ1" s="34"/>
-      <c r="CR1" s="34"/>
-      <c r="CS1" s="35"/>
-      <c r="CT1" s="33">
+      <c r="CP1" s="31"/>
+      <c r="CQ1" s="31"/>
+      <c r="CR1" s="31"/>
+      <c r="CS1" s="32"/>
+      <c r="CT1" s="30">
         <v>41325</v>
       </c>
-      <c r="CU1" s="34"/>
-      <c r="CV1" s="34"/>
-      <c r="CW1" s="34"/>
-      <c r="CX1" s="35"/>
-      <c r="CY1" s="33">
+      <c r="CU1" s="31"/>
+      <c r="CV1" s="31"/>
+      <c r="CW1" s="31"/>
+      <c r="CX1" s="32"/>
+      <c r="CY1" s="30">
         <v>41326</v>
       </c>
-      <c r="CZ1" s="34"/>
-      <c r="DA1" s="34"/>
-      <c r="DB1" s="34"/>
-      <c r="DC1" s="35"/>
-      <c r="DD1" s="33">
+      <c r="CZ1" s="31"/>
+      <c r="DA1" s="31"/>
+      <c r="DB1" s="31"/>
+      <c r="DC1" s="32"/>
+      <c r="DD1" s="30">
         <v>41327</v>
       </c>
-      <c r="DE1" s="34"/>
-      <c r="DF1" s="34"/>
-      <c r="DG1" s="34"/>
-      <c r="DH1" s="35"/>
-      <c r="DI1" s="33">
+      <c r="DE1" s="31"/>
+      <c r="DF1" s="31"/>
+      <c r="DG1" s="31"/>
+      <c r="DH1" s="32"/>
+      <c r="DI1" s="30">
         <v>41328</v>
       </c>
-      <c r="DJ1" s="34"/>
-      <c r="DK1" s="34"/>
-      <c r="DL1" s="34"/>
-      <c r="DM1" s="35"/>
-      <c r="DN1" s="33">
+      <c r="DJ1" s="31"/>
+      <c r="DK1" s="31"/>
+      <c r="DL1" s="31"/>
+      <c r="DM1" s="32"/>
+      <c r="DN1" s="30">
         <v>41329</v>
       </c>
-      <c r="DO1" s="34"/>
-      <c r="DP1" s="34"/>
-      <c r="DQ1" s="34"/>
-      <c r="DR1" s="35"/>
-      <c r="DS1" s="33">
+      <c r="DO1" s="31"/>
+      <c r="DP1" s="31"/>
+      <c r="DQ1" s="31"/>
+      <c r="DR1" s="32"/>
+      <c r="DS1" s="30">
         <v>41330</v>
       </c>
-      <c r="DT1" s="34"/>
-      <c r="DU1" s="34"/>
-      <c r="DV1" s="34"/>
-      <c r="DW1" s="35"/>
-      <c r="DX1" s="33">
+      <c r="DT1" s="31"/>
+      <c r="DU1" s="31"/>
+      <c r="DV1" s="31"/>
+      <c r="DW1" s="32"/>
+      <c r="DX1" s="30">
         <v>41331</v>
       </c>
-      <c r="DY1" s="34"/>
-      <c r="DZ1" s="34"/>
-      <c r="EA1" s="34"/>
-      <c r="EB1" s="35"/>
-      <c r="EC1" s="33">
+      <c r="DY1" s="31"/>
+      <c r="DZ1" s="31"/>
+      <c r="EA1" s="31"/>
+      <c r="EB1" s="32"/>
+      <c r="EC1" s="30">
         <v>41332</v>
       </c>
-      <c r="ED1" s="34"/>
-      <c r="EE1" s="34"/>
-      <c r="EF1" s="34"/>
-      <c r="EG1" s="35"/>
-      <c r="EH1" s="33">
+      <c r="ED1" s="31"/>
+      <c r="EE1" s="31"/>
+      <c r="EF1" s="31"/>
+      <c r="EG1" s="32"/>
+      <c r="EH1" s="30">
         <v>41333</v>
       </c>
-      <c r="EI1" s="34"/>
-      <c r="EJ1" s="34"/>
-      <c r="EK1" s="34"/>
-      <c r="EL1" s="35"/>
+      <c r="EI1" s="31"/>
+      <c r="EJ1" s="31"/>
+      <c r="EK1" s="31"/>
+      <c r="EL1" s="32"/>
     </row>
     <row r="2" spans="1:142">
-      <c r="A2" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="28">
+      <c r="A2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="24">
         <v>4</v>
       </c>
       <c r="C2" s="12"/>
@@ -3647,7 +3701,7 @@
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="20">
         <v>4</v>
       </c>
       <c r="C3" s="11"/>
@@ -3795,7 +3849,7 @@
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="20">
         <v>4</v>
       </c>
       <c r="C4" s="11"/>
@@ -3943,7 +3997,7 @@
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="20">
         <v>4</v>
       </c>
       <c r="C5" s="11"/>
@@ -4091,7 +4145,7 @@
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="20">
         <v>1</v>
       </c>
       <c r="C6" s="11"/>
@@ -4239,7 +4293,7 @@
       <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="20">
         <v>1</v>
       </c>
       <c r="C7" s="11"/>
@@ -4387,7 +4441,7 @@
       <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="20">
         <v>2</v>
       </c>
       <c r="C8" s="11"/>
@@ -4535,7 +4589,7 @@
       <c r="A9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="20">
         <v>1</v>
       </c>
       <c r="C9" s="11"/>
@@ -4683,7 +4737,7 @@
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="20">
         <v>4</v>
       </c>
       <c r="C10" s="11"/>
@@ -4831,7 +4885,7 @@
       <c r="A11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="20">
         <v>8</v>
       </c>
       <c r="C11" s="11"/>
@@ -4979,7 +5033,7 @@
       <c r="A12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="20">
         <v>8</v>
       </c>
       <c r="C12" s="11"/>
@@ -5127,7 +5181,7 @@
       <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="11"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -5271,7 +5325,7 @@
     </row>
     <row r="14" spans="1:142">
       <c r="A14" s="11"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="11"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -5417,7 +5471,7 @@
       <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="11"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -5560,10 +5614,10 @@
       <c r="EL15" s="15"/>
     </row>
     <row r="16" spans="1:142">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="20">
         <v>20</v>
       </c>
       <c r="C16" s="11"/>
@@ -5708,10 +5762,10 @@
       <c r="EL16" s="15"/>
     </row>
     <row r="17" spans="1:142">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -5854,10 +5908,10 @@
       <c r="EL17" s="15"/>
     </row>
     <row r="18" spans="1:142">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -6000,10 +6054,10 @@
       <c r="EL18" s="15"/>
     </row>
     <row r="19" spans="1:142">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="11"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -6146,10 +6200,10 @@
       <c r="EL19" s="15"/>
     </row>
     <row r="20" spans="1:142">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -6292,10 +6346,10 @@
       <c r="EL20" s="15"/>
     </row>
     <row r="21" spans="1:142">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="11"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -6438,10 +6492,10 @@
       <c r="EL21" s="15"/>
     </row>
     <row r="22" spans="1:142">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="11"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -6584,10 +6638,10 @@
       <c r="EL22" s="15"/>
     </row>
     <row r="23" spans="1:142">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -6730,10 +6784,10 @@
       <c r="EL23" s="15"/>
     </row>
     <row r="24" spans="1:142">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -6876,8 +6930,8 @@
       <c r="EL24" s="15"/>
     </row>
     <row r="25" spans="1:142">
-      <c r="A25" s="32"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -7020,10 +7074,10 @@
       <c r="EL25" s="15"/>
     </row>
     <row r="26" spans="1:142">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -7166,8 +7220,8 @@
       <c r="EL26" s="15"/>
     </row>
     <row r="27" spans="1:142">
-      <c r="A27" s="32"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="11"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -7313,7 +7367,7 @@
       <c r="A28" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="20">
         <v>2</v>
       </c>
       <c r="C28" s="11"/>
@@ -7461,7 +7515,7 @@
       <c r="A29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="20">
         <v>2</v>
       </c>
       <c r="C29" s="11"/>
@@ -7609,7 +7663,7 @@
       <c r="A30" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="20">
         <v>2</v>
       </c>
       <c r="C30" s="11"/>
@@ -7757,7 +7811,7 @@
       <c r="A31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="20">
         <v>2</v>
       </c>
       <c r="C31" s="11"/>
@@ -7905,7 +7959,7 @@
       <c r="A32" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="20">
         <v>2</v>
       </c>
       <c r="C32" s="11"/>
@@ -8053,7 +8107,7 @@
       <c r="A33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="20">
         <v>2</v>
       </c>
       <c r="C33" s="11"/>
@@ -8201,7 +8255,7 @@
       <c r="A34" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="20">
         <v>2</v>
       </c>
       <c r="C34" s="11"/>
@@ -8349,7 +8403,7 @@
       <c r="A35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="20">
         <v>2</v>
       </c>
       <c r="C35" s="11"/>
@@ -8497,7 +8551,7 @@
       <c r="A36" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="20">
         <v>2</v>
       </c>
       <c r="C36" s="11"/>
@@ -8645,7 +8699,7 @@
       <c r="A37" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="20">
         <v>2</v>
       </c>
       <c r="C37" s="11"/>
@@ -8793,7 +8847,7 @@
       <c r="A38" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="20">
         <v>2</v>
       </c>
       <c r="C38" s="11"/>
@@ -8941,7 +8995,7 @@
       <c r="A39" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="20">
         <v>2</v>
       </c>
       <c r="C39" s="11"/>
@@ -9089,7 +9143,7 @@
       <c r="A40" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="20">
         <v>2</v>
       </c>
       <c r="C40" s="11"/>
@@ -9237,7 +9291,7 @@
       <c r="A41" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="20">
         <v>2</v>
       </c>
       <c r="C41" s="11"/>
@@ -9385,7 +9439,7 @@
       <c r="A42" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="20">
         <v>2</v>
       </c>
       <c r="C42" s="11"/>
@@ -9533,7 +9587,7 @@
       <c r="A43" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="20">
         <v>2</v>
       </c>
       <c r="C43" s="11"/>
@@ -9679,7 +9733,7 @@
     </row>
     <row r="44" spans="1:142">
       <c r="A44" s="10"/>
-      <c r="B44" s="24"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="11"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -9823,7 +9877,7 @@
     </row>
     <row r="45" spans="1:142">
       <c r="A45" s="11"/>
-      <c r="B45" s="24"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="11"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -9966,10 +10020,10 @@
       <c r="EL45" s="15"/>
     </row>
     <row r="46" spans="1:142">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="24">
+      <c r="B46" s="20">
         <v>2</v>
       </c>
       <c r="C46" s="11"/>
@@ -10117,7 +10171,7 @@
       <c r="A47" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="24">
+      <c r="B47" s="20">
         <v>2</v>
       </c>
       <c r="C47" s="11"/>
@@ -10265,7 +10319,7 @@
       <c r="A48" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="22">
         <v>2</v>
       </c>
       <c r="C48" s="16"/>
@@ -10441,18 +10495,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="EH1:EL1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CO1:CS1"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="DS1:DW1"/>
-    <mergeCell ref="DX1:EB1"/>
-    <mergeCell ref="EC1:EG1"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -10469,6 +10511,18 @@
     <mergeCell ref="BK1:BO1"/>
     <mergeCell ref="BP1:BT1"/>
     <mergeCell ref="BU1:BY1"/>
+    <mergeCell ref="EH1:EL1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CO1:CS1"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="DN1:DR1"/>
+    <mergeCell ref="DS1:DW1"/>
+    <mergeCell ref="DX1:EB1"/>
+    <mergeCell ref="EC1:EG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10477,11 +10531,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EL35"/>
+  <dimension ref="A1:EL58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
+      <selection pane="topRight" activeCell="BG28" sqref="BG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10492,221 +10546,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="33">
+      <c r="C1" s="30">
         <v>41334</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="33">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="30">
         <v>41335</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="33">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="30">
         <v>41336</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="33">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="30">
         <v>41337</v>
       </c>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="33">
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="30">
         <v>41338</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="33">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="30">
         <v>41339</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="33">
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="30">
         <v>41340</v>
       </c>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="33">
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="30">
         <v>41341</v>
       </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="33">
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="30">
         <v>41342</v>
       </c>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="33">
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="30">
         <v>41343</v>
       </c>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="33">
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="30">
         <v>41344</v>
       </c>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="33">
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="32"/>
+      <c r="BF1" s="30">
         <v>41345</v>
       </c>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="33">
+      <c r="BG1" s="31"/>
+      <c r="BH1" s="31"/>
+      <c r="BI1" s="31"/>
+      <c r="BJ1" s="32"/>
+      <c r="BK1" s="30">
         <v>41346</v>
       </c>
-      <c r="BL1" s="34"/>
-      <c r="BM1" s="34"/>
-      <c r="BN1" s="34"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="33">
+      <c r="BL1" s="31"/>
+      <c r="BM1" s="31"/>
+      <c r="BN1" s="31"/>
+      <c r="BO1" s="32"/>
+      <c r="BP1" s="30">
         <v>41347</v>
       </c>
-      <c r="BQ1" s="34"/>
-      <c r="BR1" s="34"/>
-      <c r="BS1" s="34"/>
-      <c r="BT1" s="35"/>
-      <c r="BU1" s="33">
+      <c r="BQ1" s="31"/>
+      <c r="BR1" s="31"/>
+      <c r="BS1" s="31"/>
+      <c r="BT1" s="32"/>
+      <c r="BU1" s="30">
         <v>41348</v>
       </c>
-      <c r="BV1" s="34"/>
-      <c r="BW1" s="34"/>
-      <c r="BX1" s="34"/>
-      <c r="BY1" s="35"/>
-      <c r="BZ1" s="33">
+      <c r="BV1" s="31"/>
+      <c r="BW1" s="31"/>
+      <c r="BX1" s="31"/>
+      <c r="BY1" s="32"/>
+      <c r="BZ1" s="30">
         <v>41349</v>
       </c>
-      <c r="CA1" s="34"/>
-      <c r="CB1" s="34"/>
-      <c r="CC1" s="34"/>
-      <c r="CD1" s="35"/>
-      <c r="CE1" s="33">
+      <c r="CA1" s="31"/>
+      <c r="CB1" s="31"/>
+      <c r="CC1" s="31"/>
+      <c r="CD1" s="32"/>
+      <c r="CE1" s="30">
         <v>41350</v>
       </c>
-      <c r="CF1" s="34"/>
-      <c r="CG1" s="34"/>
-      <c r="CH1" s="34"/>
-      <c r="CI1" s="35"/>
-      <c r="CJ1" s="33">
+      <c r="CF1" s="31"/>
+      <c r="CG1" s="31"/>
+      <c r="CH1" s="31"/>
+      <c r="CI1" s="32"/>
+      <c r="CJ1" s="30">
         <v>41351</v>
       </c>
-      <c r="CK1" s="34"/>
-      <c r="CL1" s="34"/>
-      <c r="CM1" s="34"/>
-      <c r="CN1" s="35"/>
-      <c r="CO1" s="33">
+      <c r="CK1" s="31"/>
+      <c r="CL1" s="31"/>
+      <c r="CM1" s="31"/>
+      <c r="CN1" s="32"/>
+      <c r="CO1" s="30">
         <v>41352</v>
       </c>
-      <c r="CP1" s="34"/>
-      <c r="CQ1" s="34"/>
-      <c r="CR1" s="34"/>
-      <c r="CS1" s="35"/>
-      <c r="CT1" s="33">
+      <c r="CP1" s="31"/>
+      <c r="CQ1" s="31"/>
+      <c r="CR1" s="31"/>
+      <c r="CS1" s="32"/>
+      <c r="CT1" s="30">
         <v>41353</v>
       </c>
-      <c r="CU1" s="34"/>
-      <c r="CV1" s="34"/>
-      <c r="CW1" s="34"/>
-      <c r="CX1" s="35"/>
-      <c r="CY1" s="33">
+      <c r="CU1" s="31"/>
+      <c r="CV1" s="31"/>
+      <c r="CW1" s="31"/>
+      <c r="CX1" s="32"/>
+      <c r="CY1" s="30">
         <v>41354</v>
       </c>
-      <c r="CZ1" s="34"/>
-      <c r="DA1" s="34"/>
-      <c r="DB1" s="34"/>
-      <c r="DC1" s="35"/>
-      <c r="DD1" s="33">
+      <c r="CZ1" s="31"/>
+      <c r="DA1" s="31"/>
+      <c r="DB1" s="31"/>
+      <c r="DC1" s="32"/>
+      <c r="DD1" s="30">
         <v>41355</v>
       </c>
-      <c r="DE1" s="34"/>
-      <c r="DF1" s="34"/>
-      <c r="DG1" s="34"/>
-      <c r="DH1" s="35"/>
-      <c r="DI1" s="33">
+      <c r="DE1" s="31"/>
+      <c r="DF1" s="31"/>
+      <c r="DG1" s="31"/>
+      <c r="DH1" s="32"/>
+      <c r="DI1" s="30">
         <v>41356</v>
       </c>
-      <c r="DJ1" s="34"/>
-      <c r="DK1" s="34"/>
-      <c r="DL1" s="34"/>
-      <c r="DM1" s="35"/>
-      <c r="DN1" s="33">
+      <c r="DJ1" s="31"/>
+      <c r="DK1" s="31"/>
+      <c r="DL1" s="31"/>
+      <c r="DM1" s="32"/>
+      <c r="DN1" s="30">
         <v>41357</v>
       </c>
-      <c r="DO1" s="34"/>
-      <c r="DP1" s="34"/>
-      <c r="DQ1" s="34"/>
-      <c r="DR1" s="35"/>
-      <c r="DS1" s="33">
+      <c r="DO1" s="31"/>
+      <c r="DP1" s="31"/>
+      <c r="DQ1" s="31"/>
+      <c r="DR1" s="32"/>
+      <c r="DS1" s="30">
         <v>41358</v>
       </c>
-      <c r="DT1" s="34"/>
-      <c r="DU1" s="34"/>
-      <c r="DV1" s="34"/>
-      <c r="DW1" s="35"/>
-      <c r="DX1" s="33">
+      <c r="DT1" s="31"/>
+      <c r="DU1" s="31"/>
+      <c r="DV1" s="31"/>
+      <c r="DW1" s="32"/>
+      <c r="DX1" s="30">
         <v>41359</v>
       </c>
-      <c r="DY1" s="34"/>
-      <c r="DZ1" s="34"/>
-      <c r="EA1" s="34"/>
-      <c r="EB1" s="35"/>
-      <c r="EC1" s="33">
+      <c r="DY1" s="31"/>
+      <c r="DZ1" s="31"/>
+      <c r="EA1" s="31"/>
+      <c r="EB1" s="32"/>
+      <c r="EC1" s="30">
         <v>41360</v>
       </c>
-      <c r="ED1" s="34"/>
-      <c r="EE1" s="34"/>
-      <c r="EF1" s="34"/>
-      <c r="EG1" s="35"/>
-      <c r="EH1" s="36">
+      <c r="ED1" s="31"/>
+      <c r="EE1" s="31"/>
+      <c r="EF1" s="31"/>
+      <c r="EG1" s="32"/>
+      <c r="EH1" s="33">
         <v>41361</v>
       </c>
-      <c r="EI1" s="37"/>
-      <c r="EJ1" s="37"/>
-      <c r="EK1" s="37"/>
-      <c r="EL1" s="38"/>
+      <c r="EI1" s="34"/>
+      <c r="EJ1" s="34"/>
+      <c r="EK1" s="34"/>
+      <c r="EL1" s="35"/>
     </row>
     <row r="2" spans="1:142">
-      <c r="A2" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="28">
+      <c r="A2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="38">
         <v>4</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="12"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -10837,24 +10891,24 @@
       <c r="EE2" s="13"/>
       <c r="EF2" s="13"/>
       <c r="EG2" s="14"/>
-      <c r="EH2" s="22"/>
-      <c r="EI2" s="20"/>
-      <c r="EJ2" s="20"/>
-      <c r="EK2" s="20"/>
-      <c r="EL2" s="23"/>
+      <c r="EH2" s="12"/>
+      <c r="EI2" s="13"/>
+      <c r="EJ2" s="13"/>
+      <c r="EK2" s="13"/>
+      <c r="EL2" s="14"/>
     </row>
     <row r="3" spans="1:142">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="36">
         <v>4</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="15"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="11"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -10995,14 +11049,14 @@
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="36">
         <v>4</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="15"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="11"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -11143,14 +11197,14 @@
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="36">
         <v>4</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="11"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -11288,17 +11342,13 @@
       <c r="EL5" s="15"/>
     </row>
     <row r="6" spans="1:142">
-      <c r="A6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="24">
-        <v>1</v>
-      </c>
+      <c r="A6" s="11"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="11"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="15"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="11"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -11437,16 +11487,14 @@
     </row>
     <row r="7" spans="1:142">
       <c r="A7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="24">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B7" s="36"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="15"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="11"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -11519,12 +11567,12 @@
       <c r="BY7" s="15"/>
       <c r="BZ7" s="11"/>
       <c r="CA7" s="10"/>
-      <c r="CB7" s="10"/>
+      <c r="CB7" s="42"/>
       <c r="CC7" s="10"/>
       <c r="CD7" s="15"/>
       <c r="CE7" s="11"/>
       <c r="CF7" s="10"/>
-      <c r="CG7" s="10"/>
+      <c r="CG7" s="42"/>
       <c r="CH7" s="10"/>
       <c r="CI7" s="15"/>
       <c r="CJ7" s="11"/>
@@ -11584,17 +11632,13 @@
       <c r="EL7" s="15"/>
     </row>
     <row r="8" spans="1:142">
-      <c r="A8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="24">
-        <v>2</v>
-      </c>
+      <c r="A8" s="11"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="15"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="11"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -11733,27 +11777,27 @@
     </row>
     <row r="9" spans="1:142">
       <c r="A9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="24">
+        <v>61</v>
+      </c>
+      <c r="B9" s="36">
         <v>1</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="15"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="11"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="11"/>
+      <c r="M9" s="3"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="11"/>
+      <c r="R9" s="3"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
@@ -11881,27 +11925,27 @@
     </row>
     <row r="10" spans="1:142">
       <c r="A10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="24">
-        <v>4</v>
+        <v>60</v>
+      </c>
+      <c r="B10" s="36">
+        <v>1</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="11"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="11"/>
+      <c r="M10" s="3"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="11"/>
+      <c r="R10" s="3"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
@@ -12029,27 +12073,27 @@
     </row>
     <row r="11" spans="1:142">
       <c r="A11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="24">
-        <v>4</v>
+        <v>62</v>
+      </c>
+      <c r="B11" s="36">
+        <v>2</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="15"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="11"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="11"/>
+      <c r="M11" s="3"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="11"/>
+      <c r="R11" s="3"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
@@ -12176,17 +12220,13 @@
       <c r="EL11" s="15"/>
     </row>
     <row r="12" spans="1:142">
-      <c r="A12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="24">
-        <v>4</v>
-      </c>
+      <c r="A12" s="11"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="11"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="15"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="11"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -12325,16 +12365,16 @@
     </row>
     <row r="13" spans="1:142">
       <c r="A13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="24">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="36">
+        <v>1</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="15"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="11"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -12473,16 +12513,16 @@
     </row>
     <row r="14" spans="1:142">
       <c r="A14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="24">
+        <v>22</v>
+      </c>
+      <c r="B14" s="36">
         <v>4</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="15"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="11"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -12508,8 +12548,7 @@
       <c r="AD14" s="10"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="15"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="10"/>
+      <c r="AG14" s="3"/>
       <c r="AI14" s="10"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="15"/>
@@ -12621,16 +12660,16 @@
     </row>
     <row r="15" spans="1:142">
       <c r="A15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="24">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="B15" s="36">
+        <v>4</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="15"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="11"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -12769,16 +12808,16 @@
     </row>
     <row r="16" spans="1:142">
       <c r="A16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="24">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="B16" s="36">
+        <v>4</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="15"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="11"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -12917,16 +12956,16 @@
     </row>
     <row r="17" spans="1:142">
       <c r="A17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="24">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="B17" s="36">
+        <v>4</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="15"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="11"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -13064,17 +13103,15 @@
       <c r="EL17" s="15"/>
     </row>
     <row r="18" spans="1:142">
-      <c r="A18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="24">
+      <c r="A18" s="11"/>
+      <c r="B18" s="36">
         <v>4</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="15"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="11"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -13213,16 +13250,16 @@
     </row>
     <row r="19" spans="1:142">
       <c r="A19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="24">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="B19" s="36">
+        <v>2</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="15"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="11"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -13345,7 +13382,7 @@
       <c r="DW19" s="15"/>
       <c r="DX19" s="11"/>
       <c r="DY19" s="10"/>
-      <c r="DZ19" s="19"/>
+      <c r="DZ19" s="10"/>
       <c r="EA19" s="10"/>
       <c r="EB19" s="15"/>
       <c r="EC19" s="11"/>
@@ -13360,17 +13397,17 @@
       <c r="EL19" s="15"/>
     </row>
     <row r="20" spans="1:142">
-      <c r="A20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="24">
-        <v>8</v>
+      <c r="A20" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="36">
+        <v>2</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="15"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="11"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -13414,7 +13451,7 @@
       <c r="AV20" s="11"/>
       <c r="AW20" s="10"/>
       <c r="AX20" s="10"/>
-      <c r="AY20" s="10"/>
+      <c r="AY20" s="1"/>
       <c r="AZ20" s="15"/>
       <c r="BA20" s="11"/>
       <c r="BB20" s="10"/>
@@ -13442,12 +13479,12 @@
       <c r="BX20" s="10"/>
       <c r="BY20" s="15"/>
       <c r="BZ20" s="11"/>
-      <c r="CA20" s="10"/>
+      <c r="CA20" s="6"/>
       <c r="CB20" s="10"/>
       <c r="CC20" s="10"/>
       <c r="CD20" s="15"/>
       <c r="CE20" s="11"/>
-      <c r="CF20" s="10"/>
+      <c r="CF20" s="6"/>
       <c r="CG20" s="10"/>
       <c r="CH20" s="10"/>
       <c r="CI20" s="15"/>
@@ -13493,7 +13530,7 @@
       <c r="DW20" s="15"/>
       <c r="DX20" s="11"/>
       <c r="DY20" s="10"/>
-      <c r="DZ20" s="20"/>
+      <c r="DZ20" s="10"/>
       <c r="EA20" s="10"/>
       <c r="EB20" s="15"/>
       <c r="EC20" s="11"/>
@@ -13508,15 +13545,17 @@
       <c r="EL20" s="15"/>
     </row>
     <row r="21" spans="1:142">
-      <c r="A21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="24"/>
+      <c r="A21" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="36">
+        <v>2</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="15"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="11"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
@@ -13565,7 +13604,7 @@
       <c r="BA21" s="11"/>
       <c r="BB21" s="10"/>
       <c r="BC21" s="10"/>
-      <c r="BD21" s="10"/>
+      <c r="BD21" s="1"/>
       <c r="BE21" s="15"/>
       <c r="BF21" s="11"/>
       <c r="BG21" s="10"/>
@@ -13588,12 +13627,12 @@
       <c r="BX21" s="10"/>
       <c r="BY21" s="15"/>
       <c r="BZ21" s="11"/>
-      <c r="CA21" s="10"/>
+      <c r="CA21" s="6"/>
       <c r="CB21" s="10"/>
       <c r="CC21" s="10"/>
       <c r="CD21" s="15"/>
       <c r="CE21" s="11"/>
-      <c r="CF21" s="10"/>
+      <c r="CF21" s="6"/>
       <c r="CG21" s="10"/>
       <c r="CH21" s="10"/>
       <c r="CI21" s="15"/>
@@ -13654,17 +13693,17 @@
       <c r="EL21" s="15"/>
     </row>
     <row r="22" spans="1:142">
-      <c r="A22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="24">
-        <v>10</v>
+      <c r="A22" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="36">
+        <v>4</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="15"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="11"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
@@ -13718,7 +13757,7 @@
       <c r="BF22" s="11"/>
       <c r="BG22" s="10"/>
       <c r="BH22" s="10"/>
-      <c r="BI22" s="10"/>
+      <c r="BI22" s="1"/>
       <c r="BJ22" s="15"/>
       <c r="BK22" s="11"/>
       <c r="BL22" s="10"/>
@@ -13736,12 +13775,12 @@
       <c r="BX22" s="10"/>
       <c r="BY22" s="15"/>
       <c r="BZ22" s="11"/>
-      <c r="CA22" s="10"/>
+      <c r="CA22" s="6"/>
       <c r="CB22" s="10"/>
       <c r="CC22" s="10"/>
       <c r="CD22" s="15"/>
       <c r="CE22" s="11"/>
-      <c r="CF22" s="10"/>
+      <c r="CF22" s="6"/>
       <c r="CG22" s="10"/>
       <c r="CH22" s="10"/>
       <c r="CI22" s="15"/>
@@ -13802,23 +13841,23 @@
       <c r="EL22" s="15"/>
     </row>
     <row r="23" spans="1:142">
-      <c r="A23" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="24">
-        <v>10</v>
+      <c r="A23" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="36">
+        <v>8</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="11"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="15"/>
-      <c r="M23" s="11"/>
+      <c r="M23" s="3"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
@@ -13866,7 +13905,7 @@
       <c r="BF23" s="11"/>
       <c r="BG23" s="10"/>
       <c r="BH23" s="10"/>
-      <c r="BI23" s="10"/>
+      <c r="BI23" s="1"/>
       <c r="BJ23" s="15"/>
       <c r="BK23" s="11"/>
       <c r="BL23" s="10"/>
@@ -13884,12 +13923,12 @@
       <c r="BX23" s="10"/>
       <c r="BY23" s="15"/>
       <c r="BZ23" s="11"/>
-      <c r="CA23" s="10"/>
+      <c r="CA23" s="6"/>
       <c r="CB23" s="10"/>
       <c r="CC23" s="10"/>
       <c r="CD23" s="15"/>
       <c r="CE23" s="11"/>
-      <c r="CF23" s="10"/>
+      <c r="CF23" s="6"/>
       <c r="CG23" s="10"/>
       <c r="CH23" s="10"/>
       <c r="CI23" s="15"/>
@@ -13950,13 +13989,17 @@
       <c r="EL23" s="15"/>
     </row>
     <row r="24" spans="1:142">
-      <c r="A24" s="11"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="36">
+        <v>8</v>
+      </c>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="15"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="11"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
@@ -14005,7 +14048,7 @@
       <c r="BA24" s="11"/>
       <c r="BB24" s="10"/>
       <c r="BC24" s="10"/>
-      <c r="BD24" s="10"/>
+      <c r="BD24" s="1"/>
       <c r="BE24" s="15"/>
       <c r="BF24" s="11"/>
       <c r="BG24" s="10"/>
@@ -14028,12 +14071,12 @@
       <c r="BX24" s="10"/>
       <c r="BY24" s="15"/>
       <c r="BZ24" s="11"/>
-      <c r="CA24" s="10"/>
+      <c r="CA24" s="6"/>
       <c r="CB24" s="10"/>
       <c r="CC24" s="10"/>
       <c r="CD24" s="15"/>
       <c r="CE24" s="11"/>
-      <c r="CF24" s="10"/>
+      <c r="CF24" s="6"/>
       <c r="CG24" s="10"/>
       <c r="CH24" s="10"/>
       <c r="CI24" s="15"/>
@@ -14094,17 +14137,15 @@
       <c r="EL24" s="15"/>
     </row>
     <row r="25" spans="1:142">
-      <c r="A25" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="24">
-        <v>4</v>
-      </c>
+      <c r="A25" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="36"/>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="15"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="11"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -14163,7 +14204,7 @@
       <c r="BK25" s="11"/>
       <c r="BL25" s="10"/>
       <c r="BM25" s="10"/>
-      <c r="BN25" s="10"/>
+      <c r="BN25" s="1"/>
       <c r="BO25" s="15"/>
       <c r="BP25" s="11"/>
       <c r="BQ25" s="10"/>
@@ -14176,12 +14217,12 @@
       <c r="BX25" s="10"/>
       <c r="BY25" s="15"/>
       <c r="BZ25" s="11"/>
-      <c r="CA25" s="10"/>
+      <c r="CA25" s="6"/>
       <c r="CB25" s="10"/>
       <c r="CC25" s="10"/>
       <c r="CD25" s="15"/>
       <c r="CE25" s="11"/>
-      <c r="CF25" s="10"/>
+      <c r="CF25" s="6"/>
       <c r="CG25" s="10"/>
       <c r="CH25" s="10"/>
       <c r="CI25" s="15"/>
@@ -14242,17 +14283,17 @@
       <c r="EL25" s="15"/>
     </row>
     <row r="26" spans="1:142">
-      <c r="A26" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="24">
-        <v>2</v>
+      <c r="A26" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="36">
+        <v>10</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="15"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="11"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -14311,7 +14352,7 @@
       <c r="BK26" s="11"/>
       <c r="BL26" s="10"/>
       <c r="BM26" s="10"/>
-      <c r="BN26" s="10"/>
+      <c r="BN26" s="1"/>
       <c r="BO26" s="15"/>
       <c r="BP26" s="11"/>
       <c r="BQ26" s="10"/>
@@ -14324,12 +14365,12 @@
       <c r="BX26" s="10"/>
       <c r="BY26" s="15"/>
       <c r="BZ26" s="11"/>
-      <c r="CA26" s="10"/>
+      <c r="CA26" s="6"/>
       <c r="CB26" s="10"/>
       <c r="CC26" s="10"/>
       <c r="CD26" s="15"/>
       <c r="CE26" s="11"/>
-      <c r="CF26" s="10"/>
+      <c r="CF26" s="6"/>
       <c r="CG26" s="10"/>
       <c r="CH26" s="10"/>
       <c r="CI26" s="15"/>
@@ -14390,17 +14431,17 @@
       <c r="EL26" s="15"/>
     </row>
     <row r="27" spans="1:142">
-      <c r="A27" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="24">
-        <v>2</v>
+      <c r="A27" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="36">
+        <v>10</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="15"/>
+      <c r="G27" s="40"/>
       <c r="H27" s="11"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
@@ -14457,14 +14498,13 @@
       <c r="BI27" s="10"/>
       <c r="BJ27" s="15"/>
       <c r="BK27" s="11"/>
-      <c r="BL27" s="10"/>
       <c r="BM27" s="10"/>
       <c r="BN27" s="10"/>
       <c r="BO27" s="15"/>
       <c r="BP27" s="11"/>
       <c r="BQ27" s="10"/>
       <c r="BR27" s="10"/>
-      <c r="BS27" s="10"/>
+      <c r="BS27" s="1"/>
       <c r="BT27" s="15"/>
       <c r="BU27" s="11"/>
       <c r="BV27" s="10"/>
@@ -14472,12 +14512,12 @@
       <c r="BX27" s="10"/>
       <c r="BY27" s="15"/>
       <c r="BZ27" s="11"/>
-      <c r="CA27" s="10"/>
+      <c r="CA27" s="6"/>
       <c r="CB27" s="10"/>
       <c r="CC27" s="10"/>
       <c r="CD27" s="15"/>
       <c r="CE27" s="11"/>
-      <c r="CF27" s="10"/>
+      <c r="CF27" s="6"/>
       <c r="CG27" s="10"/>
       <c r="CH27" s="10"/>
       <c r="CI27" s="15"/>
@@ -14537,191 +14577,3734 @@
       <c r="EK27" s="10"/>
       <c r="EL27" s="15"/>
     </row>
-    <row r="28" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A28" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="26">
+    <row r="28" spans="1:142">
+      <c r="A28" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="15"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="15"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="15"/>
+      <c r="AV28" s="11"/>
+      <c r="AW28" s="10"/>
+      <c r="AX28" s="10"/>
+      <c r="AY28" s="10"/>
+      <c r="AZ28" s="15"/>
+      <c r="BA28" s="11"/>
+      <c r="BB28" s="10"/>
+      <c r="BC28" s="10"/>
+      <c r="BD28" s="10"/>
+      <c r="BE28" s="15"/>
+      <c r="BF28" s="11"/>
+      <c r="BG28" s="10"/>
+      <c r="BH28" s="10"/>
+      <c r="BI28" s="10"/>
+      <c r="BJ28" s="15"/>
+      <c r="BK28" s="11"/>
+      <c r="BL28" s="10"/>
+      <c r="BM28" s="10"/>
+      <c r="BN28" s="10"/>
+      <c r="BO28" s="15"/>
+      <c r="BP28" s="11"/>
+      <c r="BR28" s="10"/>
+      <c r="BS28" s="1"/>
+      <c r="BT28" s="15"/>
+      <c r="BU28" s="11"/>
+      <c r="BV28" s="10"/>
+      <c r="BW28" s="10"/>
+      <c r="BX28" s="10"/>
+      <c r="BY28" s="15"/>
+      <c r="BZ28" s="11"/>
+      <c r="CA28" s="6"/>
+      <c r="CB28" s="10"/>
+      <c r="CC28" s="10"/>
+      <c r="CD28" s="15"/>
+      <c r="CE28" s="11"/>
+      <c r="CF28" s="6"/>
+      <c r="CG28" s="10"/>
+      <c r="CH28" s="10"/>
+      <c r="CI28" s="15"/>
+      <c r="CJ28" s="11"/>
+      <c r="CK28" s="10"/>
+      <c r="CL28" s="10"/>
+      <c r="CM28" s="10"/>
+      <c r="CN28" s="15"/>
+      <c r="CO28" s="11"/>
+      <c r="CP28" s="10"/>
+      <c r="CQ28" s="10"/>
+      <c r="CR28" s="10"/>
+      <c r="CS28" s="15"/>
+      <c r="CT28" s="11"/>
+      <c r="CU28" s="10"/>
+      <c r="CV28" s="10"/>
+      <c r="CW28" s="10"/>
+      <c r="CX28" s="15"/>
+      <c r="CY28" s="11"/>
+      <c r="CZ28" s="10"/>
+      <c r="DA28" s="10"/>
+      <c r="DB28" s="10"/>
+      <c r="DC28" s="15"/>
+      <c r="DD28" s="11"/>
+      <c r="DE28" s="10"/>
+      <c r="DF28" s="10"/>
+      <c r="DG28" s="10"/>
+      <c r="DH28" s="15"/>
+      <c r="DI28" s="11"/>
+      <c r="DJ28" s="10"/>
+      <c r="DK28" s="10"/>
+      <c r="DL28" s="10"/>
+      <c r="DM28" s="15"/>
+      <c r="DN28" s="11"/>
+      <c r="DO28" s="10"/>
+      <c r="DP28" s="10"/>
+      <c r="DQ28" s="10"/>
+      <c r="DR28" s="15"/>
+      <c r="DS28" s="11"/>
+      <c r="DT28" s="10"/>
+      <c r="DU28" s="10"/>
+      <c r="DV28" s="10"/>
+      <c r="DW28" s="15"/>
+      <c r="DX28" s="11"/>
+      <c r="DY28" s="10"/>
+      <c r="DZ28" s="10"/>
+      <c r="EA28" s="10"/>
+      <c r="EB28" s="15"/>
+      <c r="EC28" s="11"/>
+      <c r="ED28" s="10"/>
+      <c r="EE28" s="10"/>
+      <c r="EF28" s="10"/>
+      <c r="EG28" s="15"/>
+      <c r="EH28" s="11"/>
+      <c r="EI28" s="10"/>
+      <c r="EJ28" s="10"/>
+      <c r="EK28" s="10"/>
+      <c r="EL28" s="15"/>
+    </row>
+    <row r="29" spans="1:142">
+      <c r="A29" s="28"/>
+      <c r="B29" s="36">
+        <v>4</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="15"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="10"/>
+      <c r="AO29" s="10"/>
+      <c r="AP29" s="15"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="10"/>
+      <c r="AS29" s="10"/>
+      <c r="AT29" s="10"/>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="11"/>
+      <c r="AW29" s="10"/>
+      <c r="AX29" s="10"/>
+      <c r="AY29" s="10"/>
+      <c r="AZ29" s="15"/>
+      <c r="BA29" s="11"/>
+      <c r="BB29" s="10"/>
+      <c r="BC29" s="10"/>
+      <c r="BD29" s="10"/>
+      <c r="BE29" s="15"/>
+      <c r="BF29" s="11"/>
+      <c r="BG29" s="10"/>
+      <c r="BH29" s="10"/>
+      <c r="BI29" s="10"/>
+      <c r="BJ29" s="15"/>
+      <c r="BK29" s="11"/>
+      <c r="BL29" s="10"/>
+      <c r="BM29" s="10"/>
+      <c r="BN29" s="10"/>
+      <c r="BO29" s="15"/>
+      <c r="BP29" s="11"/>
+      <c r="BQ29" s="10"/>
+      <c r="BR29" s="10"/>
+      <c r="BS29" s="10"/>
+      <c r="BT29" s="15"/>
+      <c r="BU29" s="11"/>
+      <c r="BV29" s="10"/>
+      <c r="BW29" s="10"/>
+      <c r="BX29" s="10"/>
+      <c r="BY29" s="15"/>
+      <c r="BZ29" s="11"/>
+      <c r="CA29" s="10"/>
+      <c r="CB29" s="10"/>
+      <c r="CC29" s="10"/>
+      <c r="CD29" s="15"/>
+      <c r="CE29" s="11"/>
+      <c r="CF29" s="10"/>
+      <c r="CG29" s="10"/>
+      <c r="CH29" s="10"/>
+      <c r="CI29" s="15"/>
+      <c r="CJ29" s="11"/>
+      <c r="CK29" s="10"/>
+      <c r="CL29" s="10"/>
+      <c r="CM29" s="10"/>
+      <c r="CN29" s="15"/>
+      <c r="CO29" s="11"/>
+      <c r="CP29" s="10"/>
+      <c r="CQ29" s="10"/>
+      <c r="CR29" s="10"/>
+      <c r="CS29" s="15"/>
+      <c r="CT29" s="11"/>
+      <c r="CU29" s="10"/>
+      <c r="CV29" s="10"/>
+      <c r="CW29" s="10"/>
+      <c r="CX29" s="15"/>
+      <c r="CY29" s="11"/>
+      <c r="CZ29" s="10"/>
+      <c r="DA29" s="10"/>
+      <c r="DB29" s="10"/>
+      <c r="DC29" s="15"/>
+      <c r="DD29" s="11"/>
+      <c r="DE29" s="10"/>
+      <c r="DF29" s="10"/>
+      <c r="DG29" s="10"/>
+      <c r="DH29" s="15"/>
+      <c r="DI29" s="11"/>
+      <c r="DJ29" s="10"/>
+      <c r="DK29" s="10"/>
+      <c r="DL29" s="10"/>
+      <c r="DM29" s="15"/>
+      <c r="DN29" s="11"/>
+      <c r="DO29" s="10"/>
+      <c r="DP29" s="10"/>
+      <c r="DQ29" s="10"/>
+      <c r="DR29" s="15"/>
+      <c r="DS29" s="11"/>
+      <c r="DT29" s="10"/>
+      <c r="DU29" s="10"/>
+      <c r="DV29" s="10"/>
+      <c r="DW29" s="15"/>
+      <c r="DX29" s="11"/>
+      <c r="DY29" s="10"/>
+      <c r="DZ29" s="10"/>
+      <c r="EA29" s="10"/>
+      <c r="EB29" s="15"/>
+      <c r="EC29" s="11"/>
+      <c r="ED29" s="10"/>
+      <c r="EE29" s="10"/>
+      <c r="EF29" s="10"/>
+      <c r="EG29" s="15"/>
+      <c r="EH29" s="11"/>
+      <c r="EI29" s="10"/>
+      <c r="EJ29" s="10"/>
+      <c r="EK29" s="10"/>
+      <c r="EL29" s="15"/>
+    </row>
+    <row r="30" spans="1:142">
+      <c r="A30" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="36">
         <v>2</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="18"/>
-      <c r="AL28" s="16"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="17"/>
-      <c r="AO28" s="17"/>
-      <c r="AP28" s="18"/>
-      <c r="AQ28" s="16"/>
-      <c r="AR28" s="17"/>
-      <c r="AS28" s="17"/>
-      <c r="AT28" s="17"/>
-      <c r="AU28" s="18"/>
-      <c r="AV28" s="16"/>
-      <c r="AW28" s="17"/>
-      <c r="AX28" s="17"/>
-      <c r="AY28" s="17"/>
-      <c r="AZ28" s="18"/>
-      <c r="BA28" s="16"/>
-      <c r="BB28" s="17"/>
-      <c r="BC28" s="17"/>
-      <c r="BD28" s="17"/>
-      <c r="BE28" s="18"/>
-      <c r="BF28" s="16"/>
-      <c r="BG28" s="17"/>
-      <c r="BH28" s="17"/>
-      <c r="BI28" s="17"/>
-      <c r="BJ28" s="18"/>
-      <c r="BK28" s="16"/>
-      <c r="BL28" s="17"/>
-      <c r="BM28" s="17"/>
-      <c r="BN28" s="17"/>
-      <c r="BO28" s="18"/>
-      <c r="BP28" s="16"/>
-      <c r="BQ28" s="17"/>
-      <c r="BR28" s="17"/>
-      <c r="BS28" s="17"/>
-      <c r="BT28" s="18"/>
-      <c r="BU28" s="16"/>
-      <c r="BV28" s="17"/>
-      <c r="BW28" s="17"/>
-      <c r="BX28" s="17"/>
-      <c r="BY28" s="18"/>
-      <c r="BZ28" s="16"/>
-      <c r="CA28" s="17"/>
-      <c r="CB28" s="17"/>
-      <c r="CC28" s="17"/>
-      <c r="CD28" s="18"/>
-      <c r="CE28" s="16"/>
-      <c r="CF28" s="17"/>
-      <c r="CG28" s="17"/>
-      <c r="CH28" s="17"/>
-      <c r="CI28" s="18"/>
-      <c r="CJ28" s="16"/>
-      <c r="CK28" s="17"/>
-      <c r="CL28" s="17"/>
-      <c r="CM28" s="17"/>
-      <c r="CN28" s="18"/>
-      <c r="CO28" s="16"/>
-      <c r="CP28" s="17"/>
-      <c r="CQ28" s="17"/>
-      <c r="CR28" s="17"/>
-      <c r="CS28" s="18"/>
-      <c r="CT28" s="16"/>
-      <c r="CU28" s="17"/>
-      <c r="CV28" s="17"/>
-      <c r="CW28" s="17"/>
-      <c r="CX28" s="18"/>
-      <c r="CY28" s="16"/>
-      <c r="CZ28" s="17"/>
-      <c r="DA28" s="17"/>
-      <c r="DB28" s="17"/>
-      <c r="DC28" s="18"/>
-      <c r="DD28" s="16"/>
-      <c r="DE28" s="17"/>
-      <c r="DF28" s="17"/>
-      <c r="DG28" s="17"/>
-      <c r="DH28" s="18"/>
-      <c r="DI28" s="16"/>
-      <c r="DJ28" s="17"/>
-      <c r="DK28" s="17"/>
-      <c r="DL28" s="17"/>
-      <c r="DM28" s="18"/>
-      <c r="DN28" s="16"/>
-      <c r="DO28" s="17"/>
-      <c r="DP28" s="17"/>
-      <c r="DQ28" s="17"/>
-      <c r="DR28" s="18"/>
-      <c r="DS28" s="16"/>
-      <c r="DT28" s="17"/>
-      <c r="DU28" s="17"/>
-      <c r="DV28" s="17"/>
-      <c r="DW28" s="18"/>
-      <c r="DX28" s="16"/>
-      <c r="DY28" s="17"/>
-      <c r="DZ28" s="17"/>
-      <c r="EA28" s="17"/>
-      <c r="EB28" s="18"/>
-      <c r="EC28" s="16"/>
-      <c r="ED28" s="17"/>
-      <c r="EE28" s="17"/>
-      <c r="EF28" s="17"/>
-      <c r="EG28" s="18"/>
-      <c r="EH28" s="16"/>
-      <c r="EI28" s="17"/>
-      <c r="EJ28" s="17"/>
-      <c r="EK28" s="17"/>
-      <c r="EL28" s="18"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="15"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="15"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="10"/>
+      <c r="AS30" s="10"/>
+      <c r="AT30" s="10"/>
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="11"/>
+      <c r="AW30" s="10"/>
+      <c r="AX30" s="10"/>
+      <c r="AY30" s="10"/>
+      <c r="AZ30" s="15"/>
+      <c r="BA30" s="11"/>
+      <c r="BB30" s="10"/>
+      <c r="BC30" s="10"/>
+      <c r="BD30" s="10"/>
+      <c r="BE30" s="15"/>
+      <c r="BF30" s="11"/>
+      <c r="BG30" s="10"/>
+      <c r="BH30" s="10"/>
+      <c r="BI30" s="10"/>
+      <c r="BJ30" s="15"/>
+      <c r="BK30" s="11"/>
+      <c r="BL30" s="10"/>
+      <c r="BM30" s="10"/>
+      <c r="BN30" s="10"/>
+      <c r="BO30" s="15"/>
+      <c r="BP30" s="11"/>
+      <c r="BQ30" s="10"/>
+      <c r="BR30" s="10"/>
+      <c r="BS30" s="10"/>
+      <c r="BT30" s="15"/>
+      <c r="BU30" s="11"/>
+      <c r="BV30" s="10"/>
+      <c r="BW30" s="10"/>
+      <c r="BX30" s="10"/>
+      <c r="BY30" s="15"/>
+      <c r="BZ30" s="11"/>
+      <c r="CA30" s="10"/>
+      <c r="CB30" s="10"/>
+      <c r="CC30" s="10"/>
+      <c r="CD30" s="15"/>
+      <c r="CE30" s="11"/>
+      <c r="CF30" s="10"/>
+      <c r="CG30" s="10"/>
+      <c r="CH30" s="10"/>
+      <c r="CI30" s="15"/>
+      <c r="CJ30" s="11"/>
+      <c r="CK30" s="10"/>
+      <c r="CL30" s="10"/>
+      <c r="CM30" s="10"/>
+      <c r="CN30" s="15"/>
+      <c r="CO30" s="11"/>
+      <c r="CP30" s="10"/>
+      <c r="CQ30" s="10"/>
+      <c r="CR30" s="10"/>
+      <c r="CS30" s="15"/>
+      <c r="CT30" s="11"/>
+      <c r="CU30" s="10"/>
+      <c r="CV30" s="10"/>
+      <c r="CW30" s="10"/>
+      <c r="CX30" s="15"/>
+      <c r="CY30" s="11"/>
+      <c r="CZ30" s="10"/>
+      <c r="DA30" s="10"/>
+      <c r="DB30" s="10"/>
+      <c r="DC30" s="15"/>
+      <c r="DD30" s="11"/>
+      <c r="DE30" s="10"/>
+      <c r="DF30" s="10"/>
+      <c r="DG30" s="10"/>
+      <c r="DH30" s="15"/>
+      <c r="DI30" s="11"/>
+      <c r="DJ30" s="10"/>
+      <c r="DK30" s="10"/>
+      <c r="DL30" s="10"/>
+      <c r="DM30" s="15"/>
+      <c r="DN30" s="11"/>
+      <c r="DO30" s="10"/>
+      <c r="DP30" s="10"/>
+      <c r="DQ30" s="10"/>
+      <c r="DR30" s="15"/>
+      <c r="DS30" s="11"/>
+      <c r="DT30" s="10"/>
+      <c r="DU30" s="10"/>
+      <c r="DV30" s="10"/>
+      <c r="DW30" s="15"/>
+      <c r="DX30" s="11"/>
+      <c r="DY30" s="10"/>
+      <c r="DZ30" s="10"/>
+      <c r="EA30" s="10"/>
+      <c r="EB30" s="15"/>
+      <c r="EC30" s="11"/>
+      <c r="ED30" s="10"/>
+      <c r="EE30" s="10"/>
+      <c r="EF30" s="10"/>
+      <c r="EG30" s="15"/>
+      <c r="EH30" s="11"/>
+      <c r="EI30" s="10"/>
+      <c r="EJ30" s="10"/>
+      <c r="EK30" s="10"/>
+      <c r="EL30" s="15"/>
     </row>
     <row r="31" spans="1:142">
-      <c r="B31" s="1"/>
-      <c r="C31" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="36">
+        <v>2</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="15"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="15"/>
+      <c r="AQ31" s="11"/>
+      <c r="AR31" s="10"/>
+      <c r="AS31" s="10"/>
+      <c r="AT31" s="10"/>
+      <c r="AU31" s="15"/>
+      <c r="AV31" s="11"/>
+      <c r="AW31" s="10"/>
+      <c r="AX31" s="10"/>
+      <c r="AY31" s="10"/>
+      <c r="AZ31" s="15"/>
+      <c r="BA31" s="11"/>
+      <c r="BB31" s="10"/>
+      <c r="BC31" s="10"/>
+      <c r="BD31" s="10"/>
+      <c r="BE31" s="15"/>
+      <c r="BF31" s="11"/>
+      <c r="BG31" s="10"/>
+      <c r="BH31" s="10"/>
+      <c r="BI31" s="10"/>
+      <c r="BJ31" s="15"/>
+      <c r="BK31" s="11"/>
+      <c r="BL31" s="10"/>
+      <c r="BM31" s="10"/>
+      <c r="BN31" s="10"/>
+      <c r="BO31" s="15"/>
+      <c r="BP31" s="11"/>
+      <c r="BQ31" s="10"/>
+      <c r="BR31" s="10"/>
+      <c r="BS31" s="10"/>
+      <c r="BT31" s="15"/>
+      <c r="BU31" s="11"/>
+      <c r="BV31" s="10"/>
+      <c r="BW31" s="10"/>
+      <c r="BX31" s="10"/>
+      <c r="BY31" s="15"/>
+      <c r="BZ31" s="11"/>
+      <c r="CA31" s="10"/>
+      <c r="CB31" s="10"/>
+      <c r="CC31" s="10"/>
+      <c r="CD31" s="15"/>
+      <c r="CE31" s="11"/>
+      <c r="CF31" s="10"/>
+      <c r="CG31" s="10"/>
+      <c r="CH31" s="10"/>
+      <c r="CI31" s="15"/>
+      <c r="CJ31" s="11"/>
+      <c r="CK31" s="10"/>
+      <c r="CL31" s="10"/>
+      <c r="CM31" s="10"/>
+      <c r="CN31" s="15"/>
+      <c r="CO31" s="11"/>
+      <c r="CP31" s="10"/>
+      <c r="CQ31" s="10"/>
+      <c r="CR31" s="10"/>
+      <c r="CS31" s="15"/>
+      <c r="CT31" s="11"/>
+      <c r="CU31" s="10"/>
+      <c r="CV31" s="10"/>
+      <c r="CW31" s="10"/>
+      <c r="CX31" s="15"/>
+      <c r="CY31" s="11"/>
+      <c r="CZ31" s="10"/>
+      <c r="DA31" s="10"/>
+      <c r="DB31" s="10"/>
+      <c r="DC31" s="15"/>
+      <c r="DD31" s="11"/>
+      <c r="DE31" s="10"/>
+      <c r="DF31" s="10"/>
+      <c r="DG31" s="10"/>
+      <c r="DH31" s="15"/>
+      <c r="DI31" s="11"/>
+      <c r="DJ31" s="10"/>
+      <c r="DK31" s="10"/>
+      <c r="DL31" s="10"/>
+      <c r="DM31" s="15"/>
+      <c r="DN31" s="11"/>
+      <c r="DO31" s="10"/>
+      <c r="DP31" s="10"/>
+      <c r="DQ31" s="10"/>
+      <c r="DR31" s="15"/>
+      <c r="DS31" s="11"/>
+      <c r="DT31" s="10"/>
+      <c r="DU31" s="10"/>
+      <c r="DV31" s="10"/>
+      <c r="DW31" s="15"/>
+      <c r="DX31" s="11"/>
+      <c r="DY31" s="10"/>
+      <c r="DZ31" s="10"/>
+      <c r="EA31" s="10"/>
+      <c r="EB31" s="15"/>
+      <c r="EC31" s="11"/>
+      <c r="ED31" s="10"/>
+      <c r="EE31" s="10"/>
+      <c r="EF31" s="10"/>
+      <c r="EG31" s="15"/>
+      <c r="EH31" s="11"/>
+      <c r="EI31" s="10"/>
+      <c r="EJ31" s="10"/>
+      <c r="EK31" s="10"/>
+      <c r="EL31" s="15"/>
+    </row>
+    <row r="32" spans="1:142" ht="15.75" thickBot="1">
+      <c r="A32" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="37">
+        <v>2</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="15"/>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="15"/>
+      <c r="AQ32" s="11"/>
+      <c r="AR32" s="10"/>
+      <c r="AS32" s="10"/>
+      <c r="AT32" s="10"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="11"/>
+      <c r="AW32" s="10"/>
+      <c r="AX32" s="10"/>
+      <c r="AY32" s="10"/>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="11"/>
+      <c r="BB32" s="10"/>
+      <c r="BC32" s="10"/>
+      <c r="BD32" s="10"/>
+      <c r="BE32" s="15"/>
+      <c r="BF32" s="11"/>
+      <c r="BG32" s="10"/>
+      <c r="BH32" s="10"/>
+      <c r="BI32" s="10"/>
+      <c r="BJ32" s="15"/>
+      <c r="BK32" s="11"/>
+      <c r="BL32" s="10"/>
+      <c r="BM32" s="10"/>
+      <c r="BN32" s="10"/>
+      <c r="BO32" s="15"/>
+      <c r="BP32" s="11"/>
+      <c r="BQ32" s="10"/>
+      <c r="BR32" s="10"/>
+      <c r="BS32" s="10"/>
+      <c r="BT32" s="15"/>
+      <c r="BU32" s="11"/>
+      <c r="BV32" s="10"/>
+      <c r="BW32" s="10"/>
+      <c r="BX32" s="10"/>
+      <c r="BY32" s="15"/>
+      <c r="BZ32" s="11"/>
+      <c r="CA32" s="10"/>
+      <c r="CB32" s="10"/>
+      <c r="CC32" s="10"/>
+      <c r="CD32" s="15"/>
+      <c r="CE32" s="11"/>
+      <c r="CF32" s="10"/>
+      <c r="CG32" s="10"/>
+      <c r="CH32" s="10"/>
+      <c r="CI32" s="15"/>
+      <c r="CJ32" s="11"/>
+      <c r="CK32" s="10"/>
+      <c r="CL32" s="10"/>
+      <c r="CM32" s="10"/>
+      <c r="CN32" s="15"/>
+      <c r="CO32" s="11"/>
+      <c r="CP32" s="10"/>
+      <c r="CQ32" s="10"/>
+      <c r="CR32" s="10"/>
+      <c r="CS32" s="15"/>
+      <c r="CT32" s="11"/>
+      <c r="CU32" s="10"/>
+      <c r="CV32" s="10"/>
+      <c r="CW32" s="10"/>
+      <c r="CX32" s="15"/>
+      <c r="CY32" s="11"/>
+      <c r="CZ32" s="10"/>
+      <c r="DA32" s="10"/>
+      <c r="DB32" s="10"/>
+      <c r="DC32" s="15"/>
+      <c r="DD32" s="11"/>
+      <c r="DE32" s="10"/>
+      <c r="DF32" s="10"/>
+      <c r="DG32" s="10"/>
+      <c r="DH32" s="15"/>
+      <c r="DI32" s="11"/>
+      <c r="DJ32" s="10"/>
+      <c r="DK32" s="10"/>
+      <c r="DL32" s="10"/>
+      <c r="DM32" s="15"/>
+      <c r="DN32" s="11"/>
+      <c r="DO32" s="10"/>
+      <c r="DP32" s="10"/>
+      <c r="DQ32" s="10"/>
+      <c r="DR32" s="15"/>
+      <c r="DS32" s="11"/>
+      <c r="DT32" s="10"/>
+      <c r="DU32" s="10"/>
+      <c r="DV32" s="10"/>
+      <c r="DW32" s="15"/>
+      <c r="DX32" s="11"/>
+      <c r="DY32" s="10"/>
+      <c r="DZ32" s="10"/>
+      <c r="EA32" s="10"/>
+      <c r="EB32" s="15"/>
+      <c r="EC32" s="11"/>
+      <c r="ED32" s="10"/>
+      <c r="EE32" s="10"/>
+      <c r="EF32" s="10"/>
+      <c r="EG32" s="15"/>
+      <c r="EH32" s="11"/>
+      <c r="EI32" s="10"/>
+      <c r="EJ32" s="10"/>
+      <c r="EK32" s="10"/>
+      <c r="EL32" s="15"/>
+    </row>
+    <row r="33" spans="1:142">
+      <c r="A33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="36">
+        <v>2</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="15"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="15"/>
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="10"/>
+      <c r="AS33" s="10"/>
+      <c r="AT33" s="10"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="11"/>
+      <c r="AW33" s="10"/>
+      <c r="AX33" s="10"/>
+      <c r="AY33" s="10"/>
+      <c r="AZ33" s="15"/>
+      <c r="BA33" s="11"/>
+      <c r="BB33" s="10"/>
+      <c r="BC33" s="10"/>
+      <c r="BD33" s="10"/>
+      <c r="BE33" s="15"/>
+      <c r="BF33" s="11"/>
+      <c r="BG33" s="10"/>
+      <c r="BH33" s="10"/>
+      <c r="BI33" s="10"/>
+      <c r="BJ33" s="15"/>
+      <c r="BK33" s="11"/>
+      <c r="BL33" s="10"/>
+      <c r="BM33" s="10"/>
+      <c r="BN33" s="10"/>
+      <c r="BO33" s="15"/>
+      <c r="BP33" s="11"/>
+      <c r="BQ33" s="10"/>
+      <c r="BR33" s="10"/>
+      <c r="BS33" s="10"/>
+      <c r="BT33" s="15"/>
+      <c r="BU33" s="11"/>
+      <c r="BV33" s="10"/>
+      <c r="BW33" s="10"/>
+      <c r="BX33" s="10"/>
+      <c r="BY33" s="15"/>
+      <c r="BZ33" s="11"/>
+      <c r="CA33" s="10"/>
+      <c r="CB33" s="10"/>
+      <c r="CC33" s="10"/>
+      <c r="CD33" s="15"/>
+      <c r="CE33" s="11"/>
+      <c r="CF33" s="10"/>
+      <c r="CG33" s="10"/>
+      <c r="CH33" s="10"/>
+      <c r="CI33" s="15"/>
+      <c r="CJ33" s="11"/>
+      <c r="CK33" s="10"/>
+      <c r="CL33" s="10"/>
+      <c r="CM33" s="10"/>
+      <c r="CN33" s="15"/>
+      <c r="CO33" s="11"/>
+      <c r="CP33" s="10"/>
+      <c r="CQ33" s="10"/>
+      <c r="CR33" s="10"/>
+      <c r="CS33" s="15"/>
+      <c r="CT33" s="11"/>
+      <c r="CU33" s="10"/>
+      <c r="CV33" s="10"/>
+      <c r="CW33" s="10"/>
+      <c r="CX33" s="15"/>
+      <c r="CY33" s="11"/>
+      <c r="CZ33" s="10"/>
+      <c r="DA33" s="10"/>
+      <c r="DB33" s="10"/>
+      <c r="DC33" s="15"/>
+      <c r="DD33" s="11"/>
+      <c r="DE33" s="10"/>
+      <c r="DF33" s="10"/>
+      <c r="DG33" s="10"/>
+      <c r="DH33" s="15"/>
+      <c r="DI33" s="11"/>
+      <c r="DJ33" s="10"/>
+      <c r="DK33" s="10"/>
+      <c r="DL33" s="10"/>
+      <c r="DM33" s="15"/>
+      <c r="DN33" s="11"/>
+      <c r="DO33" s="10"/>
+      <c r="DP33" s="10"/>
+      <c r="DQ33" s="10"/>
+      <c r="DR33" s="15"/>
+      <c r="DS33" s="11"/>
+      <c r="DT33" s="10"/>
+      <c r="DU33" s="10"/>
+      <c r="DV33" s="10"/>
+      <c r="DW33" s="15"/>
+      <c r="DX33" s="11"/>
+      <c r="DY33" s="10"/>
+      <c r="DZ33" s="10"/>
+      <c r="EA33" s="10"/>
+      <c r="EB33" s="15"/>
+      <c r="EC33" s="11"/>
+      <c r="ED33" s="10"/>
+      <c r="EE33" s="10"/>
+      <c r="EF33" s="10"/>
+      <c r="EG33" s="15"/>
+      <c r="EH33" s="11"/>
+      <c r="EI33" s="10"/>
+      <c r="EJ33" s="10"/>
+      <c r="EK33" s="10"/>
+      <c r="EL33" s="15"/>
+    </row>
+    <row r="34" spans="1:142" ht="15.75" thickBot="1">
+      <c r="A34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="37">
+        <v>2</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="15"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="15"/>
+      <c r="AQ34" s="11"/>
+      <c r="AR34" s="10"/>
+      <c r="AS34" s="10"/>
+      <c r="AT34" s="10"/>
+      <c r="AU34" s="15"/>
+      <c r="AV34" s="11"/>
+      <c r="AW34" s="10"/>
+      <c r="AX34" s="10"/>
+      <c r="AY34" s="10"/>
+      <c r="AZ34" s="15"/>
+      <c r="BA34" s="11"/>
+      <c r="BB34" s="10"/>
+      <c r="BC34" s="10"/>
+      <c r="BD34" s="10"/>
+      <c r="BE34" s="15"/>
+      <c r="BF34" s="11"/>
+      <c r="BG34" s="10"/>
+      <c r="BH34" s="10"/>
+      <c r="BI34" s="10"/>
+      <c r="BJ34" s="15"/>
+      <c r="BK34" s="11"/>
+      <c r="BL34" s="10"/>
+      <c r="BM34" s="10"/>
+      <c r="BN34" s="10"/>
+      <c r="BO34" s="15"/>
+      <c r="BP34" s="11"/>
+      <c r="BQ34" s="10"/>
+      <c r="BR34" s="10"/>
+      <c r="BS34" s="10"/>
+      <c r="BT34" s="15"/>
+      <c r="BU34" s="11"/>
+      <c r="BV34" s="10"/>
+      <c r="BW34" s="10"/>
+      <c r="BX34" s="10"/>
+      <c r="BY34" s="15"/>
+      <c r="BZ34" s="11"/>
+      <c r="CA34" s="10"/>
+      <c r="CB34" s="10"/>
+      <c r="CC34" s="10"/>
+      <c r="CD34" s="15"/>
+      <c r="CE34" s="11"/>
+      <c r="CF34" s="10"/>
+      <c r="CG34" s="10"/>
+      <c r="CH34" s="10"/>
+      <c r="CI34" s="15"/>
+      <c r="CJ34" s="11"/>
+      <c r="CK34" s="10"/>
+      <c r="CL34" s="10"/>
+      <c r="CM34" s="10"/>
+      <c r="CN34" s="15"/>
+      <c r="CO34" s="11"/>
+      <c r="CP34" s="10"/>
+      <c r="CQ34" s="10"/>
+      <c r="CR34" s="10"/>
+      <c r="CS34" s="15"/>
+      <c r="CT34" s="11"/>
+      <c r="CU34" s="10"/>
+      <c r="CV34" s="10"/>
+      <c r="CW34" s="10"/>
+      <c r="CX34" s="15"/>
+      <c r="CY34" s="11"/>
+      <c r="CZ34" s="10"/>
+      <c r="DA34" s="10"/>
+      <c r="DB34" s="10"/>
+      <c r="DC34" s="15"/>
+      <c r="DD34" s="11"/>
+      <c r="DE34" s="10"/>
+      <c r="DF34" s="10"/>
+      <c r="DG34" s="10"/>
+      <c r="DH34" s="15"/>
+      <c r="DI34" s="11"/>
+      <c r="DJ34" s="10"/>
+      <c r="DK34" s="10"/>
+      <c r="DL34" s="10"/>
+      <c r="DM34" s="15"/>
+      <c r="DN34" s="11"/>
+      <c r="DO34" s="10"/>
+      <c r="DP34" s="10"/>
+      <c r="DQ34" s="10"/>
+      <c r="DR34" s="15"/>
+      <c r="DS34" s="11"/>
+      <c r="DT34" s="10"/>
+      <c r="DU34" s="10"/>
+      <c r="DV34" s="10"/>
+      <c r="DW34" s="15"/>
+      <c r="DX34" s="11"/>
+      <c r="DY34" s="10"/>
+      <c r="DZ34" s="10"/>
+      <c r="EA34" s="10"/>
+      <c r="EB34" s="15"/>
+      <c r="EC34" s="11"/>
+      <c r="ED34" s="10"/>
+      <c r="EE34" s="10"/>
+      <c r="EF34" s="10"/>
+      <c r="EG34" s="15"/>
+      <c r="EH34" s="11"/>
+      <c r="EI34" s="10"/>
+      <c r="EJ34" s="10"/>
+      <c r="EK34" s="10"/>
+      <c r="EL34" s="15"/>
+    </row>
+    <row r="35" spans="1:142">
+      <c r="A35" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="36">
+        <v>2</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="15"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="15"/>
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="10"/>
+      <c r="AS35" s="10"/>
+      <c r="AT35" s="10"/>
+      <c r="AU35" s="15"/>
+      <c r="AV35" s="11"/>
+      <c r="AW35" s="10"/>
+      <c r="AX35" s="10"/>
+      <c r="AY35" s="10"/>
+      <c r="AZ35" s="15"/>
+      <c r="BA35" s="11"/>
+      <c r="BB35" s="10"/>
+      <c r="BC35" s="10"/>
+      <c r="BD35" s="10"/>
+      <c r="BE35" s="15"/>
+      <c r="BF35" s="11"/>
+      <c r="BG35" s="10"/>
+      <c r="BH35" s="10"/>
+      <c r="BI35" s="10"/>
+      <c r="BJ35" s="15"/>
+      <c r="BK35" s="11"/>
+      <c r="BL35" s="10"/>
+      <c r="BM35" s="10"/>
+      <c r="BN35" s="10"/>
+      <c r="BO35" s="15"/>
+      <c r="BP35" s="11"/>
+      <c r="BQ35" s="10"/>
+      <c r="BR35" s="10"/>
+      <c r="BS35" s="10"/>
+      <c r="BT35" s="15"/>
+      <c r="BU35" s="11"/>
+      <c r="BV35" s="10"/>
+      <c r="BW35" s="10"/>
+      <c r="BX35" s="10"/>
+      <c r="BY35" s="15"/>
+      <c r="BZ35" s="11"/>
+      <c r="CA35" s="10"/>
+      <c r="CB35" s="10"/>
+      <c r="CC35" s="10"/>
+      <c r="CD35" s="15"/>
+      <c r="CE35" s="11"/>
+      <c r="CF35" s="10"/>
+      <c r="CG35" s="10"/>
+      <c r="CH35" s="10"/>
+      <c r="CI35" s="15"/>
+      <c r="CJ35" s="11"/>
+      <c r="CK35" s="10"/>
+      <c r="CL35" s="10"/>
+      <c r="CM35" s="10"/>
+      <c r="CN35" s="15"/>
+      <c r="CO35" s="11"/>
+      <c r="CP35" s="10"/>
+      <c r="CQ35" s="10"/>
+      <c r="CR35" s="10"/>
+      <c r="CS35" s="15"/>
+      <c r="CT35" s="11"/>
+      <c r="CU35" s="10"/>
+      <c r="CV35" s="10"/>
+      <c r="CW35" s="10"/>
+      <c r="CX35" s="15"/>
+      <c r="CY35" s="11"/>
+      <c r="CZ35" s="10"/>
+      <c r="DA35" s="10"/>
+      <c r="DB35" s="10"/>
+      <c r="DC35" s="15"/>
+      <c r="DD35" s="11"/>
+      <c r="DE35" s="10"/>
+      <c r="DF35" s="10"/>
+      <c r="DG35" s="10"/>
+      <c r="DH35" s="15"/>
+      <c r="DI35" s="11"/>
+      <c r="DJ35" s="10"/>
+      <c r="DK35" s="10"/>
+      <c r="DL35" s="10"/>
+      <c r="DM35" s="15"/>
+      <c r="DN35" s="11"/>
+      <c r="DO35" s="10"/>
+      <c r="DP35" s="10"/>
+      <c r="DQ35" s="10"/>
+      <c r="DR35" s="15"/>
+      <c r="DS35" s="11"/>
+      <c r="DT35" s="10"/>
+      <c r="DU35" s="10"/>
+      <c r="DV35" s="10"/>
+      <c r="DW35" s="15"/>
+      <c r="DX35" s="11"/>
+      <c r="DY35" s="10"/>
+      <c r="DZ35" s="10"/>
+      <c r="EA35" s="10"/>
+      <c r="EB35" s="15"/>
+      <c r="EC35" s="11"/>
+      <c r="ED35" s="10"/>
+      <c r="EE35" s="10"/>
+      <c r="EF35" s="10"/>
+      <c r="EG35" s="15"/>
+      <c r="EH35" s="11"/>
+      <c r="EI35" s="10"/>
+      <c r="EJ35" s="10"/>
+      <c r="EK35" s="10"/>
+      <c r="EL35" s="15"/>
+    </row>
+    <row r="36" spans="1:142" ht="15.75" thickBot="1">
+      <c r="A36" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="37">
+        <v>2</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="15"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
+      <c r="AO36" s="10"/>
+      <c r="AP36" s="15"/>
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="10"/>
+      <c r="AS36" s="10"/>
+      <c r="AT36" s="10"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="11"/>
+      <c r="AW36" s="10"/>
+      <c r="AX36" s="10"/>
+      <c r="AY36" s="10"/>
+      <c r="AZ36" s="15"/>
+      <c r="BA36" s="11"/>
+      <c r="BB36" s="10"/>
+      <c r="BC36" s="10"/>
+      <c r="BD36" s="10"/>
+      <c r="BE36" s="15"/>
+      <c r="BF36" s="11"/>
+      <c r="BG36" s="10"/>
+      <c r="BH36" s="10"/>
+      <c r="BI36" s="10"/>
+      <c r="BJ36" s="15"/>
+      <c r="BK36" s="11"/>
+      <c r="BL36" s="10"/>
+      <c r="BM36" s="10"/>
+      <c r="BN36" s="10"/>
+      <c r="BO36" s="15"/>
+      <c r="BP36" s="11"/>
+      <c r="BQ36" s="10"/>
+      <c r="BR36" s="10"/>
+      <c r="BS36" s="10"/>
+      <c r="BT36" s="15"/>
+      <c r="BU36" s="11"/>
+      <c r="BV36" s="10"/>
+      <c r="BW36" s="10"/>
+      <c r="BX36" s="10"/>
+      <c r="BY36" s="15"/>
+      <c r="BZ36" s="11"/>
+      <c r="CA36" s="10"/>
+      <c r="CB36" s="10"/>
+      <c r="CC36" s="10"/>
+      <c r="CD36" s="15"/>
+      <c r="CE36" s="11"/>
+      <c r="CF36" s="10"/>
+      <c r="CG36" s="10"/>
+      <c r="CH36" s="10"/>
+      <c r="CI36" s="15"/>
+      <c r="CJ36" s="11"/>
+      <c r="CK36" s="10"/>
+      <c r="CL36" s="10"/>
+      <c r="CM36" s="10"/>
+      <c r="CN36" s="15"/>
+      <c r="CO36" s="11"/>
+      <c r="CP36" s="10"/>
+      <c r="CQ36" s="10"/>
+      <c r="CR36" s="10"/>
+      <c r="CS36" s="15"/>
+      <c r="CT36" s="11"/>
+      <c r="CU36" s="10"/>
+      <c r="CV36" s="10"/>
+      <c r="CW36" s="10"/>
+      <c r="CX36" s="15"/>
+      <c r="CY36" s="11"/>
+      <c r="CZ36" s="10"/>
+      <c r="DA36" s="10"/>
+      <c r="DB36" s="10"/>
+      <c r="DC36" s="15"/>
+      <c r="DD36" s="11"/>
+      <c r="DE36" s="10"/>
+      <c r="DF36" s="10"/>
+      <c r="DG36" s="10"/>
+      <c r="DH36" s="15"/>
+      <c r="DI36" s="11"/>
+      <c r="DJ36" s="10"/>
+      <c r="DK36" s="10"/>
+      <c r="DL36" s="10"/>
+      <c r="DM36" s="15"/>
+      <c r="DN36" s="11"/>
+      <c r="DO36" s="10"/>
+      <c r="DP36" s="10"/>
+      <c r="DQ36" s="10"/>
+      <c r="DR36" s="15"/>
+      <c r="DS36" s="11"/>
+      <c r="DT36" s="10"/>
+      <c r="DU36" s="10"/>
+      <c r="DV36" s="10"/>
+      <c r="DW36" s="15"/>
+      <c r="DX36" s="11"/>
+      <c r="DY36" s="10"/>
+      <c r="DZ36" s="10"/>
+      <c r="EA36" s="10"/>
+      <c r="EB36" s="15"/>
+      <c r="EC36" s="11"/>
+      <c r="ED36" s="10"/>
+      <c r="EE36" s="10"/>
+      <c r="EF36" s="10"/>
+      <c r="EG36" s="15"/>
+      <c r="EH36" s="11"/>
+      <c r="EI36" s="10"/>
+      <c r="EJ36" s="10"/>
+      <c r="EK36" s="10"/>
+      <c r="EL36" s="15"/>
+    </row>
+    <row r="37" spans="1:142">
+      <c r="A37" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="36">
+        <v>2</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="15"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="15"/>
+      <c r="AQ37" s="11"/>
+      <c r="AR37" s="10"/>
+      <c r="AS37" s="10"/>
+      <c r="AT37" s="10"/>
+      <c r="AU37" s="15"/>
+      <c r="AV37" s="11"/>
+      <c r="AW37" s="10"/>
+      <c r="AX37" s="10"/>
+      <c r="AY37" s="10"/>
+      <c r="AZ37" s="15"/>
+      <c r="BA37" s="11"/>
+      <c r="BB37" s="10"/>
+      <c r="BC37" s="10"/>
+      <c r="BD37" s="10"/>
+      <c r="BE37" s="15"/>
+      <c r="BF37" s="11"/>
+      <c r="BG37" s="10"/>
+      <c r="BH37" s="10"/>
+      <c r="BI37" s="10"/>
+      <c r="BJ37" s="15"/>
+      <c r="BK37" s="11"/>
+      <c r="BL37" s="10"/>
+      <c r="BM37" s="10"/>
+      <c r="BN37" s="10"/>
+      <c r="BO37" s="15"/>
+      <c r="BP37" s="11"/>
+      <c r="BQ37" s="10"/>
+      <c r="BR37" s="10"/>
+      <c r="BS37" s="10"/>
+      <c r="BT37" s="15"/>
+      <c r="BU37" s="11"/>
+      <c r="BV37" s="10"/>
+      <c r="BW37" s="10"/>
+      <c r="BX37" s="10"/>
+      <c r="BY37" s="15"/>
+      <c r="BZ37" s="11"/>
+      <c r="CA37" s="10"/>
+      <c r="CB37" s="10"/>
+      <c r="CC37" s="10"/>
+      <c r="CD37" s="15"/>
+      <c r="CE37" s="11"/>
+      <c r="CF37" s="10"/>
+      <c r="CG37" s="10"/>
+      <c r="CH37" s="10"/>
+      <c r="CI37" s="15"/>
+      <c r="CJ37" s="11"/>
+      <c r="CK37" s="10"/>
+      <c r="CL37" s="10"/>
+      <c r="CM37" s="10"/>
+      <c r="CN37" s="15"/>
+      <c r="CO37" s="11"/>
+      <c r="CP37" s="10"/>
+      <c r="CQ37" s="10"/>
+      <c r="CR37" s="10"/>
+      <c r="CS37" s="15"/>
+      <c r="CT37" s="11"/>
+      <c r="CU37" s="10"/>
+      <c r="CV37" s="10"/>
+      <c r="CW37" s="10"/>
+      <c r="CX37" s="15"/>
+      <c r="CY37" s="11"/>
+      <c r="CZ37" s="10"/>
+      <c r="DA37" s="10"/>
+      <c r="DB37" s="10"/>
+      <c r="DC37" s="15"/>
+      <c r="DD37" s="11"/>
+      <c r="DE37" s="10"/>
+      <c r="DF37" s="10"/>
+      <c r="DG37" s="10"/>
+      <c r="DH37" s="15"/>
+      <c r="DI37" s="11"/>
+      <c r="DJ37" s="10"/>
+      <c r="DK37" s="10"/>
+      <c r="DL37" s="10"/>
+      <c r="DM37" s="15"/>
+      <c r="DN37" s="11"/>
+      <c r="DO37" s="10"/>
+      <c r="DP37" s="10"/>
+      <c r="DQ37" s="10"/>
+      <c r="DR37" s="15"/>
+      <c r="DS37" s="11"/>
+      <c r="DT37" s="10"/>
+      <c r="DU37" s="10"/>
+      <c r="DV37" s="10"/>
+      <c r="DW37" s="15"/>
+      <c r="DX37" s="11"/>
+      <c r="DY37" s="10"/>
+      <c r="DZ37" s="10"/>
+      <c r="EA37" s="10"/>
+      <c r="EB37" s="15"/>
+      <c r="EC37" s="11"/>
+      <c r="ED37" s="10"/>
+      <c r="EE37" s="10"/>
+      <c r="EF37" s="10"/>
+      <c r="EG37" s="15"/>
+      <c r="EH37" s="11"/>
+      <c r="EI37" s="10"/>
+      <c r="EJ37" s="10"/>
+      <c r="EK37" s="10"/>
+      <c r="EL37" s="15"/>
+    </row>
+    <row r="38" spans="1:142" ht="15.75" thickBot="1">
+      <c r="A38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="37">
+        <v>2</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="15"/>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="10"/>
+      <c r="AO38" s="10"/>
+      <c r="AP38" s="15"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="10"/>
+      <c r="AS38" s="10"/>
+      <c r="AT38" s="10"/>
+      <c r="AU38" s="15"/>
+      <c r="AV38" s="11"/>
+      <c r="AW38" s="10"/>
+      <c r="AX38" s="10"/>
+      <c r="AY38" s="10"/>
+      <c r="AZ38" s="15"/>
+      <c r="BA38" s="11"/>
+      <c r="BB38" s="10"/>
+      <c r="BC38" s="10"/>
+      <c r="BD38" s="10"/>
+      <c r="BE38" s="15"/>
+      <c r="BF38" s="11"/>
+      <c r="BG38" s="10"/>
+      <c r="BH38" s="10"/>
+      <c r="BI38" s="10"/>
+      <c r="BJ38" s="15"/>
+      <c r="BK38" s="11"/>
+      <c r="BL38" s="10"/>
+      <c r="BM38" s="10"/>
+      <c r="BN38" s="10"/>
+      <c r="BO38" s="15"/>
+      <c r="BP38" s="11"/>
+      <c r="BQ38" s="10"/>
+      <c r="BR38" s="10"/>
+      <c r="BS38" s="10"/>
+      <c r="BT38" s="15"/>
+      <c r="BU38" s="11"/>
+      <c r="BV38" s="10"/>
+      <c r="BW38" s="10"/>
+      <c r="BX38" s="10"/>
+      <c r="BY38" s="15"/>
+      <c r="BZ38" s="11"/>
+      <c r="CA38" s="10"/>
+      <c r="CB38" s="10"/>
+      <c r="CC38" s="10"/>
+      <c r="CD38" s="15"/>
+      <c r="CE38" s="11"/>
+      <c r="CF38" s="10"/>
+      <c r="CG38" s="10"/>
+      <c r="CH38" s="10"/>
+      <c r="CI38" s="15"/>
+      <c r="CJ38" s="11"/>
+      <c r="CK38" s="10"/>
+      <c r="CL38" s="10"/>
+      <c r="CM38" s="10"/>
+      <c r="CN38" s="15"/>
+      <c r="CO38" s="11"/>
+      <c r="CP38" s="10"/>
+      <c r="CQ38" s="10"/>
+      <c r="CR38" s="10"/>
+      <c r="CS38" s="15"/>
+      <c r="CT38" s="11"/>
+      <c r="CU38" s="10"/>
+      <c r="CV38" s="10"/>
+      <c r="CW38" s="10"/>
+      <c r="CX38" s="15"/>
+      <c r="CY38" s="11"/>
+      <c r="CZ38" s="10"/>
+      <c r="DA38" s="10"/>
+      <c r="DB38" s="10"/>
+      <c r="DC38" s="15"/>
+      <c r="DD38" s="11"/>
+      <c r="DE38" s="10"/>
+      <c r="DF38" s="10"/>
+      <c r="DG38" s="10"/>
+      <c r="DH38" s="15"/>
+      <c r="DI38" s="11"/>
+      <c r="DJ38" s="10"/>
+      <c r="DK38" s="10"/>
+      <c r="DL38" s="10"/>
+      <c r="DM38" s="15"/>
+      <c r="DN38" s="11"/>
+      <c r="DO38" s="10"/>
+      <c r="DP38" s="10"/>
+      <c r="DQ38" s="10"/>
+      <c r="DR38" s="15"/>
+      <c r="DS38" s="11"/>
+      <c r="DT38" s="10"/>
+      <c r="DU38" s="10"/>
+      <c r="DV38" s="10"/>
+      <c r="DW38" s="15"/>
+      <c r="DX38" s="11"/>
+      <c r="DY38" s="10"/>
+      <c r="DZ38" s="10"/>
+      <c r="EA38" s="10"/>
+      <c r="EB38" s="15"/>
+      <c r="EC38" s="11"/>
+      <c r="ED38" s="10"/>
+      <c r="EE38" s="10"/>
+      <c r="EF38" s="10"/>
+      <c r="EG38" s="15"/>
+      <c r="EH38" s="11"/>
+      <c r="EI38" s="10"/>
+      <c r="EJ38" s="10"/>
+      <c r="EK38" s="10"/>
+      <c r="EL38" s="15"/>
+    </row>
+    <row r="39" spans="1:142">
+      <c r="A39" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="36">
+        <v>2</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="15"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="10"/>
+      <c r="AO39" s="10"/>
+      <c r="AP39" s="15"/>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="10"/>
+      <c r="AS39" s="10"/>
+      <c r="AT39" s="10"/>
+      <c r="AU39" s="15"/>
+      <c r="AV39" s="11"/>
+      <c r="AW39" s="10"/>
+      <c r="AX39" s="10"/>
+      <c r="AY39" s="10"/>
+      <c r="AZ39" s="15"/>
+      <c r="BA39" s="11"/>
+      <c r="BB39" s="10"/>
+      <c r="BC39" s="10"/>
+      <c r="BD39" s="10"/>
+      <c r="BE39" s="15"/>
+      <c r="BF39" s="11"/>
+      <c r="BG39" s="10"/>
+      <c r="BH39" s="10"/>
+      <c r="BI39" s="10"/>
+      <c r="BJ39" s="15"/>
+      <c r="BK39" s="11"/>
+      <c r="BL39" s="10"/>
+      <c r="BM39" s="10"/>
+      <c r="BN39" s="10"/>
+      <c r="BO39" s="15"/>
+      <c r="BP39" s="11"/>
+      <c r="BQ39" s="10"/>
+      <c r="BR39" s="10"/>
+      <c r="BS39" s="10"/>
+      <c r="BT39" s="15"/>
+      <c r="BU39" s="11"/>
+      <c r="BV39" s="10"/>
+      <c r="BW39" s="10"/>
+      <c r="BX39" s="10"/>
+      <c r="BY39" s="15"/>
+      <c r="BZ39" s="11"/>
+      <c r="CA39" s="10"/>
+      <c r="CB39" s="10"/>
+      <c r="CC39" s="10"/>
+      <c r="CD39" s="15"/>
+      <c r="CE39" s="11"/>
+      <c r="CF39" s="10"/>
+      <c r="CG39" s="10"/>
+      <c r="CH39" s="10"/>
+      <c r="CI39" s="15"/>
+      <c r="CJ39" s="11"/>
+      <c r="CK39" s="10"/>
+      <c r="CL39" s="10"/>
+      <c r="CM39" s="10"/>
+      <c r="CN39" s="15"/>
+      <c r="CO39" s="11"/>
+      <c r="CP39" s="10"/>
+      <c r="CQ39" s="10"/>
+      <c r="CR39" s="10"/>
+      <c r="CS39" s="15"/>
+      <c r="CT39" s="11"/>
+      <c r="CU39" s="10"/>
+      <c r="CV39" s="10"/>
+      <c r="CW39" s="10"/>
+      <c r="CX39" s="15"/>
+      <c r="CY39" s="11"/>
+      <c r="CZ39" s="10"/>
+      <c r="DA39" s="10"/>
+      <c r="DB39" s="10"/>
+      <c r="DC39" s="15"/>
+      <c r="DD39" s="11"/>
+      <c r="DE39" s="10"/>
+      <c r="DF39" s="10"/>
+      <c r="DG39" s="10"/>
+      <c r="DH39" s="15"/>
+      <c r="DI39" s="11"/>
+      <c r="DJ39" s="10"/>
+      <c r="DK39" s="10"/>
+      <c r="DL39" s="10"/>
+      <c r="DM39" s="15"/>
+      <c r="DN39" s="11"/>
+      <c r="DO39" s="10"/>
+      <c r="DP39" s="10"/>
+      <c r="DQ39" s="10"/>
+      <c r="DR39" s="15"/>
+      <c r="DS39" s="11"/>
+      <c r="DT39" s="10"/>
+      <c r="DU39" s="10"/>
+      <c r="DV39" s="10"/>
+      <c r="DW39" s="15"/>
+      <c r="DX39" s="11"/>
+      <c r="DY39" s="10"/>
+      <c r="DZ39" s="10"/>
+      <c r="EA39" s="10"/>
+      <c r="EB39" s="15"/>
+      <c r="EC39" s="11"/>
+      <c r="ED39" s="10"/>
+      <c r="EE39" s="10"/>
+      <c r="EF39" s="10"/>
+      <c r="EG39" s="15"/>
+      <c r="EH39" s="11"/>
+      <c r="EI39" s="10"/>
+      <c r="EJ39" s="10"/>
+      <c r="EK39" s="10"/>
+      <c r="EL39" s="15"/>
+    </row>
+    <row r="40" spans="1:142" ht="15.75" thickBot="1">
+      <c r="A40" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="37">
+        <v>2</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="15"/>
+      <c r="AL40" s="11"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="10"/>
+      <c r="AO40" s="10"/>
+      <c r="AP40" s="15"/>
+      <c r="AQ40" s="11"/>
+      <c r="AR40" s="10"/>
+      <c r="AS40" s="10"/>
+      <c r="AT40" s="10"/>
+      <c r="AU40" s="15"/>
+      <c r="AV40" s="11"/>
+      <c r="AW40" s="10"/>
+      <c r="AX40" s="10"/>
+      <c r="AY40" s="10"/>
+      <c r="AZ40" s="15"/>
+      <c r="BA40" s="11"/>
+      <c r="BB40" s="10"/>
+      <c r="BC40" s="10"/>
+      <c r="BD40" s="10"/>
+      <c r="BE40" s="15"/>
+      <c r="BF40" s="11"/>
+      <c r="BG40" s="10"/>
+      <c r="BH40" s="10"/>
+      <c r="BI40" s="10"/>
+      <c r="BJ40" s="15"/>
+      <c r="BK40" s="11"/>
+      <c r="BL40" s="10"/>
+      <c r="BM40" s="10"/>
+      <c r="BN40" s="10"/>
+      <c r="BO40" s="15"/>
+      <c r="BP40" s="11"/>
+      <c r="BQ40" s="10"/>
+      <c r="BR40" s="10"/>
+      <c r="BS40" s="10"/>
+      <c r="BT40" s="15"/>
+      <c r="BU40" s="11"/>
+      <c r="BV40" s="10"/>
+      <c r="BW40" s="10"/>
+      <c r="BX40" s="10"/>
+      <c r="BY40" s="15"/>
+      <c r="BZ40" s="11"/>
+      <c r="CA40" s="10"/>
+      <c r="CB40" s="10"/>
+      <c r="CC40" s="10"/>
+      <c r="CD40" s="15"/>
+      <c r="CE40" s="11"/>
+      <c r="CF40" s="10"/>
+      <c r="CG40" s="10"/>
+      <c r="CH40" s="10"/>
+      <c r="CI40" s="15"/>
+      <c r="CJ40" s="11"/>
+      <c r="CK40" s="10"/>
+      <c r="CL40" s="10"/>
+      <c r="CM40" s="10"/>
+      <c r="CN40" s="15"/>
+      <c r="CO40" s="11"/>
+      <c r="CP40" s="10"/>
+      <c r="CQ40" s="10"/>
+      <c r="CR40" s="10"/>
+      <c r="CS40" s="15"/>
+      <c r="CT40" s="11"/>
+      <c r="CU40" s="10"/>
+      <c r="CV40" s="10"/>
+      <c r="CW40" s="10"/>
+      <c r="CX40" s="15"/>
+      <c r="CY40" s="11"/>
+      <c r="CZ40" s="10"/>
+      <c r="DA40" s="10"/>
+      <c r="DB40" s="10"/>
+      <c r="DC40" s="15"/>
+      <c r="DD40" s="11"/>
+      <c r="DE40" s="10"/>
+      <c r="DF40" s="10"/>
+      <c r="DG40" s="10"/>
+      <c r="DH40" s="15"/>
+      <c r="DI40" s="11"/>
+      <c r="DJ40" s="10"/>
+      <c r="DK40" s="10"/>
+      <c r="DL40" s="10"/>
+      <c r="DM40" s="15"/>
+      <c r="DN40" s="11"/>
+      <c r="DO40" s="10"/>
+      <c r="DP40" s="10"/>
+      <c r="DQ40" s="10"/>
+      <c r="DR40" s="15"/>
+      <c r="DS40" s="11"/>
+      <c r="DT40" s="10"/>
+      <c r="DU40" s="10"/>
+      <c r="DV40" s="10"/>
+      <c r="DW40" s="15"/>
+      <c r="DX40" s="11"/>
+      <c r="DY40" s="10"/>
+      <c r="DZ40" s="10"/>
+      <c r="EA40" s="10"/>
+      <c r="EB40" s="15"/>
+      <c r="EC40" s="11"/>
+      <c r="ED40" s="10"/>
+      <c r="EE40" s="10"/>
+      <c r="EF40" s="10"/>
+      <c r="EG40" s="15"/>
+      <c r="EH40" s="11"/>
+      <c r="EI40" s="10"/>
+      <c r="EJ40" s="10"/>
+      <c r="EK40" s="10"/>
+      <c r="EL40" s="15"/>
+    </row>
+    <row r="41" spans="1:142">
+      <c r="A41" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="36">
+        <v>2</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="15"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="15"/>
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="10"/>
+      <c r="AO41" s="10"/>
+      <c r="AP41" s="15"/>
+      <c r="AQ41" s="11"/>
+      <c r="AR41" s="10"/>
+      <c r="AS41" s="10"/>
+      <c r="AT41" s="10"/>
+      <c r="AU41" s="15"/>
+      <c r="AV41" s="11"/>
+      <c r="AW41" s="10"/>
+      <c r="AX41" s="10"/>
+      <c r="AY41" s="10"/>
+      <c r="AZ41" s="15"/>
+      <c r="BA41" s="11"/>
+      <c r="BB41" s="10"/>
+      <c r="BC41" s="10"/>
+      <c r="BD41" s="10"/>
+      <c r="BE41" s="15"/>
+      <c r="BF41" s="11"/>
+      <c r="BG41" s="10"/>
+      <c r="BH41" s="10"/>
+      <c r="BI41" s="10"/>
+      <c r="BJ41" s="15"/>
+      <c r="BK41" s="11"/>
+      <c r="BL41" s="10"/>
+      <c r="BM41" s="10"/>
+      <c r="BN41" s="10"/>
+      <c r="BO41" s="15"/>
+      <c r="BP41" s="11"/>
+      <c r="BQ41" s="10"/>
+      <c r="BR41" s="10"/>
+      <c r="BS41" s="10"/>
+      <c r="BT41" s="15"/>
+      <c r="BU41" s="11"/>
+      <c r="BV41" s="10"/>
+      <c r="BW41" s="10"/>
+      <c r="BX41" s="10"/>
+      <c r="BY41" s="15"/>
+      <c r="BZ41" s="11"/>
+      <c r="CA41" s="10"/>
+      <c r="CB41" s="10"/>
+      <c r="CC41" s="10"/>
+      <c r="CD41" s="15"/>
+      <c r="CE41" s="11"/>
+      <c r="CF41" s="10"/>
+      <c r="CG41" s="10"/>
+      <c r="CH41" s="10"/>
+      <c r="CI41" s="15"/>
+      <c r="CJ41" s="11"/>
+      <c r="CK41" s="10"/>
+      <c r="CL41" s="10"/>
+      <c r="CM41" s="10"/>
+      <c r="CN41" s="15"/>
+      <c r="CO41" s="11"/>
+      <c r="CP41" s="10"/>
+      <c r="CQ41" s="10"/>
+      <c r="CR41" s="10"/>
+      <c r="CS41" s="15"/>
+      <c r="CT41" s="11"/>
+      <c r="CU41" s="10"/>
+      <c r="CV41" s="10"/>
+      <c r="CW41" s="10"/>
+      <c r="CX41" s="15"/>
+      <c r="CY41" s="11"/>
+      <c r="CZ41" s="10"/>
+      <c r="DA41" s="10"/>
+      <c r="DB41" s="10"/>
+      <c r="DC41" s="15"/>
+      <c r="DD41" s="11"/>
+      <c r="DE41" s="10"/>
+      <c r="DF41" s="10"/>
+      <c r="DG41" s="10"/>
+      <c r="DH41" s="15"/>
+      <c r="DI41" s="11"/>
+      <c r="DJ41" s="10"/>
+      <c r="DK41" s="10"/>
+      <c r="DL41" s="10"/>
+      <c r="DM41" s="15"/>
+      <c r="DN41" s="11"/>
+      <c r="DO41" s="10"/>
+      <c r="DP41" s="10"/>
+      <c r="DQ41" s="10"/>
+      <c r="DR41" s="15"/>
+      <c r="DS41" s="11"/>
+      <c r="DT41" s="10"/>
+      <c r="DU41" s="10"/>
+      <c r="DV41" s="10"/>
+      <c r="DW41" s="15"/>
+      <c r="DX41" s="11"/>
+      <c r="DY41" s="10"/>
+      <c r="DZ41" s="10"/>
+      <c r="EA41" s="10"/>
+      <c r="EB41" s="15"/>
+      <c r="EC41" s="11"/>
+      <c r="ED41" s="10"/>
+      <c r="EE41" s="10"/>
+      <c r="EF41" s="10"/>
+      <c r="EG41" s="15"/>
+      <c r="EH41" s="11"/>
+      <c r="EI41" s="10"/>
+      <c r="EJ41" s="10"/>
+      <c r="EK41" s="10"/>
+      <c r="EL41" s="15"/>
+    </row>
+    <row r="42" spans="1:142" ht="15.75" thickBot="1">
+      <c r="A42" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="37">
+        <v>2</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="15"/>
+      <c r="AL42" s="11"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="10"/>
+      <c r="AO42" s="10"/>
+      <c r="AP42" s="15"/>
+      <c r="AQ42" s="11"/>
+      <c r="AR42" s="10"/>
+      <c r="AS42" s="10"/>
+      <c r="AT42" s="10"/>
+      <c r="AU42" s="15"/>
+      <c r="AV42" s="11"/>
+      <c r="AW42" s="10"/>
+      <c r="AX42" s="10"/>
+      <c r="AY42" s="10"/>
+      <c r="AZ42" s="15"/>
+      <c r="BA42" s="11"/>
+      <c r="BB42" s="10"/>
+      <c r="BC42" s="10"/>
+      <c r="BD42" s="10"/>
+      <c r="BE42" s="15"/>
+      <c r="BF42" s="11"/>
+      <c r="BG42" s="10"/>
+      <c r="BH42" s="10"/>
+      <c r="BI42" s="10"/>
+      <c r="BJ42" s="15"/>
+      <c r="BK42" s="11"/>
+      <c r="BL42" s="10"/>
+      <c r="BM42" s="10"/>
+      <c r="BN42" s="10"/>
+      <c r="BO42" s="15"/>
+      <c r="BP42" s="11"/>
+      <c r="BQ42" s="10"/>
+      <c r="BR42" s="10"/>
+      <c r="BS42" s="10"/>
+      <c r="BT42" s="15"/>
+      <c r="BU42" s="11"/>
+      <c r="BV42" s="10"/>
+      <c r="BW42" s="10"/>
+      <c r="BX42" s="10"/>
+      <c r="BY42" s="15"/>
+      <c r="BZ42" s="11"/>
+      <c r="CA42" s="10"/>
+      <c r="CB42" s="10"/>
+      <c r="CC42" s="10"/>
+      <c r="CD42" s="15"/>
+      <c r="CE42" s="11"/>
+      <c r="CF42" s="10"/>
+      <c r="CG42" s="10"/>
+      <c r="CH42" s="10"/>
+      <c r="CI42" s="15"/>
+      <c r="CJ42" s="11"/>
+      <c r="CK42" s="10"/>
+      <c r="CL42" s="10"/>
+      <c r="CM42" s="10"/>
+      <c r="CN42" s="15"/>
+      <c r="CO42" s="11"/>
+      <c r="CP42" s="10"/>
+      <c r="CQ42" s="10"/>
+      <c r="CR42" s="10"/>
+      <c r="CS42" s="15"/>
+      <c r="CT42" s="11"/>
+      <c r="CU42" s="10"/>
+      <c r="CV42" s="10"/>
+      <c r="CW42" s="10"/>
+      <c r="CX42" s="15"/>
+      <c r="CY42" s="11"/>
+      <c r="CZ42" s="10"/>
+      <c r="DA42" s="10"/>
+      <c r="DB42" s="10"/>
+      <c r="DC42" s="15"/>
+      <c r="DD42" s="11"/>
+      <c r="DE42" s="10"/>
+      <c r="DF42" s="10"/>
+      <c r="DG42" s="10"/>
+      <c r="DH42" s="15"/>
+      <c r="DI42" s="11"/>
+      <c r="DJ42" s="10"/>
+      <c r="DK42" s="10"/>
+      <c r="DL42" s="10"/>
+      <c r="DM42" s="15"/>
+      <c r="DN42" s="11"/>
+      <c r="DO42" s="10"/>
+      <c r="DP42" s="10"/>
+      <c r="DQ42" s="10"/>
+      <c r="DR42" s="15"/>
+      <c r="DS42" s="11"/>
+      <c r="DT42" s="10"/>
+      <c r="DU42" s="10"/>
+      <c r="DV42" s="10"/>
+      <c r="DW42" s="15"/>
+      <c r="DX42" s="11"/>
+      <c r="DY42" s="10"/>
+      <c r="DZ42" s="10"/>
+      <c r="EA42" s="10"/>
+      <c r="EB42" s="15"/>
+      <c r="EC42" s="11"/>
+      <c r="ED42" s="10"/>
+      <c r="EE42" s="10"/>
+      <c r="EF42" s="10"/>
+      <c r="EG42" s="15"/>
+      <c r="EH42" s="11"/>
+      <c r="EI42" s="10"/>
+      <c r="EJ42" s="10"/>
+      <c r="EK42" s="10"/>
+      <c r="EL42" s="15"/>
+    </row>
+    <row r="43" spans="1:142">
+      <c r="A43" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="36">
+        <v>2</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="15"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="15"/>
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="10"/>
+      <c r="AO43" s="10"/>
+      <c r="AP43" s="15"/>
+      <c r="AQ43" s="11"/>
+      <c r="AR43" s="10"/>
+      <c r="AS43" s="10"/>
+      <c r="AT43" s="10"/>
+      <c r="AU43" s="15"/>
+      <c r="AV43" s="11"/>
+      <c r="AW43" s="10"/>
+      <c r="AX43" s="10"/>
+      <c r="AY43" s="10"/>
+      <c r="AZ43" s="15"/>
+      <c r="BA43" s="11"/>
+      <c r="BB43" s="10"/>
+      <c r="BC43" s="10"/>
+      <c r="BD43" s="10"/>
+      <c r="BE43" s="15"/>
+      <c r="BF43" s="11"/>
+      <c r="BG43" s="10"/>
+      <c r="BH43" s="10"/>
+      <c r="BI43" s="10"/>
+      <c r="BJ43" s="15"/>
+      <c r="BK43" s="11"/>
+      <c r="BL43" s="10"/>
+      <c r="BM43" s="10"/>
+      <c r="BN43" s="10"/>
+      <c r="BO43" s="15"/>
+      <c r="BP43" s="11"/>
+      <c r="BQ43" s="10"/>
+      <c r="BR43" s="10"/>
+      <c r="BS43" s="10"/>
+      <c r="BT43" s="15"/>
+      <c r="BU43" s="11"/>
+      <c r="BV43" s="10"/>
+      <c r="BW43" s="10"/>
+      <c r="BX43" s="10"/>
+      <c r="BY43" s="15"/>
+      <c r="BZ43" s="11"/>
+      <c r="CA43" s="10"/>
+      <c r="CB43" s="10"/>
+      <c r="CC43" s="10"/>
+      <c r="CD43" s="15"/>
+      <c r="CE43" s="11"/>
+      <c r="CF43" s="10"/>
+      <c r="CG43" s="10"/>
+      <c r="CH43" s="10"/>
+      <c r="CI43" s="15"/>
+      <c r="CJ43" s="11"/>
+      <c r="CK43" s="10"/>
+      <c r="CL43" s="10"/>
+      <c r="CM43" s="10"/>
+      <c r="CN43" s="15"/>
+      <c r="CO43" s="11"/>
+      <c r="CP43" s="10"/>
+      <c r="CQ43" s="10"/>
+      <c r="CR43" s="10"/>
+      <c r="CS43" s="15"/>
+      <c r="CT43" s="11"/>
+      <c r="CU43" s="10"/>
+      <c r="CV43" s="10"/>
+      <c r="CW43" s="10"/>
+      <c r="CX43" s="15"/>
+      <c r="CY43" s="11"/>
+      <c r="CZ43" s="10"/>
+      <c r="DA43" s="10"/>
+      <c r="DB43" s="10"/>
+      <c r="DC43" s="15"/>
+      <c r="DD43" s="11"/>
+      <c r="DE43" s="10"/>
+      <c r="DF43" s="10"/>
+      <c r="DG43" s="10"/>
+      <c r="DH43" s="15"/>
+      <c r="DI43" s="11"/>
+      <c r="DJ43" s="10"/>
+      <c r="DK43" s="10"/>
+      <c r="DL43" s="10"/>
+      <c r="DM43" s="15"/>
+      <c r="DN43" s="11"/>
+      <c r="DO43" s="10"/>
+      <c r="DP43" s="10"/>
+      <c r="DQ43" s="10"/>
+      <c r="DR43" s="15"/>
+      <c r="DS43" s="11"/>
+      <c r="DT43" s="10"/>
+      <c r="DU43" s="10"/>
+      <c r="DV43" s="10"/>
+      <c r="DW43" s="15"/>
+      <c r="DX43" s="11"/>
+      <c r="DY43" s="10"/>
+      <c r="DZ43" s="10"/>
+      <c r="EA43" s="10"/>
+      <c r="EB43" s="15"/>
+      <c r="EC43" s="11"/>
+      <c r="ED43" s="10"/>
+      <c r="EE43" s="10"/>
+      <c r="EF43" s="10"/>
+      <c r="EG43" s="15"/>
+      <c r="EH43" s="11"/>
+      <c r="EI43" s="10"/>
+      <c r="EJ43" s="10"/>
+      <c r="EK43" s="10"/>
+      <c r="EL43" s="15"/>
+    </row>
+    <row r="44" spans="1:142" ht="15.75" thickBot="1">
+      <c r="A44" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="37">
+        <v>2</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="15"/>
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="10"/>
+      <c r="AO44" s="10"/>
+      <c r="AP44" s="15"/>
+      <c r="AQ44" s="11"/>
+      <c r="AR44" s="10"/>
+      <c r="AS44" s="10"/>
+      <c r="AT44" s="10"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="11"/>
+      <c r="AW44" s="10"/>
+      <c r="AX44" s="10"/>
+      <c r="AY44" s="10"/>
+      <c r="AZ44" s="15"/>
+      <c r="BA44" s="11"/>
+      <c r="BB44" s="10"/>
+      <c r="BC44" s="10"/>
+      <c r="BD44" s="10"/>
+      <c r="BE44" s="15"/>
+      <c r="BF44" s="11"/>
+      <c r="BG44" s="10"/>
+      <c r="BH44" s="10"/>
+      <c r="BI44" s="10"/>
+      <c r="BJ44" s="15"/>
+      <c r="BK44" s="11"/>
+      <c r="BL44" s="10"/>
+      <c r="BM44" s="10"/>
+      <c r="BN44" s="10"/>
+      <c r="BO44" s="15"/>
+      <c r="BP44" s="11"/>
+      <c r="BQ44" s="10"/>
+      <c r="BR44" s="10"/>
+      <c r="BS44" s="10"/>
+      <c r="BT44" s="15"/>
+      <c r="BU44" s="11"/>
+      <c r="BV44" s="10"/>
+      <c r="BW44" s="10"/>
+      <c r="BX44" s="10"/>
+      <c r="BY44" s="15"/>
+      <c r="BZ44" s="11"/>
+      <c r="CA44" s="10"/>
+      <c r="CB44" s="10"/>
+      <c r="CC44" s="10"/>
+      <c r="CD44" s="15"/>
+      <c r="CE44" s="11"/>
+      <c r="CF44" s="10"/>
+      <c r="CG44" s="10"/>
+      <c r="CH44" s="10"/>
+      <c r="CI44" s="15"/>
+      <c r="CJ44" s="11"/>
+      <c r="CK44" s="10"/>
+      <c r="CL44" s="10"/>
+      <c r="CM44" s="10"/>
+      <c r="CN44" s="15"/>
+      <c r="CO44" s="11"/>
+      <c r="CP44" s="10"/>
+      <c r="CQ44" s="10"/>
+      <c r="CR44" s="10"/>
+      <c r="CS44" s="15"/>
+      <c r="CT44" s="11"/>
+      <c r="CU44" s="10"/>
+      <c r="CV44" s="10"/>
+      <c r="CW44" s="10"/>
+      <c r="CX44" s="15"/>
+      <c r="CY44" s="11"/>
+      <c r="CZ44" s="10"/>
+      <c r="DA44" s="10"/>
+      <c r="DB44" s="10"/>
+      <c r="DC44" s="15"/>
+      <c r="DD44" s="11"/>
+      <c r="DE44" s="10"/>
+      <c r="DF44" s="10"/>
+      <c r="DG44" s="10"/>
+      <c r="DH44" s="15"/>
+      <c r="DI44" s="11"/>
+      <c r="DJ44" s="10"/>
+      <c r="DK44" s="10"/>
+      <c r="DL44" s="10"/>
+      <c r="DM44" s="15"/>
+      <c r="DN44" s="11"/>
+      <c r="DO44" s="10"/>
+      <c r="DP44" s="10"/>
+      <c r="DQ44" s="10"/>
+      <c r="DR44" s="15"/>
+      <c r="DS44" s="11"/>
+      <c r="DT44" s="10"/>
+      <c r="DU44" s="10"/>
+      <c r="DV44" s="10"/>
+      <c r="DW44" s="15"/>
+      <c r="DX44" s="11"/>
+      <c r="DY44" s="10"/>
+      <c r="DZ44" s="10"/>
+      <c r="EA44" s="10"/>
+      <c r="EB44" s="15"/>
+      <c r="EC44" s="11"/>
+      <c r="ED44" s="10"/>
+      <c r="EE44" s="10"/>
+      <c r="EF44" s="10"/>
+      <c r="EG44" s="15"/>
+      <c r="EH44" s="11"/>
+      <c r="EI44" s="10"/>
+      <c r="EJ44" s="10"/>
+      <c r="EK44" s="10"/>
+      <c r="EL44" s="15"/>
+    </row>
+    <row r="45" spans="1:142">
+      <c r="A45" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="36">
+        <v>2</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="15"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+      <c r="AK45" s="15"/>
+      <c r="AL45" s="11"/>
+      <c r="AM45" s="10"/>
+      <c r="AN45" s="10"/>
+      <c r="AO45" s="10"/>
+      <c r="AP45" s="15"/>
+      <c r="AQ45" s="11"/>
+      <c r="AR45" s="10"/>
+      <c r="AS45" s="10"/>
+      <c r="AT45" s="10"/>
+      <c r="AU45" s="15"/>
+      <c r="AV45" s="11"/>
+      <c r="AW45" s="10"/>
+      <c r="AX45" s="10"/>
+      <c r="AY45" s="10"/>
+      <c r="AZ45" s="15"/>
+      <c r="BA45" s="11"/>
+      <c r="BB45" s="10"/>
+      <c r="BC45" s="10"/>
+      <c r="BD45" s="10"/>
+      <c r="BE45" s="15"/>
+      <c r="BF45" s="11"/>
+      <c r="BG45" s="10"/>
+      <c r="BH45" s="10"/>
+      <c r="BI45" s="10"/>
+      <c r="BJ45" s="15"/>
+      <c r="BK45" s="11"/>
+      <c r="BL45" s="10"/>
+      <c r="BM45" s="10"/>
+      <c r="BN45" s="10"/>
+      <c r="BO45" s="15"/>
+      <c r="BP45" s="11"/>
+      <c r="BQ45" s="10"/>
+      <c r="BR45" s="10"/>
+      <c r="BS45" s="10"/>
+      <c r="BT45" s="15"/>
+      <c r="BU45" s="11"/>
+      <c r="BV45" s="10"/>
+      <c r="BW45" s="10"/>
+      <c r="BX45" s="10"/>
+      <c r="BY45" s="15"/>
+      <c r="BZ45" s="11"/>
+      <c r="CA45" s="10"/>
+      <c r="CB45" s="10"/>
+      <c r="CC45" s="10"/>
+      <c r="CD45" s="15"/>
+      <c r="CE45" s="11"/>
+      <c r="CF45" s="10"/>
+      <c r="CG45" s="10"/>
+      <c r="CH45" s="10"/>
+      <c r="CI45" s="15"/>
+      <c r="CJ45" s="11"/>
+      <c r="CK45" s="10"/>
+      <c r="CL45" s="10"/>
+      <c r="CM45" s="10"/>
+      <c r="CN45" s="15"/>
+      <c r="CO45" s="11"/>
+      <c r="CP45" s="10"/>
+      <c r="CQ45" s="10"/>
+      <c r="CR45" s="10"/>
+      <c r="CS45" s="15"/>
+      <c r="CT45" s="11"/>
+      <c r="CU45" s="10"/>
+      <c r="CV45" s="10"/>
+      <c r="CW45" s="10"/>
+      <c r="CX45" s="15"/>
+      <c r="CY45" s="11"/>
+      <c r="CZ45" s="10"/>
+      <c r="DA45" s="10"/>
+      <c r="DB45" s="10"/>
+      <c r="DC45" s="15"/>
+      <c r="DD45" s="11"/>
+      <c r="DE45" s="10"/>
+      <c r="DF45" s="10"/>
+      <c r="DG45" s="10"/>
+      <c r="DH45" s="15"/>
+      <c r="DI45" s="11"/>
+      <c r="DJ45" s="10"/>
+      <c r="DK45" s="10"/>
+      <c r="DL45" s="10"/>
+      <c r="DM45" s="15"/>
+      <c r="DN45" s="11"/>
+      <c r="DO45" s="10"/>
+      <c r="DP45" s="10"/>
+      <c r="DQ45" s="10"/>
+      <c r="DR45" s="15"/>
+      <c r="DS45" s="11"/>
+      <c r="DT45" s="10"/>
+      <c r="DU45" s="10"/>
+      <c r="DV45" s="10"/>
+      <c r="DW45" s="15"/>
+      <c r="DX45" s="11"/>
+      <c r="DY45" s="10"/>
+      <c r="DZ45" s="10"/>
+      <c r="EA45" s="10"/>
+      <c r="EB45" s="15"/>
+      <c r="EC45" s="11"/>
+      <c r="ED45" s="10"/>
+      <c r="EE45" s="10"/>
+      <c r="EF45" s="10"/>
+      <c r="EG45" s="15"/>
+      <c r="EH45" s="11"/>
+      <c r="EI45" s="10"/>
+      <c r="EJ45" s="10"/>
+      <c r="EK45" s="10"/>
+      <c r="EL45" s="15"/>
+    </row>
+    <row r="46" spans="1:142" ht="15.75" thickBot="1">
+      <c r="A46" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="37">
+        <v>2</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
+      <c r="AJ46" s="10"/>
+      <c r="AK46" s="15"/>
+      <c r="AL46" s="11"/>
+      <c r="AM46" s="10"/>
+      <c r="AN46" s="10"/>
+      <c r="AO46" s="10"/>
+      <c r="AP46" s="15"/>
+      <c r="AQ46" s="11"/>
+      <c r="AR46" s="10"/>
+      <c r="AS46" s="10"/>
+      <c r="AT46" s="10"/>
+      <c r="AU46" s="15"/>
+      <c r="AV46" s="11"/>
+      <c r="AW46" s="10"/>
+      <c r="AX46" s="10"/>
+      <c r="AY46" s="10"/>
+      <c r="AZ46" s="15"/>
+      <c r="BA46" s="11"/>
+      <c r="BB46" s="10"/>
+      <c r="BC46" s="10"/>
+      <c r="BD46" s="10"/>
+      <c r="BE46" s="15"/>
+      <c r="BF46" s="11"/>
+      <c r="BG46" s="10"/>
+      <c r="BH46" s="10"/>
+      <c r="BI46" s="10"/>
+      <c r="BJ46" s="15"/>
+      <c r="BK46" s="11"/>
+      <c r="BL46" s="10"/>
+      <c r="BM46" s="10"/>
+      <c r="BN46" s="10"/>
+      <c r="BO46" s="15"/>
+      <c r="BP46" s="11"/>
+      <c r="BQ46" s="10"/>
+      <c r="BR46" s="10"/>
+      <c r="BS46" s="10"/>
+      <c r="BT46" s="15"/>
+      <c r="BU46" s="11"/>
+      <c r="BV46" s="10"/>
+      <c r="BW46" s="10"/>
+      <c r="BX46" s="10"/>
+      <c r="BY46" s="15"/>
+      <c r="BZ46" s="11"/>
+      <c r="CA46" s="10"/>
+      <c r="CB46" s="10"/>
+      <c r="CC46" s="10"/>
+      <c r="CD46" s="15"/>
+      <c r="CE46" s="11"/>
+      <c r="CF46" s="10"/>
+      <c r="CG46" s="10"/>
+      <c r="CH46" s="10"/>
+      <c r="CI46" s="15"/>
+      <c r="CJ46" s="11"/>
+      <c r="CK46" s="10"/>
+      <c r="CL46" s="10"/>
+      <c r="CM46" s="10"/>
+      <c r="CN46" s="15"/>
+      <c r="CO46" s="11"/>
+      <c r="CP46" s="10"/>
+      <c r="CQ46" s="10"/>
+      <c r="CR46" s="10"/>
+      <c r="CS46" s="15"/>
+      <c r="CT46" s="11"/>
+      <c r="CU46" s="10"/>
+      <c r="CV46" s="10"/>
+      <c r="CW46" s="10"/>
+      <c r="CX46" s="15"/>
+      <c r="CY46" s="11"/>
+      <c r="CZ46" s="10"/>
+      <c r="DA46" s="10"/>
+      <c r="DB46" s="10"/>
+      <c r="DC46" s="15"/>
+      <c r="DD46" s="11"/>
+      <c r="DE46" s="10"/>
+      <c r="DF46" s="10"/>
+      <c r="DG46" s="10"/>
+      <c r="DH46" s="15"/>
+      <c r="DI46" s="11"/>
+      <c r="DJ46" s="10"/>
+      <c r="DK46" s="10"/>
+      <c r="DL46" s="10"/>
+      <c r="DM46" s="15"/>
+      <c r="DN46" s="11"/>
+      <c r="DO46" s="10"/>
+      <c r="DP46" s="10"/>
+      <c r="DQ46" s="10"/>
+      <c r="DR46" s="15"/>
+      <c r="DS46" s="11"/>
+      <c r="DT46" s="10"/>
+      <c r="DU46" s="10"/>
+      <c r="DV46" s="10"/>
+      <c r="DW46" s="15"/>
+      <c r="DX46" s="11"/>
+      <c r="DY46" s="10"/>
+      <c r="DZ46" s="10"/>
+      <c r="EA46" s="10"/>
+      <c r="EB46" s="15"/>
+      <c r="EC46" s="11"/>
+      <c r="ED46" s="10"/>
+      <c r="EE46" s="10"/>
+      <c r="EF46" s="10"/>
+      <c r="EG46" s="15"/>
+      <c r="EH46" s="11"/>
+      <c r="EI46" s="10"/>
+      <c r="EJ46" s="10"/>
+      <c r="EK46" s="10"/>
+      <c r="EL46" s="15"/>
+    </row>
+    <row r="47" spans="1:142">
+      <c r="A47" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="36">
+        <v>2</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="15"/>
+      <c r="AL47" s="11"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="10"/>
+      <c r="AO47" s="10"/>
+      <c r="AP47" s="15"/>
+      <c r="AQ47" s="11"/>
+      <c r="AR47" s="10"/>
+      <c r="AS47" s="10"/>
+      <c r="AT47" s="10"/>
+      <c r="AU47" s="15"/>
+      <c r="AV47" s="11"/>
+      <c r="AW47" s="10"/>
+      <c r="AX47" s="10"/>
+      <c r="AY47" s="10"/>
+      <c r="AZ47" s="15"/>
+      <c r="BA47" s="11"/>
+      <c r="BB47" s="10"/>
+      <c r="BC47" s="10"/>
+      <c r="BD47" s="10"/>
+      <c r="BE47" s="15"/>
+      <c r="BF47" s="11"/>
+      <c r="BG47" s="10"/>
+      <c r="BH47" s="10"/>
+      <c r="BI47" s="10"/>
+      <c r="BJ47" s="15"/>
+      <c r="BK47" s="11"/>
+      <c r="BL47" s="10"/>
+      <c r="BM47" s="10"/>
+      <c r="BN47" s="10"/>
+      <c r="BO47" s="15"/>
+      <c r="BP47" s="11"/>
+      <c r="BQ47" s="10"/>
+      <c r="BR47" s="10"/>
+      <c r="BS47" s="10"/>
+      <c r="BT47" s="15"/>
+      <c r="BU47" s="11"/>
+      <c r="BV47" s="10"/>
+      <c r="BW47" s="10"/>
+      <c r="BX47" s="10"/>
+      <c r="BY47" s="15"/>
+      <c r="BZ47" s="11"/>
+      <c r="CA47" s="10"/>
+      <c r="CB47" s="10"/>
+      <c r="CC47" s="10"/>
+      <c r="CD47" s="15"/>
+      <c r="CE47" s="11"/>
+      <c r="CF47" s="10"/>
+      <c r="CG47" s="10"/>
+      <c r="CH47" s="10"/>
+      <c r="CI47" s="15"/>
+      <c r="CJ47" s="11"/>
+      <c r="CK47" s="10"/>
+      <c r="CL47" s="10"/>
+      <c r="CM47" s="10"/>
+      <c r="CN47" s="15"/>
+      <c r="CO47" s="11"/>
+      <c r="CP47" s="10"/>
+      <c r="CQ47" s="10"/>
+      <c r="CR47" s="10"/>
+      <c r="CS47" s="15"/>
+      <c r="CT47" s="11"/>
+      <c r="CU47" s="10"/>
+      <c r="CV47" s="10"/>
+      <c r="CW47" s="10"/>
+      <c r="CX47" s="15"/>
+      <c r="CY47" s="11"/>
+      <c r="CZ47" s="10"/>
+      <c r="DA47" s="10"/>
+      <c r="DB47" s="10"/>
+      <c r="DC47" s="15"/>
+      <c r="DD47" s="11"/>
+      <c r="DE47" s="10"/>
+      <c r="DF47" s="10"/>
+      <c r="DG47" s="10"/>
+      <c r="DH47" s="15"/>
+      <c r="DI47" s="11"/>
+      <c r="DJ47" s="10"/>
+      <c r="DK47" s="10"/>
+      <c r="DL47" s="10"/>
+      <c r="DM47" s="15"/>
+      <c r="DN47" s="11"/>
+      <c r="DO47" s="10"/>
+      <c r="DP47" s="10"/>
+      <c r="DQ47" s="10"/>
+      <c r="DR47" s="15"/>
+      <c r="DS47" s="11"/>
+      <c r="DT47" s="10"/>
+      <c r="DU47" s="10"/>
+      <c r="DV47" s="10"/>
+      <c r="DW47" s="15"/>
+      <c r="DX47" s="11"/>
+      <c r="DY47" s="10"/>
+      <c r="DZ47" s="10"/>
+      <c r="EA47" s="10"/>
+      <c r="EB47" s="15"/>
+      <c r="EC47" s="11"/>
+      <c r="ED47" s="10"/>
+      <c r="EE47" s="10"/>
+      <c r="EF47" s="10"/>
+      <c r="EG47" s="15"/>
+      <c r="EH47" s="11"/>
+      <c r="EI47" s="10"/>
+      <c r="EJ47" s="10"/>
+      <c r="EK47" s="10"/>
+      <c r="EL47" s="15"/>
+    </row>
+    <row r="48" spans="1:142" ht="15.75" thickBot="1">
+      <c r="A48" s="10"/>
+      <c r="B48" s="37">
+        <v>2</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="15"/>
+      <c r="AL48" s="11"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="10"/>
+      <c r="AO48" s="10"/>
+      <c r="AP48" s="15"/>
+      <c r="AQ48" s="11"/>
+      <c r="AR48" s="10"/>
+      <c r="AS48" s="10"/>
+      <c r="AT48" s="10"/>
+      <c r="AU48" s="15"/>
+      <c r="AV48" s="11"/>
+      <c r="AW48" s="10"/>
+      <c r="AX48" s="10"/>
+      <c r="AY48" s="10"/>
+      <c r="AZ48" s="15"/>
+      <c r="BA48" s="11"/>
+      <c r="BB48" s="10"/>
+      <c r="BC48" s="10"/>
+      <c r="BD48" s="10"/>
+      <c r="BE48" s="15"/>
+      <c r="BF48" s="11"/>
+      <c r="BG48" s="10"/>
+      <c r="BH48" s="10"/>
+      <c r="BI48" s="10"/>
+      <c r="BJ48" s="15"/>
+      <c r="BK48" s="11"/>
+      <c r="BL48" s="10"/>
+      <c r="BM48" s="10"/>
+      <c r="BN48" s="10"/>
+      <c r="BO48" s="15"/>
+      <c r="BP48" s="11"/>
+      <c r="BQ48" s="10"/>
+      <c r="BR48" s="10"/>
+      <c r="BS48" s="10"/>
+      <c r="BT48" s="15"/>
+      <c r="BU48" s="11"/>
+      <c r="BV48" s="10"/>
+      <c r="BW48" s="10"/>
+      <c r="BX48" s="10"/>
+      <c r="BY48" s="15"/>
+      <c r="BZ48" s="11"/>
+      <c r="CA48" s="10"/>
+      <c r="CB48" s="10"/>
+      <c r="CC48" s="10"/>
+      <c r="CD48" s="15"/>
+      <c r="CE48" s="11"/>
+      <c r="CF48" s="10"/>
+      <c r="CG48" s="10"/>
+      <c r="CH48" s="10"/>
+      <c r="CI48" s="15"/>
+      <c r="CJ48" s="11"/>
+      <c r="CK48" s="10"/>
+      <c r="CL48" s="10"/>
+      <c r="CM48" s="10"/>
+      <c r="CN48" s="15"/>
+      <c r="CO48" s="11"/>
+      <c r="CP48" s="10"/>
+      <c r="CQ48" s="10"/>
+      <c r="CR48" s="10"/>
+      <c r="CS48" s="15"/>
+      <c r="CT48" s="11"/>
+      <c r="CU48" s="10"/>
+      <c r="CV48" s="10"/>
+      <c r="CW48" s="10"/>
+      <c r="CX48" s="15"/>
+      <c r="CY48" s="11"/>
+      <c r="CZ48" s="10"/>
+      <c r="DA48" s="10"/>
+      <c r="DB48" s="10"/>
+      <c r="DC48" s="15"/>
+      <c r="DD48" s="11"/>
+      <c r="DE48" s="10"/>
+      <c r="DF48" s="10"/>
+      <c r="DG48" s="10"/>
+      <c r="DH48" s="15"/>
+      <c r="DI48" s="11"/>
+      <c r="DJ48" s="10"/>
+      <c r="DK48" s="10"/>
+      <c r="DL48" s="10"/>
+      <c r="DM48" s="15"/>
+      <c r="DN48" s="11"/>
+      <c r="DO48" s="10"/>
+      <c r="DP48" s="10"/>
+      <c r="DQ48" s="10"/>
+      <c r="DR48" s="15"/>
+      <c r="DS48" s="11"/>
+      <c r="DT48" s="10"/>
+      <c r="DU48" s="10"/>
+      <c r="DV48" s="10"/>
+      <c r="DW48" s="15"/>
+      <c r="DX48" s="11"/>
+      <c r="DY48" s="10"/>
+      <c r="DZ48" s="10"/>
+      <c r="EA48" s="10"/>
+      <c r="EB48" s="15"/>
+      <c r="EC48" s="11"/>
+      <c r="ED48" s="10"/>
+      <c r="EE48" s="10"/>
+      <c r="EF48" s="10"/>
+      <c r="EG48" s="15"/>
+      <c r="EH48" s="11"/>
+      <c r="EI48" s="10"/>
+      <c r="EJ48" s="10"/>
+      <c r="EK48" s="10"/>
+      <c r="EL48" s="15"/>
+    </row>
+    <row r="49" spans="1:142">
+      <c r="A49" s="11"/>
+      <c r="B49" s="36">
+        <v>2</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="15"/>
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="15"/>
+      <c r="AL49" s="11"/>
+      <c r="AM49" s="10"/>
+      <c r="AN49" s="10"/>
+      <c r="AO49" s="10"/>
+      <c r="AP49" s="15"/>
+      <c r="AQ49" s="11"/>
+      <c r="AR49" s="10"/>
+      <c r="AS49" s="10"/>
+      <c r="AT49" s="10"/>
+      <c r="AU49" s="15"/>
+      <c r="AV49" s="11"/>
+      <c r="AW49" s="10"/>
+      <c r="AX49" s="10"/>
+      <c r="AY49" s="10"/>
+      <c r="AZ49" s="15"/>
+      <c r="BA49" s="11"/>
+      <c r="BB49" s="10"/>
+      <c r="BC49" s="10"/>
+      <c r="BD49" s="10"/>
+      <c r="BE49" s="15"/>
+      <c r="BF49" s="11"/>
+      <c r="BG49" s="10"/>
+      <c r="BH49" s="10"/>
+      <c r="BI49" s="10"/>
+      <c r="BJ49" s="15"/>
+      <c r="BK49" s="11"/>
+      <c r="BL49" s="10"/>
+      <c r="BM49" s="10"/>
+      <c r="BN49" s="10"/>
+      <c r="BO49" s="15"/>
+      <c r="BP49" s="11"/>
+      <c r="BQ49" s="10"/>
+      <c r="BR49" s="10"/>
+      <c r="BS49" s="10"/>
+      <c r="BT49" s="15"/>
+      <c r="BU49" s="11"/>
+      <c r="BV49" s="10"/>
+      <c r="BW49" s="10"/>
+      <c r="BX49" s="10"/>
+      <c r="BY49" s="15"/>
+      <c r="BZ49" s="11"/>
+      <c r="CA49" s="10"/>
+      <c r="CB49" s="10"/>
+      <c r="CC49" s="10"/>
+      <c r="CD49" s="15"/>
+      <c r="CE49" s="11"/>
+      <c r="CF49" s="10"/>
+      <c r="CG49" s="10"/>
+      <c r="CH49" s="10"/>
+      <c r="CI49" s="15"/>
+      <c r="CJ49" s="11"/>
+      <c r="CK49" s="10"/>
+      <c r="CL49" s="10"/>
+      <c r="CM49" s="10"/>
+      <c r="CN49" s="15"/>
+      <c r="CO49" s="11"/>
+      <c r="CP49" s="10"/>
+      <c r="CQ49" s="10"/>
+      <c r="CR49" s="10"/>
+      <c r="CS49" s="15"/>
+      <c r="CT49" s="11"/>
+      <c r="CU49" s="10"/>
+      <c r="CV49" s="10"/>
+      <c r="CW49" s="10"/>
+      <c r="CX49" s="15"/>
+      <c r="CY49" s="11"/>
+      <c r="CZ49" s="10"/>
+      <c r="DA49" s="10"/>
+      <c r="DB49" s="10"/>
+      <c r="DC49" s="15"/>
+      <c r="DD49" s="11"/>
+      <c r="DE49" s="10"/>
+      <c r="DF49" s="10"/>
+      <c r="DG49" s="10"/>
+      <c r="DH49" s="15"/>
+      <c r="DI49" s="11"/>
+      <c r="DJ49" s="10"/>
+      <c r="DK49" s="10"/>
+      <c r="DL49" s="10"/>
+      <c r="DM49" s="15"/>
+      <c r="DN49" s="11"/>
+      <c r="DO49" s="10"/>
+      <c r="DP49" s="10"/>
+      <c r="DQ49" s="10"/>
+      <c r="DR49" s="15"/>
+      <c r="DS49" s="11"/>
+      <c r="DT49" s="10"/>
+      <c r="DU49" s="10"/>
+      <c r="DV49" s="10"/>
+      <c r="DW49" s="15"/>
+      <c r="DX49" s="11"/>
+      <c r="DY49" s="10"/>
+      <c r="DZ49" s="10"/>
+      <c r="EA49" s="10"/>
+      <c r="EB49" s="15"/>
+      <c r="EC49" s="11"/>
+      <c r="ED49" s="10"/>
+      <c r="EE49" s="10"/>
+      <c r="EF49" s="10"/>
+      <c r="EG49" s="15"/>
+      <c r="EH49" s="11"/>
+      <c r="EI49" s="10"/>
+      <c r="EJ49" s="10"/>
+      <c r="EK49" s="10"/>
+      <c r="EL49" s="15"/>
+    </row>
+    <row r="50" spans="1:142" ht="15.75" thickBot="1">
+      <c r="A50" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="37">
+        <v>2</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="15"/>
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="10"/>
+      <c r="AI50" s="10"/>
+      <c r="AJ50" s="10"/>
+      <c r="AK50" s="15"/>
+      <c r="AL50" s="11"/>
+      <c r="AM50" s="10"/>
+      <c r="AN50" s="10"/>
+      <c r="AO50" s="10"/>
+      <c r="AP50" s="15"/>
+      <c r="AQ50" s="11"/>
+      <c r="AR50" s="10"/>
+      <c r="AS50" s="10"/>
+      <c r="AT50" s="10"/>
+      <c r="AU50" s="15"/>
+      <c r="AV50" s="11"/>
+      <c r="AW50" s="10"/>
+      <c r="AX50" s="10"/>
+      <c r="AY50" s="10"/>
+      <c r="AZ50" s="15"/>
+      <c r="BA50" s="11"/>
+      <c r="BB50" s="10"/>
+      <c r="BC50" s="10"/>
+      <c r="BD50" s="10"/>
+      <c r="BE50" s="15"/>
+      <c r="BF50" s="11"/>
+      <c r="BG50" s="10"/>
+      <c r="BH50" s="10"/>
+      <c r="BI50" s="10"/>
+      <c r="BJ50" s="15"/>
+      <c r="BK50" s="11"/>
+      <c r="BL50" s="10"/>
+      <c r="BM50" s="10"/>
+      <c r="BN50" s="10"/>
+      <c r="BO50" s="15"/>
+      <c r="BP50" s="11"/>
+      <c r="BQ50" s="10"/>
+      <c r="BR50" s="10"/>
+      <c r="BS50" s="10"/>
+      <c r="BT50" s="15"/>
+      <c r="BU50" s="11"/>
+      <c r="BV50" s="10"/>
+      <c r="BW50" s="10"/>
+      <c r="BX50" s="10"/>
+      <c r="BY50" s="15"/>
+      <c r="BZ50" s="11"/>
+      <c r="CA50" s="10"/>
+      <c r="CB50" s="10"/>
+      <c r="CC50" s="10"/>
+      <c r="CD50" s="15"/>
+      <c r="CE50" s="11"/>
+      <c r="CF50" s="10"/>
+      <c r="CG50" s="10"/>
+      <c r="CH50" s="10"/>
+      <c r="CI50" s="15"/>
+      <c r="CJ50" s="11"/>
+      <c r="CK50" s="10"/>
+      <c r="CL50" s="10"/>
+      <c r="CM50" s="10"/>
+      <c r="CN50" s="15"/>
+      <c r="CO50" s="11"/>
+      <c r="CP50" s="10"/>
+      <c r="CQ50" s="10"/>
+      <c r="CR50" s="10"/>
+      <c r="CS50" s="15"/>
+      <c r="CT50" s="11"/>
+      <c r="CU50" s="10"/>
+      <c r="CV50" s="10"/>
+      <c r="CW50" s="10"/>
+      <c r="CX50" s="15"/>
+      <c r="CY50" s="11"/>
+      <c r="CZ50" s="10"/>
+      <c r="DA50" s="10"/>
+      <c r="DB50" s="10"/>
+      <c r="DC50" s="15"/>
+      <c r="DD50" s="11"/>
+      <c r="DE50" s="10"/>
+      <c r="DF50" s="10"/>
+      <c r="DG50" s="10"/>
+      <c r="DH50" s="15"/>
+      <c r="DI50" s="11"/>
+      <c r="DJ50" s="10"/>
+      <c r="DK50" s="10"/>
+      <c r="DL50" s="10"/>
+      <c r="DM50" s="15"/>
+      <c r="DN50" s="11"/>
+      <c r="DO50" s="10"/>
+      <c r="DP50" s="10"/>
+      <c r="DQ50" s="10"/>
+      <c r="DR50" s="15"/>
+      <c r="DS50" s="11"/>
+      <c r="DT50" s="10"/>
+      <c r="DU50" s="10"/>
+      <c r="DV50" s="10"/>
+      <c r="DW50" s="15"/>
+      <c r="DX50" s="11"/>
+      <c r="DY50" s="10"/>
+      <c r="DZ50" s="10"/>
+      <c r="EA50" s="10"/>
+      <c r="EB50" s="15"/>
+      <c r="EC50" s="11"/>
+      <c r="ED50" s="10"/>
+      <c r="EE50" s="10"/>
+      <c r="EF50" s="10"/>
+      <c r="EG50" s="15"/>
+      <c r="EH50" s="11"/>
+      <c r="EI50" s="10"/>
+      <c r="EJ50" s="10"/>
+      <c r="EK50" s="10"/>
+      <c r="EL50" s="15"/>
+    </row>
+    <row r="51" spans="1:142">
+      <c r="A51" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="36">
+        <v>2</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="15"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="15"/>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="10"/>
+      <c r="AJ51" s="10"/>
+      <c r="AK51" s="15"/>
+      <c r="AL51" s="11"/>
+      <c r="AM51" s="10"/>
+      <c r="AN51" s="10"/>
+      <c r="AO51" s="10"/>
+      <c r="AP51" s="15"/>
+      <c r="AQ51" s="11"/>
+      <c r="AR51" s="10"/>
+      <c r="AS51" s="10"/>
+      <c r="AT51" s="10"/>
+      <c r="AU51" s="15"/>
+      <c r="AV51" s="11"/>
+      <c r="AW51" s="10"/>
+      <c r="AX51" s="10"/>
+      <c r="AY51" s="10"/>
+      <c r="AZ51" s="15"/>
+      <c r="BA51" s="11"/>
+      <c r="BB51" s="10"/>
+      <c r="BC51" s="10"/>
+      <c r="BD51" s="10"/>
+      <c r="BE51" s="15"/>
+      <c r="BF51" s="11"/>
+      <c r="BG51" s="10"/>
+      <c r="BH51" s="10"/>
+      <c r="BI51" s="10"/>
+      <c r="BJ51" s="15"/>
+      <c r="BK51" s="11"/>
+      <c r="BL51" s="10"/>
+      <c r="BM51" s="10"/>
+      <c r="BN51" s="10"/>
+      <c r="BO51" s="15"/>
+      <c r="BP51" s="11"/>
+      <c r="BQ51" s="10"/>
+      <c r="BR51" s="10"/>
+      <c r="BS51" s="10"/>
+      <c r="BT51" s="15"/>
+      <c r="BU51" s="11"/>
+      <c r="BV51" s="10"/>
+      <c r="BW51" s="10"/>
+      <c r="BX51" s="10"/>
+      <c r="BY51" s="15"/>
+      <c r="BZ51" s="11"/>
+      <c r="CA51" s="10"/>
+      <c r="CB51" s="10"/>
+      <c r="CC51" s="10"/>
+      <c r="CD51" s="15"/>
+      <c r="CE51" s="11"/>
+      <c r="CF51" s="10"/>
+      <c r="CG51" s="10"/>
+      <c r="CH51" s="10"/>
+      <c r="CI51" s="15"/>
+      <c r="CJ51" s="11"/>
+      <c r="CK51" s="10"/>
+      <c r="CL51" s="10"/>
+      <c r="CM51" s="10"/>
+      <c r="CN51" s="15"/>
+      <c r="CO51" s="11"/>
+      <c r="CP51" s="10"/>
+      <c r="CQ51" s="10"/>
+      <c r="CR51" s="10"/>
+      <c r="CS51" s="15"/>
+      <c r="CT51" s="11"/>
+      <c r="CU51" s="10"/>
+      <c r="CV51" s="10"/>
+      <c r="CW51" s="10"/>
+      <c r="CX51" s="15"/>
+      <c r="CY51" s="11"/>
+      <c r="CZ51" s="10"/>
+      <c r="DA51" s="10"/>
+      <c r="DB51" s="10"/>
+      <c r="DC51" s="15"/>
+      <c r="DD51" s="11"/>
+      <c r="DE51" s="10"/>
+      <c r="DF51" s="10"/>
+      <c r="DG51" s="10"/>
+      <c r="DH51" s="15"/>
+      <c r="DI51" s="11"/>
+      <c r="DJ51" s="10"/>
+      <c r="DK51" s="10"/>
+      <c r="DL51" s="10"/>
+      <c r="DM51" s="15"/>
+      <c r="DN51" s="11"/>
+      <c r="DO51" s="10"/>
+      <c r="DP51" s="10"/>
+      <c r="DQ51" s="10"/>
+      <c r="DR51" s="15"/>
+      <c r="DS51" s="11"/>
+      <c r="DT51" s="10"/>
+      <c r="DU51" s="10"/>
+      <c r="DV51" s="10"/>
+      <c r="DW51" s="15"/>
+      <c r="DX51" s="11"/>
+      <c r="DY51" s="10"/>
+      <c r="DZ51" s="10"/>
+      <c r="EA51" s="10"/>
+      <c r="EB51" s="15"/>
+      <c r="EC51" s="11"/>
+      <c r="ED51" s="10"/>
+      <c r="EE51" s="10"/>
+      <c r="EF51" s="10"/>
+      <c r="EG51" s="15"/>
+      <c r="EH51" s="11"/>
+      <c r="EI51" s="10"/>
+      <c r="EJ51" s="10"/>
+      <c r="EK51" s="10"/>
+      <c r="EL51" s="15"/>
+    </row>
+    <row r="52" spans="1:142" ht="15.75" thickBot="1">
+      <c r="A52" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="37">
+        <v>2</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="17"/>
+      <c r="Y52" s="17"/>
+      <c r="Z52" s="17"/>
+      <c r="AA52" s="18"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="17"/>
+      <c r="AD52" s="17"/>
+      <c r="AE52" s="17"/>
+      <c r="AF52" s="18"/>
+      <c r="AG52" s="16"/>
+      <c r="AH52" s="17"/>
+      <c r="AI52" s="17"/>
+      <c r="AJ52" s="17"/>
+      <c r="AK52" s="18"/>
+      <c r="AL52" s="16"/>
+      <c r="AM52" s="17"/>
+      <c r="AN52" s="17"/>
+      <c r="AO52" s="17"/>
+      <c r="AP52" s="18"/>
+      <c r="AQ52" s="16"/>
+      <c r="AR52" s="17"/>
+      <c r="AS52" s="17"/>
+      <c r="AT52" s="17"/>
+      <c r="AU52" s="18"/>
+      <c r="AV52" s="16"/>
+      <c r="AW52" s="17"/>
+      <c r="AX52" s="17"/>
+      <c r="AY52" s="17"/>
+      <c r="AZ52" s="18"/>
+      <c r="BA52" s="16"/>
+      <c r="BB52" s="17"/>
+      <c r="BC52" s="17"/>
+      <c r="BD52" s="17"/>
+      <c r="BE52" s="18"/>
+      <c r="BF52" s="16"/>
+      <c r="BG52" s="17"/>
+      <c r="BH52" s="17"/>
+      <c r="BI52" s="17"/>
+      <c r="BJ52" s="18"/>
+      <c r="BK52" s="16"/>
+      <c r="BL52" s="17"/>
+      <c r="BM52" s="17"/>
+      <c r="BN52" s="17"/>
+      <c r="BO52" s="18"/>
+      <c r="BP52" s="16"/>
+      <c r="BQ52" s="17"/>
+      <c r="BR52" s="17"/>
+      <c r="BS52" s="17"/>
+      <c r="BT52" s="18"/>
+      <c r="BU52" s="16"/>
+      <c r="BV52" s="17"/>
+      <c r="BW52" s="17"/>
+      <c r="BX52" s="17"/>
+      <c r="BY52" s="18"/>
+      <c r="BZ52" s="16"/>
+      <c r="CA52" s="17"/>
+      <c r="CB52" s="17"/>
+      <c r="CC52" s="17"/>
+      <c r="CD52" s="18"/>
+      <c r="CE52" s="16"/>
+      <c r="CF52" s="17"/>
+      <c r="CG52" s="17"/>
+      <c r="CH52" s="17"/>
+      <c r="CI52" s="18"/>
+      <c r="CJ52" s="16"/>
+      <c r="CK52" s="17"/>
+      <c r="CL52" s="17"/>
+      <c r="CM52" s="17"/>
+      <c r="CN52" s="18"/>
+      <c r="CO52" s="16"/>
+      <c r="CP52" s="17"/>
+      <c r="CQ52" s="17"/>
+      <c r="CR52" s="17"/>
+      <c r="CS52" s="18"/>
+      <c r="CT52" s="16"/>
+      <c r="CU52" s="17"/>
+      <c r="CV52" s="17"/>
+      <c r="CW52" s="17"/>
+      <c r="CX52" s="18"/>
+      <c r="CY52" s="16"/>
+      <c r="CZ52" s="17"/>
+      <c r="DA52" s="17"/>
+      <c r="DB52" s="17"/>
+      <c r="DC52" s="18"/>
+      <c r="DD52" s="16"/>
+      <c r="DE52" s="17"/>
+      <c r="DF52" s="17"/>
+      <c r="DG52" s="17"/>
+      <c r="DH52" s="18"/>
+      <c r="DI52" s="16"/>
+      <c r="DJ52" s="17"/>
+      <c r="DK52" s="17"/>
+      <c r="DL52" s="17"/>
+      <c r="DM52" s="18"/>
+      <c r="DN52" s="16"/>
+      <c r="DO52" s="17"/>
+      <c r="DP52" s="17"/>
+      <c r="DQ52" s="17"/>
+      <c r="DR52" s="18"/>
+      <c r="DS52" s="16"/>
+      <c r="DT52" s="17"/>
+      <c r="DU52" s="17"/>
+      <c r="DV52" s="17"/>
+      <c r="DW52" s="18"/>
+      <c r="DX52" s="16"/>
+      <c r="DY52" s="17"/>
+      <c r="DZ52" s="17"/>
+      <c r="EA52" s="17"/>
+      <c r="EB52" s="18"/>
+      <c r="EC52" s="16"/>
+      <c r="ED52" s="17"/>
+      <c r="EE52" s="17"/>
+      <c r="EF52" s="17"/>
+      <c r="EG52" s="18"/>
+      <c r="EH52" s="16"/>
+      <c r="EI52" s="17"/>
+      <c r="EJ52" s="17"/>
+      <c r="EK52" s="17"/>
+      <c r="EL52" s="18"/>
+    </row>
+    <row r="54" spans="1:142">
+      <c r="B54" s="1"/>
+      <c r="C54" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:142">
-      <c r="B32" s="3"/>
-      <c r="C32" t="s">
+    <row r="55" spans="1:142">
+      <c r="B55" s="3"/>
+      <c r="C55" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="4"/>
-      <c r="C33" t="s">
+    <row r="56" spans="1:142">
+      <c r="B56" s="4"/>
+      <c r="C56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="6"/>
-      <c r="C34" t="s">
+    <row r="57" spans="1:142">
+      <c r="B57" s="6"/>
+      <c r="C57" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="7"/>
-      <c r="C35" t="s">
+    <row r="58" spans="1:142">
+      <c r="B58" s="7"/>
+      <c r="C58" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="DS1:DW1"/>
-    <mergeCell ref="DX1:EB1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
     <mergeCell ref="EC1:EG1"/>
     <mergeCell ref="EH1:EL1"/>
     <mergeCell ref="DN1:DR1"/>
@@ -14738,13 +18321,11 @@
     <mergeCell ref="BF1:BJ1"/>
     <mergeCell ref="BP1:BT1"/>
     <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="DS1:DW1"/>
+    <mergeCell ref="DX1:EB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Planning.xlsx
+++ b/doc/Planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="213" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="213" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Janvier" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>MCD</t>
   </si>
@@ -54,34 +54,7 @@
     <t>Préaparation (Trouver un nom, Installation Git, CloudBees, GitHub)</t>
   </si>
   <si>
-    <t>les scripts de creation et d’initialisation des donnees</t>
-  </si>
-  <si>
     <t>Création du fichier pom.xml</t>
-  </si>
-  <si>
-    <t>Documentation utilisateur</t>
-  </si>
-  <si>
-    <t>Schéma d'achitecture</t>
-  </si>
-  <si>
-    <t>Diagramme de classes</t>
-  </si>
-  <si>
-    <t>Diagramme Maven</t>
-  </si>
-  <si>
-    <t>Diagramme Package</t>
-  </si>
-  <si>
-    <t>API utilisées</t>
-  </si>
-  <si>
-    <t>Choix techniques</t>
-  </si>
-  <si>
-    <t>Documentation d’installation</t>
   </si>
   <si>
     <t>API Google Maps</t>
@@ -96,13 +69,7 @@
     <t>Code source + tests unitaires :</t>
   </si>
   <si>
-    <t>DAO</t>
-  </si>
-  <si>
     <t xml:space="preserve">JSF </t>
-  </si>
-  <si>
-    <t>Etude prealable</t>
   </si>
   <si>
     <t>Comparaison entre le planning previsionnel et le planning du consomme</t>
@@ -209,6 +176,9 @@
   <si>
     <t>H2</t>
   </si>
+  <si>
+    <t>JSF :</t>
+  </si>
 </sst>
 </file>
 
@@ -273,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -601,6 +571,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -632,18 +624,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -662,19 +663,8 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,11 +964,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:MX34"/>
+  <dimension ref="A1:MX13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
+      <selection pane="topRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -989,89 +979,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:362" ht="15.75" thickBot="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="30">
+      <c r="C1" s="35">
         <v>41295</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="30">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="35">
         <v>41296</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="30">
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="35">
         <v>41297</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="30">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="35">
         <v>41298</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="30">
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="35">
         <v>41299</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="30">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="35">
         <v>41300</v>
       </c>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="30">
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="35">
         <v>41301</v>
       </c>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="30">
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="35">
         <v>41302</v>
       </c>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="30">
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="35">
         <v>41303</v>
       </c>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="30">
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="35">
         <v>41304</v>
       </c>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="30">
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="35">
         <v>41305</v>
       </c>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31"/>
-      <c r="BD1" s="31"/>
-      <c r="BE1" s="32"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="37"/>
       <c r="LZ1" s="19"/>
       <c r="MA1" s="19"/>
       <c r="MB1" s="19"/>
@@ -1099,10 +1089,10 @@
       <c r="MX1" s="19"/>
     </row>
     <row r="2" spans="1:362">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="23">
         <v>4</v>
       </c>
       <c r="C2" s="1"/>
@@ -1451,10 +1441,10 @@
     </row>
     <row r="6" spans="1:362">
       <c r="A6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="20">
         <v>2</v>
-      </c>
-      <c r="B6" s="20">
-        <v>1</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="10"/>
@@ -1491,17 +1481,17 @@
       <c r="AI6" s="10"/>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="15"/>
-      <c r="AL6" s="11"/>
+      <c r="AL6" s="1"/>
       <c r="AM6" s="10"/>
       <c r="AN6" s="10"/>
       <c r="AO6" s="10"/>
-      <c r="AP6" s="15"/>
+      <c r="AP6" s="7"/>
       <c r="AQ6" s="11"/>
       <c r="AR6" s="10"/>
       <c r="AS6" s="10"/>
       <c r="AT6" s="10"/>
       <c r="AU6" s="15"/>
-      <c r="AV6" s="11"/>
+      <c r="AV6" s="1"/>
       <c r="AW6" s="10"/>
       <c r="AX6" s="10"/>
       <c r="AY6" s="10"/>
@@ -1539,7 +1529,7 @@
     </row>
     <row r="7" spans="1:362">
       <c r="A7" s="11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B7" s="20">
         <v>1</v>
@@ -1579,17 +1569,17 @@
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
       <c r="AK7" s="15"/>
-      <c r="AL7" s="11"/>
+      <c r="AL7" s="41"/>
       <c r="AM7" s="10"/>
       <c r="AN7" s="10"/>
       <c r="AO7" s="10"/>
-      <c r="AP7" s="15"/>
+      <c r="AP7" s="42"/>
       <c r="AQ7" s="11"/>
       <c r="AR7" s="10"/>
       <c r="AS7" s="10"/>
       <c r="AT7" s="10"/>
       <c r="AU7" s="15"/>
-      <c r="AV7" s="11"/>
+      <c r="AV7" s="1"/>
       <c r="AW7" s="10"/>
       <c r="AX7" s="10"/>
       <c r="AY7" s="10"/>
@@ -1626,1703 +1616,61 @@
       <c r="MX7" s="8"/>
     </row>
     <row r="8" spans="1:362">
-      <c r="A8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="20">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="15"/>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
-      <c r="AY8" s="10"/>
-      <c r="AZ8" s="15"/>
-      <c r="BA8" s="11"/>
-      <c r="BB8" s="10"/>
-      <c r="BC8" s="10"/>
-      <c r="BD8" s="10"/>
-      <c r="BE8" s="15"/>
-      <c r="LZ8" s="8"/>
-      <c r="MA8" s="8"/>
-      <c r="MB8" s="8"/>
-      <c r="MC8" s="8"/>
-      <c r="MD8" s="8"/>
-      <c r="ME8" s="8"/>
-      <c r="MF8" s="8"/>
-      <c r="MG8" s="8"/>
-      <c r="MH8" s="8"/>
-      <c r="MI8" s="8"/>
-      <c r="MJ8" s="8"/>
-      <c r="MK8" s="8"/>
-      <c r="ML8" s="8"/>
-      <c r="MM8" s="8"/>
-      <c r="MN8" s="8"/>
-      <c r="MO8" s="8"/>
-      <c r="MP8" s="8"/>
-      <c r="MQ8" s="8"/>
-      <c r="MR8" s="8"/>
-      <c r="MS8" s="8"/>
-      <c r="MT8" s="8"/>
-      <c r="MU8" s="8"/>
-      <c r="MV8" s="8"/>
-      <c r="MW8" s="8"/>
-      <c r="MX8" s="8"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:362">
-      <c r="A9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="20">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="15"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="15"/>
-      <c r="BA9" s="11"/>
-      <c r="BB9" s="10"/>
-      <c r="BC9" s="10"/>
-      <c r="BD9" s="10"/>
-      <c r="BE9" s="15"/>
-      <c r="LZ9" s="8"/>
-      <c r="MA9" s="8"/>
-      <c r="MB9" s="8"/>
-      <c r="MC9" s="8"/>
-      <c r="MD9" s="8"/>
-      <c r="ME9" s="8"/>
-      <c r="MF9" s="8"/>
-      <c r="MG9" s="8"/>
-      <c r="MH9" s="8"/>
-      <c r="MI9" s="8"/>
-      <c r="MJ9" s="8"/>
-      <c r="MK9" s="8"/>
-      <c r="ML9" s="8"/>
-      <c r="MM9" s="8"/>
-      <c r="MN9" s="8"/>
-      <c r="MO9" s="8"/>
-      <c r="MP9" s="8"/>
-      <c r="MQ9" s="8"/>
-      <c r="MR9" s="8"/>
-      <c r="MS9" s="8"/>
-      <c r="MT9" s="8"/>
-      <c r="MU9" s="8"/>
-      <c r="MV9" s="8"/>
-      <c r="MW9" s="8"/>
-      <c r="MX9" s="8"/>
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:362">
-      <c r="A10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="20">
+      <c r="B10" s="3"/>
+      <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="15"/>
-      <c r="AQ10" s="11"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="15"/>
-      <c r="AV10" s="11"/>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="10"/>
-      <c r="AZ10" s="15"/>
-      <c r="BA10" s="11"/>
-      <c r="BB10" s="10"/>
-      <c r="BC10" s="10"/>
-      <c r="BD10" s="10"/>
-      <c r="BE10" s="15"/>
-      <c r="LZ10" s="8"/>
-      <c r="MA10" s="8"/>
-      <c r="MB10" s="8"/>
-      <c r="MC10" s="8"/>
-      <c r="MD10" s="8"/>
-      <c r="ME10" s="8"/>
-      <c r="MF10" s="8"/>
-      <c r="MG10" s="8"/>
-      <c r="MH10" s="8"/>
-      <c r="MI10" s="8"/>
-      <c r="MJ10" s="8"/>
-      <c r="MK10" s="8"/>
-      <c r="ML10" s="8"/>
-      <c r="MM10" s="8"/>
-      <c r="MN10" s="8"/>
-      <c r="MO10" s="8"/>
-      <c r="MP10" s="8"/>
-      <c r="MQ10" s="8"/>
-      <c r="MR10" s="8"/>
-      <c r="MS10" s="8"/>
-      <c r="MT10" s="8"/>
-      <c r="MU10" s="8"/>
-      <c r="MV10" s="8"/>
-      <c r="MW10" s="8"/>
-      <c r="MX10" s="8"/>
     </row>
     <row r="11" spans="1:362">
-      <c r="A11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="20">
-        <v>4</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="10"/>
-      <c r="AP11" s="15"/>
-      <c r="AQ11" s="11"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="15"/>
-      <c r="AV11" s="11"/>
-      <c r="AW11" s="10"/>
-      <c r="AX11" s="10"/>
-      <c r="AY11" s="10"/>
-      <c r="AZ11" s="15"/>
-      <c r="BA11" s="11"/>
-      <c r="BB11" s="10"/>
-      <c r="BC11" s="10"/>
-      <c r="BD11" s="10"/>
-      <c r="BE11" s="15"/>
-      <c r="LZ11" s="8"/>
-      <c r="MA11" s="8"/>
-      <c r="MB11" s="8"/>
-      <c r="MC11" s="8"/>
-      <c r="MD11" s="8"/>
-      <c r="ME11" s="8"/>
-      <c r="MF11" s="8"/>
-      <c r="MG11" s="8"/>
-      <c r="MH11" s="8"/>
-      <c r="MI11" s="8"/>
-      <c r="MJ11" s="8"/>
-      <c r="MK11" s="8"/>
-      <c r="ML11" s="8"/>
-      <c r="MM11" s="8"/>
-      <c r="MN11" s="8"/>
-      <c r="MO11" s="8"/>
-      <c r="MP11" s="8"/>
-      <c r="MQ11" s="8"/>
-      <c r="MR11" s="8"/>
-      <c r="MS11" s="8"/>
-      <c r="MT11" s="8"/>
-      <c r="MU11" s="8"/>
-      <c r="MV11" s="8"/>
-      <c r="MW11" s="8"/>
-      <c r="MX11" s="8"/>
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:362">
-      <c r="A12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="20">
-        <v>4</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="10"/>
-      <c r="AP12" s="15"/>
-      <c r="AQ12" s="11"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="15"/>
-      <c r="AV12" s="11"/>
-      <c r="AW12" s="10"/>
-      <c r="AX12" s="10"/>
-      <c r="AY12" s="10"/>
-      <c r="AZ12" s="15"/>
-      <c r="BA12" s="11"/>
-      <c r="BB12" s="10"/>
-      <c r="BC12" s="10"/>
-      <c r="BD12" s="10"/>
-      <c r="BE12" s="15"/>
-      <c r="LZ12" s="8"/>
-      <c r="MA12" s="8"/>
-      <c r="MB12" s="8"/>
-      <c r="MC12" s="8"/>
-      <c r="MD12" s="8"/>
-      <c r="ME12" s="8"/>
-      <c r="MF12" s="8"/>
-      <c r="MG12" s="8"/>
-      <c r="MH12" s="8"/>
-      <c r="MI12" s="8"/>
-      <c r="MJ12" s="8"/>
-      <c r="MK12" s="8"/>
-      <c r="ML12" s="8"/>
-      <c r="MM12" s="8"/>
-      <c r="MN12" s="8"/>
-      <c r="MO12" s="8"/>
-      <c r="MP12" s="8"/>
-      <c r="MQ12" s="8"/>
-      <c r="MR12" s="8"/>
-      <c r="MS12" s="8"/>
-      <c r="MT12" s="8"/>
-      <c r="MU12" s="8"/>
-      <c r="MV12" s="8"/>
-      <c r="MW12" s="8"/>
-      <c r="MX12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:362">
-      <c r="A13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="20">
-        <v>4</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="10"/>
-      <c r="AO13" s="10"/>
-      <c r="AP13" s="15"/>
-      <c r="AQ13" s="11"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="15"/>
-      <c r="AV13" s="11"/>
-      <c r="AW13" s="10"/>
-      <c r="AX13" s="10"/>
-      <c r="AY13" s="10"/>
-      <c r="AZ13" s="15"/>
-      <c r="BA13" s="11"/>
-      <c r="BB13" s="10"/>
-      <c r="BC13" s="10"/>
-      <c r="BD13" s="10"/>
-      <c r="BE13" s="15"/>
-      <c r="LZ13" s="8"/>
-      <c r="MA13" s="8"/>
-      <c r="MB13" s="8"/>
-      <c r="MC13" s="8"/>
-      <c r="MD13" s="8"/>
-      <c r="ME13" s="8"/>
-      <c r="MF13" s="8"/>
-      <c r="MG13" s="8"/>
-      <c r="MH13" s="8"/>
-      <c r="MI13" s="8"/>
-      <c r="MJ13" s="8"/>
-      <c r="MK13" s="8"/>
-      <c r="ML13" s="8"/>
-      <c r="MM13" s="8"/>
-      <c r="MN13" s="8"/>
-      <c r="MO13" s="8"/>
-      <c r="MP13" s="8"/>
-      <c r="MQ13" s="8"/>
-      <c r="MR13" s="8"/>
-      <c r="MS13" s="8"/>
-      <c r="MT13" s="8"/>
-      <c r="MU13" s="8"/>
-      <c r="MV13" s="8"/>
-      <c r="MW13" s="8"/>
-      <c r="MX13" s="8"/>
-    </row>
-    <row r="14" spans="1:362">
-      <c r="A14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="20">
-        <v>4</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="11"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="15"/>
-      <c r="AV14" s="11"/>
-      <c r="AW14" s="10"/>
-      <c r="AX14" s="10"/>
-      <c r="AY14" s="10"/>
-      <c r="AZ14" s="15"/>
-      <c r="BA14" s="11"/>
-      <c r="BB14" s="10"/>
-      <c r="BC14" s="10"/>
-      <c r="BD14" s="10"/>
-      <c r="BE14" s="15"/>
-      <c r="LZ14" s="8"/>
-      <c r="MA14" s="8"/>
-      <c r="MB14" s="8"/>
-      <c r="MC14" s="8"/>
-      <c r="MD14" s="8"/>
-      <c r="ME14" s="8"/>
-      <c r="MF14" s="8"/>
-      <c r="MG14" s="8"/>
-      <c r="MH14" s="8"/>
-      <c r="MI14" s="8"/>
-      <c r="MJ14" s="8"/>
-      <c r="MK14" s="8"/>
-      <c r="ML14" s="8"/>
-      <c r="MM14" s="8"/>
-      <c r="MN14" s="8"/>
-      <c r="MO14" s="8"/>
-      <c r="MP14" s="8"/>
-      <c r="MQ14" s="8"/>
-      <c r="MR14" s="8"/>
-      <c r="MS14" s="8"/>
-      <c r="MT14" s="8"/>
-      <c r="MU14" s="8"/>
-      <c r="MV14" s="8"/>
-      <c r="MW14" s="8"/>
-      <c r="MX14" s="8"/>
-    </row>
-    <row r="15" spans="1:362">
-      <c r="A15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="20">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="15"/>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="10"/>
-      <c r="AN15" s="10"/>
-      <c r="AO15" s="10"/>
-      <c r="AP15" s="15"/>
-      <c r="AQ15" s="11"/>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="15"/>
-      <c r="AV15" s="11"/>
-      <c r="AW15" s="10"/>
-      <c r="AX15" s="10"/>
-      <c r="AY15" s="10"/>
-      <c r="AZ15" s="15"/>
-      <c r="BA15" s="11"/>
-      <c r="BB15" s="10"/>
-      <c r="BC15" s="10"/>
-      <c r="BD15" s="10"/>
-      <c r="BE15" s="15"/>
-      <c r="LZ15" s="8"/>
-      <c r="MA15" s="8"/>
-      <c r="MB15" s="8"/>
-      <c r="MC15" s="8"/>
-      <c r="MD15" s="8"/>
-      <c r="ME15" s="8"/>
-      <c r="MF15" s="8"/>
-      <c r="MG15" s="8"/>
-      <c r="MH15" s="8"/>
-      <c r="MI15" s="8"/>
-      <c r="MJ15" s="8"/>
-      <c r="MK15" s="8"/>
-      <c r="ML15" s="8"/>
-      <c r="MM15" s="8"/>
-      <c r="MN15" s="8"/>
-      <c r="MO15" s="8"/>
-      <c r="MP15" s="8"/>
-      <c r="MQ15" s="8"/>
-      <c r="MR15" s="8"/>
-      <c r="MS15" s="8"/>
-      <c r="MT15" s="8"/>
-      <c r="MU15" s="8"/>
-      <c r="MV15" s="8"/>
-      <c r="MW15" s="8"/>
-      <c r="MX15" s="8"/>
-    </row>
-    <row r="16" spans="1:362">
-      <c r="A16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="20">
-        <v>2</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="15"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="10"/>
-      <c r="AP16" s="15"/>
-      <c r="AQ16" s="11"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="15"/>
-      <c r="AV16" s="11"/>
-      <c r="AW16" s="10"/>
-      <c r="AX16" s="10"/>
-      <c r="AY16" s="10"/>
-      <c r="AZ16" s="15"/>
-      <c r="BA16" s="11"/>
-      <c r="BB16" s="10"/>
-      <c r="BC16" s="10"/>
-      <c r="BD16" s="10"/>
-      <c r="BE16" s="15"/>
-      <c r="LZ16" s="8"/>
-      <c r="MA16" s="8"/>
-      <c r="MB16" s="8"/>
-      <c r="MC16" s="8"/>
-      <c r="MD16" s="8"/>
-      <c r="ME16" s="8"/>
-      <c r="MF16" s="8"/>
-      <c r="MG16" s="8"/>
-      <c r="MH16" s="8"/>
-      <c r="MI16" s="8"/>
-      <c r="MJ16" s="8"/>
-      <c r="MK16" s="8"/>
-      <c r="ML16" s="8"/>
-      <c r="MM16" s="8"/>
-      <c r="MN16" s="8"/>
-      <c r="MO16" s="8"/>
-      <c r="MP16" s="8"/>
-      <c r="MQ16" s="8"/>
-      <c r="MR16" s="8"/>
-      <c r="MS16" s="8"/>
-      <c r="MT16" s="8"/>
-      <c r="MU16" s="8"/>
-      <c r="MV16" s="8"/>
-      <c r="MW16" s="8"/>
-      <c r="MX16" s="8"/>
-    </row>
-    <row r="17" spans="1:362">
-      <c r="A17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="20">
-        <v>2</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="15"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="10"/>
-      <c r="AN17" s="10"/>
-      <c r="AO17" s="10"/>
-      <c r="AP17" s="15"/>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="10"/>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="15"/>
-      <c r="AV17" s="11"/>
-      <c r="AW17" s="10"/>
-      <c r="AX17" s="10"/>
-      <c r="AY17" s="10"/>
-      <c r="AZ17" s="15"/>
-      <c r="BA17" s="11"/>
-      <c r="BB17" s="10"/>
-      <c r="BC17" s="10"/>
-      <c r="BD17" s="10"/>
-      <c r="BE17" s="15"/>
-      <c r="LZ17" s="8"/>
-      <c r="MA17" s="8"/>
-      <c r="MB17" s="8"/>
-      <c r="MC17" s="8"/>
-      <c r="MD17" s="8"/>
-      <c r="ME17" s="8"/>
-      <c r="MF17" s="8"/>
-      <c r="MG17" s="8"/>
-      <c r="MH17" s="8"/>
-      <c r="MI17" s="8"/>
-      <c r="MJ17" s="8"/>
-      <c r="MK17" s="8"/>
-      <c r="ML17" s="8"/>
-      <c r="MM17" s="8"/>
-      <c r="MN17" s="8"/>
-      <c r="MO17" s="8"/>
-      <c r="MP17" s="8"/>
-      <c r="MQ17" s="8"/>
-      <c r="MR17" s="8"/>
-      <c r="MS17" s="8"/>
-      <c r="MT17" s="8"/>
-      <c r="MU17" s="8"/>
-      <c r="MV17" s="8"/>
-      <c r="MW17" s="8"/>
-      <c r="MX17" s="8"/>
-    </row>
-    <row r="18" spans="1:362">
-      <c r="A18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="20">
-        <v>4</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="10"/>
-      <c r="AN18" s="10"/>
-      <c r="AO18" s="10"/>
-      <c r="AP18" s="15"/>
-      <c r="AQ18" s="11"/>
-      <c r="AR18" s="10"/>
-      <c r="AS18" s="10"/>
-      <c r="AT18" s="10"/>
-      <c r="AU18" s="15"/>
-      <c r="AV18" s="11"/>
-      <c r="AW18" s="10"/>
-      <c r="AX18" s="10"/>
-      <c r="AY18" s="10"/>
-      <c r="AZ18" s="15"/>
-      <c r="BA18" s="11"/>
-      <c r="BB18" s="10"/>
-      <c r="BC18" s="10"/>
-      <c r="BD18" s="10"/>
-      <c r="BE18" s="15"/>
-      <c r="LZ18" s="8"/>
-      <c r="MA18" s="8"/>
-      <c r="MB18" s="8"/>
-      <c r="MC18" s="8"/>
-      <c r="MD18" s="8"/>
-      <c r="ME18" s="8"/>
-      <c r="MF18" s="8"/>
-      <c r="MG18" s="8"/>
-      <c r="MH18" s="8"/>
-      <c r="MI18" s="8"/>
-      <c r="MJ18" s="8"/>
-      <c r="MK18" s="8"/>
-      <c r="ML18" s="8"/>
-      <c r="MM18" s="8"/>
-      <c r="MN18" s="8"/>
-      <c r="MO18" s="8"/>
-      <c r="MP18" s="8"/>
-      <c r="MQ18" s="8"/>
-      <c r="MR18" s="8"/>
-      <c r="MS18" s="8"/>
-      <c r="MT18" s="8"/>
-      <c r="MU18" s="8"/>
-      <c r="MV18" s="8"/>
-      <c r="MW18" s="8"/>
-      <c r="MX18" s="8"/>
-    </row>
-    <row r="19" spans="1:362">
-      <c r="A19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="20">
-        <v>8</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="10"/>
-      <c r="AN19" s="10"/>
-      <c r="AO19" s="10"/>
-      <c r="AP19" s="15"/>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="10"/>
-      <c r="AS19" s="10"/>
-      <c r="AT19" s="10"/>
-      <c r="AU19" s="15"/>
-      <c r="AV19" s="11"/>
-      <c r="AW19" s="10"/>
-      <c r="AX19" s="10"/>
-      <c r="AY19" s="10"/>
-      <c r="AZ19" s="15"/>
-      <c r="BA19" s="11"/>
-      <c r="BB19" s="10"/>
-      <c r="BC19" s="10"/>
-      <c r="BD19" s="10"/>
-      <c r="BE19" s="15"/>
-      <c r="LZ19" s="8"/>
-      <c r="MA19" s="8"/>
-      <c r="MB19" s="8"/>
-      <c r="MC19" s="8"/>
-      <c r="MD19" s="8"/>
-      <c r="ME19" s="8"/>
-      <c r="MF19" s="8"/>
-      <c r="MG19" s="8"/>
-      <c r="MH19" s="8"/>
-      <c r="MI19" s="8"/>
-      <c r="MJ19" s="8"/>
-      <c r="MK19" s="8"/>
-      <c r="ML19" s="8"/>
-      <c r="MM19" s="8"/>
-      <c r="MN19" s="8"/>
-      <c r="MO19" s="8"/>
-      <c r="MP19" s="8"/>
-      <c r="MQ19" s="8"/>
-      <c r="MR19" s="8"/>
-      <c r="MS19" s="8"/>
-      <c r="MT19" s="8"/>
-      <c r="MU19" s="8"/>
-      <c r="MV19" s="8"/>
-      <c r="MW19" s="8"/>
-      <c r="MX19" s="8"/>
-    </row>
-    <row r="20" spans="1:362">
-      <c r="A20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="20">
-        <v>8</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="15"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="10"/>
-      <c r="AN20" s="10"/>
-      <c r="AO20" s="10"/>
-      <c r="AP20" s="15"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="15"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="10"/>
-      <c r="AX20" s="10"/>
-      <c r="AY20" s="10"/>
-      <c r="AZ20" s="15"/>
-      <c r="BA20" s="11"/>
-      <c r="BB20" s="10"/>
-      <c r="BC20" s="10"/>
-      <c r="BD20" s="10"/>
-      <c r="BE20" s="15"/>
-      <c r="LZ20" s="8"/>
-      <c r="MA20" s="8"/>
-      <c r="MB20" s="8"/>
-      <c r="MC20" s="8"/>
-      <c r="MD20" s="8"/>
-      <c r="ME20" s="8"/>
-      <c r="MF20" s="8"/>
-      <c r="MG20" s="8"/>
-      <c r="MH20" s="8"/>
-      <c r="MI20" s="8"/>
-      <c r="MJ20" s="8"/>
-      <c r="MK20" s="8"/>
-      <c r="ML20" s="8"/>
-      <c r="MM20" s="8"/>
-      <c r="MN20" s="8"/>
-      <c r="MO20" s="8"/>
-      <c r="MP20" s="8"/>
-      <c r="MQ20" s="8"/>
-      <c r="MR20" s="8"/>
-      <c r="MS20" s="8"/>
-      <c r="MT20" s="8"/>
-      <c r="MU20" s="8"/>
-      <c r="MV20" s="8"/>
-      <c r="MW20" s="8"/>
-      <c r="MX20" s="8"/>
-    </row>
-    <row r="21" spans="1:362">
-      <c r="A21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="10"/>
-      <c r="AN21" s="10"/>
-      <c r="AO21" s="10"/>
-      <c r="AP21" s="15"/>
-      <c r="AQ21" s="11"/>
-      <c r="AR21" s="10"/>
-      <c r="AS21" s="10"/>
-      <c r="AT21" s="10"/>
-      <c r="AU21" s="15"/>
-      <c r="AV21" s="11"/>
-      <c r="AW21" s="10"/>
-      <c r="AX21" s="10"/>
-      <c r="AY21" s="10"/>
-      <c r="AZ21" s="15"/>
-      <c r="BA21" s="11"/>
-      <c r="BB21" s="10"/>
-      <c r="BC21" s="10"/>
-      <c r="BD21" s="10"/>
-      <c r="BE21" s="15"/>
-    </row>
-    <row r="22" spans="1:362">
-      <c r="A22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="20">
-        <v>10</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
-      <c r="AP22" s="15"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="10"/>
-      <c r="AT22" s="10"/>
-      <c r="AU22" s="15"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="10"/>
-      <c r="AX22" s="10"/>
-      <c r="AY22" s="10"/>
-      <c r="AZ22" s="15"/>
-      <c r="BA22" s="11"/>
-      <c r="BB22" s="10"/>
-      <c r="BC22" s="10"/>
-      <c r="BD22" s="10"/>
-      <c r="BE22" s="15"/>
-    </row>
-    <row r="23" spans="1:362">
-      <c r="A23" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="20">
-        <v>10</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="15"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="10"/>
-      <c r="AN23" s="10"/>
-      <c r="AO23" s="10"/>
-      <c r="AP23" s="15"/>
-      <c r="AQ23" s="11"/>
-      <c r="AR23" s="10"/>
-      <c r="AS23" s="10"/>
-      <c r="AT23" s="10"/>
-      <c r="AU23" s="15"/>
-      <c r="AV23" s="11"/>
-      <c r="AW23" s="10"/>
-      <c r="AX23" s="10"/>
-      <c r="AY23" s="10"/>
-      <c r="AZ23" s="15"/>
-      <c r="BA23" s="11"/>
-      <c r="BB23" s="10"/>
-      <c r="BC23" s="10"/>
-      <c r="BD23" s="10"/>
-      <c r="BE23" s="15"/>
-    </row>
-    <row r="24" spans="1:362">
-      <c r="A24" s="11"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="15"/>
-      <c r="AL24" s="11"/>
-      <c r="AM24" s="10"/>
-      <c r="AN24" s="10"/>
-      <c r="AO24" s="10"/>
-      <c r="AP24" s="15"/>
-      <c r="AQ24" s="11"/>
-      <c r="AR24" s="10"/>
-      <c r="AS24" s="10"/>
-      <c r="AT24" s="10"/>
-      <c r="AU24" s="15"/>
-      <c r="AV24" s="11"/>
-      <c r="AW24" s="10"/>
-      <c r="AX24" s="10"/>
-      <c r="AY24" s="10"/>
-      <c r="AZ24" s="15"/>
-      <c r="BA24" s="11"/>
-      <c r="BB24" s="10"/>
-      <c r="BC24" s="10"/>
-      <c r="BD24" s="10"/>
-      <c r="BE24" s="15"/>
-    </row>
-    <row r="25" spans="1:362">
-      <c r="A25" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="20">
-        <v>4</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
-      <c r="AK25" s="15"/>
-      <c r="AL25" s="11"/>
-      <c r="AM25" s="10"/>
-      <c r="AN25" s="10"/>
-      <c r="AO25" s="10"/>
-      <c r="AP25" s="15"/>
-      <c r="AQ25" s="11"/>
-      <c r="AR25" s="10"/>
-      <c r="AS25" s="10"/>
-      <c r="AT25" s="10"/>
-      <c r="AU25" s="15"/>
-      <c r="AV25" s="11"/>
-      <c r="AW25" s="10"/>
-      <c r="AX25" s="10"/>
-      <c r="AY25" s="10"/>
-      <c r="AZ25" s="15"/>
-      <c r="BA25" s="11"/>
-      <c r="BB25" s="10"/>
-      <c r="BC25" s="10"/>
-      <c r="BD25" s="10"/>
-      <c r="BE25" s="15"/>
-    </row>
-    <row r="26" spans="1:362">
-      <c r="A26" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="20">
-        <v>2</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="15"/>
-      <c r="AL26" s="11"/>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="10"/>
-      <c r="AO26" s="10"/>
-      <c r="AP26" s="15"/>
-      <c r="AQ26" s="11"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
-      <c r="AU26" s="15"/>
-      <c r="AV26" s="11"/>
-      <c r="AW26" s="10"/>
-      <c r="AX26" s="10"/>
-      <c r="AY26" s="10"/>
-      <c r="AZ26" s="15"/>
-      <c r="BA26" s="11"/>
-      <c r="BB26" s="10"/>
-      <c r="BC26" s="10"/>
-      <c r="BD26" s="10"/>
-      <c r="BE26" s="15"/>
-    </row>
-    <row r="27" spans="1:362">
-      <c r="A27" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="20">
-        <v>2</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-      <c r="AK27" s="15"/>
-      <c r="AL27" s="11"/>
-      <c r="AM27" s="10"/>
-      <c r="AN27" s="10"/>
-      <c r="AO27" s="10"/>
-      <c r="AP27" s="15"/>
-      <c r="AQ27" s="11"/>
-      <c r="AR27" s="10"/>
-      <c r="AS27" s="10"/>
-      <c r="AT27" s="10"/>
-      <c r="AU27" s="15"/>
-      <c r="AV27" s="11"/>
-      <c r="AW27" s="10"/>
-      <c r="AX27" s="10"/>
-      <c r="AY27" s="10"/>
-      <c r="AZ27" s="15"/>
-      <c r="BA27" s="11"/>
-      <c r="BB27" s="10"/>
-      <c r="BC27" s="10"/>
-      <c r="BD27" s="10"/>
-      <c r="BE27" s="15"/>
-    </row>
-    <row r="28" spans="1:362" ht="15.75" thickBot="1">
-      <c r="A28" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="22">
-        <v>2</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="18"/>
-      <c r="AL28" s="16"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="17"/>
-      <c r="AO28" s="17"/>
-      <c r="AP28" s="18"/>
-      <c r="AQ28" s="16"/>
-      <c r="AR28" s="17"/>
-      <c r="AS28" s="17"/>
-      <c r="AT28" s="17"/>
-      <c r="AU28" s="18"/>
-      <c r="AV28" s="16"/>
-      <c r="AW28" s="17"/>
-      <c r="AX28" s="17"/>
-      <c r="AY28" s="17"/>
-      <c r="AZ28" s="18"/>
-      <c r="BA28" s="16"/>
-      <c r="BB28" s="17"/>
-      <c r="BC28" s="17"/>
-      <c r="BD28" s="17"/>
-      <c r="BE28" s="18"/>
-    </row>
-    <row r="29" spans="1:362">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:362">
-      <c r="B30" s="1"/>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:362">
-      <c r="B31" s="3"/>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:362">
-      <c r="B32" s="4"/>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="6"/>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="7"/>
-      <c r="C34" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AA1"/>
     <mergeCell ref="BA1:BE1"/>
     <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="AG1:AK1"/>
     <mergeCell ref="AL1:AP1"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3331,11 +1679,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EL55"/>
+  <dimension ref="A1:EL29"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:A48"/>
+      <selection pane="topRight" activeCell="C6" sqref="C6:BJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3346,214 +1694,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="30">
+      <c r="C1" s="35">
         <v>41306</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="30">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="35">
         <v>41307</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="30">
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="35">
         <v>41308</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="30">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="35">
         <v>41309</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="30">
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="35">
         <v>41310</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="30">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="35">
         <v>41311</v>
       </c>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="30">
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="35">
         <v>41312</v>
       </c>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="30">
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="35">
         <v>41313</v>
       </c>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="30">
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="35">
         <v>41314</v>
       </c>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="30">
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="35">
         <v>41315</v>
       </c>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="30">
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="35">
         <v>41316</v>
       </c>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31"/>
-      <c r="BD1" s="31"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="30">
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="35">
         <v>41317</v>
       </c>
-      <c r="BG1" s="31"/>
-      <c r="BH1" s="31"/>
-      <c r="BI1" s="31"/>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="30">
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="35">
         <v>41318</v>
       </c>
-      <c r="BL1" s="31"/>
-      <c r="BM1" s="31"/>
-      <c r="BN1" s="31"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="30">
+      <c r="BL1" s="36"/>
+      <c r="BM1" s="36"/>
+      <c r="BN1" s="36"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="35">
         <v>41319</v>
       </c>
-      <c r="BQ1" s="31"/>
-      <c r="BR1" s="31"/>
-      <c r="BS1" s="31"/>
-      <c r="BT1" s="32"/>
-      <c r="BU1" s="30">
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="37"/>
+      <c r="BU1" s="35">
         <v>41320</v>
       </c>
-      <c r="BV1" s="31"/>
-      <c r="BW1" s="31"/>
-      <c r="BX1" s="31"/>
-      <c r="BY1" s="32"/>
-      <c r="BZ1" s="30">
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="36"/>
+      <c r="BY1" s="37"/>
+      <c r="BZ1" s="35">
         <v>41321</v>
       </c>
-      <c r="CA1" s="31"/>
-      <c r="CB1" s="31"/>
-      <c r="CC1" s="31"/>
-      <c r="CD1" s="32"/>
-      <c r="CE1" s="30">
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="36"/>
+      <c r="CC1" s="36"/>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="35">
         <v>41322</v>
       </c>
-      <c r="CF1" s="31"/>
-      <c r="CG1" s="31"/>
-      <c r="CH1" s="31"/>
-      <c r="CI1" s="32"/>
-      <c r="CJ1" s="30">
+      <c r="CF1" s="36"/>
+      <c r="CG1" s="36"/>
+      <c r="CH1" s="36"/>
+      <c r="CI1" s="37"/>
+      <c r="CJ1" s="35">
         <v>41323</v>
       </c>
-      <c r="CK1" s="31"/>
-      <c r="CL1" s="31"/>
-      <c r="CM1" s="31"/>
-      <c r="CN1" s="32"/>
-      <c r="CO1" s="30">
+      <c r="CK1" s="36"/>
+      <c r="CL1" s="36"/>
+      <c r="CM1" s="36"/>
+      <c r="CN1" s="37"/>
+      <c r="CO1" s="35">
         <v>41324</v>
       </c>
-      <c r="CP1" s="31"/>
-      <c r="CQ1" s="31"/>
-      <c r="CR1" s="31"/>
-      <c r="CS1" s="32"/>
-      <c r="CT1" s="30">
+      <c r="CP1" s="36"/>
+      <c r="CQ1" s="36"/>
+      <c r="CR1" s="36"/>
+      <c r="CS1" s="37"/>
+      <c r="CT1" s="35">
         <v>41325</v>
       </c>
-      <c r="CU1" s="31"/>
-      <c r="CV1" s="31"/>
-      <c r="CW1" s="31"/>
-      <c r="CX1" s="32"/>
-      <c r="CY1" s="30">
+      <c r="CU1" s="36"/>
+      <c r="CV1" s="36"/>
+      <c r="CW1" s="36"/>
+      <c r="CX1" s="37"/>
+      <c r="CY1" s="35">
         <v>41326</v>
       </c>
-      <c r="CZ1" s="31"/>
-      <c r="DA1" s="31"/>
-      <c r="DB1" s="31"/>
-      <c r="DC1" s="32"/>
-      <c r="DD1" s="30">
+      <c r="CZ1" s="36"/>
+      <c r="DA1" s="36"/>
+      <c r="DB1" s="36"/>
+      <c r="DC1" s="37"/>
+      <c r="DD1" s="35">
         <v>41327</v>
       </c>
-      <c r="DE1" s="31"/>
-      <c r="DF1" s="31"/>
-      <c r="DG1" s="31"/>
-      <c r="DH1" s="32"/>
-      <c r="DI1" s="30">
+      <c r="DE1" s="36"/>
+      <c r="DF1" s="36"/>
+      <c r="DG1" s="36"/>
+      <c r="DH1" s="37"/>
+      <c r="DI1" s="35">
         <v>41328</v>
       </c>
-      <c r="DJ1" s="31"/>
-      <c r="DK1" s="31"/>
-      <c r="DL1" s="31"/>
-      <c r="DM1" s="32"/>
-      <c r="DN1" s="30">
+      <c r="DJ1" s="36"/>
+      <c r="DK1" s="36"/>
+      <c r="DL1" s="36"/>
+      <c r="DM1" s="37"/>
+      <c r="DN1" s="35">
         <v>41329</v>
       </c>
-      <c r="DO1" s="31"/>
-      <c r="DP1" s="31"/>
-      <c r="DQ1" s="31"/>
-      <c r="DR1" s="32"/>
-      <c r="DS1" s="30">
+      <c r="DO1" s="36"/>
+      <c r="DP1" s="36"/>
+      <c r="DQ1" s="36"/>
+      <c r="DR1" s="37"/>
+      <c r="DS1" s="35">
         <v>41330</v>
       </c>
-      <c r="DT1" s="31"/>
-      <c r="DU1" s="31"/>
-      <c r="DV1" s="31"/>
-      <c r="DW1" s="32"/>
-      <c r="DX1" s="30">
+      <c r="DT1" s="36"/>
+      <c r="DU1" s="36"/>
+      <c r="DV1" s="36"/>
+      <c r="DW1" s="37"/>
+      <c r="DX1" s="35">
         <v>41331</v>
       </c>
-      <c r="DY1" s="31"/>
-      <c r="DZ1" s="31"/>
-      <c r="EA1" s="31"/>
-      <c r="EB1" s="32"/>
-      <c r="EC1" s="30">
+      <c r="DY1" s="36"/>
+      <c r="DZ1" s="36"/>
+      <c r="EA1" s="36"/>
+      <c r="EB1" s="37"/>
+      <c r="EC1" s="35">
         <v>41332</v>
       </c>
-      <c r="ED1" s="31"/>
-      <c r="EE1" s="31"/>
-      <c r="EF1" s="31"/>
-      <c r="EG1" s="32"/>
-      <c r="EH1" s="30">
+      <c r="ED1" s="36"/>
+      <c r="EE1" s="36"/>
+      <c r="EF1" s="36"/>
+      <c r="EG1" s="37"/>
+      <c r="EH1" s="35">
         <v>41333</v>
       </c>
-      <c r="EI1" s="31"/>
-      <c r="EJ1" s="31"/>
-      <c r="EK1" s="31"/>
-      <c r="EL1" s="32"/>
+      <c r="EI1" s="36"/>
+      <c r="EJ1" s="36"/>
+      <c r="EK1" s="36"/>
+      <c r="EL1" s="37"/>
     </row>
     <row r="2" spans="1:142">
-      <c r="A2" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="24">
+      <c r="A2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="23">
         <v>4</v>
       </c>
       <c r="C2" s="12"/>
@@ -3699,7 +2047,7 @@
     </row>
     <row r="3" spans="1:142">
       <c r="A3" s="11" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B3" s="20">
         <v>4</v>
@@ -3720,8 +2068,8 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="11"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="4"/>
       <c r="U3" s="10"/>
       <c r="V3" s="15"/>
       <c r="W3" s="11"/>
@@ -3735,7 +2083,7 @@
       <c r="AE3" s="10"/>
       <c r="AF3" s="15"/>
       <c r="AG3" s="11"/>
-      <c r="AH3" s="10"/>
+      <c r="AH3" s="3"/>
       <c r="AI3" s="10"/>
       <c r="AJ3" s="10"/>
       <c r="AK3" s="15"/>
@@ -3847,10 +2195,10 @@
     </row>
     <row r="4" spans="1:142">
       <c r="A4" s="11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="10"/>
@@ -3870,7 +2218,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
+      <c r="U4" s="6"/>
       <c r="V4" s="15"/>
       <c r="W4" s="11"/>
       <c r="X4" s="10"/>
@@ -3880,7 +2228,7 @@
       <c r="AB4" s="11"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
+      <c r="AE4" s="6"/>
       <c r="AF4" s="15"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="10"/>
@@ -3900,7 +2248,7 @@
       <c r="AV4" s="11"/>
       <c r="AW4" s="10"/>
       <c r="AX4" s="10"/>
-      <c r="AY4" s="10"/>
+      <c r="AY4" s="6"/>
       <c r="AZ4" s="15"/>
       <c r="BA4" s="11"/>
       <c r="BB4" s="10"/>
@@ -3995,10 +2343,10 @@
     </row>
     <row r="5" spans="1:142">
       <c r="A5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="20">
         <v>1</v>
-      </c>
-      <c r="B5" s="20">
-        <v>4</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="10"/>
@@ -4016,8 +2364,8 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="11"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="4"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="15"/>
       <c r="W5" s="11"/>
@@ -4031,7 +2379,7 @@
       <c r="AE5" s="10"/>
       <c r="AF5" s="15"/>
       <c r="AG5" s="11"/>
-      <c r="AH5" s="3"/>
+      <c r="AH5" s="10"/>
       <c r="AI5" s="10"/>
       <c r="AJ5" s="10"/>
       <c r="AK5" s="15"/>
@@ -4050,11 +2398,11 @@
       <c r="AX5" s="10"/>
       <c r="AY5" s="10"/>
       <c r="AZ5" s="15"/>
-      <c r="BA5" s="11"/>
-      <c r="BB5" s="10"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="3"/>
       <c r="BC5" s="10"/>
       <c r="BD5" s="10"/>
-      <c r="BE5" s="15"/>
+      <c r="BE5" s="7"/>
       <c r="BF5" s="11"/>
       <c r="BG5" s="10"/>
       <c r="BH5" s="10"/>
@@ -4143,10 +2491,10 @@
     </row>
     <row r="6" spans="1:142">
       <c r="A6" s="11" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B6" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="10"/>
@@ -4166,7 +2514,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
-      <c r="U6" s="6"/>
+      <c r="U6" s="10"/>
       <c r="V6" s="15"/>
       <c r="W6" s="11"/>
       <c r="X6" s="10"/>
@@ -4176,7 +2524,7 @@
       <c r="AB6" s="11"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
-      <c r="AE6" s="6"/>
+      <c r="AE6" s="10"/>
       <c r="AF6" s="15"/>
       <c r="AG6" s="11"/>
       <c r="AH6" s="10"/>
@@ -4196,7 +2544,7 @@
       <c r="AV6" s="11"/>
       <c r="AW6" s="10"/>
       <c r="AX6" s="10"/>
-      <c r="AY6" s="6"/>
+      <c r="AY6" s="10"/>
       <c r="AZ6" s="15"/>
       <c r="BA6" s="11"/>
       <c r="BB6" s="10"/>
@@ -4234,12 +2582,12 @@
       <c r="CH6" s="10"/>
       <c r="CI6" s="15"/>
       <c r="CJ6" s="11"/>
-      <c r="CK6" s="10"/>
+      <c r="CK6" s="3"/>
       <c r="CL6" s="10"/>
       <c r="CM6" s="10"/>
       <c r="CN6" s="15"/>
       <c r="CO6" s="11"/>
-      <c r="CP6" s="10"/>
+      <c r="CP6" s="3"/>
       <c r="CQ6" s="10"/>
       <c r="CR6" s="10"/>
       <c r="CS6" s="15"/>
@@ -4291,10 +2639,10 @@
     </row>
     <row r="7" spans="1:142">
       <c r="A7" s="11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="10"/>
@@ -4311,11 +2659,11 @@
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="15"/>
-      <c r="R7" s="11"/>
+      <c r="R7" s="1"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
-      <c r="V7" s="15"/>
+      <c r="V7" s="7"/>
       <c r="W7" s="11"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
@@ -4336,7 +2684,7 @@
       <c r="AN7" s="10"/>
       <c r="AO7" s="10"/>
       <c r="AP7" s="15"/>
-      <c r="AQ7" s="11"/>
+      <c r="AQ7" s="1"/>
       <c r="AR7" s="10"/>
       <c r="AS7" s="10"/>
       <c r="AT7" s="10"/>
@@ -4346,11 +2694,11 @@
       <c r="AX7" s="10"/>
       <c r="AY7" s="10"/>
       <c r="AZ7" s="15"/>
-      <c r="BA7" s="11"/>
-      <c r="BB7" s="10"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="3"/>
       <c r="BC7" s="10"/>
       <c r="BD7" s="10"/>
-      <c r="BE7" s="15"/>
+      <c r="BE7" s="7"/>
       <c r="BF7" s="11"/>
       <c r="BG7" s="10"/>
       <c r="BH7" s="10"/>
@@ -4438,12 +2786,8 @@
       <c r="EL7" s="15"/>
     </row>
     <row r="8" spans="1:142">
-      <c r="A8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="20">
-        <v>2</v>
-      </c>
+      <c r="A8" s="11"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -4459,11 +2803,11 @@
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="15"/>
-      <c r="R8" s="11"/>
+      <c r="R8" s="1"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
-      <c r="V8" s="15"/>
+      <c r="V8" s="7"/>
       <c r="W8" s="11"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
@@ -4484,7 +2828,7 @@
       <c r="AN8" s="10"/>
       <c r="AO8" s="10"/>
       <c r="AP8" s="15"/>
-      <c r="AQ8" s="11"/>
+      <c r="AQ8" s="1"/>
       <c r="AR8" s="10"/>
       <c r="AS8" s="10"/>
       <c r="AT8" s="10"/>
@@ -4494,11 +2838,11 @@
       <c r="AX8" s="10"/>
       <c r="AY8" s="10"/>
       <c r="AZ8" s="15"/>
-      <c r="BA8" s="11"/>
-      <c r="BB8" s="10"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="3"/>
       <c r="BC8" s="10"/>
       <c r="BD8" s="10"/>
-      <c r="BE8" s="15"/>
+      <c r="BE8" s="7"/>
       <c r="BF8" s="11"/>
       <c r="BG8" s="10"/>
       <c r="BH8" s="10"/>
@@ -4587,11 +2931,9 @@
     </row>
     <row r="9" spans="1:142">
       <c r="A9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="20">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B9" s="20"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -4642,11 +2984,11 @@
       <c r="AX9" s="10"/>
       <c r="AY9" s="10"/>
       <c r="AZ9" s="15"/>
-      <c r="BA9" s="1"/>
-      <c r="BB9" s="3"/>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="10"/>
       <c r="BC9" s="10"/>
       <c r="BD9" s="10"/>
-      <c r="BE9" s="7"/>
+      <c r="BE9" s="15"/>
       <c r="BF9" s="11"/>
       <c r="BG9" s="10"/>
       <c r="BH9" s="10"/>
@@ -4734,12 +3076,8 @@
       <c r="EL9" s="15"/>
     </row>
     <row r="10" spans="1:142">
-      <c r="A10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="20">
-        <v>4</v>
-      </c>
+      <c r="A10" s="11"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -4826,12 +3164,12 @@
       <c r="CH10" s="10"/>
       <c r="CI10" s="15"/>
       <c r="CJ10" s="11"/>
-      <c r="CK10" s="3"/>
+      <c r="CK10" s="10"/>
       <c r="CL10" s="10"/>
       <c r="CM10" s="10"/>
       <c r="CN10" s="15"/>
       <c r="CO10" s="11"/>
-      <c r="CP10" s="3"/>
+      <c r="CP10" s="10"/>
       <c r="CQ10" s="10"/>
       <c r="CR10" s="10"/>
       <c r="CS10" s="15"/>
@@ -4883,11 +3221,9 @@
     </row>
     <row r="11" spans="1:142">
       <c r="A11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="20">
-        <v>8</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B11" s="20"/>
       <c r="C11" s="11"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -5030,11 +3366,11 @@
       <c r="EL11" s="15"/>
     </row>
     <row r="12" spans="1:142">
-      <c r="A12" s="11" t="s">
-        <v>24</v>
+      <c r="A12" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="B12" s="20">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="10"/>
@@ -5051,11 +3387,11 @@
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="15"/>
-      <c r="R12" s="1"/>
+      <c r="R12" s="11"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
-      <c r="V12" s="7"/>
+      <c r="V12" s="15"/>
       <c r="W12" s="11"/>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
@@ -5076,7 +3412,7 @@
       <c r="AN12" s="10"/>
       <c r="AO12" s="10"/>
       <c r="AP12" s="15"/>
-      <c r="AQ12" s="1"/>
+      <c r="AQ12" s="11"/>
       <c r="AR12" s="10"/>
       <c r="AS12" s="10"/>
       <c r="AT12" s="10"/>
@@ -5086,11 +3422,11 @@
       <c r="AX12" s="10"/>
       <c r="AY12" s="10"/>
       <c r="AZ12" s="15"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="3"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="10"/>
       <c r="BC12" s="10"/>
       <c r="BD12" s="10"/>
-      <c r="BE12" s="7"/>
+      <c r="BE12" s="15"/>
       <c r="BF12" s="11"/>
       <c r="BG12" s="10"/>
       <c r="BH12" s="10"/>
@@ -5155,7 +3491,7 @@
       <c r="DO12" s="10"/>
       <c r="DP12" s="10"/>
       <c r="DQ12" s="10"/>
-      <c r="DR12" s="15"/>
+      <c r="DR12" s="7"/>
       <c r="DS12" s="11"/>
       <c r="DT12" s="10"/>
       <c r="DU12" s="10"/>
@@ -5178,8 +3514,8 @@
       <c r="EL12" s="15"/>
     </row>
     <row r="13" spans="1:142">
-      <c r="A13" s="11" t="s">
-        <v>25</v>
+      <c r="A13" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="11"/>
@@ -5234,8 +3570,8 @@
       <c r="AZ13" s="15"/>
       <c r="BA13" s="11"/>
       <c r="BB13" s="10"/>
-      <c r="BC13" s="10"/>
-      <c r="BD13" s="10"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="6"/>
       <c r="BE13" s="15"/>
       <c r="BF13" s="11"/>
       <c r="BG13" s="10"/>
@@ -5245,7 +3581,7 @@
       <c r="BK13" s="11"/>
       <c r="BL13" s="10"/>
       <c r="BM13" s="10"/>
-      <c r="BN13" s="10"/>
+      <c r="BN13" s="6"/>
       <c r="BO13" s="15"/>
       <c r="BP13" s="11"/>
       <c r="BQ13" s="10"/>
@@ -5260,12 +3596,12 @@
       <c r="BZ13" s="11"/>
       <c r="CA13" s="10"/>
       <c r="CB13" s="10"/>
-      <c r="CC13" s="10"/>
+      <c r="CC13" s="6"/>
       <c r="CD13" s="15"/>
       <c r="CE13" s="11"/>
       <c r="CF13" s="10"/>
       <c r="CG13" s="10"/>
-      <c r="CH13" s="10"/>
+      <c r="CH13" s="6"/>
       <c r="CI13" s="15"/>
       <c r="CJ13" s="11"/>
       <c r="CK13" s="10"/>
@@ -5324,7 +3660,9 @@
       <c r="EL13" s="15"/>
     </row>
     <row r="14" spans="1:142">
-      <c r="A14" s="11"/>
+      <c r="A14" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="B14" s="20"/>
       <c r="C14" s="11"/>
       <c r="D14" s="10"/>
@@ -5378,8 +3716,8 @@
       <c r="AZ14" s="15"/>
       <c r="BA14" s="11"/>
       <c r="BB14" s="10"/>
-      <c r="BC14" s="10"/>
-      <c r="BD14" s="10"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="6"/>
       <c r="BE14" s="15"/>
       <c r="BF14" s="11"/>
       <c r="BG14" s="10"/>
@@ -5389,7 +3727,7 @@
       <c r="BK14" s="11"/>
       <c r="BL14" s="10"/>
       <c r="BM14" s="10"/>
-      <c r="BN14" s="10"/>
+      <c r="BN14" s="6"/>
       <c r="BO14" s="15"/>
       <c r="BP14" s="11"/>
       <c r="BQ14" s="10"/>
@@ -5404,12 +3742,12 @@
       <c r="BZ14" s="11"/>
       <c r="CA14" s="10"/>
       <c r="CB14" s="10"/>
-      <c r="CC14" s="10"/>
+      <c r="CC14" s="6"/>
       <c r="CD14" s="15"/>
       <c r="CE14" s="11"/>
       <c r="CF14" s="10"/>
       <c r="CG14" s="10"/>
-      <c r="CH14" s="10"/>
+      <c r="CH14" s="6"/>
       <c r="CI14" s="15"/>
       <c r="CJ14" s="11"/>
       <c r="CK14" s="10"/>
@@ -5468,8 +3806,8 @@
       <c r="EL14" s="15"/>
     </row>
     <row r="15" spans="1:142">
-      <c r="A15" s="11" t="s">
-        <v>27</v>
+      <c r="A15" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="11"/>
@@ -5524,8 +3862,8 @@
       <c r="AZ15" s="15"/>
       <c r="BA15" s="11"/>
       <c r="BB15" s="10"/>
-      <c r="BC15" s="10"/>
-      <c r="BD15" s="10"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="6"/>
       <c r="BE15" s="15"/>
       <c r="BF15" s="11"/>
       <c r="BG15" s="10"/>
@@ -5535,7 +3873,7 @@
       <c r="BK15" s="11"/>
       <c r="BL15" s="10"/>
       <c r="BM15" s="10"/>
-      <c r="BN15" s="10"/>
+      <c r="BN15" s="6"/>
       <c r="BO15" s="15"/>
       <c r="BP15" s="11"/>
       <c r="BQ15" s="10"/>
@@ -5550,12 +3888,12 @@
       <c r="BZ15" s="11"/>
       <c r="CA15" s="10"/>
       <c r="CB15" s="10"/>
-      <c r="CC15" s="10"/>
+      <c r="CC15" s="6"/>
       <c r="CD15" s="15"/>
       <c r="CE15" s="11"/>
       <c r="CF15" s="10"/>
       <c r="CG15" s="10"/>
-      <c r="CH15" s="10"/>
+      <c r="CH15" s="6"/>
       <c r="CI15" s="15"/>
       <c r="CJ15" s="11"/>
       <c r="CK15" s="10"/>
@@ -5614,12 +3952,10 @@
       <c r="EL15" s="15"/>
     </row>
     <row r="16" spans="1:142">
-      <c r="A16" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="20">
-        <v>20</v>
-      </c>
+      <c r="A16" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="20"/>
       <c r="C16" s="11"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -5725,7 +4061,7 @@
       <c r="DA16" s="10"/>
       <c r="DB16" s="10"/>
       <c r="DC16" s="15"/>
-      <c r="DD16" s="11"/>
+      <c r="DD16" s="1"/>
       <c r="DE16" s="10"/>
       <c r="DF16" s="10"/>
       <c r="DG16" s="10"/>
@@ -5735,11 +4071,11 @@
       <c r="DK16" s="10"/>
       <c r="DL16" s="10"/>
       <c r="DM16" s="15"/>
-      <c r="DN16" s="11"/>
+      <c r="DN16" s="1"/>
       <c r="DO16" s="10"/>
       <c r="DP16" s="10"/>
       <c r="DQ16" s="10"/>
-      <c r="DR16" s="7"/>
+      <c r="DR16" s="15"/>
       <c r="DS16" s="11"/>
       <c r="DT16" s="10"/>
       <c r="DU16" s="10"/>
@@ -5762,8 +4098,8 @@
       <c r="EL16" s="15"/>
     </row>
     <row r="17" spans="1:142">
-      <c r="A17" s="28" t="s">
-        <v>49</v>
+      <c r="A17" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="11"/>
@@ -5818,8 +4154,8 @@
       <c r="AZ17" s="15"/>
       <c r="BA17" s="11"/>
       <c r="BB17" s="10"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="6"/>
+      <c r="BC17" s="10"/>
+      <c r="BD17" s="10"/>
       <c r="BE17" s="15"/>
       <c r="BF17" s="11"/>
       <c r="BG17" s="10"/>
@@ -5829,7 +4165,7 @@
       <c r="BK17" s="11"/>
       <c r="BL17" s="10"/>
       <c r="BM17" s="10"/>
-      <c r="BN17" s="6"/>
+      <c r="BN17" s="10"/>
       <c r="BO17" s="15"/>
       <c r="BP17" s="11"/>
       <c r="BQ17" s="10"/>
@@ -5844,12 +4180,12 @@
       <c r="BZ17" s="11"/>
       <c r="CA17" s="10"/>
       <c r="CB17" s="10"/>
-      <c r="CC17" s="6"/>
+      <c r="CC17" s="10"/>
       <c r="CD17" s="15"/>
       <c r="CE17" s="11"/>
       <c r="CF17" s="10"/>
       <c r="CG17" s="10"/>
-      <c r="CH17" s="6"/>
+      <c r="CH17" s="10"/>
       <c r="CI17" s="15"/>
       <c r="CJ17" s="11"/>
       <c r="CK17" s="10"/>
@@ -5871,7 +4207,7 @@
       <c r="DA17" s="10"/>
       <c r="DB17" s="10"/>
       <c r="DC17" s="15"/>
-      <c r="DD17" s="11"/>
+      <c r="DD17" s="1"/>
       <c r="DE17" s="10"/>
       <c r="DF17" s="10"/>
       <c r="DG17" s="10"/>
@@ -5881,7 +4217,7 @@
       <c r="DK17" s="10"/>
       <c r="DL17" s="10"/>
       <c r="DM17" s="15"/>
-      <c r="DN17" s="11"/>
+      <c r="DN17" s="1"/>
       <c r="DO17" s="10"/>
       <c r="DP17" s="10"/>
       <c r="DQ17" s="10"/>
@@ -5908,8 +4244,8 @@
       <c r="EL17" s="15"/>
     </row>
     <row r="18" spans="1:142">
-      <c r="A18" s="28" t="s">
-        <v>52</v>
+      <c r="A18" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="11"/>
@@ -5964,8 +4300,8 @@
       <c r="AZ18" s="15"/>
       <c r="BA18" s="11"/>
       <c r="BB18" s="10"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="6"/>
+      <c r="BC18" s="10"/>
+      <c r="BD18" s="10"/>
       <c r="BE18" s="15"/>
       <c r="BF18" s="11"/>
       <c r="BG18" s="10"/>
@@ -5975,7 +4311,7 @@
       <c r="BK18" s="11"/>
       <c r="BL18" s="10"/>
       <c r="BM18" s="10"/>
-      <c r="BN18" s="6"/>
+      <c r="BN18" s="10"/>
       <c r="BO18" s="15"/>
       <c r="BP18" s="11"/>
       <c r="BQ18" s="10"/>
@@ -5990,12 +4326,12 @@
       <c r="BZ18" s="11"/>
       <c r="CA18" s="10"/>
       <c r="CB18" s="10"/>
-      <c r="CC18" s="6"/>
+      <c r="CC18" s="10"/>
       <c r="CD18" s="15"/>
       <c r="CE18" s="11"/>
       <c r="CF18" s="10"/>
       <c r="CG18" s="10"/>
-      <c r="CH18" s="6"/>
+      <c r="CH18" s="10"/>
       <c r="CI18" s="15"/>
       <c r="CJ18" s="11"/>
       <c r="CK18" s="10"/>
@@ -6024,12 +4360,12 @@
       <c r="DH18" s="15"/>
       <c r="DI18" s="11"/>
       <c r="DJ18" s="10"/>
-      <c r="DK18" s="10"/>
+      <c r="DK18" s="4"/>
       <c r="DL18" s="10"/>
       <c r="DM18" s="15"/>
       <c r="DN18" s="11"/>
       <c r="DO18" s="10"/>
-      <c r="DP18" s="10"/>
+      <c r="DP18" s="4"/>
       <c r="DQ18" s="10"/>
       <c r="DR18" s="15"/>
       <c r="DS18" s="11"/>
@@ -6054,8 +4390,8 @@
       <c r="EL18" s="15"/>
     </row>
     <row r="19" spans="1:142">
-      <c r="A19" s="28" t="s">
-        <v>50</v>
+      <c r="A19" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="11"/>
@@ -6110,8 +4446,8 @@
       <c r="AZ19" s="15"/>
       <c r="BA19" s="11"/>
       <c r="BB19" s="10"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="6"/>
+      <c r="BC19" s="10"/>
+      <c r="BD19" s="10"/>
       <c r="BE19" s="15"/>
       <c r="BF19" s="11"/>
       <c r="BG19" s="10"/>
@@ -6121,7 +4457,7 @@
       <c r="BK19" s="11"/>
       <c r="BL19" s="10"/>
       <c r="BM19" s="10"/>
-      <c r="BN19" s="6"/>
+      <c r="BN19" s="10"/>
       <c r="BO19" s="15"/>
       <c r="BP19" s="11"/>
       <c r="BQ19" s="10"/>
@@ -6136,12 +4472,12 @@
       <c r="BZ19" s="11"/>
       <c r="CA19" s="10"/>
       <c r="CB19" s="10"/>
-      <c r="CC19" s="6"/>
+      <c r="CC19" s="10"/>
       <c r="CD19" s="15"/>
       <c r="CE19" s="11"/>
       <c r="CF19" s="10"/>
       <c r="CG19" s="10"/>
-      <c r="CH19" s="6"/>
+      <c r="CH19" s="10"/>
       <c r="CI19" s="15"/>
       <c r="CJ19" s="11"/>
       <c r="CK19" s="10"/>
@@ -6171,12 +4507,12 @@
       <c r="DI19" s="11"/>
       <c r="DJ19" s="10"/>
       <c r="DK19" s="10"/>
-      <c r="DL19" s="10"/>
+      <c r="DL19" s="6"/>
       <c r="DM19" s="15"/>
       <c r="DN19" s="11"/>
       <c r="DO19" s="10"/>
       <c r="DP19" s="10"/>
-      <c r="DQ19" s="10"/>
+      <c r="DQ19" s="6"/>
       <c r="DR19" s="15"/>
       <c r="DS19" s="11"/>
       <c r="DT19" s="10"/>
@@ -6200,9 +4536,7 @@
       <c r="EL19" s="15"/>
     </row>
     <row r="20" spans="1:142">
-      <c r="A20" s="28" t="s">
-        <v>51</v>
-      </c>
+      <c r="A20" s="26"/>
       <c r="B20" s="20"/>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
@@ -6309,7 +4643,7 @@
       <c r="DA20" s="10"/>
       <c r="DB20" s="10"/>
       <c r="DC20" s="15"/>
-      <c r="DD20" s="1"/>
+      <c r="DD20" s="11"/>
       <c r="DE20" s="10"/>
       <c r="DF20" s="10"/>
       <c r="DG20" s="10"/>
@@ -6317,9 +4651,9 @@
       <c r="DI20" s="11"/>
       <c r="DJ20" s="10"/>
       <c r="DK20" s="10"/>
-      <c r="DL20" s="10"/>
+      <c r="DL20" s="5"/>
       <c r="DM20" s="15"/>
-      <c r="DN20" s="1"/>
+      <c r="DN20" s="11"/>
       <c r="DO20" s="10"/>
       <c r="DP20" s="10"/>
       <c r="DQ20" s="10"/>
@@ -6346,8 +4680,8 @@
       <c r="EL20" s="15"/>
     </row>
     <row r="21" spans="1:142">
-      <c r="A21" s="28" t="s">
-        <v>53</v>
+      <c r="A21" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="11"/>
@@ -6455,7 +4789,7 @@
       <c r="DA21" s="10"/>
       <c r="DB21" s="10"/>
       <c r="DC21" s="15"/>
-      <c r="DD21" s="1"/>
+      <c r="DD21" s="11"/>
       <c r="DE21" s="10"/>
       <c r="DF21" s="10"/>
       <c r="DG21" s="10"/>
@@ -6463,12 +4797,12 @@
       <c r="DI21" s="11"/>
       <c r="DJ21" s="10"/>
       <c r="DK21" s="10"/>
-      <c r="DL21" s="10"/>
+      <c r="DL21" s="6"/>
       <c r="DM21" s="15"/>
-      <c r="DN21" s="1"/>
+      <c r="DN21" s="11"/>
       <c r="DO21" s="10"/>
       <c r="DP21" s="10"/>
-      <c r="DQ21" s="10"/>
+      <c r="DQ21" s="6"/>
       <c r="DR21" s="15"/>
       <c r="DS21" s="11"/>
       <c r="DT21" s="10"/>
@@ -6492,9 +4826,7 @@
       <c r="EL21" s="15"/>
     </row>
     <row r="22" spans="1:142">
-      <c r="A22" s="28" t="s">
-        <v>54</v>
-      </c>
+      <c r="A22" s="26"/>
       <c r="B22" s="20"/>
       <c r="C22" s="11"/>
       <c r="D22" s="10"/>
@@ -6637,3864 +4969,50 @@
       <c r="EK22" s="10"/>
       <c r="EL22" s="15"/>
     </row>
-    <row r="23" spans="1:142">
-      <c r="A23" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="15"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="10"/>
-      <c r="AN23" s="10"/>
-      <c r="AO23" s="10"/>
-      <c r="AP23" s="15"/>
-      <c r="AQ23" s="11"/>
-      <c r="AR23" s="10"/>
-      <c r="AS23" s="10"/>
-      <c r="AT23" s="10"/>
-      <c r="AU23" s="15"/>
-      <c r="AV23" s="11"/>
-      <c r="AW23" s="10"/>
-      <c r="AX23" s="10"/>
-      <c r="AY23" s="10"/>
-      <c r="AZ23" s="15"/>
-      <c r="BA23" s="11"/>
-      <c r="BB23" s="10"/>
-      <c r="BC23" s="10"/>
-      <c r="BD23" s="10"/>
-      <c r="BE23" s="15"/>
-      <c r="BF23" s="11"/>
-      <c r="BG23" s="10"/>
-      <c r="BH23" s="10"/>
-      <c r="BI23" s="10"/>
-      <c r="BJ23" s="15"/>
-      <c r="BK23" s="11"/>
-      <c r="BL23" s="10"/>
-      <c r="BM23" s="10"/>
-      <c r="BN23" s="10"/>
-      <c r="BO23" s="15"/>
-      <c r="BP23" s="11"/>
-      <c r="BQ23" s="10"/>
-      <c r="BR23" s="10"/>
-      <c r="BS23" s="10"/>
-      <c r="BT23" s="15"/>
-      <c r="BU23" s="11"/>
-      <c r="BV23" s="10"/>
-      <c r="BW23" s="10"/>
-      <c r="BX23" s="10"/>
-      <c r="BY23" s="15"/>
-      <c r="BZ23" s="11"/>
-      <c r="CA23" s="10"/>
-      <c r="CB23" s="10"/>
-      <c r="CC23" s="10"/>
-      <c r="CD23" s="15"/>
-      <c r="CE23" s="11"/>
-      <c r="CF23" s="10"/>
-      <c r="CG23" s="10"/>
-      <c r="CH23" s="10"/>
-      <c r="CI23" s="15"/>
-      <c r="CJ23" s="11"/>
-      <c r="CK23" s="10"/>
-      <c r="CL23" s="10"/>
-      <c r="CM23" s="10"/>
-      <c r="CN23" s="15"/>
-      <c r="CO23" s="11"/>
-      <c r="CP23" s="10"/>
-      <c r="CQ23" s="10"/>
-      <c r="CR23" s="10"/>
-      <c r="CS23" s="15"/>
-      <c r="CT23" s="11"/>
-      <c r="CU23" s="10"/>
-      <c r="CV23" s="10"/>
-      <c r="CW23" s="10"/>
-      <c r="CX23" s="15"/>
-      <c r="CY23" s="11"/>
-      <c r="CZ23" s="10"/>
-      <c r="DA23" s="10"/>
-      <c r="DB23" s="10"/>
-      <c r="DC23" s="15"/>
-      <c r="DD23" s="11"/>
-      <c r="DE23" s="10"/>
-      <c r="DF23" s="10"/>
-      <c r="DG23" s="10"/>
-      <c r="DH23" s="15"/>
-      <c r="DI23" s="11"/>
-      <c r="DJ23" s="10"/>
-      <c r="DK23" s="4"/>
-      <c r="DL23" s="10"/>
-      <c r="DM23" s="15"/>
-      <c r="DN23" s="11"/>
-      <c r="DO23" s="10"/>
-      <c r="DP23" s="4"/>
-      <c r="DQ23" s="10"/>
-      <c r="DR23" s="15"/>
-      <c r="DS23" s="11"/>
-      <c r="DT23" s="10"/>
-      <c r="DU23" s="10"/>
-      <c r="DV23" s="10"/>
-      <c r="DW23" s="15"/>
-      <c r="DX23" s="11"/>
-      <c r="DY23" s="10"/>
-      <c r="DZ23" s="10"/>
-      <c r="EA23" s="10"/>
-      <c r="EB23" s="15"/>
-      <c r="EC23" s="11"/>
-      <c r="ED23" s="10"/>
-      <c r="EE23" s="10"/>
-      <c r="EF23" s="10"/>
-      <c r="EG23" s="15"/>
-      <c r="EH23" s="11"/>
-      <c r="EI23" s="10"/>
-      <c r="EJ23" s="10"/>
-      <c r="EK23" s="10"/>
-      <c r="EL23" s="15"/>
-    </row>
-    <row r="24" spans="1:142">
-      <c r="A24" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="15"/>
-      <c r="AL24" s="11"/>
-      <c r="AM24" s="10"/>
-      <c r="AN24" s="10"/>
-      <c r="AO24" s="10"/>
-      <c r="AP24" s="15"/>
-      <c r="AQ24" s="11"/>
-      <c r="AR24" s="10"/>
-      <c r="AS24" s="10"/>
-      <c r="AT24" s="10"/>
-      <c r="AU24" s="15"/>
-      <c r="AV24" s="11"/>
-      <c r="AW24" s="10"/>
-      <c r="AX24" s="10"/>
-      <c r="AY24" s="10"/>
-      <c r="AZ24" s="15"/>
-      <c r="BA24" s="11"/>
-      <c r="BB24" s="10"/>
-      <c r="BC24" s="10"/>
-      <c r="BD24" s="10"/>
-      <c r="BE24" s="15"/>
-      <c r="BF24" s="11"/>
-      <c r="BG24" s="10"/>
-      <c r="BH24" s="10"/>
-      <c r="BI24" s="10"/>
-      <c r="BJ24" s="15"/>
-      <c r="BK24" s="11"/>
-      <c r="BL24" s="10"/>
-      <c r="BM24" s="10"/>
-      <c r="BN24" s="10"/>
-      <c r="BO24" s="15"/>
-      <c r="BP24" s="11"/>
-      <c r="BQ24" s="10"/>
-      <c r="BR24" s="10"/>
-      <c r="BS24" s="10"/>
-      <c r="BT24" s="15"/>
-      <c r="BU24" s="11"/>
-      <c r="BV24" s="10"/>
-      <c r="BW24" s="10"/>
-      <c r="BX24" s="10"/>
-      <c r="BY24" s="15"/>
-      <c r="BZ24" s="11"/>
-      <c r="CA24" s="10"/>
-      <c r="CB24" s="10"/>
-      <c r="CC24" s="10"/>
-      <c r="CD24" s="15"/>
-      <c r="CE24" s="11"/>
-      <c r="CF24" s="10"/>
-      <c r="CG24" s="10"/>
-      <c r="CH24" s="10"/>
-      <c r="CI24" s="15"/>
-      <c r="CJ24" s="11"/>
-      <c r="CK24" s="10"/>
-      <c r="CL24" s="10"/>
-      <c r="CM24" s="10"/>
-      <c r="CN24" s="15"/>
-      <c r="CO24" s="11"/>
-      <c r="CP24" s="10"/>
-      <c r="CQ24" s="10"/>
-      <c r="CR24" s="10"/>
-      <c r="CS24" s="15"/>
-      <c r="CT24" s="11"/>
-      <c r="CU24" s="10"/>
-      <c r="CV24" s="10"/>
-      <c r="CW24" s="10"/>
-      <c r="CX24" s="15"/>
-      <c r="CY24" s="11"/>
-      <c r="CZ24" s="10"/>
-      <c r="DA24" s="10"/>
-      <c r="DB24" s="10"/>
-      <c r="DC24" s="15"/>
-      <c r="DD24" s="11"/>
-      <c r="DE24" s="10"/>
-      <c r="DF24" s="10"/>
-      <c r="DG24" s="10"/>
-      <c r="DH24" s="15"/>
-      <c r="DI24" s="11"/>
-      <c r="DJ24" s="10"/>
-      <c r="DK24" s="10"/>
-      <c r="DL24" s="6"/>
-      <c r="DM24" s="15"/>
-      <c r="DN24" s="11"/>
-      <c r="DO24" s="10"/>
-      <c r="DP24" s="10"/>
-      <c r="DQ24" s="6"/>
-      <c r="DR24" s="15"/>
-      <c r="DS24" s="11"/>
-      <c r="DT24" s="10"/>
-      <c r="DU24" s="10"/>
-      <c r="DV24" s="10"/>
-      <c r="DW24" s="15"/>
-      <c r="DX24" s="11"/>
-      <c r="DY24" s="10"/>
-      <c r="DZ24" s="10"/>
-      <c r="EA24" s="10"/>
-      <c r="EB24" s="15"/>
-      <c r="EC24" s="11"/>
-      <c r="ED24" s="10"/>
-      <c r="EE24" s="10"/>
-      <c r="EF24" s="10"/>
-      <c r="EG24" s="15"/>
-      <c r="EH24" s="11"/>
-      <c r="EI24" s="10"/>
-      <c r="EJ24" s="10"/>
-      <c r="EK24" s="10"/>
-      <c r="EL24" s="15"/>
-    </row>
     <row r="25" spans="1:142">
-      <c r="A25" s="28"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
-      <c r="AK25" s="15"/>
-      <c r="AL25" s="11"/>
-      <c r="AM25" s="10"/>
-      <c r="AN25" s="10"/>
-      <c r="AO25" s="10"/>
-      <c r="AP25" s="15"/>
-      <c r="AQ25" s="11"/>
-      <c r="AR25" s="10"/>
-      <c r="AS25" s="10"/>
-      <c r="AT25" s="10"/>
-      <c r="AU25" s="15"/>
-      <c r="AV25" s="11"/>
-      <c r="AW25" s="10"/>
-      <c r="AX25" s="10"/>
-      <c r="AY25" s="10"/>
-      <c r="AZ25" s="15"/>
-      <c r="BA25" s="11"/>
-      <c r="BB25" s="10"/>
-      <c r="BC25" s="10"/>
-      <c r="BD25" s="10"/>
-      <c r="BE25" s="15"/>
-      <c r="BF25" s="11"/>
-      <c r="BG25" s="10"/>
-      <c r="BH25" s="10"/>
-      <c r="BI25" s="10"/>
-      <c r="BJ25" s="15"/>
-      <c r="BK25" s="11"/>
-      <c r="BL25" s="10"/>
-      <c r="BM25" s="10"/>
-      <c r="BN25" s="10"/>
-      <c r="BO25" s="15"/>
-      <c r="BP25" s="11"/>
-      <c r="BQ25" s="10"/>
-      <c r="BR25" s="10"/>
-      <c r="BS25" s="10"/>
-      <c r="BT25" s="15"/>
-      <c r="BU25" s="11"/>
-      <c r="BV25" s="10"/>
-      <c r="BW25" s="10"/>
-      <c r="BX25" s="10"/>
-      <c r="BY25" s="15"/>
-      <c r="BZ25" s="11"/>
-      <c r="CA25" s="10"/>
-      <c r="CB25" s="10"/>
-      <c r="CC25" s="10"/>
-      <c r="CD25" s="15"/>
-      <c r="CE25" s="11"/>
-      <c r="CF25" s="10"/>
-      <c r="CG25" s="10"/>
-      <c r="CH25" s="10"/>
-      <c r="CI25" s="15"/>
-      <c r="CJ25" s="11"/>
-      <c r="CK25" s="10"/>
-      <c r="CL25" s="10"/>
-      <c r="CM25" s="10"/>
-      <c r="CN25" s="15"/>
-      <c r="CO25" s="11"/>
-      <c r="CP25" s="10"/>
-      <c r="CQ25" s="10"/>
-      <c r="CR25" s="10"/>
-      <c r="CS25" s="15"/>
-      <c r="CT25" s="11"/>
-      <c r="CU25" s="10"/>
-      <c r="CV25" s="10"/>
-      <c r="CW25" s="10"/>
-      <c r="CX25" s="15"/>
-      <c r="CY25" s="11"/>
-      <c r="CZ25" s="10"/>
-      <c r="DA25" s="10"/>
-      <c r="DB25" s="10"/>
-      <c r="DC25" s="15"/>
-      <c r="DD25" s="11"/>
-      <c r="DE25" s="10"/>
-      <c r="DF25" s="10"/>
-      <c r="DG25" s="10"/>
-      <c r="DH25" s="15"/>
-      <c r="DI25" s="11"/>
-      <c r="DJ25" s="10"/>
-      <c r="DK25" s="10"/>
-      <c r="DL25" s="5"/>
-      <c r="DM25" s="15"/>
-      <c r="DN25" s="11"/>
-      <c r="DO25" s="10"/>
-      <c r="DP25" s="10"/>
-      <c r="DQ25" s="10"/>
-      <c r="DR25" s="15"/>
-      <c r="DS25" s="11"/>
-      <c r="DT25" s="10"/>
-      <c r="DU25" s="10"/>
-      <c r="DV25" s="10"/>
-      <c r="DW25" s="15"/>
-      <c r="DX25" s="11"/>
-      <c r="DY25" s="10"/>
-      <c r="DZ25" s="10"/>
-      <c r="EA25" s="10"/>
-      <c r="EB25" s="15"/>
-      <c r="EC25" s="11"/>
-      <c r="ED25" s="10"/>
-      <c r="EE25" s="10"/>
-      <c r="EF25" s="10"/>
-      <c r="EG25" s="15"/>
-      <c r="EH25" s="11"/>
-      <c r="EI25" s="10"/>
-      <c r="EJ25" s="10"/>
-      <c r="EK25" s="10"/>
-      <c r="EL25" s="15"/>
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:142">
-      <c r="A26" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="15"/>
-      <c r="AL26" s="11"/>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="10"/>
-      <c r="AO26" s="10"/>
-      <c r="AP26" s="15"/>
-      <c r="AQ26" s="11"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
-      <c r="AU26" s="15"/>
-      <c r="AV26" s="11"/>
-      <c r="AW26" s="10"/>
-      <c r="AX26" s="10"/>
-      <c r="AY26" s="10"/>
-      <c r="AZ26" s="15"/>
-      <c r="BA26" s="11"/>
-      <c r="BB26" s="10"/>
-      <c r="BC26" s="10"/>
-      <c r="BD26" s="10"/>
-      <c r="BE26" s="15"/>
-      <c r="BF26" s="11"/>
-      <c r="BG26" s="10"/>
-      <c r="BH26" s="10"/>
-      <c r="BI26" s="10"/>
-      <c r="BJ26" s="15"/>
-      <c r="BK26" s="11"/>
-      <c r="BL26" s="10"/>
-      <c r="BM26" s="10"/>
-      <c r="BN26" s="10"/>
-      <c r="BO26" s="15"/>
-      <c r="BP26" s="11"/>
-      <c r="BQ26" s="10"/>
-      <c r="BR26" s="10"/>
-      <c r="BS26" s="10"/>
-      <c r="BT26" s="15"/>
-      <c r="BU26" s="11"/>
-      <c r="BV26" s="10"/>
-      <c r="BW26" s="10"/>
-      <c r="BX26" s="10"/>
-      <c r="BY26" s="15"/>
-      <c r="BZ26" s="11"/>
-      <c r="CA26" s="10"/>
-      <c r="CB26" s="10"/>
-      <c r="CC26" s="10"/>
-      <c r="CD26" s="15"/>
-      <c r="CE26" s="11"/>
-      <c r="CF26" s="10"/>
-      <c r="CG26" s="10"/>
-      <c r="CH26" s="10"/>
-      <c r="CI26" s="15"/>
-      <c r="CJ26" s="11"/>
-      <c r="CK26" s="10"/>
-      <c r="CL26" s="10"/>
-      <c r="CM26" s="10"/>
-      <c r="CN26" s="15"/>
-      <c r="CO26" s="11"/>
-      <c r="CP26" s="10"/>
-      <c r="CQ26" s="10"/>
-      <c r="CR26" s="10"/>
-      <c r="CS26" s="15"/>
-      <c r="CT26" s="11"/>
-      <c r="CU26" s="10"/>
-      <c r="CV26" s="10"/>
-      <c r="CW26" s="10"/>
-      <c r="CX26" s="15"/>
-      <c r="CY26" s="11"/>
-      <c r="CZ26" s="10"/>
-      <c r="DA26" s="10"/>
-      <c r="DB26" s="10"/>
-      <c r="DC26" s="15"/>
-      <c r="DD26" s="11"/>
-      <c r="DE26" s="10"/>
-      <c r="DF26" s="10"/>
-      <c r="DG26" s="10"/>
-      <c r="DH26" s="15"/>
-      <c r="DI26" s="11"/>
-      <c r="DJ26" s="10"/>
-      <c r="DK26" s="10"/>
-      <c r="DL26" s="6"/>
-      <c r="DM26" s="15"/>
-      <c r="DN26" s="11"/>
-      <c r="DO26" s="10"/>
-      <c r="DP26" s="10"/>
-      <c r="DQ26" s="6"/>
-      <c r="DR26" s="15"/>
-      <c r="DS26" s="11"/>
-      <c r="DT26" s="10"/>
-      <c r="DU26" s="10"/>
-      <c r="DV26" s="10"/>
-      <c r="DW26" s="15"/>
-      <c r="DX26" s="11"/>
-      <c r="DY26" s="10"/>
-      <c r="DZ26" s="10"/>
-      <c r="EA26" s="10"/>
-      <c r="EB26" s="15"/>
-      <c r="EC26" s="11"/>
-      <c r="ED26" s="10"/>
-      <c r="EE26" s="10"/>
-      <c r="EF26" s="10"/>
-      <c r="EG26" s="15"/>
-      <c r="EH26" s="11"/>
-      <c r="EI26" s="10"/>
-      <c r="EJ26" s="10"/>
-      <c r="EK26" s="10"/>
-      <c r="EL26" s="15"/>
+      <c r="B26" s="3"/>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:142">
-      <c r="A27" s="28"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-      <c r="AK27" s="15"/>
-      <c r="AL27" s="11"/>
-      <c r="AM27" s="10"/>
-      <c r="AN27" s="10"/>
-      <c r="AO27" s="10"/>
-      <c r="AP27" s="15"/>
-      <c r="AQ27" s="11"/>
-      <c r="AR27" s="10"/>
-      <c r="AS27" s="10"/>
-      <c r="AT27" s="10"/>
-      <c r="AU27" s="15"/>
-      <c r="AV27" s="11"/>
-      <c r="AW27" s="10"/>
-      <c r="AX27" s="10"/>
-      <c r="AY27" s="10"/>
-      <c r="AZ27" s="15"/>
-      <c r="BA27" s="11"/>
-      <c r="BB27" s="10"/>
-      <c r="BC27" s="10"/>
-      <c r="BD27" s="10"/>
-      <c r="BE27" s="15"/>
-      <c r="BF27" s="11"/>
-      <c r="BG27" s="10"/>
-      <c r="BH27" s="10"/>
-      <c r="BI27" s="10"/>
-      <c r="BJ27" s="15"/>
-      <c r="BK27" s="11"/>
-      <c r="BL27" s="10"/>
-      <c r="BM27" s="10"/>
-      <c r="BN27" s="10"/>
-      <c r="BO27" s="15"/>
-      <c r="BP27" s="11"/>
-      <c r="BQ27" s="10"/>
-      <c r="BR27" s="10"/>
-      <c r="BS27" s="10"/>
-      <c r="BT27" s="15"/>
-      <c r="BU27" s="11"/>
-      <c r="BV27" s="10"/>
-      <c r="BW27" s="10"/>
-      <c r="BX27" s="10"/>
-      <c r="BY27" s="15"/>
-      <c r="BZ27" s="11"/>
-      <c r="CA27" s="10"/>
-      <c r="CB27" s="10"/>
-      <c r="CC27" s="10"/>
-      <c r="CD27" s="15"/>
-      <c r="CE27" s="11"/>
-      <c r="CF27" s="10"/>
-      <c r="CG27" s="10"/>
-      <c r="CH27" s="10"/>
-      <c r="CI27" s="15"/>
-      <c r="CJ27" s="11"/>
-      <c r="CK27" s="10"/>
-      <c r="CL27" s="10"/>
-      <c r="CM27" s="10"/>
-      <c r="CN27" s="15"/>
-      <c r="CO27" s="11"/>
-      <c r="CP27" s="10"/>
-      <c r="CQ27" s="10"/>
-      <c r="CR27" s="10"/>
-      <c r="CS27" s="15"/>
-      <c r="CT27" s="11"/>
-      <c r="CU27" s="10"/>
-      <c r="CV27" s="10"/>
-      <c r="CW27" s="10"/>
-      <c r="CX27" s="15"/>
-      <c r="CY27" s="11"/>
-      <c r="CZ27" s="10"/>
-      <c r="DA27" s="10"/>
-      <c r="DB27" s="10"/>
-      <c r="DC27" s="15"/>
-      <c r="DD27" s="11"/>
-      <c r="DE27" s="10"/>
-      <c r="DF27" s="10"/>
-      <c r="DG27" s="10"/>
-      <c r="DH27" s="15"/>
-      <c r="DI27" s="11"/>
-      <c r="DJ27" s="10"/>
-      <c r="DK27" s="10"/>
-      <c r="DL27" s="10"/>
-      <c r="DM27" s="15"/>
-      <c r="DN27" s="11"/>
-      <c r="DO27" s="10"/>
-      <c r="DP27" s="10"/>
-      <c r="DQ27" s="10"/>
-      <c r="DR27" s="15"/>
-      <c r="DS27" s="11"/>
-      <c r="DT27" s="10"/>
-      <c r="DU27" s="10"/>
-      <c r="DV27" s="10"/>
-      <c r="DW27" s="15"/>
-      <c r="DX27" s="11"/>
-      <c r="DY27" s="10"/>
-      <c r="DZ27" s="10"/>
-      <c r="EA27" s="10"/>
-      <c r="EB27" s="15"/>
-      <c r="EC27" s="11"/>
-      <c r="ED27" s="10"/>
-      <c r="EE27" s="10"/>
-      <c r="EF27" s="10"/>
-      <c r="EG27" s="15"/>
-      <c r="EH27" s="11"/>
-      <c r="EI27" s="10"/>
-      <c r="EJ27" s="10"/>
-      <c r="EK27" s="10"/>
-      <c r="EL27" s="15"/>
+      <c r="B27" s="4"/>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="28" spans="1:142" ht="14.25" customHeight="1">
-      <c r="A28" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="20">
-        <v>2</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="15"/>
-      <c r="AG28" s="11"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="15"/>
-      <c r="AL28" s="11"/>
-      <c r="AM28" s="10"/>
-      <c r="AN28" s="10"/>
-      <c r="AO28" s="10"/>
-      <c r="AP28" s="15"/>
-      <c r="AQ28" s="11"/>
-      <c r="AR28" s="10"/>
-      <c r="AS28" s="10"/>
-      <c r="AT28" s="10"/>
-      <c r="AU28" s="15"/>
-      <c r="AV28" s="11"/>
-      <c r="AW28" s="10"/>
-      <c r="AX28" s="10"/>
-      <c r="AY28" s="10"/>
-      <c r="AZ28" s="15"/>
-      <c r="BA28" s="11"/>
-      <c r="BB28" s="10"/>
-      <c r="BC28" s="10"/>
-      <c r="BD28" s="10"/>
-      <c r="BE28" s="15"/>
-      <c r="BF28" s="11"/>
-      <c r="BG28" s="10"/>
-      <c r="BH28" s="10"/>
-      <c r="BI28" s="10"/>
-      <c r="BJ28" s="15"/>
-      <c r="BK28" s="11"/>
-      <c r="BL28" s="10"/>
-      <c r="BM28" s="10"/>
-      <c r="BN28" s="10"/>
-      <c r="BO28" s="15"/>
-      <c r="BP28" s="11"/>
-      <c r="BQ28" s="10"/>
-      <c r="BR28" s="10"/>
-      <c r="BS28" s="10"/>
-      <c r="BT28" s="15"/>
-      <c r="BU28" s="11"/>
-      <c r="BV28" s="10"/>
-      <c r="BW28" s="10"/>
-      <c r="BX28" s="10"/>
-      <c r="BY28" s="15"/>
-      <c r="BZ28" s="11"/>
-      <c r="CA28" s="10"/>
-      <c r="CB28" s="10"/>
-      <c r="CC28" s="10"/>
-      <c r="CD28" s="15"/>
-      <c r="CE28" s="11"/>
-      <c r="CF28" s="10"/>
-      <c r="CG28" s="10"/>
-      <c r="CH28" s="10"/>
-      <c r="CI28" s="15"/>
-      <c r="CJ28" s="11"/>
-      <c r="CK28" s="10"/>
-      <c r="CL28" s="10"/>
-      <c r="CM28" s="10"/>
-      <c r="CN28" s="15"/>
-      <c r="CO28" s="11"/>
-      <c r="CP28" s="10"/>
-      <c r="CQ28" s="10"/>
-      <c r="CR28" s="10"/>
-      <c r="CS28" s="15"/>
-      <c r="CT28" s="11"/>
-      <c r="CU28" s="10"/>
-      <c r="CV28" s="10"/>
-      <c r="CW28" s="10"/>
-      <c r="CX28" s="15"/>
-      <c r="CY28" s="11"/>
-      <c r="CZ28" s="10"/>
-      <c r="DA28" s="10"/>
-      <c r="DB28" s="10"/>
-      <c r="DC28" s="15"/>
-      <c r="DD28" s="11"/>
-      <c r="DE28" s="10"/>
-      <c r="DF28" s="10"/>
-      <c r="DG28" s="10"/>
-      <c r="DH28" s="15"/>
-      <c r="DI28" s="11"/>
-      <c r="DJ28" s="10"/>
-      <c r="DK28" s="10"/>
-      <c r="DL28" s="10"/>
-      <c r="DM28" s="15"/>
-      <c r="DN28" s="11"/>
-      <c r="DO28" s="10"/>
-      <c r="DP28" s="10"/>
-      <c r="DQ28" s="10"/>
-      <c r="DR28" s="15"/>
-      <c r="DS28" s="11"/>
-      <c r="DT28" s="10"/>
-      <c r="DU28" s="10"/>
-      <c r="DV28" s="10"/>
-      <c r="DW28" s="15"/>
-      <c r="DX28" s="11"/>
-      <c r="DY28" s="10"/>
-      <c r="DZ28" s="10"/>
-      <c r="EA28" s="10"/>
-      <c r="EB28" s="15"/>
-      <c r="EC28" s="11"/>
-      <c r="ED28" s="10"/>
-      <c r="EE28" s="10"/>
-      <c r="EF28" s="10"/>
-      <c r="EG28" s="15"/>
-      <c r="EH28" s="11"/>
-      <c r="EI28" s="10"/>
-      <c r="EJ28" s="10"/>
-      <c r="EK28" s="10"/>
-      <c r="EL28" s="15"/>
+    <row r="28" spans="1:142">
+      <c r="B28" s="6"/>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:142">
-      <c r="A29" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="20">
-        <v>2</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="15"/>
-      <c r="AG29" s="11"/>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="10"/>
-      <c r="AJ29" s="10"/>
-      <c r="AK29" s="15"/>
-      <c r="AL29" s="11"/>
-      <c r="AM29" s="10"/>
-      <c r="AN29" s="10"/>
-      <c r="AO29" s="10"/>
-      <c r="AP29" s="15"/>
-      <c r="AQ29" s="11"/>
-      <c r="AR29" s="10"/>
-      <c r="AS29" s="10"/>
-      <c r="AT29" s="10"/>
-      <c r="AU29" s="15"/>
-      <c r="AV29" s="11"/>
-      <c r="AW29" s="10"/>
-      <c r="AX29" s="10"/>
-      <c r="AY29" s="10"/>
-      <c r="AZ29" s="15"/>
-      <c r="BA29" s="11"/>
-      <c r="BB29" s="10"/>
-      <c r="BC29" s="10"/>
-      <c r="BD29" s="10"/>
-      <c r="BE29" s="15"/>
-      <c r="BF29" s="11"/>
-      <c r="BG29" s="10"/>
-      <c r="BH29" s="10"/>
-      <c r="BI29" s="10"/>
-      <c r="BJ29" s="15"/>
-      <c r="BK29" s="11"/>
-      <c r="BL29" s="10"/>
-      <c r="BM29" s="10"/>
-      <c r="BN29" s="10"/>
-      <c r="BO29" s="15"/>
-      <c r="BP29" s="11"/>
-      <c r="BQ29" s="10"/>
-      <c r="BR29" s="10"/>
-      <c r="BS29" s="10"/>
-      <c r="BT29" s="15"/>
-      <c r="BU29" s="11"/>
-      <c r="BV29" s="10"/>
-      <c r="BW29" s="10"/>
-      <c r="BX29" s="10"/>
-      <c r="BY29" s="15"/>
-      <c r="BZ29" s="11"/>
-      <c r="CA29" s="10"/>
-      <c r="CB29" s="10"/>
-      <c r="CC29" s="10"/>
-      <c r="CD29" s="15"/>
-      <c r="CE29" s="11"/>
-      <c r="CF29" s="10"/>
-      <c r="CG29" s="10"/>
-      <c r="CH29" s="10"/>
-      <c r="CI29" s="15"/>
-      <c r="CJ29" s="11"/>
-      <c r="CK29" s="10"/>
-      <c r="CL29" s="10"/>
-      <c r="CM29" s="10"/>
-      <c r="CN29" s="15"/>
-      <c r="CO29" s="11"/>
-      <c r="CP29" s="10"/>
-      <c r="CQ29" s="10"/>
-      <c r="CR29" s="10"/>
-      <c r="CS29" s="15"/>
-      <c r="CT29" s="11"/>
-      <c r="CU29" s="10"/>
-      <c r="CV29" s="10"/>
-      <c r="CW29" s="10"/>
-      <c r="CX29" s="15"/>
-      <c r="CY29" s="11"/>
-      <c r="CZ29" s="10"/>
-      <c r="DA29" s="10"/>
-      <c r="DB29" s="10"/>
-      <c r="DC29" s="15"/>
-      <c r="DD29" s="11"/>
-      <c r="DE29" s="10"/>
-      <c r="DF29" s="10"/>
-      <c r="DG29" s="10"/>
-      <c r="DH29" s="15"/>
-      <c r="DI29" s="11"/>
-      <c r="DJ29" s="10"/>
-      <c r="DK29" s="10"/>
-      <c r="DL29" s="10"/>
-      <c r="DM29" s="15"/>
-      <c r="DN29" s="11"/>
-      <c r="DO29" s="10"/>
-      <c r="DP29" s="10"/>
-      <c r="DQ29" s="10"/>
-      <c r="DR29" s="15"/>
-      <c r="DS29" s="11"/>
-      <c r="DT29" s="10"/>
-      <c r="DU29" s="10"/>
-      <c r="DV29" s="10"/>
-      <c r="DW29" s="15"/>
-      <c r="DX29" s="11"/>
-      <c r="DY29" s="10"/>
-      <c r="DZ29" s="10"/>
-      <c r="EA29" s="10"/>
-      <c r="EB29" s="15"/>
-      <c r="EC29" s="11"/>
-      <c r="ED29" s="10"/>
-      <c r="EE29" s="10"/>
-      <c r="EF29" s="10"/>
-      <c r="EG29" s="15"/>
-      <c r="EH29" s="11"/>
-      <c r="EI29" s="10"/>
-      <c r="EJ29" s="10"/>
-      <c r="EK29" s="10"/>
-      <c r="EL29" s="15"/>
-    </row>
-    <row r="30" spans="1:142">
-      <c r="A30" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="20">
-        <v>2</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="10"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="11"/>
-      <c r="AH30" s="10"/>
-      <c r="AI30" s="10"/>
-      <c r="AJ30" s="10"/>
-      <c r="AK30" s="15"/>
-      <c r="AL30" s="11"/>
-      <c r="AM30" s="10"/>
-      <c r="AN30" s="10"/>
-      <c r="AO30" s="10"/>
-      <c r="AP30" s="15"/>
-      <c r="AQ30" s="11"/>
-      <c r="AR30" s="10"/>
-      <c r="AS30" s="10"/>
-      <c r="AT30" s="10"/>
-      <c r="AU30" s="15"/>
-      <c r="AV30" s="11"/>
-      <c r="AW30" s="10"/>
-      <c r="AX30" s="10"/>
-      <c r="AY30" s="10"/>
-      <c r="AZ30" s="15"/>
-      <c r="BA30" s="11"/>
-      <c r="BB30" s="10"/>
-      <c r="BC30" s="10"/>
-      <c r="BD30" s="10"/>
-      <c r="BE30" s="15"/>
-      <c r="BF30" s="11"/>
-      <c r="BG30" s="10"/>
-      <c r="BH30" s="10"/>
-      <c r="BI30" s="10"/>
-      <c r="BJ30" s="15"/>
-      <c r="BK30" s="11"/>
-      <c r="BL30" s="10"/>
-      <c r="BM30" s="10"/>
-      <c r="BN30" s="10"/>
-      <c r="BO30" s="15"/>
-      <c r="BP30" s="11"/>
-      <c r="BQ30" s="10"/>
-      <c r="BR30" s="10"/>
-      <c r="BS30" s="10"/>
-      <c r="BT30" s="15"/>
-      <c r="BU30" s="11"/>
-      <c r="BV30" s="10"/>
-      <c r="BW30" s="10"/>
-      <c r="BX30" s="10"/>
-      <c r="BY30" s="15"/>
-      <c r="BZ30" s="11"/>
-      <c r="CA30" s="10"/>
-      <c r="CB30" s="10"/>
-      <c r="CC30" s="10"/>
-      <c r="CD30" s="15"/>
-      <c r="CE30" s="11"/>
-      <c r="CF30" s="10"/>
-      <c r="CG30" s="10"/>
-      <c r="CH30" s="10"/>
-      <c r="CI30" s="15"/>
-      <c r="CJ30" s="11"/>
-      <c r="CK30" s="10"/>
-      <c r="CL30" s="10"/>
-      <c r="CM30" s="10"/>
-      <c r="CN30" s="15"/>
-      <c r="CO30" s="11"/>
-      <c r="CP30" s="10"/>
-      <c r="CQ30" s="10"/>
-      <c r="CR30" s="10"/>
-      <c r="CS30" s="15"/>
-      <c r="CT30" s="11"/>
-      <c r="CU30" s="10"/>
-      <c r="CV30" s="10"/>
-      <c r="CW30" s="10"/>
-      <c r="CX30" s="15"/>
-      <c r="CY30" s="11"/>
-      <c r="CZ30" s="10"/>
-      <c r="DA30" s="10"/>
-      <c r="DB30" s="10"/>
-      <c r="DC30" s="15"/>
-      <c r="DD30" s="11"/>
-      <c r="DE30" s="10"/>
-      <c r="DF30" s="10"/>
-      <c r="DG30" s="10"/>
-      <c r="DH30" s="15"/>
-      <c r="DI30" s="11"/>
-      <c r="DJ30" s="10"/>
-      <c r="DK30" s="10"/>
-      <c r="DL30" s="10"/>
-      <c r="DM30" s="15"/>
-      <c r="DN30" s="11"/>
-      <c r="DO30" s="10"/>
-      <c r="DP30" s="10"/>
-      <c r="DQ30" s="10"/>
-      <c r="DR30" s="15"/>
-      <c r="DS30" s="11"/>
-      <c r="DT30" s="10"/>
-      <c r="DU30" s="10"/>
-      <c r="DV30" s="10"/>
-      <c r="DW30" s="15"/>
-      <c r="DX30" s="11"/>
-      <c r="DY30" s="10"/>
-      <c r="DZ30" s="10"/>
-      <c r="EA30" s="10"/>
-      <c r="EB30" s="15"/>
-      <c r="EC30" s="11"/>
-      <c r="ED30" s="10"/>
-      <c r="EE30" s="10"/>
-      <c r="EF30" s="10"/>
-      <c r="EG30" s="15"/>
-      <c r="EH30" s="11"/>
-      <c r="EI30" s="10"/>
-      <c r="EJ30" s="10"/>
-      <c r="EK30" s="10"/>
-      <c r="EL30" s="15"/>
-    </row>
-    <row r="31" spans="1:142">
-      <c r="A31" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="20">
-        <v>2</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="10"/>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="11"/>
-      <c r="AH31" s="10"/>
-      <c r="AI31" s="10"/>
-      <c r="AJ31" s="10"/>
-      <c r="AK31" s="15"/>
-      <c r="AL31" s="11"/>
-      <c r="AM31" s="10"/>
-      <c r="AN31" s="10"/>
-      <c r="AO31" s="10"/>
-      <c r="AP31" s="15"/>
-      <c r="AQ31" s="11"/>
-      <c r="AR31" s="10"/>
-      <c r="AS31" s="10"/>
-      <c r="AT31" s="10"/>
-      <c r="AU31" s="15"/>
-      <c r="AV31" s="11"/>
-      <c r="AW31" s="10"/>
-      <c r="AX31" s="10"/>
-      <c r="AY31" s="10"/>
-      <c r="AZ31" s="15"/>
-      <c r="BA31" s="11"/>
-      <c r="BB31" s="10"/>
-      <c r="BC31" s="10"/>
-      <c r="BD31" s="10"/>
-      <c r="BE31" s="15"/>
-      <c r="BF31" s="11"/>
-      <c r="BG31" s="10"/>
-      <c r="BH31" s="10"/>
-      <c r="BI31" s="10"/>
-      <c r="BJ31" s="15"/>
-      <c r="BK31" s="11"/>
-      <c r="BL31" s="10"/>
-      <c r="BM31" s="10"/>
-      <c r="BN31" s="10"/>
-      <c r="BO31" s="15"/>
-      <c r="BP31" s="11"/>
-      <c r="BQ31" s="10"/>
-      <c r="BR31" s="10"/>
-      <c r="BS31" s="10"/>
-      <c r="BT31" s="15"/>
-      <c r="BU31" s="11"/>
-      <c r="BV31" s="10"/>
-      <c r="BW31" s="10"/>
-      <c r="BX31" s="10"/>
-      <c r="BY31" s="15"/>
-      <c r="BZ31" s="11"/>
-      <c r="CA31" s="10"/>
-      <c r="CB31" s="10"/>
-      <c r="CC31" s="10"/>
-      <c r="CD31" s="15"/>
-      <c r="CE31" s="11"/>
-      <c r="CF31" s="10"/>
-      <c r="CG31" s="10"/>
-      <c r="CH31" s="10"/>
-      <c r="CI31" s="15"/>
-      <c r="CJ31" s="11"/>
-      <c r="CK31" s="10"/>
-      <c r="CL31" s="10"/>
-      <c r="CM31" s="10"/>
-      <c r="CN31" s="15"/>
-      <c r="CO31" s="11"/>
-      <c r="CP31" s="10"/>
-      <c r="CQ31" s="10"/>
-      <c r="CR31" s="10"/>
-      <c r="CS31" s="15"/>
-      <c r="CT31" s="11"/>
-      <c r="CU31" s="10"/>
-      <c r="CV31" s="10"/>
-      <c r="CW31" s="10"/>
-      <c r="CX31" s="15"/>
-      <c r="CY31" s="11"/>
-      <c r="CZ31" s="10"/>
-      <c r="DA31" s="10"/>
-      <c r="DB31" s="10"/>
-      <c r="DC31" s="15"/>
-      <c r="DD31" s="11"/>
-      <c r="DE31" s="10"/>
-      <c r="DF31" s="10"/>
-      <c r="DG31" s="10"/>
-      <c r="DH31" s="15"/>
-      <c r="DI31" s="11"/>
-      <c r="DJ31" s="10"/>
-      <c r="DK31" s="10"/>
-      <c r="DL31" s="10"/>
-      <c r="DM31" s="15"/>
-      <c r="DN31" s="11"/>
-      <c r="DO31" s="10"/>
-      <c r="DP31" s="10"/>
-      <c r="DQ31" s="10"/>
-      <c r="DR31" s="15"/>
-      <c r="DS31" s="11"/>
-      <c r="DT31" s="10"/>
-      <c r="DU31" s="10"/>
-      <c r="DV31" s="10"/>
-      <c r="DW31" s="15"/>
-      <c r="DX31" s="11"/>
-      <c r="DY31" s="10"/>
-      <c r="DZ31" s="10"/>
-      <c r="EA31" s="10"/>
-      <c r="EB31" s="15"/>
-      <c r="EC31" s="11"/>
-      <c r="ED31" s="10"/>
-      <c r="EE31" s="10"/>
-      <c r="EF31" s="10"/>
-      <c r="EG31" s="15"/>
-      <c r="EH31" s="11"/>
-      <c r="EI31" s="10"/>
-      <c r="EJ31" s="10"/>
-      <c r="EK31" s="10"/>
-      <c r="EL31" s="15"/>
-    </row>
-    <row r="32" spans="1:142">
-      <c r="A32" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="20">
-        <v>2</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="10"/>
-      <c r="AD32" s="10"/>
-      <c r="AE32" s="10"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="11"/>
-      <c r="AH32" s="10"/>
-      <c r="AI32" s="10"/>
-      <c r="AJ32" s="10"/>
-      <c r="AK32" s="15"/>
-      <c r="AL32" s="11"/>
-      <c r="AM32" s="10"/>
-      <c r="AN32" s="10"/>
-      <c r="AO32" s="10"/>
-      <c r="AP32" s="15"/>
-      <c r="AQ32" s="11"/>
-      <c r="AR32" s="10"/>
-      <c r="AS32" s="10"/>
-      <c r="AT32" s="10"/>
-      <c r="AU32" s="15"/>
-      <c r="AV32" s="11"/>
-      <c r="AW32" s="10"/>
-      <c r="AX32" s="10"/>
-      <c r="AY32" s="10"/>
-      <c r="AZ32" s="15"/>
-      <c r="BA32" s="11"/>
-      <c r="BB32" s="10"/>
-      <c r="BC32" s="10"/>
-      <c r="BD32" s="10"/>
-      <c r="BE32" s="15"/>
-      <c r="BF32" s="11"/>
-      <c r="BG32" s="10"/>
-      <c r="BH32" s="10"/>
-      <c r="BI32" s="10"/>
-      <c r="BJ32" s="15"/>
-      <c r="BK32" s="11"/>
-      <c r="BL32" s="10"/>
-      <c r="BM32" s="10"/>
-      <c r="BN32" s="10"/>
-      <c r="BO32" s="15"/>
-      <c r="BP32" s="11"/>
-      <c r="BQ32" s="10"/>
-      <c r="BR32" s="10"/>
-      <c r="BS32" s="10"/>
-      <c r="BT32" s="15"/>
-      <c r="BU32" s="11"/>
-      <c r="BV32" s="10"/>
-      <c r="BW32" s="10"/>
-      <c r="BX32" s="10"/>
-      <c r="BY32" s="15"/>
-      <c r="BZ32" s="11"/>
-      <c r="CA32" s="10"/>
-      <c r="CB32" s="10"/>
-      <c r="CC32" s="10"/>
-      <c r="CD32" s="15"/>
-      <c r="CE32" s="11"/>
-      <c r="CF32" s="10"/>
-      <c r="CG32" s="10"/>
-      <c r="CH32" s="10"/>
-      <c r="CI32" s="15"/>
-      <c r="CJ32" s="11"/>
-      <c r="CK32" s="10"/>
-      <c r="CL32" s="10"/>
-      <c r="CM32" s="10"/>
-      <c r="CN32" s="15"/>
-      <c r="CO32" s="11"/>
-      <c r="CP32" s="10"/>
-      <c r="CQ32" s="10"/>
-      <c r="CR32" s="10"/>
-      <c r="CS32" s="15"/>
-      <c r="CT32" s="11"/>
-      <c r="CU32" s="10"/>
-      <c r="CV32" s="10"/>
-      <c r="CW32" s="10"/>
-      <c r="CX32" s="15"/>
-      <c r="CY32" s="11"/>
-      <c r="CZ32" s="10"/>
-      <c r="DA32" s="10"/>
-      <c r="DB32" s="10"/>
-      <c r="DC32" s="15"/>
-      <c r="DD32" s="11"/>
-      <c r="DE32" s="10"/>
-      <c r="DF32" s="10"/>
-      <c r="DG32" s="10"/>
-      <c r="DH32" s="15"/>
-      <c r="DI32" s="11"/>
-      <c r="DJ32" s="10"/>
-      <c r="DK32" s="10"/>
-      <c r="DL32" s="10"/>
-      <c r="DM32" s="15"/>
-      <c r="DN32" s="11"/>
-      <c r="DO32" s="10"/>
-      <c r="DP32" s="10"/>
-      <c r="DQ32" s="10"/>
-      <c r="DR32" s="15"/>
-      <c r="DS32" s="11"/>
-      <c r="DT32" s="10"/>
-      <c r="DU32" s="10"/>
-      <c r="DV32" s="10"/>
-      <c r="DW32" s="15"/>
-      <c r="DX32" s="11"/>
-      <c r="DY32" s="10"/>
-      <c r="DZ32" s="10"/>
-      <c r="EA32" s="10"/>
-      <c r="EB32" s="15"/>
-      <c r="EC32" s="11"/>
-      <c r="ED32" s="10"/>
-      <c r="EE32" s="10"/>
-      <c r="EF32" s="10"/>
-      <c r="EG32" s="15"/>
-      <c r="EH32" s="11"/>
-      <c r="EI32" s="10"/>
-      <c r="EJ32" s="10"/>
-      <c r="EK32" s="10"/>
-      <c r="EL32" s="15"/>
-    </row>
-    <row r="33" spans="1:142">
-      <c r="A33" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="20">
-        <v>2</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="15"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="15"/>
-      <c r="AG33" s="11"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="10"/>
-      <c r="AJ33" s="10"/>
-      <c r="AK33" s="15"/>
-      <c r="AL33" s="11"/>
-      <c r="AM33" s="10"/>
-      <c r="AN33" s="10"/>
-      <c r="AO33" s="10"/>
-      <c r="AP33" s="15"/>
-      <c r="AQ33" s="11"/>
-      <c r="AR33" s="10"/>
-      <c r="AS33" s="10"/>
-      <c r="AT33" s="10"/>
-      <c r="AU33" s="15"/>
-      <c r="AV33" s="11"/>
-      <c r="AW33" s="10"/>
-      <c r="AX33" s="10"/>
-      <c r="AY33" s="10"/>
-      <c r="AZ33" s="15"/>
-      <c r="BA33" s="11"/>
-      <c r="BB33" s="10"/>
-      <c r="BC33" s="10"/>
-      <c r="BD33" s="10"/>
-      <c r="BE33" s="15"/>
-      <c r="BF33" s="11"/>
-      <c r="BG33" s="10"/>
-      <c r="BH33" s="10"/>
-      <c r="BI33" s="10"/>
-      <c r="BJ33" s="15"/>
-      <c r="BK33" s="11"/>
-      <c r="BL33" s="10"/>
-      <c r="BM33" s="10"/>
-      <c r="BN33" s="10"/>
-      <c r="BO33" s="15"/>
-      <c r="BP33" s="11"/>
-      <c r="BQ33" s="10"/>
-      <c r="BR33" s="10"/>
-      <c r="BS33" s="10"/>
-      <c r="BT33" s="15"/>
-      <c r="BU33" s="11"/>
-      <c r="BV33" s="10"/>
-      <c r="BW33" s="10"/>
-      <c r="BX33" s="10"/>
-      <c r="BY33" s="15"/>
-      <c r="BZ33" s="11"/>
-      <c r="CA33" s="10"/>
-      <c r="CB33" s="10"/>
-      <c r="CC33" s="10"/>
-      <c r="CD33" s="15"/>
-      <c r="CE33" s="11"/>
-      <c r="CF33" s="10"/>
-      <c r="CG33" s="10"/>
-      <c r="CH33" s="10"/>
-      <c r="CI33" s="15"/>
-      <c r="CJ33" s="11"/>
-      <c r="CK33" s="10"/>
-      <c r="CL33" s="10"/>
-      <c r="CM33" s="10"/>
-      <c r="CN33" s="15"/>
-      <c r="CO33" s="11"/>
-      <c r="CP33" s="10"/>
-      <c r="CQ33" s="10"/>
-      <c r="CR33" s="10"/>
-      <c r="CS33" s="15"/>
-      <c r="CT33" s="11"/>
-      <c r="CU33" s="10"/>
-      <c r="CV33" s="10"/>
-      <c r="CW33" s="10"/>
-      <c r="CX33" s="15"/>
-      <c r="CY33" s="11"/>
-      <c r="CZ33" s="10"/>
-      <c r="DA33" s="10"/>
-      <c r="DB33" s="10"/>
-      <c r="DC33" s="15"/>
-      <c r="DD33" s="11"/>
-      <c r="DE33" s="10"/>
-      <c r="DF33" s="10"/>
-      <c r="DG33" s="10"/>
-      <c r="DH33" s="15"/>
-      <c r="DI33" s="11"/>
-      <c r="DJ33" s="10"/>
-      <c r="DK33" s="10"/>
-      <c r="DL33" s="10"/>
-      <c r="DM33" s="15"/>
-      <c r="DN33" s="11"/>
-      <c r="DO33" s="10"/>
-      <c r="DP33" s="10"/>
-      <c r="DQ33" s="10"/>
-      <c r="DR33" s="15"/>
-      <c r="DS33" s="11"/>
-      <c r="DT33" s="10"/>
-      <c r="DU33" s="10"/>
-      <c r="DV33" s="10"/>
-      <c r="DW33" s="15"/>
-      <c r="DX33" s="11"/>
-      <c r="DY33" s="10"/>
-      <c r="DZ33" s="10"/>
-      <c r="EA33" s="10"/>
-      <c r="EB33" s="15"/>
-      <c r="EC33" s="11"/>
-      <c r="ED33" s="10"/>
-      <c r="EE33" s="10"/>
-      <c r="EF33" s="10"/>
-      <c r="EG33" s="15"/>
-      <c r="EH33" s="11"/>
-      <c r="EI33" s="10"/>
-      <c r="EJ33" s="10"/>
-      <c r="EK33" s="10"/>
-      <c r="EL33" s="15"/>
-    </row>
-    <row r="34" spans="1:142">
-      <c r="A34" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="20">
-        <v>2</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="15"/>
-      <c r="AG34" s="11"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10"/>
-      <c r="AK34" s="15"/>
-      <c r="AL34" s="11"/>
-      <c r="AM34" s="10"/>
-      <c r="AN34" s="10"/>
-      <c r="AO34" s="10"/>
-      <c r="AP34" s="15"/>
-      <c r="AQ34" s="11"/>
-      <c r="AR34" s="10"/>
-      <c r="AS34" s="10"/>
-      <c r="AT34" s="10"/>
-      <c r="AU34" s="15"/>
-      <c r="AV34" s="11"/>
-      <c r="AW34" s="10"/>
-      <c r="AX34" s="10"/>
-      <c r="AY34" s="10"/>
-      <c r="AZ34" s="15"/>
-      <c r="BA34" s="11"/>
-      <c r="BB34" s="10"/>
-      <c r="BC34" s="10"/>
-      <c r="BD34" s="10"/>
-      <c r="BE34" s="15"/>
-      <c r="BF34" s="11"/>
-      <c r="BG34" s="10"/>
-      <c r="BH34" s="10"/>
-      <c r="BI34" s="10"/>
-      <c r="BJ34" s="15"/>
-      <c r="BK34" s="11"/>
-      <c r="BL34" s="10"/>
-      <c r="BM34" s="10"/>
-      <c r="BN34" s="10"/>
-      <c r="BO34" s="15"/>
-      <c r="BP34" s="11"/>
-      <c r="BQ34" s="10"/>
-      <c r="BR34" s="10"/>
-      <c r="BS34" s="10"/>
-      <c r="BT34" s="15"/>
-      <c r="BU34" s="11"/>
-      <c r="BV34" s="10"/>
-      <c r="BW34" s="10"/>
-      <c r="BX34" s="10"/>
-      <c r="BY34" s="15"/>
-      <c r="BZ34" s="11"/>
-      <c r="CA34" s="10"/>
-      <c r="CB34" s="10"/>
-      <c r="CC34" s="10"/>
-      <c r="CD34" s="15"/>
-      <c r="CE34" s="11"/>
-      <c r="CF34" s="10"/>
-      <c r="CG34" s="10"/>
-      <c r="CH34" s="10"/>
-      <c r="CI34" s="15"/>
-      <c r="CJ34" s="11"/>
-      <c r="CK34" s="10"/>
-      <c r="CL34" s="10"/>
-      <c r="CM34" s="10"/>
-      <c r="CN34" s="15"/>
-      <c r="CO34" s="11"/>
-      <c r="CP34" s="10"/>
-      <c r="CQ34" s="10"/>
-      <c r="CR34" s="10"/>
-      <c r="CS34" s="15"/>
-      <c r="CT34" s="11"/>
-      <c r="CU34" s="10"/>
-      <c r="CV34" s="10"/>
-      <c r="CW34" s="10"/>
-      <c r="CX34" s="15"/>
-      <c r="CY34" s="11"/>
-      <c r="CZ34" s="10"/>
-      <c r="DA34" s="10"/>
-      <c r="DB34" s="10"/>
-      <c r="DC34" s="15"/>
-      <c r="DD34" s="11"/>
-      <c r="DE34" s="10"/>
-      <c r="DF34" s="10"/>
-      <c r="DG34" s="10"/>
-      <c r="DH34" s="15"/>
-      <c r="DI34" s="11"/>
-      <c r="DJ34" s="10"/>
-      <c r="DK34" s="10"/>
-      <c r="DL34" s="10"/>
-      <c r="DM34" s="15"/>
-      <c r="DN34" s="11"/>
-      <c r="DO34" s="10"/>
-      <c r="DP34" s="10"/>
-      <c r="DQ34" s="10"/>
-      <c r="DR34" s="15"/>
-      <c r="DS34" s="11"/>
-      <c r="DT34" s="10"/>
-      <c r="DU34" s="10"/>
-      <c r="DV34" s="10"/>
-      <c r="DW34" s="15"/>
-      <c r="DX34" s="11"/>
-      <c r="DY34" s="10"/>
-      <c r="DZ34" s="10"/>
-      <c r="EA34" s="10"/>
-      <c r="EB34" s="15"/>
-      <c r="EC34" s="11"/>
-      <c r="ED34" s="10"/>
-      <c r="EE34" s="10"/>
-      <c r="EF34" s="10"/>
-      <c r="EG34" s="15"/>
-      <c r="EH34" s="11"/>
-      <c r="EI34" s="10"/>
-      <c r="EJ34" s="10"/>
-      <c r="EK34" s="10"/>
-      <c r="EL34" s="15"/>
-    </row>
-    <row r="35" spans="1:142">
-      <c r="A35" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="20">
-        <v>2</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="15"/>
-      <c r="AG35" s="11"/>
-      <c r="AH35" s="10"/>
-      <c r="AI35" s="10"/>
-      <c r="AJ35" s="10"/>
-      <c r="AK35" s="15"/>
-      <c r="AL35" s="11"/>
-      <c r="AM35" s="10"/>
-      <c r="AN35" s="10"/>
-      <c r="AO35" s="10"/>
-      <c r="AP35" s="15"/>
-      <c r="AQ35" s="11"/>
-      <c r="AR35" s="10"/>
-      <c r="AS35" s="10"/>
-      <c r="AT35" s="10"/>
-      <c r="AU35" s="15"/>
-      <c r="AV35" s="11"/>
-      <c r="AW35" s="10"/>
-      <c r="AX35" s="10"/>
-      <c r="AY35" s="10"/>
-      <c r="AZ35" s="15"/>
-      <c r="BA35" s="11"/>
-      <c r="BB35" s="10"/>
-      <c r="BC35" s="10"/>
-      <c r="BD35" s="10"/>
-      <c r="BE35" s="15"/>
-      <c r="BF35" s="11"/>
-      <c r="BG35" s="10"/>
-      <c r="BH35" s="10"/>
-      <c r="BI35" s="10"/>
-      <c r="BJ35" s="15"/>
-      <c r="BK35" s="11"/>
-      <c r="BL35" s="10"/>
-      <c r="BM35" s="10"/>
-      <c r="BN35" s="10"/>
-      <c r="BO35" s="15"/>
-      <c r="BP35" s="11"/>
-      <c r="BQ35" s="10"/>
-      <c r="BR35" s="10"/>
-      <c r="BS35" s="10"/>
-      <c r="BT35" s="15"/>
-      <c r="BU35" s="11"/>
-      <c r="BV35" s="10"/>
-      <c r="BW35" s="10"/>
-      <c r="BX35" s="10"/>
-      <c r="BY35" s="15"/>
-      <c r="BZ35" s="11"/>
-      <c r="CA35" s="10"/>
-      <c r="CB35" s="10"/>
-      <c r="CC35" s="10"/>
-      <c r="CD35" s="15"/>
-      <c r="CE35" s="11"/>
-      <c r="CF35" s="10"/>
-      <c r="CG35" s="10"/>
-      <c r="CH35" s="10"/>
-      <c r="CI35" s="15"/>
-      <c r="CJ35" s="11"/>
-      <c r="CK35" s="10"/>
-      <c r="CL35" s="10"/>
-      <c r="CM35" s="10"/>
-      <c r="CN35" s="15"/>
-      <c r="CO35" s="11"/>
-      <c r="CP35" s="10"/>
-      <c r="CQ35" s="10"/>
-      <c r="CR35" s="10"/>
-      <c r="CS35" s="15"/>
-      <c r="CT35" s="11"/>
-      <c r="CU35" s="10"/>
-      <c r="CV35" s="10"/>
-      <c r="CW35" s="10"/>
-      <c r="CX35" s="15"/>
-      <c r="CY35" s="11"/>
-      <c r="CZ35" s="10"/>
-      <c r="DA35" s="10"/>
-      <c r="DB35" s="10"/>
-      <c r="DC35" s="15"/>
-      <c r="DD35" s="11"/>
-      <c r="DE35" s="10"/>
-      <c r="DF35" s="10"/>
-      <c r="DG35" s="10"/>
-      <c r="DH35" s="15"/>
-      <c r="DI35" s="11"/>
-      <c r="DJ35" s="10"/>
-      <c r="DK35" s="10"/>
-      <c r="DL35" s="10"/>
-      <c r="DM35" s="15"/>
-      <c r="DN35" s="11"/>
-      <c r="DO35" s="10"/>
-      <c r="DP35" s="10"/>
-      <c r="DQ35" s="10"/>
-      <c r="DR35" s="15"/>
-      <c r="DS35" s="11"/>
-      <c r="DT35" s="10"/>
-      <c r="DU35" s="10"/>
-      <c r="DV35" s="10"/>
-      <c r="DW35" s="15"/>
-      <c r="DX35" s="11"/>
-      <c r="DY35" s="10"/>
-      <c r="DZ35" s="10"/>
-      <c r="EA35" s="10"/>
-      <c r="EB35" s="15"/>
-      <c r="EC35" s="11"/>
-      <c r="ED35" s="10"/>
-      <c r="EE35" s="10"/>
-      <c r="EF35" s="10"/>
-      <c r="EG35" s="15"/>
-      <c r="EH35" s="11"/>
-      <c r="EI35" s="10"/>
-      <c r="EJ35" s="10"/>
-      <c r="EK35" s="10"/>
-      <c r="EL35" s="15"/>
-    </row>
-    <row r="36" spans="1:142">
-      <c r="A36" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="20">
-        <v>2</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="10"/>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="10"/>
-      <c r="AF36" s="15"/>
-      <c r="AG36" s="11"/>
-      <c r="AH36" s="10"/>
-      <c r="AI36" s="10"/>
-      <c r="AJ36" s="10"/>
-      <c r="AK36" s="15"/>
-      <c r="AL36" s="11"/>
-      <c r="AM36" s="10"/>
-      <c r="AN36" s="10"/>
-      <c r="AO36" s="10"/>
-      <c r="AP36" s="15"/>
-      <c r="AQ36" s="11"/>
-      <c r="AR36" s="10"/>
-      <c r="AS36" s="10"/>
-      <c r="AT36" s="10"/>
-      <c r="AU36" s="15"/>
-      <c r="AV36" s="11"/>
-      <c r="AW36" s="10"/>
-      <c r="AX36" s="10"/>
-      <c r="AY36" s="10"/>
-      <c r="AZ36" s="15"/>
-      <c r="BA36" s="11"/>
-      <c r="BB36" s="10"/>
-      <c r="BC36" s="10"/>
-      <c r="BD36" s="10"/>
-      <c r="BE36" s="15"/>
-      <c r="BF36" s="11"/>
-      <c r="BG36" s="10"/>
-      <c r="BH36" s="10"/>
-      <c r="BI36" s="10"/>
-      <c r="BJ36" s="15"/>
-      <c r="BK36" s="11"/>
-      <c r="BL36" s="10"/>
-      <c r="BM36" s="10"/>
-      <c r="BN36" s="10"/>
-      <c r="BO36" s="15"/>
-      <c r="BP36" s="11"/>
-      <c r="BQ36" s="10"/>
-      <c r="BR36" s="10"/>
-      <c r="BS36" s="10"/>
-      <c r="BT36" s="15"/>
-      <c r="BU36" s="11"/>
-      <c r="BV36" s="10"/>
-      <c r="BW36" s="10"/>
-      <c r="BX36" s="10"/>
-      <c r="BY36" s="15"/>
-      <c r="BZ36" s="11"/>
-      <c r="CA36" s="10"/>
-      <c r="CB36" s="10"/>
-      <c r="CC36" s="10"/>
-      <c r="CD36" s="15"/>
-      <c r="CE36" s="11"/>
-      <c r="CF36" s="10"/>
-      <c r="CG36" s="10"/>
-      <c r="CH36" s="10"/>
-      <c r="CI36" s="15"/>
-      <c r="CJ36" s="11"/>
-      <c r="CK36" s="10"/>
-      <c r="CL36" s="10"/>
-      <c r="CM36" s="10"/>
-      <c r="CN36" s="15"/>
-      <c r="CO36" s="11"/>
-      <c r="CP36" s="10"/>
-      <c r="CQ36" s="10"/>
-      <c r="CR36" s="10"/>
-      <c r="CS36" s="15"/>
-      <c r="CT36" s="11"/>
-      <c r="CU36" s="10"/>
-      <c r="CV36" s="10"/>
-      <c r="CW36" s="10"/>
-      <c r="CX36" s="15"/>
-      <c r="CY36" s="11"/>
-      <c r="CZ36" s="10"/>
-      <c r="DA36" s="10"/>
-      <c r="DB36" s="10"/>
-      <c r="DC36" s="15"/>
-      <c r="DD36" s="11"/>
-      <c r="DE36" s="10"/>
-      <c r="DF36" s="10"/>
-      <c r="DG36" s="10"/>
-      <c r="DH36" s="15"/>
-      <c r="DI36" s="11"/>
-      <c r="DJ36" s="10"/>
-      <c r="DK36" s="10"/>
-      <c r="DL36" s="10"/>
-      <c r="DM36" s="15"/>
-      <c r="DN36" s="11"/>
-      <c r="DO36" s="10"/>
-      <c r="DP36" s="10"/>
-      <c r="DQ36" s="10"/>
-      <c r="DR36" s="15"/>
-      <c r="DS36" s="11"/>
-      <c r="DT36" s="10"/>
-      <c r="DU36" s="10"/>
-      <c r="DV36" s="10"/>
-      <c r="DW36" s="15"/>
-      <c r="DX36" s="11"/>
-      <c r="DY36" s="10"/>
-      <c r="DZ36" s="10"/>
-      <c r="EA36" s="10"/>
-      <c r="EB36" s="15"/>
-      <c r="EC36" s="11"/>
-      <c r="ED36" s="10"/>
-      <c r="EE36" s="10"/>
-      <c r="EF36" s="10"/>
-      <c r="EG36" s="15"/>
-      <c r="EH36" s="11"/>
-      <c r="EI36" s="10"/>
-      <c r="EJ36" s="10"/>
-      <c r="EK36" s="10"/>
-      <c r="EL36" s="15"/>
-    </row>
-    <row r="37" spans="1:142">
-      <c r="A37" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="20">
-        <v>2</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="15"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="10"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="10"/>
-      <c r="AF37" s="15"/>
-      <c r="AG37" s="11"/>
-      <c r="AH37" s="10"/>
-      <c r="AI37" s="10"/>
-      <c r="AJ37" s="10"/>
-      <c r="AK37" s="15"/>
-      <c r="AL37" s="11"/>
-      <c r="AM37" s="10"/>
-      <c r="AN37" s="10"/>
-      <c r="AO37" s="10"/>
-      <c r="AP37" s="15"/>
-      <c r="AQ37" s="11"/>
-      <c r="AR37" s="10"/>
-      <c r="AS37" s="10"/>
-      <c r="AT37" s="10"/>
-      <c r="AU37" s="15"/>
-      <c r="AV37" s="11"/>
-      <c r="AW37" s="10"/>
-      <c r="AX37" s="10"/>
-      <c r="AY37" s="10"/>
-      <c r="AZ37" s="15"/>
-      <c r="BA37" s="11"/>
-      <c r="BB37" s="10"/>
-      <c r="BC37" s="10"/>
-      <c r="BD37" s="10"/>
-      <c r="BE37" s="15"/>
-      <c r="BF37" s="11"/>
-      <c r="BG37" s="10"/>
-      <c r="BH37" s="10"/>
-      <c r="BI37" s="10"/>
-      <c r="BJ37" s="15"/>
-      <c r="BK37" s="11"/>
-      <c r="BL37" s="10"/>
-      <c r="BM37" s="10"/>
-      <c r="BN37" s="10"/>
-      <c r="BO37" s="15"/>
-      <c r="BP37" s="11"/>
-      <c r="BQ37" s="10"/>
-      <c r="BR37" s="10"/>
-      <c r="BS37" s="10"/>
-      <c r="BT37" s="15"/>
-      <c r="BU37" s="11"/>
-      <c r="BV37" s="10"/>
-      <c r="BW37" s="10"/>
-      <c r="BX37" s="10"/>
-      <c r="BY37" s="15"/>
-      <c r="BZ37" s="11"/>
-      <c r="CA37" s="10"/>
-      <c r="CB37" s="10"/>
-      <c r="CC37" s="10"/>
-      <c r="CD37" s="15"/>
-      <c r="CE37" s="11"/>
-      <c r="CF37" s="10"/>
-      <c r="CG37" s="10"/>
-      <c r="CH37" s="10"/>
-      <c r="CI37" s="15"/>
-      <c r="CJ37" s="11"/>
-      <c r="CK37" s="10"/>
-      <c r="CL37" s="10"/>
-      <c r="CM37" s="10"/>
-      <c r="CN37" s="15"/>
-      <c r="CO37" s="11"/>
-      <c r="CP37" s="10"/>
-      <c r="CQ37" s="10"/>
-      <c r="CR37" s="10"/>
-      <c r="CS37" s="15"/>
-      <c r="CT37" s="11"/>
-      <c r="CU37" s="10"/>
-      <c r="CV37" s="10"/>
-      <c r="CW37" s="10"/>
-      <c r="CX37" s="15"/>
-      <c r="CY37" s="11"/>
-      <c r="CZ37" s="10"/>
-      <c r="DA37" s="10"/>
-      <c r="DB37" s="10"/>
-      <c r="DC37" s="15"/>
-      <c r="DD37" s="11"/>
-      <c r="DE37" s="10"/>
-      <c r="DF37" s="10"/>
-      <c r="DG37" s="10"/>
-      <c r="DH37" s="15"/>
-      <c r="DI37" s="11"/>
-      <c r="DJ37" s="10"/>
-      <c r="DK37" s="10"/>
-      <c r="DL37" s="10"/>
-      <c r="DM37" s="15"/>
-      <c r="DN37" s="11"/>
-      <c r="DO37" s="10"/>
-      <c r="DP37" s="10"/>
-      <c r="DQ37" s="10"/>
-      <c r="DR37" s="15"/>
-      <c r="DS37" s="11"/>
-      <c r="DT37" s="10"/>
-      <c r="DU37" s="10"/>
-      <c r="DV37" s="10"/>
-      <c r="DW37" s="15"/>
-      <c r="DX37" s="11"/>
-      <c r="DY37" s="10"/>
-      <c r="DZ37" s="10"/>
-      <c r="EA37" s="10"/>
-      <c r="EB37" s="15"/>
-      <c r="EC37" s="11"/>
-      <c r="ED37" s="10"/>
-      <c r="EE37" s="10"/>
-      <c r="EF37" s="10"/>
-      <c r="EG37" s="15"/>
-      <c r="EH37" s="11"/>
-      <c r="EI37" s="10"/>
-      <c r="EJ37" s="10"/>
-      <c r="EK37" s="10"/>
-      <c r="EL37" s="15"/>
-    </row>
-    <row r="38" spans="1:142">
-      <c r="A38" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="20">
-        <v>2</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="15"/>
-      <c r="AG38" s="11"/>
-      <c r="AH38" s="10"/>
-      <c r="AI38" s="10"/>
-      <c r="AJ38" s="10"/>
-      <c r="AK38" s="15"/>
-      <c r="AL38" s="11"/>
-      <c r="AM38" s="10"/>
-      <c r="AN38" s="10"/>
-      <c r="AO38" s="10"/>
-      <c r="AP38" s="15"/>
-      <c r="AQ38" s="11"/>
-      <c r="AR38" s="10"/>
-      <c r="AS38" s="10"/>
-      <c r="AT38" s="10"/>
-      <c r="AU38" s="15"/>
-      <c r="AV38" s="11"/>
-      <c r="AW38" s="10"/>
-      <c r="AX38" s="10"/>
-      <c r="AY38" s="10"/>
-      <c r="AZ38" s="15"/>
-      <c r="BA38" s="11"/>
-      <c r="BB38" s="10"/>
-      <c r="BC38" s="10"/>
-      <c r="BD38" s="10"/>
-      <c r="BE38" s="15"/>
-      <c r="BF38" s="11"/>
-      <c r="BG38" s="10"/>
-      <c r="BH38" s="10"/>
-      <c r="BI38" s="10"/>
-      <c r="BJ38" s="15"/>
-      <c r="BK38" s="11"/>
-      <c r="BL38" s="10"/>
-      <c r="BM38" s="10"/>
-      <c r="BN38" s="10"/>
-      <c r="BO38" s="15"/>
-      <c r="BP38" s="11"/>
-      <c r="BQ38" s="10"/>
-      <c r="BR38" s="10"/>
-      <c r="BS38" s="10"/>
-      <c r="BT38" s="15"/>
-      <c r="BU38" s="11"/>
-      <c r="BV38" s="10"/>
-      <c r="BW38" s="10"/>
-      <c r="BX38" s="10"/>
-      <c r="BY38" s="15"/>
-      <c r="BZ38" s="11"/>
-      <c r="CA38" s="10"/>
-      <c r="CB38" s="10"/>
-      <c r="CC38" s="10"/>
-      <c r="CD38" s="15"/>
-      <c r="CE38" s="11"/>
-      <c r="CF38" s="10"/>
-      <c r="CG38" s="10"/>
-      <c r="CH38" s="10"/>
-      <c r="CI38" s="15"/>
-      <c r="CJ38" s="11"/>
-      <c r="CK38" s="10"/>
-      <c r="CL38" s="10"/>
-      <c r="CM38" s="10"/>
-      <c r="CN38" s="15"/>
-      <c r="CO38" s="11"/>
-      <c r="CP38" s="10"/>
-      <c r="CQ38" s="10"/>
-      <c r="CR38" s="10"/>
-      <c r="CS38" s="15"/>
-      <c r="CT38" s="11"/>
-      <c r="CU38" s="10"/>
-      <c r="CV38" s="10"/>
-      <c r="CW38" s="10"/>
-      <c r="CX38" s="15"/>
-      <c r="CY38" s="11"/>
-      <c r="CZ38" s="10"/>
-      <c r="DA38" s="10"/>
-      <c r="DB38" s="10"/>
-      <c r="DC38" s="15"/>
-      <c r="DD38" s="11"/>
-      <c r="DE38" s="10"/>
-      <c r="DF38" s="10"/>
-      <c r="DG38" s="10"/>
-      <c r="DH38" s="15"/>
-      <c r="DI38" s="11"/>
-      <c r="DJ38" s="10"/>
-      <c r="DK38" s="10"/>
-      <c r="DL38" s="10"/>
-      <c r="DM38" s="15"/>
-      <c r="DN38" s="11"/>
-      <c r="DO38" s="10"/>
-      <c r="DP38" s="10"/>
-      <c r="DQ38" s="10"/>
-      <c r="DR38" s="15"/>
-      <c r="DS38" s="11"/>
-      <c r="DT38" s="10"/>
-      <c r="DU38" s="10"/>
-      <c r="DV38" s="10"/>
-      <c r="DW38" s="15"/>
-      <c r="DX38" s="11"/>
-      <c r="DY38" s="10"/>
-      <c r="DZ38" s="10"/>
-      <c r="EA38" s="10"/>
-      <c r="EB38" s="15"/>
-      <c r="EC38" s="11"/>
-      <c r="ED38" s="10"/>
-      <c r="EE38" s="10"/>
-      <c r="EF38" s="10"/>
-      <c r="EG38" s="15"/>
-      <c r="EH38" s="11"/>
-      <c r="EI38" s="10"/>
-      <c r="EJ38" s="10"/>
-      <c r="EK38" s="10"/>
-      <c r="EL38" s="15"/>
-    </row>
-    <row r="39" spans="1:142">
-      <c r="A39" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="20">
-        <v>2</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="11"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="11"/>
-      <c r="AH39" s="10"/>
-      <c r="AI39" s="10"/>
-      <c r="AJ39" s="10"/>
-      <c r="AK39" s="15"/>
-      <c r="AL39" s="11"/>
-      <c r="AM39" s="10"/>
-      <c r="AN39" s="10"/>
-      <c r="AO39" s="10"/>
-      <c r="AP39" s="15"/>
-      <c r="AQ39" s="11"/>
-      <c r="AR39" s="10"/>
-      <c r="AS39" s="10"/>
-      <c r="AT39" s="10"/>
-      <c r="AU39" s="15"/>
-      <c r="AV39" s="11"/>
-      <c r="AW39" s="10"/>
-      <c r="AX39" s="10"/>
-      <c r="AY39" s="10"/>
-      <c r="AZ39" s="15"/>
-      <c r="BA39" s="11"/>
-      <c r="BB39" s="10"/>
-      <c r="BC39" s="10"/>
-      <c r="BD39" s="10"/>
-      <c r="BE39" s="15"/>
-      <c r="BF39" s="11"/>
-      <c r="BG39" s="10"/>
-      <c r="BH39" s="10"/>
-      <c r="BI39" s="10"/>
-      <c r="BJ39" s="15"/>
-      <c r="BK39" s="11"/>
-      <c r="BL39" s="10"/>
-      <c r="BM39" s="10"/>
-      <c r="BN39" s="10"/>
-      <c r="BO39" s="15"/>
-      <c r="BP39" s="11"/>
-      <c r="BQ39" s="10"/>
-      <c r="BR39" s="10"/>
-      <c r="BS39" s="10"/>
-      <c r="BT39" s="15"/>
-      <c r="BU39" s="11"/>
-      <c r="BV39" s="10"/>
-      <c r="BW39" s="10"/>
-      <c r="BX39" s="10"/>
-      <c r="BY39" s="15"/>
-      <c r="BZ39" s="11"/>
-      <c r="CA39" s="10"/>
-      <c r="CB39" s="10"/>
-      <c r="CC39" s="10"/>
-      <c r="CD39" s="15"/>
-      <c r="CE39" s="11"/>
-      <c r="CF39" s="10"/>
-      <c r="CG39" s="10"/>
-      <c r="CH39" s="10"/>
-      <c r="CI39" s="15"/>
-      <c r="CJ39" s="11"/>
-      <c r="CK39" s="10"/>
-      <c r="CL39" s="10"/>
-      <c r="CM39" s="10"/>
-      <c r="CN39" s="15"/>
-      <c r="CO39" s="11"/>
-      <c r="CP39" s="10"/>
-      <c r="CQ39" s="10"/>
-      <c r="CR39" s="10"/>
-      <c r="CS39" s="15"/>
-      <c r="CT39" s="11"/>
-      <c r="CU39" s="10"/>
-      <c r="CV39" s="10"/>
-      <c r="CW39" s="10"/>
-      <c r="CX39" s="15"/>
-      <c r="CY39" s="11"/>
-      <c r="CZ39" s="10"/>
-      <c r="DA39" s="10"/>
-      <c r="DB39" s="10"/>
-      <c r="DC39" s="15"/>
-      <c r="DD39" s="11"/>
-      <c r="DE39" s="10"/>
-      <c r="DF39" s="10"/>
-      <c r="DG39" s="10"/>
-      <c r="DH39" s="15"/>
-      <c r="DI39" s="11"/>
-      <c r="DJ39" s="10"/>
-      <c r="DK39" s="10"/>
-      <c r="DL39" s="10"/>
-      <c r="DM39" s="15"/>
-      <c r="DN39" s="11"/>
-      <c r="DO39" s="10"/>
-      <c r="DP39" s="10"/>
-      <c r="DQ39" s="10"/>
-      <c r="DR39" s="15"/>
-      <c r="DS39" s="11"/>
-      <c r="DT39" s="10"/>
-      <c r="DU39" s="10"/>
-      <c r="DV39" s="10"/>
-      <c r="DW39" s="15"/>
-      <c r="DX39" s="11"/>
-      <c r="DY39" s="10"/>
-      <c r="DZ39" s="10"/>
-      <c r="EA39" s="10"/>
-      <c r="EB39" s="15"/>
-      <c r="EC39" s="11"/>
-      <c r="ED39" s="10"/>
-      <c r="EE39" s="10"/>
-      <c r="EF39" s="10"/>
-      <c r="EG39" s="15"/>
-      <c r="EH39" s="11"/>
-      <c r="EI39" s="10"/>
-      <c r="EJ39" s="10"/>
-      <c r="EK39" s="10"/>
-      <c r="EL39" s="15"/>
-    </row>
-    <row r="40" spans="1:142">
-      <c r="A40" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="20">
-        <v>2</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="11"/>
-      <c r="AC40" s="10"/>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="10"/>
-      <c r="AF40" s="15"/>
-      <c r="AG40" s="11"/>
-      <c r="AH40" s="10"/>
-      <c r="AI40" s="10"/>
-      <c r="AJ40" s="10"/>
-      <c r="AK40" s="15"/>
-      <c r="AL40" s="11"/>
-      <c r="AM40" s="10"/>
-      <c r="AN40" s="10"/>
-      <c r="AO40" s="10"/>
-      <c r="AP40" s="15"/>
-      <c r="AQ40" s="11"/>
-      <c r="AR40" s="10"/>
-      <c r="AS40" s="10"/>
-      <c r="AT40" s="10"/>
-      <c r="AU40" s="15"/>
-      <c r="AV40" s="11"/>
-      <c r="AW40" s="10"/>
-      <c r="AX40" s="10"/>
-      <c r="AY40" s="10"/>
-      <c r="AZ40" s="15"/>
-      <c r="BA40" s="11"/>
-      <c r="BB40" s="10"/>
-      <c r="BC40" s="10"/>
-      <c r="BD40" s="10"/>
-      <c r="BE40" s="15"/>
-      <c r="BF40" s="11"/>
-      <c r="BG40" s="10"/>
-      <c r="BH40" s="10"/>
-      <c r="BI40" s="10"/>
-      <c r="BJ40" s="15"/>
-      <c r="BK40" s="11"/>
-      <c r="BL40" s="10"/>
-      <c r="BM40" s="10"/>
-      <c r="BN40" s="10"/>
-      <c r="BO40" s="15"/>
-      <c r="BP40" s="11"/>
-      <c r="BQ40" s="10"/>
-      <c r="BR40" s="10"/>
-      <c r="BS40" s="10"/>
-      <c r="BT40" s="15"/>
-      <c r="BU40" s="11"/>
-      <c r="BV40" s="10"/>
-      <c r="BW40" s="10"/>
-      <c r="BX40" s="10"/>
-      <c r="BY40" s="15"/>
-      <c r="BZ40" s="11"/>
-      <c r="CA40" s="10"/>
-      <c r="CB40" s="10"/>
-      <c r="CC40" s="10"/>
-      <c r="CD40" s="15"/>
-      <c r="CE40" s="11"/>
-      <c r="CF40" s="10"/>
-      <c r="CG40" s="10"/>
-      <c r="CH40" s="10"/>
-      <c r="CI40" s="15"/>
-      <c r="CJ40" s="11"/>
-      <c r="CK40" s="10"/>
-      <c r="CL40" s="10"/>
-      <c r="CM40" s="10"/>
-      <c r="CN40" s="15"/>
-      <c r="CO40" s="11"/>
-      <c r="CP40" s="10"/>
-      <c r="CQ40" s="10"/>
-      <c r="CR40" s="10"/>
-      <c r="CS40" s="15"/>
-      <c r="CT40" s="11"/>
-      <c r="CU40" s="10"/>
-      <c r="CV40" s="10"/>
-      <c r="CW40" s="10"/>
-      <c r="CX40" s="15"/>
-      <c r="CY40" s="11"/>
-      <c r="CZ40" s="10"/>
-      <c r="DA40" s="10"/>
-      <c r="DB40" s="10"/>
-      <c r="DC40" s="15"/>
-      <c r="DD40" s="11"/>
-      <c r="DE40" s="10"/>
-      <c r="DF40" s="10"/>
-      <c r="DG40" s="10"/>
-      <c r="DH40" s="15"/>
-      <c r="DI40" s="11"/>
-      <c r="DJ40" s="10"/>
-      <c r="DK40" s="10"/>
-      <c r="DL40" s="10"/>
-      <c r="DM40" s="15"/>
-      <c r="DN40" s="11"/>
-      <c r="DO40" s="10"/>
-      <c r="DP40" s="10"/>
-      <c r="DQ40" s="10"/>
-      <c r="DR40" s="15"/>
-      <c r="DS40" s="11"/>
-      <c r="DT40" s="10"/>
-      <c r="DU40" s="10"/>
-      <c r="DV40" s="10"/>
-      <c r="DW40" s="15"/>
-      <c r="DX40" s="11"/>
-      <c r="DY40" s="10"/>
-      <c r="DZ40" s="10"/>
-      <c r="EA40" s="10"/>
-      <c r="EB40" s="15"/>
-      <c r="EC40" s="11"/>
-      <c r="ED40" s="10"/>
-      <c r="EE40" s="10"/>
-      <c r="EF40" s="10"/>
-      <c r="EG40" s="15"/>
-      <c r="EH40" s="11"/>
-      <c r="EI40" s="10"/>
-      <c r="EJ40" s="10"/>
-      <c r="EK40" s="10"/>
-      <c r="EL40" s="15"/>
-    </row>
-    <row r="41" spans="1:142">
-      <c r="A41" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="20">
-        <v>2</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="15"/>
-      <c r="AB41" s="11"/>
-      <c r="AC41" s="10"/>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="10"/>
-      <c r="AF41" s="15"/>
-      <c r="AG41" s="11"/>
-      <c r="AH41" s="10"/>
-      <c r="AI41" s="10"/>
-      <c r="AJ41" s="10"/>
-      <c r="AK41" s="15"/>
-      <c r="AL41" s="11"/>
-      <c r="AM41" s="10"/>
-      <c r="AN41" s="10"/>
-      <c r="AO41" s="10"/>
-      <c r="AP41" s="15"/>
-      <c r="AQ41" s="11"/>
-      <c r="AR41" s="10"/>
-      <c r="AS41" s="10"/>
-      <c r="AT41" s="10"/>
-      <c r="AU41" s="15"/>
-      <c r="AV41" s="11"/>
-      <c r="AW41" s="10"/>
-      <c r="AX41" s="10"/>
-      <c r="AY41" s="10"/>
-      <c r="AZ41" s="15"/>
-      <c r="BA41" s="11"/>
-      <c r="BB41" s="10"/>
-      <c r="BC41" s="10"/>
-      <c r="BD41" s="10"/>
-      <c r="BE41" s="15"/>
-      <c r="BF41" s="11"/>
-      <c r="BG41" s="10"/>
-      <c r="BH41" s="10"/>
-      <c r="BI41" s="10"/>
-      <c r="BJ41" s="15"/>
-      <c r="BK41" s="11"/>
-      <c r="BL41" s="10"/>
-      <c r="BM41" s="10"/>
-      <c r="BN41" s="10"/>
-      <c r="BO41" s="15"/>
-      <c r="BP41" s="11"/>
-      <c r="BQ41" s="10"/>
-      <c r="BR41" s="10"/>
-      <c r="BS41" s="10"/>
-      <c r="BT41" s="15"/>
-      <c r="BU41" s="11"/>
-      <c r="BV41" s="10"/>
-      <c r="BW41" s="10"/>
-      <c r="BX41" s="10"/>
-      <c r="BY41" s="15"/>
-      <c r="BZ41" s="11"/>
-      <c r="CA41" s="10"/>
-      <c r="CB41" s="10"/>
-      <c r="CC41" s="10"/>
-      <c r="CD41" s="15"/>
-      <c r="CE41" s="11"/>
-      <c r="CF41" s="10"/>
-      <c r="CG41" s="10"/>
-      <c r="CH41" s="10"/>
-      <c r="CI41" s="15"/>
-      <c r="CJ41" s="11"/>
-      <c r="CK41" s="10"/>
-      <c r="CL41" s="10"/>
-      <c r="CM41" s="10"/>
-      <c r="CN41" s="15"/>
-      <c r="CO41" s="11"/>
-      <c r="CP41" s="10"/>
-      <c r="CQ41" s="10"/>
-      <c r="CR41" s="10"/>
-      <c r="CS41" s="15"/>
-      <c r="CT41" s="11"/>
-      <c r="CU41" s="10"/>
-      <c r="CV41" s="10"/>
-      <c r="CW41" s="10"/>
-      <c r="CX41" s="15"/>
-      <c r="CY41" s="11"/>
-      <c r="CZ41" s="10"/>
-      <c r="DA41" s="10"/>
-      <c r="DB41" s="10"/>
-      <c r="DC41" s="15"/>
-      <c r="DD41" s="11"/>
-      <c r="DE41" s="10"/>
-      <c r="DF41" s="10"/>
-      <c r="DG41" s="10"/>
-      <c r="DH41" s="15"/>
-      <c r="DI41" s="11"/>
-      <c r="DJ41" s="10"/>
-      <c r="DK41" s="10"/>
-      <c r="DL41" s="10"/>
-      <c r="DM41" s="15"/>
-      <c r="DN41" s="11"/>
-      <c r="DO41" s="10"/>
-      <c r="DP41" s="10"/>
-      <c r="DQ41" s="10"/>
-      <c r="DR41" s="15"/>
-      <c r="DS41" s="11"/>
-      <c r="DT41" s="10"/>
-      <c r="DU41" s="10"/>
-      <c r="DV41" s="10"/>
-      <c r="DW41" s="15"/>
-      <c r="DX41" s="11"/>
-      <c r="DY41" s="10"/>
-      <c r="DZ41" s="10"/>
-      <c r="EA41" s="10"/>
-      <c r="EB41" s="15"/>
-      <c r="EC41" s="11"/>
-      <c r="ED41" s="10"/>
-      <c r="EE41" s="10"/>
-      <c r="EF41" s="10"/>
-      <c r="EG41" s="15"/>
-      <c r="EH41" s="11"/>
-      <c r="EI41" s="10"/>
-      <c r="EJ41" s="10"/>
-      <c r="EK41" s="10"/>
-      <c r="EL41" s="15"/>
-    </row>
-    <row r="42" spans="1:142">
-      <c r="A42" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="20">
-        <v>2</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="11"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
-      <c r="AF42" s="15"/>
-      <c r="AG42" s="11"/>
-      <c r="AH42" s="10"/>
-      <c r="AI42" s="10"/>
-      <c r="AJ42" s="10"/>
-      <c r="AK42" s="15"/>
-      <c r="AL42" s="11"/>
-      <c r="AM42" s="10"/>
-      <c r="AN42" s="10"/>
-      <c r="AO42" s="10"/>
-      <c r="AP42" s="15"/>
-      <c r="AQ42" s="11"/>
-      <c r="AR42" s="10"/>
-      <c r="AS42" s="10"/>
-      <c r="AT42" s="10"/>
-      <c r="AU42" s="15"/>
-      <c r="AV42" s="11"/>
-      <c r="AW42" s="10"/>
-      <c r="AX42" s="10"/>
-      <c r="AY42" s="10"/>
-      <c r="AZ42" s="15"/>
-      <c r="BA42" s="11"/>
-      <c r="BB42" s="10"/>
-      <c r="BC42" s="10"/>
-      <c r="BD42" s="10"/>
-      <c r="BE42" s="15"/>
-      <c r="BF42" s="11"/>
-      <c r="BG42" s="10"/>
-      <c r="BH42" s="10"/>
-      <c r="BI42" s="10"/>
-      <c r="BJ42" s="15"/>
-      <c r="BK42" s="11"/>
-      <c r="BL42" s="10"/>
-      <c r="BM42" s="10"/>
-      <c r="BN42" s="10"/>
-      <c r="BO42" s="15"/>
-      <c r="BP42" s="11"/>
-      <c r="BQ42" s="10"/>
-      <c r="BR42" s="10"/>
-      <c r="BS42" s="10"/>
-      <c r="BT42" s="15"/>
-      <c r="BU42" s="11"/>
-      <c r="BV42" s="10"/>
-      <c r="BW42" s="10"/>
-      <c r="BX42" s="10"/>
-      <c r="BY42" s="15"/>
-      <c r="BZ42" s="11"/>
-      <c r="CA42" s="10"/>
-      <c r="CB42" s="10"/>
-      <c r="CC42" s="10"/>
-      <c r="CD42" s="15"/>
-      <c r="CE42" s="11"/>
-      <c r="CF42" s="10"/>
-      <c r="CG42" s="10"/>
-      <c r="CH42" s="10"/>
-      <c r="CI42" s="15"/>
-      <c r="CJ42" s="11"/>
-      <c r="CK42" s="10"/>
-      <c r="CL42" s="10"/>
-      <c r="CM42" s="10"/>
-      <c r="CN42" s="15"/>
-      <c r="CO42" s="11"/>
-      <c r="CP42" s="10"/>
-      <c r="CQ42" s="10"/>
-      <c r="CR42" s="10"/>
-      <c r="CS42" s="15"/>
-      <c r="CT42" s="11"/>
-      <c r="CU42" s="10"/>
-      <c r="CV42" s="10"/>
-      <c r="CW42" s="10"/>
-      <c r="CX42" s="15"/>
-      <c r="CY42" s="11"/>
-      <c r="CZ42" s="10"/>
-      <c r="DA42" s="10"/>
-      <c r="DB42" s="10"/>
-      <c r="DC42" s="15"/>
-      <c r="DD42" s="11"/>
-      <c r="DE42" s="10"/>
-      <c r="DF42" s="10"/>
-      <c r="DG42" s="10"/>
-      <c r="DH42" s="15"/>
-      <c r="DI42" s="11"/>
-      <c r="DJ42" s="10"/>
-      <c r="DK42" s="10"/>
-      <c r="DL42" s="10"/>
-      <c r="DM42" s="15"/>
-      <c r="DN42" s="11"/>
-      <c r="DO42" s="10"/>
-      <c r="DP42" s="10"/>
-      <c r="DQ42" s="10"/>
-      <c r="DR42" s="15"/>
-      <c r="DS42" s="11"/>
-      <c r="DT42" s="10"/>
-      <c r="DU42" s="10"/>
-      <c r="DV42" s="10"/>
-      <c r="DW42" s="15"/>
-      <c r="DX42" s="11"/>
-      <c r="DY42" s="10"/>
-      <c r="DZ42" s="10"/>
-      <c r="EA42" s="10"/>
-      <c r="EB42" s="15"/>
-      <c r="EC42" s="11"/>
-      <c r="ED42" s="10"/>
-      <c r="EE42" s="10"/>
-      <c r="EF42" s="10"/>
-      <c r="EG42" s="15"/>
-      <c r="EH42" s="11"/>
-      <c r="EI42" s="10"/>
-      <c r="EJ42" s="10"/>
-      <c r="EK42" s="10"/>
-      <c r="EL42" s="15"/>
-    </row>
-    <row r="43" spans="1:142">
-      <c r="A43" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="20">
-        <v>2</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="11"/>
-      <c r="AC43" s="10"/>
-      <c r="AD43" s="10"/>
-      <c r="AE43" s="10"/>
-      <c r="AF43" s="15"/>
-      <c r="AG43" s="11"/>
-      <c r="AH43" s="10"/>
-      <c r="AI43" s="10"/>
-      <c r="AJ43" s="10"/>
-      <c r="AK43" s="15"/>
-      <c r="AL43" s="11"/>
-      <c r="AM43" s="10"/>
-      <c r="AN43" s="10"/>
-      <c r="AO43" s="10"/>
-      <c r="AP43" s="15"/>
-      <c r="AQ43" s="11"/>
-      <c r="AR43" s="10"/>
-      <c r="AS43" s="10"/>
-      <c r="AT43" s="10"/>
-      <c r="AU43" s="15"/>
-      <c r="AV43" s="11"/>
-      <c r="AW43" s="10"/>
-      <c r="AX43" s="10"/>
-      <c r="AY43" s="10"/>
-      <c r="AZ43" s="15"/>
-      <c r="BA43" s="11"/>
-      <c r="BB43" s="10"/>
-      <c r="BC43" s="10"/>
-      <c r="BD43" s="10"/>
-      <c r="BE43" s="15"/>
-      <c r="BF43" s="11"/>
-      <c r="BG43" s="10"/>
-      <c r="BH43" s="10"/>
-      <c r="BI43" s="10"/>
-      <c r="BJ43" s="15"/>
-      <c r="BK43" s="11"/>
-      <c r="BL43" s="10"/>
-      <c r="BM43" s="10"/>
-      <c r="BN43" s="10"/>
-      <c r="BO43" s="15"/>
-      <c r="BP43" s="11"/>
-      <c r="BQ43" s="10"/>
-      <c r="BR43" s="10"/>
-      <c r="BS43" s="10"/>
-      <c r="BT43" s="15"/>
-      <c r="BU43" s="11"/>
-      <c r="BV43" s="10"/>
-      <c r="BW43" s="10"/>
-      <c r="BX43" s="10"/>
-      <c r="BY43" s="15"/>
-      <c r="BZ43" s="11"/>
-      <c r="CA43" s="10"/>
-      <c r="CB43" s="10"/>
-      <c r="CC43" s="10"/>
-      <c r="CD43" s="15"/>
-      <c r="CE43" s="11"/>
-      <c r="CF43" s="10"/>
-      <c r="CG43" s="10"/>
-      <c r="CH43" s="10"/>
-      <c r="CI43" s="15"/>
-      <c r="CJ43" s="11"/>
-      <c r="CK43" s="10"/>
-      <c r="CL43" s="10"/>
-      <c r="CM43" s="10"/>
-      <c r="CN43" s="15"/>
-      <c r="CO43" s="11"/>
-      <c r="CP43" s="10"/>
-      <c r="CQ43" s="10"/>
-      <c r="CR43" s="10"/>
-      <c r="CS43" s="15"/>
-      <c r="CT43" s="11"/>
-      <c r="CU43" s="10"/>
-      <c r="CV43" s="10"/>
-      <c r="CW43" s="10"/>
-      <c r="CX43" s="15"/>
-      <c r="CY43" s="11"/>
-      <c r="CZ43" s="10"/>
-      <c r="DA43" s="10"/>
-      <c r="DB43" s="10"/>
-      <c r="DC43" s="15"/>
-      <c r="DD43" s="11"/>
-      <c r="DE43" s="10"/>
-      <c r="DF43" s="10"/>
-      <c r="DG43" s="10"/>
-      <c r="DH43" s="15"/>
-      <c r="DI43" s="11"/>
-      <c r="DJ43" s="10"/>
-      <c r="DK43" s="10"/>
-      <c r="DL43" s="10"/>
-      <c r="DM43" s="15"/>
-      <c r="DN43" s="11"/>
-      <c r="DO43" s="10"/>
-      <c r="DP43" s="10"/>
-      <c r="DQ43" s="10"/>
-      <c r="DR43" s="15"/>
-      <c r="DS43" s="11"/>
-      <c r="DT43" s="10"/>
-      <c r="DU43" s="10"/>
-      <c r="DV43" s="10"/>
-      <c r="DW43" s="15"/>
-      <c r="DX43" s="11"/>
-      <c r="DY43" s="10"/>
-      <c r="DZ43" s="10"/>
-      <c r="EA43" s="10"/>
-      <c r="EB43" s="15"/>
-      <c r="EC43" s="11"/>
-      <c r="ED43" s="10"/>
-      <c r="EE43" s="10"/>
-      <c r="EF43" s="10"/>
-      <c r="EG43" s="15"/>
-      <c r="EH43" s="11"/>
-      <c r="EI43" s="10"/>
-      <c r="EJ43" s="10"/>
-      <c r="EK43" s="10"/>
-      <c r="EL43" s="15"/>
-    </row>
-    <row r="44" spans="1:142">
-      <c r="A44" s="10"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="15"/>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="10"/>
-      <c r="AD44" s="10"/>
-      <c r="AE44" s="10"/>
-      <c r="AF44" s="15"/>
-      <c r="AG44" s="11"/>
-      <c r="AH44" s="10"/>
-      <c r="AI44" s="10"/>
-      <c r="AJ44" s="10"/>
-      <c r="AK44" s="15"/>
-      <c r="AL44" s="11"/>
-      <c r="AM44" s="10"/>
-      <c r="AN44" s="10"/>
-      <c r="AO44" s="10"/>
-      <c r="AP44" s="15"/>
-      <c r="AQ44" s="11"/>
-      <c r="AR44" s="10"/>
-      <c r="AS44" s="10"/>
-      <c r="AT44" s="10"/>
-      <c r="AU44" s="15"/>
-      <c r="AV44" s="11"/>
-      <c r="AW44" s="10"/>
-      <c r="AX44" s="10"/>
-      <c r="AY44" s="10"/>
-      <c r="AZ44" s="15"/>
-      <c r="BA44" s="11"/>
-      <c r="BB44" s="10"/>
-      <c r="BC44" s="10"/>
-      <c r="BD44" s="10"/>
-      <c r="BE44" s="15"/>
-      <c r="BF44" s="11"/>
-      <c r="BG44" s="10"/>
-      <c r="BH44" s="10"/>
-      <c r="BI44" s="10"/>
-      <c r="BJ44" s="15"/>
-      <c r="BK44" s="11"/>
-      <c r="BL44" s="10"/>
-      <c r="BM44" s="10"/>
-      <c r="BN44" s="10"/>
-      <c r="BO44" s="15"/>
-      <c r="BP44" s="11"/>
-      <c r="BQ44" s="10"/>
-      <c r="BR44" s="10"/>
-      <c r="BS44" s="10"/>
-      <c r="BT44" s="15"/>
-      <c r="BU44" s="11"/>
-      <c r="BV44" s="10"/>
-      <c r="BW44" s="10"/>
-      <c r="BX44" s="10"/>
-      <c r="BY44" s="15"/>
-      <c r="BZ44" s="11"/>
-      <c r="CA44" s="10"/>
-      <c r="CB44" s="10"/>
-      <c r="CC44" s="10"/>
-      <c r="CD44" s="15"/>
-      <c r="CE44" s="11"/>
-      <c r="CF44" s="10"/>
-      <c r="CG44" s="10"/>
-      <c r="CH44" s="10"/>
-      <c r="CI44" s="15"/>
-      <c r="CJ44" s="11"/>
-      <c r="CK44" s="10"/>
-      <c r="CL44" s="10"/>
-      <c r="CM44" s="10"/>
-      <c r="CN44" s="15"/>
-      <c r="CO44" s="11"/>
-      <c r="CP44" s="10"/>
-      <c r="CQ44" s="10"/>
-      <c r="CR44" s="10"/>
-      <c r="CS44" s="15"/>
-      <c r="CT44" s="11"/>
-      <c r="CU44" s="10"/>
-      <c r="CV44" s="10"/>
-      <c r="CW44" s="10"/>
-      <c r="CX44" s="15"/>
-      <c r="CY44" s="11"/>
-      <c r="CZ44" s="10"/>
-      <c r="DA44" s="10"/>
-      <c r="DB44" s="10"/>
-      <c r="DC44" s="15"/>
-      <c r="DD44" s="11"/>
-      <c r="DE44" s="10"/>
-      <c r="DF44" s="10"/>
-      <c r="DG44" s="10"/>
-      <c r="DH44" s="15"/>
-      <c r="DI44" s="11"/>
-      <c r="DJ44" s="10"/>
-      <c r="DK44" s="10"/>
-      <c r="DL44" s="10"/>
-      <c r="DM44" s="15"/>
-      <c r="DN44" s="11"/>
-      <c r="DO44" s="10"/>
-      <c r="DP44" s="10"/>
-      <c r="DQ44" s="10"/>
-      <c r="DR44" s="15"/>
-      <c r="DS44" s="11"/>
-      <c r="DT44" s="10"/>
-      <c r="DU44" s="10"/>
-      <c r="DV44" s="10"/>
-      <c r="DW44" s="15"/>
-      <c r="DX44" s="11"/>
-      <c r="DY44" s="10"/>
-      <c r="DZ44" s="10"/>
-      <c r="EA44" s="10"/>
-      <c r="EB44" s="15"/>
-      <c r="EC44" s="11"/>
-      <c r="ED44" s="10"/>
-      <c r="EE44" s="10"/>
-      <c r="EF44" s="10"/>
-      <c r="EG44" s="15"/>
-      <c r="EH44" s="11"/>
-      <c r="EI44" s="10"/>
-      <c r="EJ44" s="10"/>
-      <c r="EK44" s="10"/>
-      <c r="EL44" s="15"/>
-    </row>
-    <row r="45" spans="1:142">
-      <c r="A45" s="11"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="11"/>
-      <c r="AC45" s="10"/>
-      <c r="AD45" s="10"/>
-      <c r="AE45" s="10"/>
-      <c r="AF45" s="15"/>
-      <c r="AG45" s="11"/>
-      <c r="AH45" s="10"/>
-      <c r="AI45" s="10"/>
-      <c r="AJ45" s="10"/>
-      <c r="AK45" s="15"/>
-      <c r="AL45" s="11"/>
-      <c r="AM45" s="10"/>
-      <c r="AN45" s="10"/>
-      <c r="AO45" s="10"/>
-      <c r="AP45" s="15"/>
-      <c r="AQ45" s="11"/>
-      <c r="AR45" s="10"/>
-      <c r="AS45" s="10"/>
-      <c r="AT45" s="10"/>
-      <c r="AU45" s="15"/>
-      <c r="AV45" s="11"/>
-      <c r="AW45" s="10"/>
-      <c r="AX45" s="10"/>
-      <c r="AY45" s="10"/>
-      <c r="AZ45" s="15"/>
-      <c r="BA45" s="11"/>
-      <c r="BB45" s="10"/>
-      <c r="BC45" s="10"/>
-      <c r="BD45" s="10"/>
-      <c r="BE45" s="15"/>
-      <c r="BF45" s="11"/>
-      <c r="BG45" s="10"/>
-      <c r="BH45" s="10"/>
-      <c r="BI45" s="10"/>
-      <c r="BJ45" s="15"/>
-      <c r="BK45" s="11"/>
-      <c r="BL45" s="10"/>
-      <c r="BM45" s="10"/>
-      <c r="BN45" s="10"/>
-      <c r="BO45" s="15"/>
-      <c r="BP45" s="11"/>
-      <c r="BQ45" s="10"/>
-      <c r="BR45" s="10"/>
-      <c r="BS45" s="10"/>
-      <c r="BT45" s="15"/>
-      <c r="BU45" s="11"/>
-      <c r="BV45" s="10"/>
-      <c r="BW45" s="10"/>
-      <c r="BX45" s="10"/>
-      <c r="BY45" s="15"/>
-      <c r="BZ45" s="11"/>
-      <c r="CA45" s="10"/>
-      <c r="CB45" s="10"/>
-      <c r="CC45" s="10"/>
-      <c r="CD45" s="15"/>
-      <c r="CE45" s="11"/>
-      <c r="CF45" s="10"/>
-      <c r="CG45" s="10"/>
-      <c r="CH45" s="10"/>
-      <c r="CI45" s="15"/>
-      <c r="CJ45" s="11"/>
-      <c r="CK45" s="10"/>
-      <c r="CL45" s="10"/>
-      <c r="CM45" s="10"/>
-      <c r="CN45" s="15"/>
-      <c r="CO45" s="11"/>
-      <c r="CP45" s="10"/>
-      <c r="CQ45" s="10"/>
-      <c r="CR45" s="10"/>
-      <c r="CS45" s="15"/>
-      <c r="CT45" s="11"/>
-      <c r="CU45" s="10"/>
-      <c r="CV45" s="10"/>
-      <c r="CW45" s="10"/>
-      <c r="CX45" s="15"/>
-      <c r="CY45" s="11"/>
-      <c r="CZ45" s="10"/>
-      <c r="DA45" s="10"/>
-      <c r="DB45" s="10"/>
-      <c r="DC45" s="15"/>
-      <c r="DD45" s="11"/>
-      <c r="DE45" s="10"/>
-      <c r="DF45" s="10"/>
-      <c r="DG45" s="10"/>
-      <c r="DH45" s="15"/>
-      <c r="DI45" s="11"/>
-      <c r="DJ45" s="10"/>
-      <c r="DK45" s="10"/>
-      <c r="DL45" s="10"/>
-      <c r="DM45" s="15"/>
-      <c r="DN45" s="11"/>
-      <c r="DO45" s="10"/>
-      <c r="DP45" s="10"/>
-      <c r="DQ45" s="10"/>
-      <c r="DR45" s="15"/>
-      <c r="DS45" s="11"/>
-      <c r="DT45" s="10"/>
-      <c r="DU45" s="10"/>
-      <c r="DV45" s="10"/>
-      <c r="DW45" s="15"/>
-      <c r="DX45" s="11"/>
-      <c r="DY45" s="10"/>
-      <c r="DZ45" s="10"/>
-      <c r="EA45" s="10"/>
-      <c r="EB45" s="15"/>
-      <c r="EC45" s="11"/>
-      <c r="ED45" s="10"/>
-      <c r="EE45" s="10"/>
-      <c r="EF45" s="10"/>
-      <c r="EG45" s="15"/>
-      <c r="EH45" s="11"/>
-      <c r="EI45" s="10"/>
-      <c r="EJ45" s="10"/>
-      <c r="EK45" s="10"/>
-      <c r="EL45" s="15"/>
-    </row>
-    <row r="46" spans="1:142">
-      <c r="A46" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="20">
-        <v>2</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="10"/>
-      <c r="AD46" s="10"/>
-      <c r="AE46" s="10"/>
-      <c r="AF46" s="15"/>
-      <c r="AG46" s="11"/>
-      <c r="AH46" s="10"/>
-      <c r="AI46" s="10"/>
-      <c r="AJ46" s="10"/>
-      <c r="AK46" s="15"/>
-      <c r="AL46" s="11"/>
-      <c r="AM46" s="10"/>
-      <c r="AN46" s="10"/>
-      <c r="AO46" s="10"/>
-      <c r="AP46" s="15"/>
-      <c r="AQ46" s="11"/>
-      <c r="AR46" s="10"/>
-      <c r="AS46" s="10"/>
-      <c r="AT46" s="10"/>
-      <c r="AU46" s="15"/>
-      <c r="AV46" s="11"/>
-      <c r="AW46" s="10"/>
-      <c r="AX46" s="10"/>
-      <c r="AY46" s="10"/>
-      <c r="AZ46" s="15"/>
-      <c r="BA46" s="11"/>
-      <c r="BB46" s="10"/>
-      <c r="BC46" s="10"/>
-      <c r="BD46" s="10"/>
-      <c r="BE46" s="15"/>
-      <c r="BF46" s="11"/>
-      <c r="BG46" s="10"/>
-      <c r="BH46" s="10"/>
-      <c r="BI46" s="10"/>
-      <c r="BJ46" s="15"/>
-      <c r="BK46" s="11"/>
-      <c r="BL46" s="10"/>
-      <c r="BM46" s="10"/>
-      <c r="BN46" s="10"/>
-      <c r="BO46" s="15"/>
-      <c r="BP46" s="11"/>
-      <c r="BQ46" s="10"/>
-      <c r="BR46" s="10"/>
-      <c r="BS46" s="10"/>
-      <c r="BT46" s="15"/>
-      <c r="BU46" s="11"/>
-      <c r="BV46" s="10"/>
-      <c r="BW46" s="10"/>
-      <c r="BX46" s="10"/>
-      <c r="BY46" s="15"/>
-      <c r="BZ46" s="11"/>
-      <c r="CA46" s="10"/>
-      <c r="CB46" s="10"/>
-      <c r="CC46" s="10"/>
-      <c r="CD46" s="15"/>
-      <c r="CE46" s="11"/>
-      <c r="CF46" s="10"/>
-      <c r="CG46" s="10"/>
-      <c r="CH46" s="10"/>
-      <c r="CI46" s="15"/>
-      <c r="CJ46" s="11"/>
-      <c r="CK46" s="10"/>
-      <c r="CL46" s="10"/>
-      <c r="CM46" s="10"/>
-      <c r="CN46" s="15"/>
-      <c r="CO46" s="11"/>
-      <c r="CP46" s="10"/>
-      <c r="CQ46" s="10"/>
-      <c r="CR46" s="10"/>
-      <c r="CS46" s="15"/>
-      <c r="CT46" s="11"/>
-      <c r="CU46" s="10"/>
-      <c r="CV46" s="10"/>
-      <c r="CW46" s="10"/>
-      <c r="CX46" s="15"/>
-      <c r="CY46" s="11"/>
-      <c r="CZ46" s="10"/>
-      <c r="DA46" s="10"/>
-      <c r="DB46" s="10"/>
-      <c r="DC46" s="15"/>
-      <c r="DD46" s="11"/>
-      <c r="DE46" s="10"/>
-      <c r="DF46" s="10"/>
-      <c r="DG46" s="10"/>
-      <c r="DH46" s="15"/>
-      <c r="DI46" s="11"/>
-      <c r="DJ46" s="10"/>
-      <c r="DK46" s="10"/>
-      <c r="DL46" s="10"/>
-      <c r="DM46" s="15"/>
-      <c r="DN46" s="11"/>
-      <c r="DO46" s="10"/>
-      <c r="DP46" s="10"/>
-      <c r="DQ46" s="10"/>
-      <c r="DR46" s="15"/>
-      <c r="DS46" s="11"/>
-      <c r="DT46" s="10"/>
-      <c r="DU46" s="10"/>
-      <c r="DV46" s="10"/>
-      <c r="DW46" s="15"/>
-      <c r="DX46" s="11"/>
-      <c r="DY46" s="10"/>
-      <c r="DZ46" s="10"/>
-      <c r="EA46" s="10"/>
-      <c r="EB46" s="15"/>
-      <c r="EC46" s="11"/>
-      <c r="ED46" s="10"/>
-      <c r="EE46" s="10"/>
-      <c r="EF46" s="10"/>
-      <c r="EG46" s="15"/>
-      <c r="EH46" s="11"/>
-      <c r="EI46" s="10"/>
-      <c r="EJ46" s="10"/>
-      <c r="EK46" s="10"/>
-      <c r="EL46" s="15"/>
-    </row>
-    <row r="47" spans="1:142">
-      <c r="A47" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="20">
-        <v>2</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="15"/>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="10"/>
-      <c r="AD47" s="10"/>
-      <c r="AE47" s="10"/>
-      <c r="AF47" s="15"/>
-      <c r="AG47" s="11"/>
-      <c r="AH47" s="10"/>
-      <c r="AI47" s="10"/>
-      <c r="AJ47" s="10"/>
-      <c r="AK47" s="15"/>
-      <c r="AL47" s="11"/>
-      <c r="AM47" s="10"/>
-      <c r="AN47" s="10"/>
-      <c r="AO47" s="10"/>
-      <c r="AP47" s="15"/>
-      <c r="AQ47" s="11"/>
-      <c r="AR47" s="10"/>
-      <c r="AS47" s="10"/>
-      <c r="AT47" s="10"/>
-      <c r="AU47" s="15"/>
-      <c r="AV47" s="11"/>
-      <c r="AW47" s="10"/>
-      <c r="AX47" s="10"/>
-      <c r="AY47" s="10"/>
-      <c r="AZ47" s="15"/>
-      <c r="BA47" s="11"/>
-      <c r="BB47" s="10"/>
-      <c r="BC47" s="10"/>
-      <c r="BD47" s="10"/>
-      <c r="BE47" s="15"/>
-      <c r="BF47" s="11"/>
-      <c r="BG47" s="10"/>
-      <c r="BH47" s="10"/>
-      <c r="BI47" s="10"/>
-      <c r="BJ47" s="15"/>
-      <c r="BK47" s="11"/>
-      <c r="BL47" s="10"/>
-      <c r="BM47" s="10"/>
-      <c r="BN47" s="10"/>
-      <c r="BO47" s="15"/>
-      <c r="BP47" s="11"/>
-      <c r="BQ47" s="10"/>
-      <c r="BR47" s="10"/>
-      <c r="BS47" s="10"/>
-      <c r="BT47" s="15"/>
-      <c r="BU47" s="11"/>
-      <c r="BV47" s="10"/>
-      <c r="BW47" s="10"/>
-      <c r="BX47" s="10"/>
-      <c r="BY47" s="15"/>
-      <c r="BZ47" s="11"/>
-      <c r="CA47" s="10"/>
-      <c r="CB47" s="10"/>
-      <c r="CC47" s="10"/>
-      <c r="CD47" s="15"/>
-      <c r="CE47" s="11"/>
-      <c r="CF47" s="10"/>
-      <c r="CG47" s="10"/>
-      <c r="CH47" s="10"/>
-      <c r="CI47" s="15"/>
-      <c r="CJ47" s="11"/>
-      <c r="CK47" s="10"/>
-      <c r="CL47" s="10"/>
-      <c r="CM47" s="10"/>
-      <c r="CN47" s="15"/>
-      <c r="CO47" s="11"/>
-      <c r="CP47" s="10"/>
-      <c r="CQ47" s="10"/>
-      <c r="CR47" s="10"/>
-      <c r="CS47" s="15"/>
-      <c r="CT47" s="11"/>
-      <c r="CU47" s="10"/>
-      <c r="CV47" s="10"/>
-      <c r="CW47" s="10"/>
-      <c r="CX47" s="15"/>
-      <c r="CY47" s="11"/>
-      <c r="CZ47" s="10"/>
-      <c r="DA47" s="10"/>
-      <c r="DB47" s="10"/>
-      <c r="DC47" s="15"/>
-      <c r="DD47" s="11"/>
-      <c r="DE47" s="10"/>
-      <c r="DF47" s="10"/>
-      <c r="DG47" s="10"/>
-      <c r="DH47" s="15"/>
-      <c r="DI47" s="11"/>
-      <c r="DJ47" s="10"/>
-      <c r="DK47" s="10"/>
-      <c r="DL47" s="10"/>
-      <c r="DM47" s="15"/>
-      <c r="DN47" s="11"/>
-      <c r="DO47" s="10"/>
-      <c r="DP47" s="10"/>
-      <c r="DQ47" s="10"/>
-      <c r="DR47" s="15"/>
-      <c r="DS47" s="11"/>
-      <c r="DT47" s="10"/>
-      <c r="DU47" s="10"/>
-      <c r="DV47" s="10"/>
-      <c r="DW47" s="15"/>
-      <c r="DX47" s="11"/>
-      <c r="DY47" s="10"/>
-      <c r="DZ47" s="10"/>
-      <c r="EA47" s="10"/>
-      <c r="EB47" s="15"/>
-      <c r="EC47" s="11"/>
-      <c r="ED47" s="10"/>
-      <c r="EE47" s="10"/>
-      <c r="EF47" s="10"/>
-      <c r="EG47" s="15"/>
-      <c r="EH47" s="11"/>
-      <c r="EI47" s="10"/>
-      <c r="EJ47" s="10"/>
-      <c r="EK47" s="10"/>
-      <c r="EL47" s="15"/>
-    </row>
-    <row r="48" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A48" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="22">
-        <v>2</v>
-      </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="17"/>
-      <c r="AA48" s="18"/>
-      <c r="AB48" s="16"/>
-      <c r="AC48" s="17"/>
-      <c r="AD48" s="17"/>
-      <c r="AE48" s="17"/>
-      <c r="AF48" s="18"/>
-      <c r="AG48" s="16"/>
-      <c r="AH48" s="17"/>
-      <c r="AI48" s="17"/>
-      <c r="AJ48" s="17"/>
-      <c r="AK48" s="18"/>
-      <c r="AL48" s="16"/>
-      <c r="AM48" s="17"/>
-      <c r="AN48" s="17"/>
-      <c r="AO48" s="17"/>
-      <c r="AP48" s="18"/>
-      <c r="AQ48" s="16"/>
-      <c r="AR48" s="17"/>
-      <c r="AS48" s="17"/>
-      <c r="AT48" s="17"/>
-      <c r="AU48" s="18"/>
-      <c r="AV48" s="16"/>
-      <c r="AW48" s="17"/>
-      <c r="AX48" s="17"/>
-      <c r="AY48" s="17"/>
-      <c r="AZ48" s="18"/>
-      <c r="BA48" s="16"/>
-      <c r="BB48" s="17"/>
-      <c r="BC48" s="17"/>
-      <c r="BD48" s="17"/>
-      <c r="BE48" s="18"/>
-      <c r="BF48" s="16"/>
-      <c r="BG48" s="17"/>
-      <c r="BH48" s="17"/>
-      <c r="BI48" s="17"/>
-      <c r="BJ48" s="18"/>
-      <c r="BK48" s="16"/>
-      <c r="BL48" s="17"/>
-      <c r="BM48" s="17"/>
-      <c r="BN48" s="17"/>
-      <c r="BO48" s="18"/>
-      <c r="BP48" s="16"/>
-      <c r="BQ48" s="17"/>
-      <c r="BR48" s="17"/>
-      <c r="BS48" s="17"/>
-      <c r="BT48" s="18"/>
-      <c r="BU48" s="16"/>
-      <c r="BV48" s="17"/>
-      <c r="BW48" s="17"/>
-      <c r="BX48" s="17"/>
-      <c r="BY48" s="18"/>
-      <c r="BZ48" s="16"/>
-      <c r="CA48" s="17"/>
-      <c r="CB48" s="17"/>
-      <c r="CC48" s="17"/>
-      <c r="CD48" s="18"/>
-      <c r="CE48" s="16"/>
-      <c r="CF48" s="17"/>
-      <c r="CG48" s="17"/>
-      <c r="CH48" s="17"/>
-      <c r="CI48" s="18"/>
-      <c r="CJ48" s="16"/>
-      <c r="CK48" s="17"/>
-      <c r="CL48" s="17"/>
-      <c r="CM48" s="17"/>
-      <c r="CN48" s="18"/>
-      <c r="CO48" s="16"/>
-      <c r="CP48" s="17"/>
-      <c r="CQ48" s="17"/>
-      <c r="CR48" s="17"/>
-      <c r="CS48" s="18"/>
-      <c r="CT48" s="16"/>
-      <c r="CU48" s="17"/>
-      <c r="CV48" s="17"/>
-      <c r="CW48" s="17"/>
-      <c r="CX48" s="18"/>
-      <c r="CY48" s="16"/>
-      <c r="CZ48" s="17"/>
-      <c r="DA48" s="17"/>
-      <c r="DB48" s="17"/>
-      <c r="DC48" s="18"/>
-      <c r="DD48" s="16"/>
-      <c r="DE48" s="17"/>
-      <c r="DF48" s="17"/>
-      <c r="DG48" s="17"/>
-      <c r="DH48" s="18"/>
-      <c r="DI48" s="16"/>
-      <c r="DJ48" s="17"/>
-      <c r="DK48" s="17"/>
-      <c r="DL48" s="17"/>
-      <c r="DM48" s="18"/>
-      <c r="DN48" s="16"/>
-      <c r="DO48" s="17"/>
-      <c r="DP48" s="17"/>
-      <c r="DQ48" s="17"/>
-      <c r="DR48" s="18"/>
-      <c r="DS48" s="16"/>
-      <c r="DT48" s="17"/>
-      <c r="DU48" s="17"/>
-      <c r="DV48" s="17"/>
-      <c r="DW48" s="18"/>
-      <c r="DX48" s="16"/>
-      <c r="DY48" s="17"/>
-      <c r="DZ48" s="17"/>
-      <c r="EA48" s="17"/>
-      <c r="EB48" s="18"/>
-      <c r="EC48" s="16"/>
-      <c r="ED48" s="17"/>
-      <c r="EE48" s="17"/>
-      <c r="EF48" s="17"/>
-      <c r="EG48" s="18"/>
-      <c r="EH48" s="16"/>
-      <c r="EI48" s="17"/>
-      <c r="EJ48" s="17"/>
-      <c r="EK48" s="17"/>
-      <c r="EL48" s="18"/>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="1"/>
-      <c r="C51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="3"/>
-      <c r="C52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="4"/>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="6"/>
-      <c r="C54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="7"/>
-      <c r="C55" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="EH1:EL1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CO1:CS1"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="DN1:DR1"/>
+    <mergeCell ref="DS1:DW1"/>
+    <mergeCell ref="DX1:EB1"/>
+    <mergeCell ref="EC1:EG1"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -10511,18 +5029,6 @@
     <mergeCell ref="BK1:BO1"/>
     <mergeCell ref="BP1:BT1"/>
     <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="EH1:EL1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CO1:CS1"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="DS1:DW1"/>
-    <mergeCell ref="DX1:EB1"/>
-    <mergeCell ref="EC1:EG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10533,9 +5039,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EL58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG28" sqref="BG28"/>
+      <selection pane="topRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10546,221 +5052,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="30">
+      <c r="C1" s="35">
         <v>41334</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="30">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="35">
         <v>41335</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="30">
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="35">
         <v>41336</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="30">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="35">
         <v>41337</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="30">
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="35">
         <v>41338</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="30">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="35">
         <v>41339</v>
       </c>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="30">
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="35">
         <v>41340</v>
       </c>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="30">
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="35">
         <v>41341</v>
       </c>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="30">
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="35">
         <v>41342</v>
       </c>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="30">
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="35">
         <v>41343</v>
       </c>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="30">
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="35">
         <v>41344</v>
       </c>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31"/>
-      <c r="BD1" s="31"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="30">
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="35">
         <v>41345</v>
       </c>
-      <c r="BG1" s="31"/>
-      <c r="BH1" s="31"/>
-      <c r="BI1" s="31"/>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="30">
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="35">
         <v>41346</v>
       </c>
-      <c r="BL1" s="31"/>
-      <c r="BM1" s="31"/>
-      <c r="BN1" s="31"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="30">
+      <c r="BL1" s="36"/>
+      <c r="BM1" s="36"/>
+      <c r="BN1" s="36"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="35">
         <v>41347</v>
       </c>
-      <c r="BQ1" s="31"/>
-      <c r="BR1" s="31"/>
-      <c r="BS1" s="31"/>
-      <c r="BT1" s="32"/>
-      <c r="BU1" s="30">
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="37"/>
+      <c r="BU1" s="35">
         <v>41348</v>
       </c>
-      <c r="BV1" s="31"/>
-      <c r="BW1" s="31"/>
-      <c r="BX1" s="31"/>
-      <c r="BY1" s="32"/>
-      <c r="BZ1" s="30">
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="36"/>
+      <c r="BY1" s="37"/>
+      <c r="BZ1" s="35">
         <v>41349</v>
       </c>
-      <c r="CA1" s="31"/>
-      <c r="CB1" s="31"/>
-      <c r="CC1" s="31"/>
-      <c r="CD1" s="32"/>
-      <c r="CE1" s="30">
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="36"/>
+      <c r="CC1" s="36"/>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="35">
         <v>41350</v>
       </c>
-      <c r="CF1" s="31"/>
-      <c r="CG1" s="31"/>
-      <c r="CH1" s="31"/>
-      <c r="CI1" s="32"/>
-      <c r="CJ1" s="30">
+      <c r="CF1" s="36"/>
+      <c r="CG1" s="36"/>
+      <c r="CH1" s="36"/>
+      <c r="CI1" s="37"/>
+      <c r="CJ1" s="35">
         <v>41351</v>
       </c>
-      <c r="CK1" s="31"/>
-      <c r="CL1" s="31"/>
-      <c r="CM1" s="31"/>
-      <c r="CN1" s="32"/>
-      <c r="CO1" s="30">
+      <c r="CK1" s="36"/>
+      <c r="CL1" s="36"/>
+      <c r="CM1" s="36"/>
+      <c r="CN1" s="37"/>
+      <c r="CO1" s="35">
         <v>41352</v>
       </c>
-      <c r="CP1" s="31"/>
-      <c r="CQ1" s="31"/>
-      <c r="CR1" s="31"/>
-      <c r="CS1" s="32"/>
-      <c r="CT1" s="30">
+      <c r="CP1" s="36"/>
+      <c r="CQ1" s="36"/>
+      <c r="CR1" s="36"/>
+      <c r="CS1" s="37"/>
+      <c r="CT1" s="35">
         <v>41353</v>
       </c>
-      <c r="CU1" s="31"/>
-      <c r="CV1" s="31"/>
-      <c r="CW1" s="31"/>
-      <c r="CX1" s="32"/>
-      <c r="CY1" s="30">
+      <c r="CU1" s="36"/>
+      <c r="CV1" s="36"/>
+      <c r="CW1" s="36"/>
+      <c r="CX1" s="37"/>
+      <c r="CY1" s="35">
         <v>41354</v>
       </c>
-      <c r="CZ1" s="31"/>
-      <c r="DA1" s="31"/>
-      <c r="DB1" s="31"/>
-      <c r="DC1" s="32"/>
-      <c r="DD1" s="30">
+      <c r="CZ1" s="36"/>
+      <c r="DA1" s="36"/>
+      <c r="DB1" s="36"/>
+      <c r="DC1" s="37"/>
+      <c r="DD1" s="35">
         <v>41355</v>
       </c>
-      <c r="DE1" s="31"/>
-      <c r="DF1" s="31"/>
-      <c r="DG1" s="31"/>
-      <c r="DH1" s="32"/>
-      <c r="DI1" s="30">
+      <c r="DE1" s="36"/>
+      <c r="DF1" s="36"/>
+      <c r="DG1" s="36"/>
+      <c r="DH1" s="37"/>
+      <c r="DI1" s="35">
         <v>41356</v>
       </c>
-      <c r="DJ1" s="31"/>
-      <c r="DK1" s="31"/>
-      <c r="DL1" s="31"/>
-      <c r="DM1" s="32"/>
-      <c r="DN1" s="30">
+      <c r="DJ1" s="36"/>
+      <c r="DK1" s="36"/>
+      <c r="DL1" s="36"/>
+      <c r="DM1" s="37"/>
+      <c r="DN1" s="35">
         <v>41357</v>
       </c>
-      <c r="DO1" s="31"/>
-      <c r="DP1" s="31"/>
-      <c r="DQ1" s="31"/>
-      <c r="DR1" s="32"/>
-      <c r="DS1" s="30">
+      <c r="DO1" s="36"/>
+      <c r="DP1" s="36"/>
+      <c r="DQ1" s="36"/>
+      <c r="DR1" s="37"/>
+      <c r="DS1" s="35">
         <v>41358</v>
       </c>
-      <c r="DT1" s="31"/>
-      <c r="DU1" s="31"/>
-      <c r="DV1" s="31"/>
-      <c r="DW1" s="32"/>
-      <c r="DX1" s="30">
+      <c r="DT1" s="36"/>
+      <c r="DU1" s="36"/>
+      <c r="DV1" s="36"/>
+      <c r="DW1" s="37"/>
+      <c r="DX1" s="35">
         <v>41359</v>
       </c>
-      <c r="DY1" s="31"/>
-      <c r="DZ1" s="31"/>
-      <c r="EA1" s="31"/>
-      <c r="EB1" s="32"/>
-      <c r="EC1" s="30">
+      <c r="DY1" s="36"/>
+      <c r="DZ1" s="36"/>
+      <c r="EA1" s="36"/>
+      <c r="EB1" s="37"/>
+      <c r="EC1" s="35">
         <v>41360</v>
       </c>
-      <c r="ED1" s="31"/>
-      <c r="EE1" s="31"/>
-      <c r="EF1" s="31"/>
-      <c r="EG1" s="32"/>
-      <c r="EH1" s="33">
+      <c r="ED1" s="36"/>
+      <c r="EE1" s="36"/>
+      <c r="EF1" s="36"/>
+      <c r="EG1" s="37"/>
+      <c r="EH1" s="38">
         <v>41361</v>
       </c>
-      <c r="EI1" s="34"/>
-      <c r="EJ1" s="34"/>
-      <c r="EK1" s="34"/>
-      <c r="EL1" s="35"/>
+      <c r="EI1" s="39"/>
+      <c r="EJ1" s="39"/>
+      <c r="EK1" s="39"/>
+      <c r="EL1" s="40"/>
     </row>
     <row r="2" spans="1:142">
-      <c r="A2" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="38">
+      <c r="A2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="30">
         <v>4</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="39"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="12"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -10901,14 +5407,14 @@
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="28">
         <v>4</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="40"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="11"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -11049,14 +5555,14 @@
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="28">
         <v>4</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="40"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="11"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -11197,14 +5703,14 @@
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="28">
         <v>4</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="40"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="11"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -11343,12 +5849,12 @@
     </row>
     <row r="6" spans="1:142">
       <c r="A6" s="11"/>
-      <c r="B6" s="36"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="11"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="40"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="11"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -11487,14 +5993,14 @@
     </row>
     <row r="7" spans="1:142">
       <c r="A7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="36"/>
+        <v>52</v>
+      </c>
+      <c r="B7" s="28"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="40"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="11"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -11567,12 +6073,12 @@
       <c r="BY7" s="15"/>
       <c r="BZ7" s="11"/>
       <c r="CA7" s="10"/>
-      <c r="CB7" s="42"/>
+      <c r="CB7" s="34"/>
       <c r="CC7" s="10"/>
       <c r="CD7" s="15"/>
       <c r="CE7" s="11"/>
       <c r="CF7" s="10"/>
-      <c r="CG7" s="42"/>
+      <c r="CG7" s="34"/>
       <c r="CH7" s="10"/>
       <c r="CI7" s="15"/>
       <c r="CJ7" s="11"/>
@@ -11633,12 +6139,12 @@
     </row>
     <row r="8" spans="1:142">
       <c r="A8" s="11"/>
-      <c r="B8" s="36"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="40"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="11"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -11777,16 +6283,16 @@
     </row>
     <row r="9" spans="1:142">
       <c r="A9" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="36">
+        <v>50</v>
+      </c>
+      <c r="B9" s="28">
         <v>1</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="40"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="11"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -11925,16 +6431,16 @@
     </row>
     <row r="10" spans="1:142">
       <c r="A10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="36">
+        <v>49</v>
+      </c>
+      <c r="B10" s="28">
         <v>1</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="40"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="11"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -12073,16 +6579,16 @@
     </row>
     <row r="11" spans="1:142">
       <c r="A11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="36">
+        <v>51</v>
+      </c>
+      <c r="B11" s="28">
         <v>2</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="40"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="11"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -12221,12 +6727,12 @@
     </row>
     <row r="12" spans="1:142">
       <c r="A12" s="11"/>
-      <c r="B12" s="36"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="11"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="40"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="11"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -12365,16 +6871,16 @@
     </row>
     <row r="13" spans="1:142">
       <c r="A13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="36">
+        <v>21</v>
+      </c>
+      <c r="B13" s="28">
         <v>1</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="40"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="11"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -12513,16 +7019,16 @@
     </row>
     <row r="14" spans="1:142">
       <c r="A14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="36">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28">
         <v>4</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="40"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="11"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -12660,16 +7166,16 @@
     </row>
     <row r="15" spans="1:142">
       <c r="A15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="36">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28">
         <v>4</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="40"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="11"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -12808,16 +7314,16 @@
     </row>
     <row r="16" spans="1:142">
       <c r="A16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="36">
+        <v>15</v>
+      </c>
+      <c r="B16" s="28">
         <v>4</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="40"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="11"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -12956,16 +7462,16 @@
     </row>
     <row r="17" spans="1:142">
       <c r="A17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="36">
+        <v>16</v>
+      </c>
+      <c r="B17" s="28">
         <v>4</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="40"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="11"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -13104,14 +7610,14 @@
     </row>
     <row r="18" spans="1:142">
       <c r="A18" s="11"/>
-      <c r="B18" s="36">
+      <c r="B18" s="28">
         <v>4</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="40"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="11"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -13250,16 +7756,16 @@
     </row>
     <row r="19" spans="1:142">
       <c r="A19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="36">
+        <v>17</v>
+      </c>
+      <c r="B19" s="28">
         <v>2</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="40"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="11"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -13397,17 +7903,17 @@
       <c r="EL19" s="15"/>
     </row>
     <row r="20" spans="1:142">
-      <c r="A20" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="36">
+      <c r="A20" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="28">
         <v>2</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="40"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="11"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -13545,17 +8051,17 @@
       <c r="EL20" s="15"/>
     </row>
     <row r="21" spans="1:142">
-      <c r="A21" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="36">
+      <c r="A21" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="28">
         <v>2</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="40"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="11"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
@@ -13693,17 +8199,17 @@
       <c r="EL21" s="15"/>
     </row>
     <row r="22" spans="1:142">
-      <c r="A22" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="36">
+      <c r="A22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="28">
         <v>4</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="40"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="11"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
@@ -13841,17 +8347,17 @@
       <c r="EL22" s="15"/>
     </row>
     <row r="23" spans="1:142">
-      <c r="A23" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="36">
+      <c r="A23" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="28">
         <v>8</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="40"/>
+      <c r="G23" s="32"/>
       <c r="H23" s="3"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
@@ -13989,17 +8495,17 @@
       <c r="EL23" s="15"/>
     </row>
     <row r="24" spans="1:142">
-      <c r="A24" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="36">
+      <c r="A24" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="28">
         <v>8</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="40"/>
+      <c r="G24" s="32"/>
       <c r="H24" s="11"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
@@ -14137,15 +8643,15 @@
       <c r="EL24" s="15"/>
     </row>
     <row r="25" spans="1:142">
-      <c r="A25" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="36"/>
+      <c r="A25" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="28"/>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="40"/>
+      <c r="G25" s="32"/>
       <c r="H25" s="11"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -14283,17 +8789,17 @@
       <c r="EL25" s="15"/>
     </row>
     <row r="26" spans="1:142">
-      <c r="A26" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="36">
+      <c r="A26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="28">
         <v>10</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="40"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="11"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -14431,17 +8937,17 @@
       <c r="EL26" s="15"/>
     </row>
     <row r="27" spans="1:142">
-      <c r="A27" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="36">
+      <c r="A27" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="28">
         <v>10</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="40"/>
+      <c r="G27" s="32"/>
       <c r="H27" s="11"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
@@ -14578,15 +9084,15 @@
       <c r="EL27" s="15"/>
     </row>
     <row r="28" spans="1:142">
-      <c r="A28" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="36"/>
+      <c r="A28" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="28"/>
       <c r="C28" s="11"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="40"/>
+      <c r="G28" s="32"/>
       <c r="H28" s="11"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -14723,15 +9229,15 @@
       <c r="EL28" s="15"/>
     </row>
     <row r="29" spans="1:142">
-      <c r="A29" s="28"/>
-      <c r="B29" s="36">
+      <c r="A29" s="26"/>
+      <c r="B29" s="28">
         <v>4</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="40"/>
+      <c r="G29" s="32"/>
       <c r="H29" s="11"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -14869,17 +9375,17 @@
       <c r="EL29" s="15"/>
     </row>
     <row r="30" spans="1:142">
-      <c r="A30" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="36">
+      <c r="A30" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="28">
         <v>2</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="40"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="11"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -15017,15 +9523,15 @@
       <c r="EL30" s="15"/>
     </row>
     <row r="31" spans="1:142">
-      <c r="A31" s="28"/>
-      <c r="B31" s="36">
+      <c r="A31" s="26"/>
+      <c r="B31" s="28">
         <v>2</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="40"/>
+      <c r="G31" s="32"/>
       <c r="H31" s="11"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
@@ -15164,16 +9670,16 @@
     </row>
     <row r="32" spans="1:142" ht="15.75" thickBot="1">
       <c r="A32" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="37">
+        <v>22</v>
+      </c>
+      <c r="B32" s="29">
         <v>2</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="40"/>
+      <c r="G32" s="32"/>
       <c r="H32" s="11"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -15312,16 +9818,16 @@
     </row>
     <row r="33" spans="1:142">
       <c r="A33" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="36">
+        <v>23</v>
+      </c>
+      <c r="B33" s="28">
         <v>2</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="40"/>
+      <c r="G33" s="32"/>
       <c r="H33" s="11"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -15460,16 +9966,16 @@
     </row>
     <row r="34" spans="1:142" ht="15.75" thickBot="1">
       <c r="A34" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="37">
+        <v>24</v>
+      </c>
+      <c r="B34" s="29">
         <v>2</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="40"/>
+      <c r="G34" s="32"/>
       <c r="H34" s="11"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -15608,16 +10114,16 @@
     </row>
     <row r="35" spans="1:142">
       <c r="A35" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="36">
+        <v>25</v>
+      </c>
+      <c r="B35" s="28">
         <v>2</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="40"/>
+      <c r="G35" s="32"/>
       <c r="H35" s="11"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
@@ -15756,16 +10262,16 @@
     </row>
     <row r="36" spans="1:142" ht="15.75" thickBot="1">
       <c r="A36" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="37">
+        <v>26</v>
+      </c>
+      <c r="B36" s="29">
         <v>2</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="40"/>
+      <c r="G36" s="32"/>
       <c r="H36" s="11"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
@@ -15904,16 +10410,16 @@
     </row>
     <row r="37" spans="1:142">
       <c r="A37" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="36">
+        <v>27</v>
+      </c>
+      <c r="B37" s="28">
         <v>2</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="40"/>
+      <c r="G37" s="32"/>
       <c r="H37" s="11"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
@@ -16052,16 +10558,16 @@
     </row>
     <row r="38" spans="1:142" ht="15.75" thickBot="1">
       <c r="A38" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="37">
+        <v>28</v>
+      </c>
+      <c r="B38" s="29">
         <v>2</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="40"/>
+      <c r="G38" s="32"/>
       <c r="H38" s="11"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -16200,16 +10706,16 @@
     </row>
     <row r="39" spans="1:142">
       <c r="A39" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="36">
+        <v>29</v>
+      </c>
+      <c r="B39" s="28">
         <v>2</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="40"/>
+      <c r="G39" s="32"/>
       <c r="H39" s="11"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
@@ -16348,16 +10854,16 @@
     </row>
     <row r="40" spans="1:142" ht="15.75" thickBot="1">
       <c r="A40" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="37">
+        <v>30</v>
+      </c>
+      <c r="B40" s="29">
         <v>2</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="40"/>
+      <c r="G40" s="32"/>
       <c r="H40" s="11"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
@@ -16496,16 +11002,16 @@
     </row>
     <row r="41" spans="1:142">
       <c r="A41" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="36">
+        <v>31</v>
+      </c>
+      <c r="B41" s="28">
         <v>2</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="40"/>
+      <c r="G41" s="32"/>
       <c r="H41" s="11"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
@@ -16644,16 +11150,16 @@
     </row>
     <row r="42" spans="1:142" ht="15.75" thickBot="1">
       <c r="A42" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="37">
+        <v>32</v>
+      </c>
+      <c r="B42" s="29">
         <v>2</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="40"/>
+      <c r="G42" s="32"/>
       <c r="H42" s="11"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
@@ -16792,16 +11298,16 @@
     </row>
     <row r="43" spans="1:142">
       <c r="A43" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="36">
+        <v>33</v>
+      </c>
+      <c r="B43" s="28">
         <v>2</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="40"/>
+      <c r="G43" s="32"/>
       <c r="H43" s="11"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
@@ -16940,16 +11446,16 @@
     </row>
     <row r="44" spans="1:142" ht="15.75" thickBot="1">
       <c r="A44" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="37">
+        <v>34</v>
+      </c>
+      <c r="B44" s="29">
         <v>2</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="40"/>
+      <c r="G44" s="32"/>
       <c r="H44" s="11"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -17088,16 +11594,16 @@
     </row>
     <row r="45" spans="1:142">
       <c r="A45" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="36">
+        <v>35</v>
+      </c>
+      <c r="B45" s="28">
         <v>2</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="40"/>
+      <c r="G45" s="32"/>
       <c r="H45" s="11"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -17236,16 +11742,16 @@
     </row>
     <row r="46" spans="1:142" ht="15.75" thickBot="1">
       <c r="A46" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="37">
+        <v>36</v>
+      </c>
+      <c r="B46" s="29">
         <v>2</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="40"/>
+      <c r="G46" s="32"/>
       <c r="H46" s="11"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -17384,16 +11890,16 @@
     </row>
     <row r="47" spans="1:142">
       <c r="A47" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="36">
+        <v>37</v>
+      </c>
+      <c r="B47" s="28">
         <v>2</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="40"/>
+      <c r="G47" s="32"/>
       <c r="H47" s="11"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -17532,14 +12038,14 @@
     </row>
     <row r="48" spans="1:142" ht="15.75" thickBot="1">
       <c r="A48" s="10"/>
-      <c r="B48" s="37">
+      <c r="B48" s="29">
         <v>2</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="40"/>
+      <c r="G48" s="32"/>
       <c r="H48" s="11"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
@@ -17678,14 +12184,14 @@
     </row>
     <row r="49" spans="1:142">
       <c r="A49" s="11"/>
-      <c r="B49" s="36">
+      <c r="B49" s="28">
         <v>2</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="40"/>
+      <c r="G49" s="32"/>
       <c r="H49" s="11"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -17824,16 +12330,16 @@
     </row>
     <row r="50" spans="1:142" ht="15.75" thickBot="1">
       <c r="A50" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="37">
+        <v>18</v>
+      </c>
+      <c r="B50" s="29">
         <v>2</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="40"/>
+      <c r="G50" s="32"/>
       <c r="H50" s="11"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -17972,16 +12478,16 @@
     </row>
     <row r="51" spans="1:142">
       <c r="A51" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="36">
+        <v>20</v>
+      </c>
+      <c r="B51" s="28">
         <v>2</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="40"/>
+      <c r="G51" s="32"/>
       <c r="H51" s="11"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -18120,16 +12626,16 @@
     </row>
     <row r="52" spans="1:142" ht="15.75" thickBot="1">
       <c r="A52" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="37">
+        <v>19</v>
+      </c>
+      <c r="B52" s="29">
         <v>2</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
-      <c r="G52" s="41"/>
+      <c r="G52" s="33"/>
       <c r="H52" s="16"/>
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
@@ -18298,13 +12804,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="DS1:DW1"/>
+    <mergeCell ref="DX1:EB1"/>
     <mergeCell ref="EC1:EG1"/>
     <mergeCell ref="EH1:EL1"/>
     <mergeCell ref="DN1:DR1"/>
@@ -18321,11 +12825,13 @@
     <mergeCell ref="BF1:BJ1"/>
     <mergeCell ref="BP1:BT1"/>
     <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="DS1:DW1"/>
-    <mergeCell ref="DX1:EB1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
